--- a/prompt_responses_rated.xlsx
+++ b/prompt_responses_rated.xlsx
@@ -864,7 +864,11 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[('## Quantum Computing', 'MONEY'), ('quantum', 'ORG'), ('2024', 'DATE'), ('1', 'CARDINAL'), ('Quantum', 'ORG'), ('quantum', 'ORG'), ('Rigetti', 'LOC'), ('IBM', 'ORG'), ('2', 'CARDINAL'), ('Quantum', 'ORG'), ('Shor', 'PERSON'), ('Grover', 'PERSON'), ('3', 'CARDINAL'), ('New Horizons', 'ORG'), ('Quantum', 'ORG'), ('Quantum', 'ORG'), ('4', 'CARDINAL'), ('quantum', 'ORG'), ('RSA &amp; ECC:*', 'ORG'), ('Quantum', 'ORG'), ('RSA &amp; ECC', 'ORG'), ('PQC', 'ORG'), ('quantum', 'ORG'), ('Quantum', 'ORG'), ('Key Takeaways', 'PERSON'), ('PQC', 'ORG'), ('quantum technologies', 'ORG'), ('PQC', 'ORG'), ('2024', 'DATE'), ('quantum', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE2" t="n">
         <v>100.1532454490662</v>
       </c>
@@ -913,12 +917,20 @@
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD2" t="n">
+        <v>4262</v>
+      </c>
       <c r="BE2" t="n">
         <v>31</v>
       </c>
-      <c r="BF2" t="inlineStr"/>
+      <c r="BF2" t="n">
+        <v>546</v>
+      </c>
       <c r="BG2" t="n">
         <v>831</v>
       </c>
@@ -1005,7 +1017,11 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>[('2021', 'DATE'), ('2024', 'DATE'), ('the IPCC AR6 Report', 'ORG'), ('2021', 'DATE'), ('1.5', 'CARDINAL'), ('1.5', 'CARDINAL'), ('Arctic', 'LOC'), ('1.5', 'CARDINAL'), ('IPCC', 'ORG'), ('IPCC', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE3" t="n">
         <v>42.30945801734924</v>
       </c>
@@ -1053,13 +1069,25 @@
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>['https://www.ipcc.ch/.']</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD3" t="n">
+        <v>1691</v>
+      </c>
       <c r="BE3" t="n">
         <v>12</v>
       </c>
-      <c r="BF3" t="inlineStr"/>
+      <c r="BF3" t="n">
+        <v>241</v>
+      </c>
       <c r="BG3" t="n">
         <v>370</v>
       </c>
@@ -1156,7 +1184,11 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>[('#', 'MONEY'), ('Artemis', 'ORG'), ('NASA', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('November 2022', 'DATE'), ('Moon', 'PERSON'), ('the Lunar Gateway', 'FAC'), ('first', 'ORDINAL'), ('Gateway', 'PERSON'), ('this year', 'DATE'), ('Starship', 'PERSON'), ('NASA', 'ORG'), ('Space Launch System', 'ORG'), ('Orion', 'ORG'), ('Lockheed Martin', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('first', 'ORDINAL'), ('NASA', 'ORG'), ('Lunar Reconnaissance Orbiter', 'ORG'), ('LRO', 'ORG'), ('Artemis II Mission:*', 'ORG'), ('2024', 'DATE'), ('Moon', 'PERSON'), ('Lunar Gateway Operations:*', 'ORG'), ('first', 'ORDINAL'), ('the Lunar Gateway', 'FAC'), ('the early 2030s', 'DATE'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Earth', 'LOC'), ('Moon', 'PERSON'), ('ISRU', 'ORG'), ('Mars', 'LOC'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON')]</t>
+        </is>
+      </c>
       <c r="AE4" t="n">
         <v>91.65349817276001</v>
       </c>
@@ -1205,12 +1237,20 @@
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD4" t="n">
+        <v>3896</v>
+      </c>
       <c r="BE4" t="n">
         <v>22</v>
       </c>
-      <c r="BF4" t="inlineStr"/>
+      <c r="BF4" t="n">
+        <v>552</v>
+      </c>
       <c r="BG4" t="n">
         <v>754</v>
       </c>
@@ -1312,7 +1352,11 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>[('CRISPR', 'PERSON'), ('1', 'CARDINAL'), ('CRISPR', 'PERSON'), ('2', 'CARDINAL'), ('Cancer Therapy:*', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('Gene Silencing', 'PERSON'), ('CRISPR', 'GPE'), ('CFTR', 'ORG'), ('CRISPR technology holds immense', 'ORG'), ('Antimicrobial Resistance:*', 'ORG'), ('Methicillin', 'PERSON'), ('Staphylococcus aureus', 'PERSON'), ('3', 'CARDINAL'), ('CRISPR', 'PERSON'), ('Gene Therapy:*', 'PERSON'), ('4', 'CARDINAL'), ('Challenges and Future Directions', 'ORG'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('PubMed', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE5" t="n">
         <v>102.7815997600555</v>
       </c>
@@ -1361,12 +1405,20 @@
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD5" t="n">
+        <v>4255</v>
+      </c>
       <c r="BE5" t="n">
         <v>31</v>
       </c>
-      <c r="BF5" t="inlineStr"/>
+      <c r="BF5" t="n">
+        <v>539</v>
+      </c>
       <c r="BG5" t="n">
         <v>834</v>
       </c>
@@ -1462,7 +1514,11 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>[('2024', 'DATE'), ('Nobel Prize in Physics', 'WORK_OF_ART'), ('Potential Candidates &amp; Research Areas:*', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Fundamental Physics Research:*', 'ORG'), ('the Higgs Boson', 'ORG'), ('Particle Physics:*', 'ORG'), ('Groundbreaking Research:*', 'ORG'), ('Award', 'PERSON'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('3', 'CARDINAL'), ('Neutrino Physics:*', 'ORG'), ('4', 'CARDINAL'), ('Dark Matter &amp; Dark Energy:*', 'ORG'), ('Nobel Prize', 'WORK_OF_ART'), ('The Nobel Prize in Physics', 'WORK_OF_ART'), ('the Swedish Royal Academy of Sciences', 'ORG'), ('Nobelprize.org', 'ORG'), ('the Nobel Prizes', 'WORK_OF_ART'), ('Physics News Outlets:*', 'ORG'), ('Physics', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE6" t="n">
         <v>77.72137665748596</v>
       </c>
@@ -1511,12 +1567,20 @@
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD6" t="n">
+        <v>3075</v>
+      </c>
       <c r="BE6" t="n">
         <v>23</v>
       </c>
-      <c r="BF6" t="inlineStr"/>
+      <c r="BF6" t="n">
+        <v>411</v>
+      </c>
       <c r="BG6" t="n">
         <v>598</v>
       </c>
@@ -1609,7 +1673,11 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>[('##', 'MONEY'), ('The year 2024', 'DATE'), ('one', 'CARDINAL'), ('International Relations:*', 'ORG'), ('AI', 'ORG'), ('2024', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE7" t="n">
         <v>76.08661985397339</v>
       </c>
@@ -1658,12 +1726,20 @@
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD7" t="n">
+        <v>3574</v>
+      </c>
       <c r="BE7" t="n">
         <v>21</v>
       </c>
-      <c r="BF7" t="inlineStr"/>
+      <c r="BF7" t="n">
+        <v>466</v>
+      </c>
       <c r="BG7" t="n">
         <v>629</v>
       </c>
@@ -1762,7 +1838,11 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>[('2024', 'CARDINAL'), ('The coming year', 'DATE'), ('Global Recovery &amp; Rebound', 'ORG'), ('2024', 'DATE'), ('COVID-19', 'ORG'), ('Structural Reforms &amp; Investment:*', 'ORG'), ('Demographic Shifts &amp; Emerging Consumer Markets:*', 'ORG'), ('Geopolitical Uncertainty &amp; Conflict:*', 'ORG'), ('Russia', 'GPE'), ('Fluctuations &amp; Exchange Rate Risks:*', 'ORG'), ('Sustainability &amp; Financial Fragility:*', 'ORG'), ('Asia', 'LOC'), ('Countries', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE'), ('India', 'GPE'), ('China', 'GPE'), ('Latin America:*', 'LOC'), ('Latin American', 'NORP'), ('recent years', 'DATE'), ('Africa', 'LOC'), ('Africa', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE8" t="n">
         <v>120.6711721420288</v>
       </c>
@@ -1811,12 +1891,20 @@
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD8" t="n">
+        <v>5304</v>
+      </c>
       <c r="BE8" t="n">
         <v>30</v>
       </c>
-      <c r="BF8" t="inlineStr"/>
+      <c r="BF8" t="n">
+        <v>686</v>
+      </c>
       <c r="BG8" t="n">
         <v>953</v>
       </c>
@@ -1917,7 +2005,11 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>[('## Fusion Energy', 'MONEY'), ('1.', 'CARDINAL'), ('National Ignition Facility', 'ORG'), ('NIF', 'ORG'), ('Livermore National Laboratory', 'ORG'), ('2023', 'DATE'), ('NIF', 'ORG'), ('Princeton Plasma Physics Laboratory', 'ORG'), ('2', 'CARDINAL'), ('Development of New Technologies:*', 'ORG'), ('Magnetic Confinement Fusion', 'ORG'), ('MCF', 'ORG'), ('Inertial Confinement Fusion', 'ORG'), ('3', 'CARDINAL'), ('Clean &amp; Sustainable:** Fusion', 'ORG'), ('Challenges &amp; Road Ahead:*', 'ORG'), ('Safety &amp; waste management:*', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE9" t="n">
         <v>83.15560221672058</v>
       </c>
@@ -1966,12 +2058,20 @@
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD9" t="n">
+        <v>3557</v>
+      </c>
       <c r="BE9" t="n">
         <v>23</v>
       </c>
-      <c r="BF9" t="inlineStr"/>
+      <c r="BF9" t="n">
+        <v>469</v>
+      </c>
       <c r="BG9" t="n">
         <v>693</v>
       </c>
@@ -2088,7 +2188,11 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>[('##', 'MONEY'), ('FeFETs', 'WORK_OF_ART'), ('A Deep Dive\n\nFerroelectric', 'WORK_OF_ART'), ('Key Features &amp; Advantages:*', 'ORG'), ('Feature', 'PRODUCT'), ('Traditional Transistors', 'ORG'), ('FeFETs', 'PERSON'), ('Slow', 'PERSON'), ('Fast', 'PERSON'), ('Power Consumption', 'PRODUCT'), ('Moderate', 'PERSON'), ('Memory', 'PRODUCT'), ('Limited', 'ORG'), ('Advanced Electronics:*', 'ORG'), ('Analog Circuits &amp; Signal Processing:*', 'ORG'), ('2D Materials', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('FeFET', 'NORP'), ('FeFET', 'GPE'), ('FeFETs', 'PERSON')]</t>
+        </is>
+      </c>
       <c r="AE10" t="n">
         <v>127.3822445869446</v>
       </c>
@@ -2137,12 +2241,20 @@
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD10" t="n">
+        <v>4692</v>
+      </c>
       <c r="BE10" t="n">
         <v>31</v>
       </c>
-      <c r="BF10" t="inlineStr"/>
+      <c r="BF10" t="n">
+        <v>561</v>
+      </c>
       <c r="BG10" t="n">
         <v>949</v>
       </c>
@@ -2236,7 +2348,11 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>[('##', 'MONEY'), ('Modern Warfare', 'ORG'), ('Moral Agency &amp; Responsibility:*', 'ORG'), ('AWS', 'ORG'), ('Taking a Human Life', 'WORK_OF_ART'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Potential Societal Impacts:*', 'ORG'), ('Military Doctrine &amp; Strategy:*', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Uneven Access &amp; Disproportionate Impact:*', 'ORG'), ('AWS', 'ORG'), ('International Treaties &amp; Regulations:*', 'ORG'), ('AWS', 'ORG'), ('The United Nations', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE11" t="n">
         <v>84.84045839309692</v>
       </c>
@@ -2285,12 +2401,20 @@
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD11" t="n">
+        <v>3529</v>
+      </c>
       <c r="BE11" t="n">
         <v>22</v>
       </c>
-      <c r="BF11" t="inlineStr"/>
+      <c r="BF11" t="n">
+        <v>467</v>
+      </c>
       <c r="BG11" t="n">
         <v>661</v>
       </c>
@@ -2390,7 +2514,11 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>[('#', 'MONEY'), ('Cons', 'PERSON'), ('the United States', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Hazard', 'PERSON'), ('UBI', 'ORG'), ('Stakeholders', 'NORP'), ('UBI', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Social Experimentation:*', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('US', 'GPE'), ('UBI', 'ORG'), ('US', 'GPE')]</t>
+        </is>
+      </c>
       <c r="AE12" t="n">
         <v>107.5992617607117</v>
       </c>
@@ -2439,12 +2567,20 @@
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD12" t="n">
+        <v>4735</v>
+      </c>
       <c r="BE12" t="n">
         <v>32</v>
       </c>
-      <c r="BF12" t="inlineStr"/>
+      <c r="BF12" t="n">
+        <v>629</v>
+      </c>
       <c r="BG12" t="n">
         <v>872</v>
       </c>
@@ -2554,7 +2690,11 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>[('US', 'GPE'), ('Massive Energy Demand Surge', 'ORG'), ('Overnight', 'WORK_OF_ART'), ('years', 'DATE'), ('decades', 'DATE'), ('overnight', 'TIME'), ('EV', 'ORG'), ('decade', 'DATE'), ('US', 'GPE'), ('Focus on Public Transportation', 'ORG'), ('metro', 'FAC'), ('overnight', 'TIME'), ('US', 'GPE')]</t>
+        </is>
+      </c>
       <c r="AE13" t="n">
         <v>50.86786246299744</v>
       </c>
@@ -2603,12 +2743,20 @@
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD13" t="n">
+        <v>3467</v>
+      </c>
       <c r="BE13" t="n">
         <v>24</v>
       </c>
-      <c r="BF13" t="inlineStr"/>
+      <c r="BF13" t="n">
+        <v>459</v>
+      </c>
       <c r="BG13" t="n">
         <v>668</v>
       </c>
@@ -2699,7 +2847,11 @@
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>[('## The River of Consciousness: Stream of', 'MONEY'), ("James Joyce's", 'PERSON'), ('Joyce', 'PERSON'), ('linear', 'ORG'), ('Leopold Bloom', 'PRODUCT'), ('Stephen Dedalus', 'PERSON'), ('Internal Monologues &amp; Dialogue:*', 'ORG'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('post-World War I Europe', 'EVENT'), ("James Joyce's", 'PERSON'), ('today', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE14" t="n">
         <v>60.74453854560852</v>
       </c>
@@ -2748,12 +2900,20 @@
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD14" t="n">
+        <v>3914</v>
+      </c>
       <c r="BE14" t="n">
         <v>24</v>
       </c>
-      <c r="BF14" t="inlineStr"/>
+      <c r="BF14" t="n">
+        <v>542</v>
+      </c>
       <c r="BG14" t="n">
         <v>764</v>
       </c>
@@ -2845,7 +3005,11 @@
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>[('## Absurdity', 'MONEY'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ('post-World War II', 'EVENT'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Reflection of Post-War Existentialism:*', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('World War II', 'EVENT'), ('Trauma', 'PERSON'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('one', 'CARDINAL'), ('Beckett', 'PERSON')]</t>
+        </is>
+      </c>
       <c r="AE15" t="n">
         <v>71.35194230079651</v>
       </c>
@@ -2894,12 +3058,20 @@
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD15" t="n">
+        <v>3789</v>
+      </c>
       <c r="BE15" t="n">
         <v>23</v>
       </c>
-      <c r="BF15" t="inlineStr"/>
+      <c r="BF15" t="n">
+        <v>553</v>
+      </c>
       <c r="BG15" t="n">
         <v>796</v>
       </c>
@@ -2996,7 +3168,11 @@
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>[('##  ', 'MONEY'), ('A Tale of Two Worlds', 'WORK_OF_ART'), ("Dante Alighieri's", 'PERSON'), ('Purgatorio', 'PERSON'), ('Paradiso', 'PERSON'), ('Divine Comedy', 'PERSON'), ("William Blake's", 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Blake', 'ORG'), ('Feature', 'PRODUCT'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Christianity', 'NORP'), ('Language', 'LOC'), ('Christian', 'NORP'), ('Utilizes', 'ORG'), ('Blake', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Virgil', 'PERSON'), ('the Garden of Eden', 'FAC'), ('Dante', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Lamb', 'PERSON'), ('Tiger', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART')]</t>
+        </is>
+      </c>
       <c r="AE16" t="n">
         <v>68.69725823402405</v>
       </c>
@@ -3045,12 +3221,20 @@
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD16" t="n">
+        <v>3626</v>
+      </c>
       <c r="BE16" t="n">
         <v>24</v>
       </c>
-      <c r="BF16" t="inlineStr"/>
+      <c r="BF16" t="n">
+        <v>500</v>
+      </c>
       <c r="BG16" t="n">
         <v>784</v>
       </c>
@@ -3140,7 +3324,11 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>[('Japanese', 'NORP'), ('Impressionism', 'ORG'), ('Western', 'NORP'), ('Katsushika Hokusai', 'PERSON'), ('Utagawa Hiroshige', 'PERSON'), ('Impressionist', 'NORP'), ('Monet', 'PERSON'), ('Renoir', 'WORK_OF_ART'), ('Impressionist', 'NORP'), ('Capturing Daily Life:*', 'ORG'), ('Impressionism', 'ORG'), ('Cross-Cultural Exchange:*', 'ORG'), ('French', 'NORP'), ('Japanese', 'NORP'), ('Monet', 'PERSON'), ('"Water Lilies" Series', 'WORK_OF_ART'), ('Monet', 'PERSON'), ("Le Déjeuner sur l'herbe", 'WORK_OF_ART'), ('Impressionism', 'ORG'), ('Japanese', 'NORP'), ('Degas', 'PERSON'), ('Impressionism', 'ORG'), ('Impressionist', 'NORP')]</t>
+        </is>
+      </c>
       <c r="AE17" t="n">
         <v>57.68428087234497</v>
       </c>
@@ -3189,12 +3377,20 @@
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD17" t="n">
+        <v>3191</v>
+      </c>
       <c r="BE17" t="n">
         <v>19</v>
       </c>
-      <c r="BF17" t="inlineStr"/>
+      <c r="BF17" t="n">
+        <v>438</v>
+      </c>
       <c r="BG17" t="n">
         <v>653</v>
       </c>
@@ -3292,7 +3488,11 @@
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>[('## Atonality', 'MONEY'), ('Arnold Schoenberg', 'PERSON'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Anton Webern', 'PERSON'), ('Alban Berg', 'PERSON'), ('the Intonation of the Sounds:*', 'ORG'), ('Complexity:*', 'ORG'), ('Ordering" Sounds:**', 'WORK_OF_ART'), ('20th-Century', 'DATE'), ('the Musical World:*', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Debussy &amp; Modernist Expression:*', 'ORG'), ('Schoenberg', 'ORG'), ('Debussy', 'PERSON'), ('Avant-Garde Compositions:*', 'ORG'), ('Dmitri Shostakovich', 'PERSON'), ('Pierre Boulez', 'PERSON'), ('Karlheinz Stockhausen', 'PERSON'), ('Schoenberg', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('today', 'DATE'), ('serialist', 'NORP'), ('Schoenberg', 'ORG'), ('Arnold Schoenberg', 'PERSON')]</t>
+        </is>
+      </c>
       <c r="AE18" t="n">
         <v>86.64069390296936</v>
       </c>
@@ -3341,12 +3541,20 @@
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD18" t="n">
+        <v>4486</v>
+      </c>
       <c r="BE18" t="n">
         <v>28</v>
       </c>
-      <c r="BF18" t="inlineStr"/>
+      <c r="BF18" t="n">
+        <v>626</v>
+      </c>
       <c r="BG18" t="n">
         <v>902</v>
       </c>
@@ -3444,7 +3652,11 @@
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>[('NLP', 'ORG'), ('1', 'CARDINAL'), ('RNN', 'ORG'), ('one', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('GPT', 'ORG'), ('Generative Pre-trained', 'PERSON'), ('Transformer', 'ORG'), ('BERT', 'ORG'), ('4', 'CARDINAL'), ('NLP Beyond Translation:*', 'ORG'), ('Question Answering:*', 'ORG'), ('NLP', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE19" t="n">
         <v>45.96540498733521</v>
       </c>
@@ -3493,12 +3705,20 @@
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD19" t="n">
+        <v>3340</v>
+      </c>
       <c r="BE19" t="n">
         <v>26</v>
       </c>
-      <c r="BF19" t="inlineStr"/>
+      <c r="BF19" t="n">
+        <v>418</v>
+      </c>
       <c r="BG19" t="n">
         <v>633</v>
       </c>
@@ -3594,7 +3814,11 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>[('## Fine', 'MONEY'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Pre-Trained Model:*', 'PERSON'), ('GPT-3', 'ORG'), ('BERT', 'ORG'), ('2', 'CARDINAL'), ('Adapt', 'FAC'), ('3', 'CARDINAL'), ('Transfer Learning:*', 'FAC'), ('Faster Training Time:*', 'PERSON'), ('BERT', 'ORG'), ('Question Answering:*', 'ORG'), ('GPT-3', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE20" t="n">
         <v>55.45954608917236</v>
       </c>
@@ -3643,12 +3867,20 @@
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD20" t="n">
+        <v>3528</v>
+      </c>
       <c r="BE20" t="n">
         <v>28</v>
       </c>
-      <c r="BF20" t="inlineStr"/>
+      <c r="BF20" t="n">
+        <v>484</v>
+      </c>
       <c r="BG20" t="n">
         <v>750</v>
       </c>
@@ -3750,7 +3982,11 @@
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>[('##  Challenges', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('Linguistic Nuances:*', 'ORG'), ('Sarcasm', 'ORG'), ('one', 'CARDINAL'), ('today', 'DATE'), ('summer day', 'DATE'), ('Irony', 'ORG'), ('Sarcasm', 'ORG'), ('2', 'CARDINAL'), ('Complexity of Emotional Expressions:*', 'ORG'), ('Sarcasm', 'ORG'), ('3', 'CARDINAL'), ('Data Limitations &amp; Model Bias:*', 'ORG'), ('Limited Training', 'ORG'), ('Sarcasm', 'ORG'), ('4.', 'CARDINAL'), ('Evolving Communication Styles:*', 'ORG'), ('BERT', 'ORG'), ('XLNet', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE21" t="n">
         <v>69.66839718818665</v>
       </c>
@@ -3799,12 +4035,20 @@
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD21" t="n">
+        <v>4547</v>
+      </c>
       <c r="BE21" t="n">
         <v>35</v>
       </c>
-      <c r="BF21" t="inlineStr"/>
+      <c r="BF21" t="n">
+        <v>633</v>
+      </c>
       <c r="BG21" t="n">
         <v>912</v>
       </c>
@@ -3910,7 +4154,11 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>[('## Advancements', 'MONEY'), ('1', 'CARDINAL'), ('NLU', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Dialogue Management &amp; Contextualization:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Future of Human-AI Interaction:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('1', 'CARDINAL'), ('Personalization &amp; Empathy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Augmentation &amp; Productivity:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Human-Machine Gap:*', 'ORG'), ('Challenges &amp; Ethical Considerations:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE22" t="n">
         <v>57.94323682785034</v>
       </c>
@@ -3959,12 +4207,20 @@
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD22" t="n">
+        <v>3978</v>
+      </c>
       <c r="BE22" t="n">
         <v>26</v>
       </c>
-      <c r="BF22" t="inlineStr"/>
+      <c r="BF22" t="n">
+        <v>494</v>
+      </c>
       <c r="BG22" t="n">
         <v>771</v>
       </c>
@@ -4066,7 +4322,11 @@
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>[('AI Systems', 'ORG'), ('1', 'CARDINAL'), ('Data Representation &amp; Bias Mitigation:*', 'ORG'), ('Bias Detection &amp; Correction:*', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Content &amp; Language Understanding:*', 'ORG'), ('Cultural Sensitivity Training:*', 'ORG'), ('3', 'CARDINAL'), ('Ethical Considerations &amp; User Transparency:*', 'ORG'), ('User Consent &amp; Privacy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Continuous Learning &amp; Improvement:*', 'ORG'), ('Feedback Mechanisms:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('5', 'CARDINAL'), ('Responsible Deployment &amp; Community Engagement:*', 'ORG'), ('Cultural Sensitivity Guidelines:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Challenges &amp; Limitations:*', 'ORG'), ('AI', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE23" t="n">
         <v>57.00896525382996</v>
       </c>
@@ -4115,12 +4375,20 @@
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD23" t="n">
+        <v>4065</v>
+      </c>
       <c r="BE23" t="n">
         <v>31</v>
       </c>
-      <c r="BF23" t="inlineStr"/>
+      <c r="BF23" t="n">
+        <v>513</v>
+      </c>
       <c r="BG23" t="n">
         <v>768</v>
       </c>
@@ -4217,7 +4485,11 @@
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>[('##', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('English', 'LANGUAGE'), ('2', 'CARDINAL'), ('Limited Linguistic Resources:*', 'ORG'), ('NLP', 'ORG'), ('Idiom Variations', 'ORG'), ('Idioms', 'ORG'), ('3', 'CARDINAL'), ('Ambiguous Interpretations &amp; Potential for Miscommunication:*', 'ORG'), ('Humor &amp; Irony:*', 'ORG'), ('4', 'CARDINAL'), ('Bridging Linguistic &amp; Cultural Gaps:*', 'ORG'), ('5', 'CARDINAL'), ('Overcoming Challenges', 'ORG'), ('NLP', 'ORG'), ('Deep Learning &amp; Neural Networks:*', 'ORG'), ('Context-Aware Embeddings:*', 'ORG'), ('NLP', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE24" t="n">
         <v>53.43923115730286</v>
       </c>
@@ -4266,12 +4538,20 @@
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD24" t="n">
+        <v>3601</v>
+      </c>
       <c r="BE24" t="n">
         <v>29</v>
       </c>
-      <c r="BF24" t="inlineStr"/>
+      <c r="BF24" t="n">
+        <v>469</v>
+      </c>
       <c r="BG24" t="n">
         <v>732</v>
       </c>
@@ -4372,7 +4652,11 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>[('## The Importance of Cultural Competence', 'MONEY'), ('AI Language Models', 'WORK_OF_ART'), ('AI language', 'FAC'), ('1', 'CARDINAL'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Promoting Accurate', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Fostering Ethical AI Development:*', 'ORG'), ('AI', 'ORG'), ('AI language', 'FAC'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE25" t="n">
         <v>55.86469006538391</v>
       </c>
@@ -4421,12 +4705,20 @@
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD25" t="n">
+        <v>3878</v>
+      </c>
       <c r="BE25" t="n">
         <v>24</v>
       </c>
-      <c r="BF25" t="inlineStr"/>
+      <c r="BF25" t="n">
+        <v>491</v>
+      </c>
       <c r="BG25" t="n">
         <v>742</v>
       </c>
@@ -4538,7 +4830,11 @@
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>[('##  Algorithm', 'MONEY'), ('1', 'CARDINAL'), ('CPU', 'ORG'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('3', 'CARDINAL'), ('CPU', 'ORG'), ('two', 'CARDINAL'), ('1.5', 'CARDINAL'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('first', 'ORDINAL'), ('1', 'CARDINAL'), ('First', 'ORDINAL'), ('FCFS', 'ORG'), ('SJF', 'ORG'), ('2', 'CARDINAL'), ('Monitoring &amp; Adjustment:*', 'ORG'), ('1', 'CARDINAL'), ('Monitoring Execution Times', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Eigen', 'ORG'), ('4', 'CARDINAL'), ('Parallelism &amp; Multithreading:*', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE26" t="n">
         <v>76.56311798095703</v>
       </c>
@@ -4587,12 +4883,20 @@
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD26" t="n">
+        <v>4264</v>
+      </c>
       <c r="BE26" t="n">
         <v>38</v>
       </c>
-      <c r="BF26" t="inlineStr"/>
+      <c r="BF26" t="n">
+        <v>526</v>
+      </c>
       <c r="BG26" t="n">
         <v>896</v>
       </c>
@@ -4701,7 +5005,11 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>[('## Trade', 'MONEY'), ('Privacy &amp; Security', 'ORG'), ('Digital Contact Tracing Systems', 'ORG'), ('Digital', 'ORG'), ('third', 'ORDINAL'), ('Data Minimization:*', 'ORG'), ('Access &amp; Correction:*', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE27" t="n">
         <v>64.36975145339966</v>
       </c>
@@ -4750,12 +5058,20 @@
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD27" t="n">
+        <v>4170</v>
+      </c>
       <c r="BE27" t="n">
         <v>26</v>
       </c>
-      <c r="BF27" t="inlineStr"/>
+      <c r="BF27" t="n">
+        <v>516</v>
+      </c>
       <c r="BG27" t="n">
         <v>773</v>
       </c>
@@ -4859,7 +5175,11 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>[('## Mitigating', 'MONEY'), ('I. Prevention &amp; Detection:*', 'ORG'), ('AI', 'ORG'), ('Response &amp; Accountability:*', 'ORG'), ('Collaboration &amp; Trust:*', 'ORG'), ('Ethical Considerations:*', 'ORG'), ('AI:*', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE28" t="n">
         <v>72.80426716804504</v>
       </c>
@@ -4908,12 +5228,20 @@
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD28" t="n">
+        <v>4163</v>
+      </c>
       <c r="BE28" t="n">
         <v>24</v>
       </c>
-      <c r="BF28" t="inlineStr"/>
+      <c r="BF28" t="n">
+        <v>506</v>
+      </c>
       <c r="BG28" t="n">
         <v>837</v>
       </c>
@@ -5024,7 +5352,11 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>[('## A Sustainable Urban Transportation System', 'MONEY'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Key Components:*', 'ORG'), ('Subway Network:*', 'ORG'), ('metro', 'ORG'), ('BRT', 'ORG'), ('Protected Bike Lanes &amp; Shared Paths:** Extensive', 'ORG'), ('Micro-Transit Service Network:*', 'ORG'), ('last-mile', 'QUANTITY'), ('Smart Technology Integration', 'ORG'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('Universal Access Design:*', 'ORG'), ('5', 'CARDINAL'), ('Continuous Improvement &amp; Evaluation:*', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE29" t="n">
         <v>80.75700879096985</v>
       </c>
@@ -5073,12 +5405,20 @@
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD29" t="n">
+        <v>4850</v>
+      </c>
       <c r="BE29" t="n">
         <v>30</v>
       </c>
-      <c r="BF29" t="inlineStr"/>
+      <c r="BF29" t="n">
+        <v>582</v>
+      </c>
       <c r="BG29" t="n">
         <v>915</v>
       </c>
@@ -5203,7 +5543,11 @@
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>[('1', 'CARDINAL'), ('Data Collection &amp; Preparation:*', 'ORG'), ('Genomics Companies:*', 'ORG'), ('Data Cleaning &amp; Preprocessing:*', 'ORG'), ('-1', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('SMOTE', 'PERSON'), ('2', 'CARDINAL'), ('Feature Engineering &amp; Selection:*', 'ORG'), ('Nucleotide Polymorphisms', 'PERSON'), ('Polygenic Risk Score', 'ORG'), ('Lifestyle Data:*', 'ORG'), ('Stress Levels:*', 'ORG'), ('PCA', 'ORG'), ('linear', 'ORG'), ('3', 'CARDINAL'), ('Model Selection &amp; Training:*', 'ORG'), ('Linear Regression', 'ORG'), ('Vector Machines', 'PERSON'), ('Decision Trees', 'PERSON'), ('Random Forests', 'PERSON'), ('Support Vector Classification', 'ORG'), ('Naive Bayes', 'PERSON'), ('K-Nearest Neighbors', 'ORG'), ('XGBoost', 'ORG'), ('LightGBM', 'ORG'), ('4', 'CARDINAL'), ('Model Evaluation &amp; Analysis:*', 'ORG'), ('F1', 'CARDINAL'), ('AUC', 'ORG'), ('5', 'CARDINAL'), ('6', 'CARDINAL'), ('Implementation &amp; Deployment:*', 'ORG'), ('Data Quality is Critical:*', 'ORG'), ('Collaboration &amp; Expertise:*', 'ORG'), ('clinicians', 'NORP'), ('Continuous Improvement:*', 'PERSON')]</t>
+        </is>
+      </c>
       <c r="AE30" t="n">
         <v>92.6415958404541</v>
       </c>
@@ -5252,12 +5596,20 @@
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD30" t="n">
+        <v>5093</v>
+      </c>
       <c r="BE30" t="n">
         <v>42</v>
       </c>
-      <c r="BF30" t="inlineStr"/>
+      <c r="BF30" t="n">
+        <v>605</v>
+      </c>
       <c r="BG30" t="n">
         <v>1147</v>
       </c>
@@ -5357,7 +5709,11 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>[('quantum entanglement', 'ORG'), ('Quantum Entanglement', 'ORG'), ('two', 'CARDINAL'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('first', 'ORDINAL'), ('Shared State:*', 'ORG'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Quantum Cryptography:*', 'ORG'), ('two', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Quantum Computing:*', 'ORG'), ('Quantum Algorithms:*', 'PERSON'), ('quantum entanglement', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Applications Beyond Cryptography:*', 'PERSON'), ('GPS systems', 'ORG'), ('Nutshell', 'PERSON'), ('Quantum', 'ORG'), ('quantum', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE31" t="n">
         <v>52.81560754776001</v>
       </c>
@@ -5406,12 +5762,20 @@
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD31" t="n">
+        <v>3167</v>
+      </c>
       <c r="BE31" t="n">
         <v>24</v>
       </c>
-      <c r="BF31" t="inlineStr"/>
+      <c r="BF31" t="n">
+        <v>418</v>
+      </c>
       <c r="BG31" t="n">
         <v>664</v>
       </c>
@@ -5512,7 +5876,11 @@
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>[('CRISPR-Cas9 Gene Editing', 'PERSON'), ('two', 'CARDINAL'), ('1', 'CARDINAL'), ('The Cas9 Enzyme:*', 'ORG'), ('2', 'CARDINAL'), ('Guide RNA', 'ORG'), ('RNA', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Cas9', 'NORP'), ('3', 'CARDINAL'), ('Target Recognition &amp; Cut:*', 'ORG'), ('Cas9', 'NORP'), ('4', 'CARDINAL'), ('Two', 'CARDINAL'), ('HDR', 'ORG'), ('Cas9', 'NORP'), ('5', 'CARDINAL'), ('## Ethical Implications', 'MONEY'), ('CRISPR-Cas9', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Social Inequality:*', 'ORG'), ('4.', 'CARDINAL'), ('CRISPR-Cas9', 'ORG'), ('5', 'CARDINAL'), ('Societal Acceptance:*', 'ORG'), ("CRISPR-Cas9's", 'ORG'), ('CRISPR-Cas9', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE32" t="n">
         <v>69.87185478210449</v>
       </c>
@@ -5561,12 +5929,20 @@
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD32" t="n">
+        <v>3971</v>
+      </c>
       <c r="BE32" t="n">
         <v>36</v>
       </c>
-      <c r="BF32" t="inlineStr"/>
+      <c r="BF32" t="n">
+        <v>550</v>
+      </c>
       <c r="BG32" t="n">
         <v>830</v>
       </c>
@@ -5658,7 +6034,11 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>[('two', 'CARDINAL'), ('about 95%', 'PERCENT'), ('Dark Matter:*', 'PERSON'), ('Microwave Background', 'PERSON'), ('CMB', 'ORG'), ('CMB', 'ORG'), ('the Big Bang', 'GPE'), ('Dark Energy:*', 'ORG'), ('about 68%', 'PERCENT'), ('Challenges and Ongoing Research:*', 'ORG'), ('Developing Models:**  Developing', 'WORK_OF_ART'), ('years', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE33" t="n">
         <v>55.60174441337585</v>
       </c>
@@ -5707,12 +6087,20 @@
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD33" t="n">
+        <v>3399</v>
+      </c>
       <c r="BE33" t="n">
         <v>27</v>
       </c>
-      <c r="BF33" t="inlineStr"/>
+      <c r="BF33" t="n">
+        <v>494</v>
+      </c>
       <c r="BG33" t="n">
         <v>663</v>
       </c>
@@ -5807,7 +6195,11 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>[('## Challenges and', 'MONEY'), ('Developing Artificial General Intelligence', 'ORG'), ('Artificial General Intelligence', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('Data Requirements:*', 'ORG'), ('AGI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Personalized Learning &amp; Healthcare', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Focus on Ethical Development:*', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE34" t="n">
         <v>62.8207323551178</v>
       </c>
@@ -5856,12 +6248,20 @@
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD34" t="n">
+        <v>4243</v>
+      </c>
       <c r="BE34" t="n">
         <v>25</v>
       </c>
-      <c r="BF34" t="inlineStr"/>
+      <c r="BF34" t="n">
+        <v>543</v>
+      </c>
       <c r="BG34" t="n">
         <v>805</v>
       </c>
@@ -5958,7 +6358,11 @@
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>[('## Neuroplasticity', 'MONEY'), ('decades', 'DATE'), ('1', 'CARDINAL'), ('Learning &amp; Memory:*', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Brain Injury Recovery:*', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE35" t="n">
         <v>57.48736119270325</v>
       </c>
@@ -6007,12 +6411,20 @@
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD35" t="n">
+        <v>3382</v>
+      </c>
       <c r="BE35" t="n">
         <v>28</v>
       </c>
-      <c r="BF35" t="inlineStr"/>
+      <c r="BF35" t="n">
+        <v>472</v>
+      </c>
       <c r="BG35" t="n">
         <v>698</v>
       </c>
@@ -6109,7 +6521,11 @@
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>[('7000', 'DATE'), ('64', 'CARDINAL'), ('128', 'CARDINAL'), ('192', 'CARDINAL'), ('GB', 'GPE'), ('3200', 'CARDINAL'), ('8', 'CARDINAL'), ('Redundant Power Supply and Fan Modules', 'WORK_OF_ART'), ('2x 10GbE', 'MONEY'), ('4x 2.5GbE Network Interfaces', 'QUANTITY'), ('5.0', 'CARDINAL'), ('Ethernet', 'PERSON'), ('Optional 10GbE Optical', 'ORG'), ('AI', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE36" t="n">
         <v>156.4974000453949</v>
       </c>
@@ -6158,12 +6574,20 @@
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD36" t="n">
+        <v>1272</v>
+      </c>
       <c r="BE36" t="n">
         <v>8</v>
       </c>
-      <c r="BF36" t="inlineStr"/>
+      <c r="BF36" t="n">
+        <v>162</v>
+      </c>
       <c r="BG36" t="n">
         <v>292</v>
       </c>
@@ -6251,7 +6675,11 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>[('Indian-American', 'NORP'), ('AngelList', 'ORG'), ('Investor &amp; Founder:*', 'ORG'), ('Uber, Airbnb', 'ORG'), ('Stripe', 'PRODUCT'), ('Reddit', 'NORP'), ('Author &amp; Speaker:**', 'ORG'), ('Mastering Bitcoin', 'WORK_OF_ART'), ('Reply All', 'WORK_OF_ART'), ('Key Aspects', 'ORG'), ('The Importance of Bitcoin:**', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE37" t="n">
         <v>43.1514458656311</v>
       </c>
@@ -6300,12 +6728,20 @@
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr"/>
-      <c r="BD37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD37" t="n">
+        <v>1791</v>
+      </c>
       <c r="BE37" t="n">
         <v>12</v>
       </c>
-      <c r="BF37" t="inlineStr"/>
+      <c r="BF37" t="n">
+        <v>249</v>
+      </c>
       <c r="BG37" t="n">
         <v>389</v>
       </c>
@@ -6409,7 +6845,11 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>[('## Chapter 1', 'MONEY'), ('The Echo Chamber', 'ORG'), ('Elena', 'ORG'), ('Earth', 'LOC'), ('Collective', 'PERSON'), ('Elena', 'ORG'), ('one', 'CARDINAL'), ('Exodus', 'PRODUCT'), ('Earth', 'LOC'), ('Earth', 'LOC'), ('Three', 'CARDINAL'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('years', 'DATE'), ('one', 'CARDINAL'), ('The Pioneers', 'WORK_OF_ART'), ('Earth', 'LOC'), ('Guardians', 'NORP'), ('two feet', 'QUANTITY'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('Elena', 'ORG'), ('first', 'ORDINAL'), ('Elena', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE38" t="n">
         <v>78.35348081588745</v>
       </c>
@@ -6458,12 +6898,20 @@
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
-      <c r="BD38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD38" t="n">
+        <v>4050</v>
+      </c>
       <c r="BE38" t="n">
         <v>27</v>
       </c>
-      <c r="BF38" t="inlineStr"/>
+      <c r="BF38" t="n">
+        <v>659</v>
+      </c>
       <c r="BG38" t="n">
         <v>793</v>
       </c>
@@ -6559,7 +7007,11 @@
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>[('##', 'MONEY'), ('P - Positive Changes:*', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('SPIRE', 'ORG'), ('today', 'DATE'), ('daily', 'DATE'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('SPIRE', 'ORG'), ('SPIRE', 'ORG'), ('daily', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE39" t="n">
         <v>51.07530093193054</v>
       </c>
@@ -6608,12 +7060,20 @@
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr"/>
-      <c r="BD39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD39" t="n">
+        <v>3121</v>
+      </c>
       <c r="BE39" t="n">
         <v>35</v>
       </c>
-      <c r="BF39" t="inlineStr"/>
+      <c r="BF39" t="n">
+        <v>464</v>
+      </c>
       <c r="BG39" t="n">
         <v>702</v>
       </c>
@@ -6709,7 +7169,11 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>[('Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Foshan', 'GPE'), ('Guangdong province', 'GPE'), ('China', 'GPE'), ('the 18th century', 'DATE'), ('Yim Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Internal Energy Cultivation', 'ORG'), ('Chinese', 'NORP'), ('Hollywood', 'GPE'), ('Popularized Wing Chun', 'PERSON'), ('West', 'LOC'), ("Bruce Lee's", 'PERSON'), ('Jeet Kune', 'EVENT'), ('The Grandmaster', 'WORK_OF_ART'), ('millions', 'CARDINAL'), ('Wing Chun', 'PERSON')]</t>
+        </is>
+      </c>
       <c r="AE40" t="n">
         <v>35.12794494628906</v>
       </c>
@@ -6758,12 +7222,20 @@
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr"/>
-      <c r="BD40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD40" t="n">
+        <v>2244</v>
+      </c>
       <c r="BE40" t="n">
         <v>15</v>
       </c>
-      <c r="BF40" t="inlineStr"/>
+      <c r="BF40" t="n">
+        <v>296</v>
+      </c>
       <c r="BG40" t="n">
         <v>481</v>
       </c>
@@ -6858,7 +7330,11 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>[('Morihei Ueshiba', 'PERSON'), ('1904-1969', 'DATE'), ('Japanese', 'NORP'), ('Aikido', 'GPE'), ('Aikido', 'PERSON'), ('today', 'DATE'), ('Aikido', 'PERSON'), ('the early 20th century', 'DATE'), ('Japanese', 'NORP'), ('Ueshiba', 'ORG'), ('Aikido', 'NORP'), ('Aikido', 'PERSON'), ('Ueshiba', 'ORG'), ('Oshogaki', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido', 'GPE'), ('Ueshiba', 'ORG'), ('Martial Arts:*', 'ORG'), ('Aikido', 'PERSON'), ('Health &amp; Self-Improvement:*', 'ORG'), ('Ueshiba', 'ORG'), ('Morihei Ueshiba', 'PERSON'), ('Aikido', 'PERSON'), ('the Aikikai Hombu Dojo', 'ORG'), ('Tokyo', 'GPE'), ('Articles', 'PERSON'), ('Ueshiba', 'ORG'), ('The Art of Aikido', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido: The Way of Peace', 'WORK_OF_ART'), ("Morihei Ueshiba's", 'PERSON'), ('Aikido', 'GPE')]</t>
+        </is>
+      </c>
       <c r="AE41" t="n">
         <v>41.54534721374512</v>
       </c>
@@ -6907,12 +7383,20 @@
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="inlineStr"/>
-      <c r="BD41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD41" t="n">
+        <v>2554</v>
+      </c>
       <c r="BE41" t="n">
         <v>17</v>
       </c>
-      <c r="BF41" t="inlineStr"/>
+      <c r="BF41" t="n">
+        <v>346</v>
+      </c>
       <c r="BG41" t="n">
         <v>585</v>
       </c>
@@ -7001,7 +7485,11 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>[('Miyamoto Musashi', 'PERSON'), ('1584-1645', 'DATE'), ('Japanese', 'NORP'), ('one', 'CARDINAL'), ('Musashi', 'PERSON'), ('Two', 'CARDINAL'), ('two', 'CARDINAL'), ('The Way of the Sword', 'WORK_OF_ART'), ('The Art of Disappearances', 'WORK_OF_ART'), ('Legendary Battles:*', 'PERSON'), ('Musashi', 'PERSON'), ('Sasaki Kojiro', 'GPE'), ('Musashi', 'PERSON'), ('Literary Legacy', 'PERSON'), ('The Book of Five Rings:*', 'WORK_OF_ART'), ('Musashi', 'PERSON'), ('the centuries', 'DATE'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('today', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE42" t="n">
         <v>30.71544909477234</v>
       </c>
@@ -7050,12 +7538,20 @@
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="inlineStr"/>
-      <c r="BD42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD42" t="n">
+        <v>1773</v>
+      </c>
       <c r="BE42" t="n">
         <v>13</v>
       </c>
-      <c r="BF42" t="inlineStr"/>
+      <c r="BF42" t="n">
+        <v>264</v>
+      </c>
       <c r="BG42" t="n">
         <v>409</v>
       </c>
@@ -7148,7 +7644,11 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>[('The Book of Five Rings', 'WORK_OF_ART'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('the 17th century', 'DATE'), ('five', 'CARDINAL'), ('Samurai', 'PERSON'), ('Musashi', 'PERSON'), ('first', 'ORDINAL'), ('The Book of Five Rings', 'WORK_OF_ART'), ('between 1645-1649', 'DATE'), ('Musashi', 'PERSON'), ('Edo', 'ORG'), ('The "Book of Five Rings', 'WORK_OF_ART'), ('The Book of Five Rings', 'WORK_OF_ART')]</t>
+        </is>
+      </c>
       <c r="AE43" t="n">
         <v>43.87992238998413</v>
       </c>
@@ -7197,12 +7697,20 @@
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr"/>
-      <c r="BD43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD43" t="n">
+        <v>2619</v>
+      </c>
       <c r="BE43" t="n">
         <v>21</v>
       </c>
-      <c r="BF43" t="inlineStr"/>
+      <c r="BF43" t="n">
+        <v>386</v>
+      </c>
       <c r="BG43" t="n">
         <v>536</v>
       </c>
@@ -7300,7 +7808,11 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>[('Society &amp; Culture:*', 'ORG'), ('Redefined Art &amp; Creativity:*', 'ORG'), ('New Social Structures:*', 'ORG'), ('Challenges &amp; Potential Solutions:*', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE44" t="n">
         <v>44.28774833679199</v>
       </c>
@@ -7349,12 +7861,20 @@
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="inlineStr"/>
-      <c r="BD44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD44" t="n">
+        <v>2666</v>
+      </c>
       <c r="BE44" t="n">
         <v>20</v>
       </c>
-      <c r="BF44" t="inlineStr"/>
+      <c r="BF44" t="n">
+        <v>365</v>
+      </c>
       <c r="BG44" t="n">
         <v>529</v>
       </c>
@@ -7450,7 +7970,11 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>[('ActivityPub', 'ORG'), ('Twitter', 'PERSON'), ('Fediverse', 'PERSON'), ('Fediverse', 'PERSON'), ('Reddit', 'NORP'), ('Discord', 'GPE'), ('Mastodon', 'GPE'), ('Mastodon', 'PERSON'), ('Twitter', 'PERSON'), ('YouTube', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE45" t="n">
         <v>41.97327995300293</v>
       </c>
@@ -7499,12 +8023,20 @@
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
       <c r="BB45" t="inlineStr"/>
-      <c r="BC45" t="inlineStr"/>
-      <c r="BD45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD45" t="n">
+        <v>2424</v>
+      </c>
       <c r="BE45" t="n">
         <v>19</v>
       </c>
-      <c r="BF45" t="inlineStr"/>
+      <c r="BF45" t="n">
+        <v>330</v>
+      </c>
       <c r="BG45" t="n">
         <v>524</v>
       </c>
@@ -7597,7 +8129,11 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>[('Walden', 'WORK_OF_ART'), ('Henry David Thoreau', 'PERSON'), ('1', 'CARDINAL'), ('Simplicity &amp; Self-Reliance:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden Pond', 'FAC'), ('two years', 'DATE'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Walden', 'WORK_OF_ART'), ('Freedom &amp; Conformity:*', 'ORG'), ('4', 'CARDINAL'), ('Reflection on Society &amp; Technology:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden', 'GPE'), ('today', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE46" t="n">
         <v>47.14622807502747</v>
       </c>
@@ -7646,12 +8182,20 @@
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="inlineStr"/>
-      <c r="BD46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD46" t="n">
+        <v>2687</v>
+      </c>
       <c r="BE46" t="n">
         <v>23</v>
       </c>
-      <c r="BF46" t="inlineStr"/>
+      <c r="BF46" t="n">
+        <v>396</v>
+      </c>
       <c r="BG46" t="n">
         <v>556</v>
       </c>
@@ -7767,7 +8311,11 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>[('weekly', 'DATE'), ('Week 1 - Focus', 'DATE'), ('Legs &amp; Core', 'ORG'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('30 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('30 seconds', 'TIME'), ('Week 2 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('45 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('10-12', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 3 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-10', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('Romanian Deadlifts', 'PERSON'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 4 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('30-45 minutes', 'TIME'), ('Include', 'ORG'), ('Russian', 'NORP'), ('5 minutes', 'TIME'), ('each week', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE47" t="n">
         <v>81.08618760108948</v>
       </c>
@@ -7816,12 +8364,20 @@
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="inlineStr"/>
-      <c r="BD47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD47" t="n">
+        <v>3456</v>
+      </c>
       <c r="BE47" t="n">
         <v>22</v>
       </c>
-      <c r="BF47" t="inlineStr"/>
+      <c r="BF47" t="n">
+        <v>512</v>
+      </c>
       <c r="BG47" t="n">
         <v>859</v>
       </c>
@@ -7921,7 +8477,11 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>[('1', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Model Focus:*', 'PERSON'), ('Gmail', 'PERSON'), ('Amazon', 'ORG'), ('3', 'CARDINAL'), ('Complex Data Structures:*', 'ORG'), ('jargon', 'ORG'), ('Data:*', 'ORG'), ('4', 'CARDINAL'), ('Competition &amp; Market Dynamics:*', 'ORG'), ('Competitive Advantage:*', 'ORG'), ('5', 'CARDINAL'), ('Balancing Privacy &amp; Innovation:*', 'ORG'), ('Paramount', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE48" t="n">
         <v>61.49904298782349</v>
       </c>
@@ -7970,12 +8530,20 @@
       <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="inlineStr"/>
-      <c r="BD48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD48" t="n">
+        <v>3883</v>
+      </c>
       <c r="BE48" t="n">
         <v>33</v>
       </c>
-      <c r="BF48" t="inlineStr"/>
+      <c r="BF48" t="n">
+        <v>551</v>
+      </c>
       <c r="BG48" t="n">
         <v>763</v>
       </c>
@@ -8061,7 +8629,11 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>[('## Fight Club', 'MONEY'), ('Chapter 1 - A New Type of Echo', 'LAW'), ('Tyler', 'PERSON'), ('Tyler', 'PERSON'), ('a thousand', 'CARDINAL'), ('Tyler', 'PERSON'), ('night', 'TIME'), ('Tyler', 'PERSON'), ('Tyler', 'ORG'), ('Tyler', 'ORG')]</t>
+        </is>
+      </c>
       <c r="AE49" t="n">
         <v>54.21773481369019</v>
       </c>
@@ -8110,12 +8682,20 @@
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="inlineStr"/>
-      <c r="BC49" t="inlineStr"/>
-      <c r="BD49" t="inlineStr"/>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD49" t="n">
+        <v>2876</v>
+      </c>
       <c r="BE49" t="n">
         <v>30</v>
       </c>
-      <c r="BF49" t="inlineStr"/>
+      <c r="BF49" t="n">
+        <v>525</v>
+      </c>
       <c r="BG49" t="n">
         <v>643</v>
       </c>
@@ -8198,7 +8778,11 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>[('a clear day', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE50" t="n">
         <v>20.15048408508301</v>
       </c>
@@ -8247,12 +8831,20 @@
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="inlineStr"/>
-      <c r="BD50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD50" t="n">
+        <v>506</v>
+      </c>
       <c r="BE50" t="n">
         <v>7</v>
       </c>
-      <c r="BF50" t="inlineStr"/>
+      <c r="BF50" t="n">
+        <v>81</v>
+      </c>
       <c r="BG50" t="n">
         <v>108</v>
       </c>
@@ -8328,7 +8920,11 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>[('Christmas', 'DATE'), ('December 25th', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE51" t="n">
         <v>23.97223591804504</v>
       </c>
@@ -8377,12 +8973,20 @@
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
       <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="inlineStr"/>
-      <c r="BD51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD51" t="n">
+        <v>154</v>
+      </c>
       <c r="BE51" t="n">
         <v>2</v>
       </c>
-      <c r="BF51" t="inlineStr"/>
+      <c r="BF51" t="n">
+        <v>27</v>
+      </c>
       <c r="BG51" t="n">
         <v>34</v>
       </c>
@@ -8458,7 +9062,11 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
       <c r="AE52" t="n">
         <v>12.93182849884033</v>
       </c>
@@ -8508,11 +9116,15 @@
       <c r="BA52" t="inlineStr"/>
       <c r="BB52" t="inlineStr"/>
       <c r="BC52" t="inlineStr"/>
-      <c r="BD52" t="inlineStr"/>
+      <c r="BD52" t="n">
+        <v>71</v>
+      </c>
       <c r="BE52" t="n">
         <v>2</v>
       </c>
-      <c r="BF52" t="inlineStr"/>
+      <c r="BF52" t="n">
+        <v>16</v>
+      </c>
       <c r="BG52" t="n">
         <v>19</v>
       </c>
@@ -8588,7 +9200,11 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>[('Mount Everest', 'LOC'), ('8,848.86 meters', 'QUANTITY'), ('29,032.6 feet', 'QUANTITY')]</t>
+        </is>
+      </c>
       <c r="AE53" t="n">
         <v>13.47611379623413</v>
       </c>
@@ -8637,12 +9253,20 @@
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
       <c r="BB53" t="inlineStr"/>
-      <c r="BC53" t="inlineStr"/>
-      <c r="BD53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD53" t="n">
+        <v>101</v>
+      </c>
       <c r="BE53" t="n">
         <v>1</v>
       </c>
-      <c r="BF53" t="inlineStr"/>
+      <c r="BF53" t="n">
+        <v>17</v>
+      </c>
       <c r="BG53" t="n">
         <v>31</v>
       </c>
@@ -8718,7 +9342,11 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>[('100 degrees Celsius', 'QUANTITY'), ('212 degrees', 'QUANTITY'), ('Fahrenheit', 'WORK_OF_ART')]</t>
+        </is>
+      </c>
       <c r="AE54" t="n">
         <v>10.59204339981079</v>
       </c>
@@ -8767,12 +9395,20 @@
       <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr"/>
       <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="inlineStr"/>
-      <c r="BD54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD54" t="n">
+        <v>197</v>
+      </c>
       <c r="BE54" t="n">
         <v>3</v>
       </c>
-      <c r="BF54" t="inlineStr"/>
+      <c r="BF54" t="n">
+        <v>34</v>
+      </c>
       <c r="BG54" t="n">
         <v>44</v>
       </c>
@@ -8849,7 +9485,11 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>[('7 days', 'DATE'), ('a week', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE55" t="n">
         <v>11.29056572914124</v>
       </c>
@@ -8899,11 +9539,15 @@
       <c r="BA55" t="inlineStr"/>
       <c r="BB55" t="inlineStr"/>
       <c r="BC55" t="inlineStr"/>
-      <c r="BD55" t="inlineStr"/>
+      <c r="BD55" t="n">
+        <v>119</v>
+      </c>
       <c r="BE55" t="n">
         <v>2</v>
       </c>
-      <c r="BF55" t="inlineStr"/>
+      <c r="BF55" t="n">
+        <v>23</v>
+      </c>
       <c r="BG55" t="n">
         <v>28</v>
       </c>
@@ -8979,7 +9623,11 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>[('Harper Lee', 'PERSON'), ('1926', 'DATE'), ('New Orleans', 'GPE'), ('Louisiana', 'GPE'), ('American', 'NORP'), ('Lee', 'PERSON'), ('Mockingbird', 'GPE'), ('Lee', 'PERSON')]</t>
+        </is>
+      </c>
       <c r="AE56" t="n">
         <v>16.28455948829651</v>
       </c>
@@ -9028,12 +9676,20 @@
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr"/>
-      <c r="BC56" t="inlineStr"/>
-      <c r="BD56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD56" t="n">
+        <v>390</v>
+      </c>
       <c r="BE56" t="n">
         <v>4</v>
       </c>
-      <c r="BF56" t="inlineStr"/>
+      <c r="BF56" t="n">
+        <v>69</v>
+      </c>
       <c r="BG56" t="n">
         <v>82</v>
       </c>
@@ -9110,7 +9766,11 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>[('1', 'CARDINAL'), ('3', 'CARDINAL')]</t>
+        </is>
+      </c>
       <c r="AE57" t="n">
         <v>4.63580060005188</v>
       </c>
@@ -9159,12 +9819,20 @@
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
       <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr"/>
-      <c r="BD57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD57" t="n">
+        <v>53</v>
+      </c>
       <c r="BE57" t="n">
         <v>2</v>
       </c>
-      <c r="BF57" t="inlineStr"/>
+      <c r="BF57" t="n">
+        <v>11</v>
+      </c>
       <c r="BG57" t="n">
         <v>17</v>
       </c>
@@ -9240,7 +9908,11 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>[('Christmas', 'DATE'), ('Christians', 'NORP'), ('December 25th to January 1st', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE58" t="n">
         <v>14.12414336204529</v>
       </c>
@@ -9289,12 +9961,20 @@
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
       <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD58" t="n">
+        <v>115</v>
+      </c>
       <c r="BE58" t="n">
         <v>2</v>
       </c>
-      <c r="BF58" t="inlineStr"/>
+      <c r="BF58" t="n">
+        <v>19</v>
+      </c>
       <c r="BG58" t="n">
         <v>21</v>
       </c>
@@ -9370,7 +10050,11 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
       <c r="AE59" t="n">
         <v>5.235190391540527</v>
       </c>
@@ -9419,12 +10103,20 @@
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
       <c r="BB59" t="inlineStr"/>
-      <c r="BC59" t="inlineStr"/>
-      <c r="BD59" t="inlineStr"/>
+      <c r="BC59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BD59" t="n">
+        <v>85</v>
+      </c>
       <c r="BE59" t="n">
         <v>2</v>
       </c>
-      <c r="BF59" t="inlineStr"/>
+      <c r="BF59" t="n">
+        <v>18</v>
+      </c>
       <c r="BG59" t="n">
         <v>21</v>
       </c>
@@ -9501,7 +10193,11 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>[('France', 'GPE'), ('Paris', 'GPE')]</t>
+        </is>
+      </c>
       <c r="AE60" t="n">
         <v>3.900015830993652</v>
       </c>
@@ -9551,11 +10247,15 @@
       <c r="BA60" t="inlineStr"/>
       <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="inlineStr"/>
-      <c r="BD60" t="inlineStr"/>
+      <c r="BD60" t="n">
+        <v>33</v>
+      </c>
       <c r="BE60" t="n">
         <v>1</v>
       </c>
-      <c r="BF60" t="inlineStr"/>
+      <c r="BF60" t="n">
+        <v>6</v>
+      </c>
       <c r="BG60" t="n">
         <v>7</v>
       </c>
@@ -9631,7 +10331,11 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>[('7 days', 'DATE'), ('a week', 'DATE'), ('every 7 days', 'DATE')]</t>
+        </is>
+      </c>
       <c r="AE61" t="n">
         <v>4.950026988983154</v>
       </c>
@@ -9681,11 +10385,15 @@
       <c r="BA61" t="inlineStr"/>
       <c r="BB61" t="inlineStr"/>
       <c r="BC61" t="inlineStr"/>
-      <c r="BD61" t="inlineStr"/>
+      <c r="BD61" t="n">
+        <v>79</v>
+      </c>
       <c r="BE61" t="n">
         <v>2</v>
       </c>
-      <c r="BF61" t="inlineStr"/>
+      <c r="BF61" t="n">
+        <v>17</v>
+      </c>
       <c r="BG61" t="n">
         <v>19</v>
       </c>
@@ -9761,7 +10469,11 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>[('Jupiter', 'LOC'), ('318', 'CARDINAL'), ('Earth', 'LOC'), ('143,892 kilometers', 'QUANTITY'), ('1.431 billion cubic kilometers', 'QUANTITY')]</t>
+        </is>
+      </c>
       <c r="AE62" t="n">
         <v>8.451048374176025</v>
       </c>
@@ -9811,11 +10523,15 @@
       <c r="BA62" t="inlineStr"/>
       <c r="BB62" t="inlineStr"/>
       <c r="BC62" t="inlineStr"/>
-      <c r="BD62" t="inlineStr"/>
+      <c r="BD62" t="n">
+        <v>167</v>
+      </c>
       <c r="BE62" t="n">
         <v>2</v>
       </c>
-      <c r="BF62" t="inlineStr"/>
+      <c r="BF62" t="n">
+        <v>30</v>
+      </c>
       <c r="BG62" t="n">
         <v>40</v>
       </c>

--- a/prompt_responses_rated.xlsx
+++ b/prompt_responses_rated.xlsx
@@ -556,12 +556,12 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Testament</t>
+          <t>Flagged_Words</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Tapestry</t>
+          <t>Flagged_Penalty</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -576,137 +576,137 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>BERTScore</t>
+          <t>BERT_Precision</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>BERT_Recall</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>BERT_F1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Named_Entities</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Response_Dur</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Chars/Sec</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Words/Sec</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Tokens/Sec</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Sentences/Sec</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Msg_Timestamp</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Msg_Month</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Msg_Year</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Msg_AuthorRole</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Msg_AuthorName</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>GPT_Name</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>GPT_ID</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Sequence_Number</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Stored_Memory</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Msg_Status</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Msg_EndTurn</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Msg_Weight</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Msg_VoiceMode</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Msg_Metadata</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Msg_Parent_ID</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Msg_Children_IDs</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Polarity_Sentiment</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Subjective_Sentiment</t>
-        </is>
-      </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>URL_List</t>
+          <t>Sentiment_Polarity</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Code_Related</t>
+          <t>Sentiment_Subjectivity</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -856,71 +856,79 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>0.6901205265470962</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr">
+      <c r="AC2" t="n">
+        <v>-0.1403067708015442</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.232819601893425</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.04083859175443649</v>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>[('## Quantum Computing', 'MONEY'), ('quantum', 'ORG'), ('2024', 'DATE'), ('1', 'CARDINAL'), ('Quantum', 'ORG'), ('quantum', 'ORG'), ('Rigetti', 'LOC'), ('IBM', 'ORG'), ('2', 'CARDINAL'), ('Quantum', 'ORG'), ('Shor', 'PERSON'), ('Grover', 'PERSON'), ('3', 'CARDINAL'), ('New Horizons', 'ORG'), ('Quantum', 'ORG'), ('Quantum', 'ORG'), ('4', 'CARDINAL'), ('quantum', 'ORG'), ('RSA &amp; ECC:*', 'ORG'), ('Quantum', 'ORG'), ('RSA &amp; ECC', 'ORG'), ('PQC', 'ORG'), ('quantum', 'ORG'), ('Quantum', 'ORG'), ('Key Takeaways', 'PERSON'), ('PQC', 'ORG'), ('quantum technologies', 'ORG'), ('PQC', 'ORG'), ('2024', 'DATE'), ('quantum', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>100.1532454490662</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="n">
         <v>1</v>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB2" t="n">
+        <v>0.1191890331890332</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.5384981407481406</v>
       </c>
       <c r="BD2" t="n">
         <v>4262</v>
@@ -1009,75 +1017,79 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>0.578351599562234</v>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
+      <c r="AC3" t="n">
+        <v>0.001959769520908594</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.267485648393631</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1326631754636765</v>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>[('2021', 'DATE'), ('2024', 'DATE'), ('the IPCC AR6 Report', 'ORG'), ('2021', 'DATE'), ('1.5', 'CARDINAL'), ('1.5', 'CARDINAL'), ('Arctic', 'LOC'), ('1.5', 'CARDINAL'), ('IPCC', 'ORG'), ('IPCC', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>42.30945801734924</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="n">
         <v>2</v>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>['https://www.ipcc.ch/.']</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB3" t="n">
+        <v>0.07064664502164503</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.5075965700965701</v>
       </c>
       <c r="BD3" t="n">
         <v>1691</v>
@@ -1176,71 +1188,79 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>0.7375663059874079</v>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
+      <c r="AC4" t="n">
+        <v>0.01116325799375772</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.4220069646835327</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2096892148256302</v>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Artemis', 'ORG'), ('NASA', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('November 2022', 'DATE'), ('Moon', 'PERSON'), ('the Lunar Gateway', 'FAC'), ('first', 'ORDINAL'), ('Gateway', 'PERSON'), ('this year', 'DATE'), ('Starship', 'PERSON'), ('NASA', 'ORG'), ('Space Launch System', 'ORG'), ('Orion', 'ORG'), ('Lockheed Martin', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('first', 'ORDINAL'), ('NASA', 'ORG'), ('Lunar Reconnaissance Orbiter', 'ORG'), ('LRO', 'ORG'), ('Artemis II Mission:*', 'ORG'), ('2024', 'DATE'), ('Moon', 'PERSON'), ('Lunar Gateway Operations:*', 'ORG'), ('first', 'ORDINAL'), ('the Lunar Gateway', 'FAC'), ('the early 2030s', 'DATE'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Earth', 'LOC'), ('Moon', 'PERSON'), ('ISRU', 'ORG'), ('Mars', 'LOC'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>91.65349817276001</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="n">
         <v>3</v>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB4" t="n">
+        <v>0.03775510204081633</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.4542517006802723</v>
       </c>
       <c r="BD4" t="n">
         <v>3896</v>
@@ -1344,71 +1364,79 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>0.5249437664303414</v>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
+      <c r="AC5" t="n">
+        <v>-0.1377714425325394</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.2859005331993103</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.06663424521684647</v>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>[('CRISPR', 'PERSON'), ('1', 'CARDINAL'), ('CRISPR', 'PERSON'), ('2', 'CARDINAL'), ('Cancer Therapy:*', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('Gene Silencing', 'PERSON'), ('CRISPR', 'GPE'), ('CFTR', 'ORG'), ('CRISPR technology holds immense', 'ORG'), ('Antimicrobial Resistance:*', 'ORG'), ('Methicillin', 'PERSON'), ('Staphylococcus aureus', 'PERSON'), ('3', 'CARDINAL'), ('CRISPR', 'PERSON'), ('Gene Therapy:*', 'PERSON'), ('4', 'CARDINAL'), ('Challenges and Future Directions', 'ORG'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('PubMed', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>102.7815997600555</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="n">
         <v>4</v>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr">
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB5" t="n">
+        <v>0.02909050825717492</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.5356577064910398</v>
       </c>
       <c r="BD5" t="n">
         <v>4255</v>
@@ -1506,71 +1534,79 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>0.4843318852744758</v>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr">
+      <c r="AC6" t="n">
+        <v>-0.2300157397985458</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.193474143743515</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.02571054361760616</v>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>[('2024', 'DATE'), ('Nobel Prize in Physics', 'WORK_OF_ART'), ('Potential Candidates &amp; Research Areas:*', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Fundamental Physics Research:*', 'ORG'), ('the Higgs Boson', 'ORG'), ('Particle Physics:*', 'ORG'), ('Groundbreaking Research:*', 'ORG'), ('Award', 'PERSON'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('3', 'CARDINAL'), ('Neutrino Physics:*', 'ORG'), ('4', 'CARDINAL'), ('Dark Matter &amp; Dark Energy:*', 'ORG'), ('Nobel Prize', 'WORK_OF_ART'), ('The Nobel Prize in Physics', 'WORK_OF_ART'), ('the Swedish Royal Academy of Sciences', 'ORG'), ('Nobelprize.org', 'ORG'), ('the Nobel Prizes', 'WORK_OF_ART'), ('Physics News Outlets:*', 'ORG'), ('Physics', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>77.72137665748596</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="n">
         <v>5</v>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr">
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB6" t="n">
+        <v>0.1124868374868375</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.6226395226395226</v>
       </c>
       <c r="BD6" t="n">
         <v>3075</v>
@@ -1665,71 +1701,79 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>0.5733480679766433</v>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>-0.09463740885257721</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.2549121677875519</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07555900514125824</v>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('The year 2024', 'DATE'), ('one', 'CARDINAL'), ('International Relations:*', 'ORG'), ('AI', 'ORG'), ('2024', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>76.08661985397339</v>
       </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
       <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="n">
         <v>7</v>
       </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr">
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB7" t="n">
+        <v>0.1470143398268398</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.4777387716450217</v>
       </c>
       <c r="BD7" t="n">
         <v>3574</v>
@@ -1830,71 +1874,79 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>0.6749620551895958</v>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
+      <c r="AC8" t="n">
+        <v>-0.04173212498426437</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.3762732446193695</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.1600854992866516</v>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>[('2024', 'CARDINAL'), ('The coming year', 'DATE'), ('Global Recovery &amp; Rebound', 'ORG'), ('2024', 'DATE'), ('COVID-19', 'ORG'), ('Structural Reforms &amp; Investment:*', 'ORG'), ('Demographic Shifts &amp; Emerging Consumer Markets:*', 'ORG'), ('Geopolitical Uncertainty &amp; Conflict:*', 'ORG'), ('Russia', 'GPE'), ('Fluctuations &amp; Exchange Rate Risks:*', 'ORG'), ('Sustainability &amp; Financial Fragility:*', 'ORG'), ('Asia', 'LOC'), ('Countries', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE'), ('India', 'GPE'), ('China', 'GPE'), ('Latin America:*', 'LOC'), ('Latin American', 'NORP'), ('recent years', 'DATE'), ('Africa', 'LOC'), ('Africa', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>120.6711721420288</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
       <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="n">
         <v>8</v>
       </c>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr">
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB8" t="n">
+        <v>0.115196478778953</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.4191334953706087</v>
       </c>
       <c r="BD8" t="n">
         <v>5304</v>
@@ -1997,71 +2049,79 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>0.6721609056370546</v>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>-0.1239426881074905</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3529394567012787</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1047068685293198</v>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>[('## Fusion Energy', 'MONEY'), ('1.', 'CARDINAL'), ('National Ignition Facility', 'ORG'), ('NIF', 'ORG'), ('Livermore National Laboratory', 'ORG'), ('2023', 'DATE'), ('NIF', 'ORG'), ('Princeton Plasma Physics Laboratory', 'ORG'), ('2', 'CARDINAL'), ('Development of New Technologies:*', 'ORG'), ('Magnetic Confinement Fusion', 'ORG'), ('MCF', 'ORG'), ('Inertial Confinement Fusion', 'ORG'), ('3', 'CARDINAL'), ('Clean &amp; Sustainable:** Fusion', 'ORG'), ('Challenges &amp; Road Ahead:*', 'ORG'), ('Safety &amp; waste management:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>83.15560221672058</v>
       </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
       <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="n">
         <v>9</v>
       </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr">
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB9" t="n">
+        <v>0.1486541889483066</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.5385858585858585</v>
       </c>
       <c r="BD9" t="n">
         <v>3557</v>
@@ -2180,71 +2240,79 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>0.5595763689038059</v>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>-0.1107913628220558</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.298872321844101</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.08719215542078018</v>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('FeFETs', 'WORK_OF_ART'), ('A Deep Dive\n\nFerroelectric', 'WORK_OF_ART'), ('Key Features &amp; Advantages:*', 'ORG'), ('Feature', 'PRODUCT'), ('Traditional Transistors', 'ORG'), ('FeFETs', 'PERSON'), ('Slow', 'PERSON'), ('Fast', 'PERSON'), ('Power Consumption', 'PRODUCT'), ('Moderate', 'PERSON'), ('Memory', 'PRODUCT'), ('Limited', 'ORG'), ('Advanced Electronics:*', 'ORG'), ('Analog Circuits &amp; Signal Processing:*', 'ORG'), ('2D Materials', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('FeFET', 'NORP'), ('FeFET', 'GPE'), ('FeFETs', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>127.3822445869446</v>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
       <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="n">
         <v>10</v>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr">
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB10" t="n">
+        <v>0.1370280106672512</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.5745205673370228</v>
       </c>
       <c r="BD10" t="n">
         <v>4692</v>
@@ -2340,71 +2408,79 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>0.7460336672406538</v>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>-0.07635849714279175</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.3110949099063873</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1113950535655022</v>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('Modern Warfare', 'ORG'), ('Moral Agency &amp; Responsibility:*', 'ORG'), ('AWS', 'ORG'), ('Taking a Human Life', 'WORK_OF_ART'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Potential Societal Impacts:*', 'ORG'), ('Military Doctrine &amp; Strategy:*', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Uneven Access &amp; Disproportionate Impact:*', 'ORG'), ('AWS', 'ORG'), ('International Treaties &amp; Regulations:*', 'ORG'), ('AWS', 'ORG'), ('The United Nations', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>84.84045839309692</v>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="n">
         <v>11</v>
       </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr">
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB11" t="n">
+        <v>0.07421875000000003</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.4460937500000001</v>
       </c>
       <c r="BD11" t="n">
         <v>3529</v>
@@ -2506,71 +2582,79 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>0.558203544696746</v>
+      </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr">
+      <c r="AC12" t="n">
+        <v>-0.04088065028190613</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.3579966425895691</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1521375775337219</v>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Cons', 'PERSON'), ('the United States', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Hazard', 'PERSON'), ('UBI', 'ORG'), ('Stakeholders', 'NORP'), ('UBI', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Social Experimentation:*', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('US', 'GPE'), ('UBI', 'ORG'), ('US', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>107.5992617607117</v>
       </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
       <c r="AH12" t="n">
         <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
       <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="n">
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="n">
         <v>12</v>
       </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr">
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB12" t="n">
+        <v>0.05552031947380787</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.4837855297157623</v>
       </c>
       <c r="BD12" t="n">
         <v>4735</v>
@@ -2682,71 +2766,79 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>0.7294587161506744</v>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr">
+      <c r="AC13" t="n">
+        <v>0.162029430270195</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.2753111124038696</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.219320997595787</v>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>[('US', 'GPE'), ('Massive Energy Demand Surge', 'ORG'), ('Overnight', 'WORK_OF_ART'), ('years', 'DATE'), ('decades', 'DATE'), ('overnight', 'TIME'), ('EV', 'ORG'), ('decade', 'DATE'), ('US', 'GPE'), ('Focus on Public Transportation', 'ORG'), ('metro', 'FAC'), ('overnight', 'TIME'), ('US', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE13" t="n">
+      <c r="AG13" t="n">
         <v>50.86786246299744</v>
       </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="n">
         <v>13</v>
       </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr">
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB13" t="n">
+        <v>0.09752546473134709</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.6248654613360496</v>
       </c>
       <c r="BD13" t="n">
         <v>3467</v>
@@ -2839,71 +2931,79 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>0.6173458898691805</v>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
+      <c r="AC14" t="n">
+        <v>-0.03602756932377815</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.3973591029644012</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.172842413187027</v>
+      </c>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>[('## The River of Consciousness: Stream of', 'MONEY'), ("James Joyce's", 'PERSON'), ('Joyce', 'PERSON'), ('linear', 'ORG'), ('Leopold Bloom', 'PRODUCT'), ('Stephen Dedalus', 'PERSON'), ('Internal Monologues &amp; Dialogue:*', 'ORG'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('post-World War I Europe', 'EVENT'), ("James Joyce's", 'PERSON'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE14" t="n">
+      <c r="AG14" t="n">
         <v>60.74453854560852</v>
       </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="n">
         <v>14</v>
       </c>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr">
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB14" t="n">
+        <v>0.1405730072396739</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.3974454557787893</v>
       </c>
       <c r="BD14" t="n">
         <v>3914</v>
@@ -2997,71 +3097,79 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>0.5959206166252631</v>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr">
+      <c r="AC15" t="n">
+        <v>-0.06485846638679504</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.3699373304843903</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1446512490510941</v>
+      </c>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>[('## Absurdity', 'MONEY'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ('post-World War II', 'EVENT'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Reflection of Post-War Existentialism:*', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('World War II', 'EVENT'), ('Trauma', 'PERSON'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('one', 'CARDINAL'), ('Beckett', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE15" t="n">
+      <c r="AG15" t="n">
         <v>71.35194230079651</v>
       </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
       <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="n">
         <v>15</v>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr">
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB15" t="n">
+        <v>-0.05892857142857142</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.5339650145772595</v>
       </c>
       <c r="BD15" t="n">
         <v>3789</v>
@@ -3160,71 +3268,79 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>0.7176723901592016</v>
+      </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr">
+      <c r="AC16" t="n">
+        <v>-0.1431537419557571</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3008864223957062</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.07055787742137909</v>
+      </c>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>[('##  ', 'MONEY'), ('A Tale of Two Worlds', 'WORK_OF_ART'), ("Dante Alighieri's", 'PERSON'), ('Purgatorio', 'PERSON'), ('Paradiso', 'PERSON'), ('Divine Comedy', 'PERSON'), ("William Blake's", 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Blake', 'ORG'), ('Feature', 'PRODUCT'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Christianity', 'NORP'), ('Language', 'LOC'), ('Christian', 'NORP'), ('Utilizes', 'ORG'), ('Blake', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Virgil', 'PERSON'), ('the Garden of Eden', 'FAC'), ('Dante', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Lamb', 'PERSON'), ('Tiger', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
         <v>68.69725823402405</v>
       </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="n">
         <v>16</v>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr">
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB16" t="n">
+        <v>0.1284722222222222</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.4565972222222223</v>
       </c>
       <c r="BD16" t="n">
         <v>3626</v>
@@ -3316,71 +3432,79 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>0.6252830343655603</v>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr">
+      <c r="AC17" t="n">
+        <v>-0.07709217071533203</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3197880387306213</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.1150089576840401</v>
+      </c>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>[('Japanese', 'NORP'), ('Impressionism', 'ORG'), ('Western', 'NORP'), ('Katsushika Hokusai', 'PERSON'), ('Utagawa Hiroshige', 'PERSON'), ('Impressionist', 'NORP'), ('Monet', 'PERSON'), ('Renoir', 'WORK_OF_ART'), ('Impressionist', 'NORP'), ('Capturing Daily Life:*', 'ORG'), ('Impressionism', 'ORG'), ('Cross-Cultural Exchange:*', 'ORG'), ('French', 'NORP'), ('Japanese', 'NORP'), ('Monet', 'PERSON'), ('"Water Lilies" Series', 'WORK_OF_ART'), ('Monet', 'PERSON'), ("Le Déjeuner sur l'herbe", 'WORK_OF_ART'), ('Impressionism', 'ORG'), ('Japanese', 'NORP'), ('Degas', 'PERSON'), ('Impressionism', 'ORG'), ('Impressionist', 'NORP')]</t>
         </is>
       </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
         <v>57.68428087234497</v>
       </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
       <c r="AH17" t="n">
         <v>0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="n">
         <v>17</v>
       </c>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr">
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB17" t="n">
+        <v>0.2088723776223776</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.5013694638694639</v>
       </c>
       <c r="BD17" t="n">
         <v>3191</v>
@@ -3480,71 +3604,79 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>0.6316717349348221</v>
+      </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr">
+      <c r="AC18" t="n">
+        <v>-0.03703929111361504</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.3263139128684998</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1395480632781982</v>
+      </c>
+      <c r="AF18" t="inlineStr">
         <is>
           <t>[('## Atonality', 'MONEY'), ('Arnold Schoenberg', 'PERSON'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Anton Webern', 'PERSON'), ('Alban Berg', 'PERSON'), ('the Intonation of the Sounds:*', 'ORG'), ('Complexity:*', 'ORG'), ('Ordering" Sounds:**', 'WORK_OF_ART'), ('20th-Century', 'DATE'), ('the Musical World:*', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Debussy &amp; Modernist Expression:*', 'ORG'), ('Schoenberg', 'ORG'), ('Debussy', 'PERSON'), ('Avant-Garde Compositions:*', 'ORG'), ('Dmitri Shostakovich', 'PERSON'), ('Pierre Boulez', 'PERSON'), ('Karlheinz Stockhausen', 'PERSON'), ('Schoenberg', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('today', 'DATE'), ('serialist', 'NORP'), ('Schoenberg', 'ORG'), ('Arnold Schoenberg', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE18" t="n">
+      <c r="AG18" t="n">
         <v>86.64069390296936</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
       <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="n">
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="n">
         <v>18</v>
       </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr">
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB18" t="n">
+        <v>0.1250988266119845</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.4339749943039417</v>
       </c>
       <c r="BD18" t="n">
         <v>4486</v>
@@ -3644,71 +3776,79 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>0.5948178587250076</v>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>-0.1450158655643463</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3007166385650635</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.06946625560522079</v>
+      </c>
+      <c r="AF19" t="inlineStr">
         <is>
           <t>[('NLP', 'ORG'), ('1', 'CARDINAL'), ('RNN', 'ORG'), ('one', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('GPT', 'ORG'), ('Generative Pre-trained', 'PERSON'), ('Transformer', 'ORG'), ('BERT', 'ORG'), ('4', 'CARDINAL'), ('NLP Beyond Translation:*', 'ORG'), ('Question Answering:*', 'ORG'), ('NLP', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE19" t="n">
+      <c r="AG19" t="n">
         <v>45.96540498733521</v>
       </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
       <c r="AH19" t="n">
         <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
       <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="n">
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="n">
         <v>19</v>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr">
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB19" t="n">
+        <v>0.2135756519902861</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.6021433850702143</v>
       </c>
       <c r="BD19" t="n">
         <v>3340</v>
@@ -3806,71 +3946,79 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>0.6170399831794966</v>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>-0.0673651322722435</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.3553996086120605</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1366341263055801</v>
+      </c>
+      <c r="AF20" t="inlineStr">
         <is>
           <t>[('## Fine', 'MONEY'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Pre-Trained Model:*', 'PERSON'), ('GPT-3', 'ORG'), ('BERT', 'ORG'), ('2', 'CARDINAL'), ('Adapt', 'FAC'), ('3', 'CARDINAL'), ('Transfer Learning:*', 'FAC'), ('Faster Training Time:*', 'PERSON'), ('BERT', 'ORG'), ('Question Answering:*', 'ORG'), ('GPT-3', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE20" t="n">
+      <c r="AG20" t="n">
         <v>55.45954608917236</v>
       </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
       <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="n">
         <v>20</v>
       </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr">
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB20" t="n">
+        <v>0.1158926406926407</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.4889580086580086</v>
       </c>
       <c r="BD20" t="n">
         <v>3528</v>
@@ -3974,71 +4122,79 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>0.5860685973817958</v>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>-0.2001161724328995</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.2434670627117157</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.01336682680994272</v>
+      </c>
+      <c r="AF21" t="inlineStr">
         <is>
           <t>[('##  Challenges', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('Linguistic Nuances:*', 'ORG'), ('Sarcasm', 'ORG'), ('one', 'CARDINAL'), ('today', 'DATE'), ('summer day', 'DATE'), ('Irony', 'ORG'), ('Sarcasm', 'ORG'), ('2', 'CARDINAL'), ('Complexity of Emotional Expressions:*', 'ORG'), ('Sarcasm', 'ORG'), ('3', 'CARDINAL'), ('Data Limitations &amp; Model Bias:*', 'ORG'), ('Limited Training', 'ORG'), ('Sarcasm', 'ORG'), ('4.', 'CARDINAL'), ('Evolving Communication Styles:*', 'ORG'), ('BERT', 'ORG'), ('XLNet', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE21" t="n">
+      <c r="AG21" t="n">
         <v>69.66839718818665</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
       <c r="AH21" t="n">
         <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
       <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="n">
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="n">
         <v>21</v>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr">
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB21" t="n">
+        <v>0.1071603641456583</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.5662756769374415</v>
       </c>
       <c r="BD21" t="n">
         <v>4547</v>
@@ -4146,71 +4302,79 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>0.5949359130294011</v>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>-0.2770205140113831</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.245700478553772</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.02786130085587502</v>
+      </c>
+      <c r="AF22" t="inlineStr">
         <is>
           <t>[('## Advancements', 'MONEY'), ('1', 'CARDINAL'), ('NLU', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Dialogue Management &amp; Contextualization:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Future of Human-AI Interaction:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('1', 'CARDINAL'), ('Personalization &amp; Empathy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Augmentation &amp; Productivity:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Human-Machine Gap:*', 'ORG'), ('Challenges &amp; Ethical Considerations:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
         <v>57.94323682785034</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
       <c r="AH22" t="n">
         <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
       <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="n">
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="n">
         <v>22</v>
       </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr">
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB22" t="n">
+        <v>0.203431899641577</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.4850089605734768</v>
       </c>
       <c r="BD22" t="n">
         <v>3978</v>
@@ -4314,71 +4478,79 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>0.6567690075740434</v>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr">
+      <c r="AC23" t="n">
+        <v>-0.1292581260204315</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.2811882197856903</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.06908448040485382</v>
+      </c>
+      <c r="AF23" t="inlineStr">
         <is>
           <t>[('AI Systems', 'ORG'), ('1', 'CARDINAL'), ('Data Representation &amp; Bias Mitigation:*', 'ORG'), ('Bias Detection &amp; Correction:*', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Content &amp; Language Understanding:*', 'ORG'), ('Cultural Sensitivity Training:*', 'ORG'), ('3', 'CARDINAL'), ('Ethical Considerations &amp; User Transparency:*', 'ORG'), ('User Consent &amp; Privacy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Continuous Learning &amp; Improvement:*', 'ORG'), ('Feedback Mechanisms:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('5', 'CARDINAL'), ('Responsible Deployment &amp; Community Engagement:*', 'ORG'), ('Cultural Sensitivity Guidelines:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Challenges &amp; Limitations:*', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE23" t="n">
+      <c r="AG23" t="n">
         <v>57.00896525382996</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
       <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="n">
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="n">
         <v>23</v>
       </c>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr">
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB23" t="n">
+        <v>0.1581393939393939</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.5093000000000001</v>
       </c>
       <c r="BD23" t="n">
         <v>4065</v>
@@ -4477,71 +4649,79 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="n">
+        <v>0.619339183246679</v>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr">
+      <c r="AC24" t="n">
+        <v>-0.1237265467643738</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.3230295777320862</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.0912291556596756</v>
+      </c>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('English', 'LANGUAGE'), ('2', 'CARDINAL'), ('Limited Linguistic Resources:*', 'ORG'), ('NLP', 'ORG'), ('Idiom Variations', 'ORG'), ('Idioms', 'ORG'), ('3', 'CARDINAL'), ('Ambiguous Interpretations &amp; Potential for Miscommunication:*', 'ORG'), ('Humor &amp; Irony:*', 'ORG'), ('4', 'CARDINAL'), ('Bridging Linguistic &amp; Cultural Gaps:*', 'ORG'), ('5', 'CARDINAL'), ('Overcoming Challenges', 'ORG'), ('NLP', 'ORG'), ('Deep Learning &amp; Neural Networks:*', 'ORG'), ('Context-Aware Embeddings:*', 'ORG'), ('NLP', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE24" t="n">
+      <c r="AG24" t="n">
         <v>53.43923115730286</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
       <c r="AH24" t="n">
         <v>0</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
       <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="n">
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="n">
         <v>24</v>
       </c>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr">
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB24" t="n">
+        <v>0.1119112972373842</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.4853689587385239</v>
       </c>
       <c r="BD24" t="n">
         <v>3601</v>
@@ -4644,71 +4824,79 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>0.6354650889882819</v>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr">
+      <c r="AC25" t="n">
+        <v>-0.1492152214050293</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.2865510582923889</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.06071878224611282</v>
+      </c>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>[('## The Importance of Cultural Competence', 'MONEY'), ('AI Language Models', 'WORK_OF_ART'), ('AI language', 'FAC'), ('1', 'CARDINAL'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Promoting Accurate', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Fostering Ethical AI Development:*', 'ORG'), ('AI', 'ORG'), ('AI language', 'FAC'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE25" t="n">
+      <c r="AG25" t="n">
         <v>55.86469006538391</v>
       </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
       <c r="AH25" t="n">
         <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
       <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="n">
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="n">
         <v>25</v>
       </c>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr">
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB25" t="n">
+        <v>0.1095866970866971</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.4426348426348428</v>
       </c>
       <c r="BD25" t="n">
         <v>3878</v>
@@ -4822,71 +5010,79 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="n">
+        <v>0.6122325828008451</v>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr">
+      <c r="AC26" t="n">
+        <v>-0.2044266015291214</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.2859277725219727</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.0302589163184166</v>
+      </c>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>[('##  Algorithm', 'MONEY'), ('1', 'CARDINAL'), ('CPU', 'ORG'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('3', 'CARDINAL'), ('CPU', 'ORG'), ('two', 'CARDINAL'), ('1.5', 'CARDINAL'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('first', 'ORDINAL'), ('1', 'CARDINAL'), ('First', 'ORDINAL'), ('FCFS', 'ORG'), ('SJF', 'ORG'), ('2', 'CARDINAL'), ('Monitoring &amp; Adjustment:*', 'ORG'), ('1', 'CARDINAL'), ('Monitoring Execution Times', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Eigen', 'ORG'), ('4', 'CARDINAL'), ('Parallelism &amp; Multithreading:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE26" t="n">
+      <c r="AG26" t="n">
         <v>76.56311798095703</v>
       </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
       </c>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
       <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="n">
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="n">
         <v>26</v>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr">
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB26" t="n">
+        <v>0.090625</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.4541071428571429</v>
       </c>
       <c r="BD26" t="n">
         <v>4264</v>
@@ -4997,71 +5193,79 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="n">
+        <v>0.6497684914338067</v>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr">
+      <c r="AC27" t="n">
+        <v>-0.1791880279779434</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.359444797039032</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.07720862329006195</v>
+      </c>
+      <c r="AF27" t="inlineStr">
         <is>
           <t>[('## Trade', 'MONEY'), ('Privacy &amp; Security', 'ORG'), ('Digital Contact Tracing Systems', 'ORG'), ('Digital', 'ORG'), ('third', 'ORDINAL'), ('Data Minimization:*', 'ORG'), ('Access &amp; Correction:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE27" t="n">
+      <c r="AG27" t="n">
         <v>64.36975145339966</v>
       </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
       <c r="AH27" t="n">
         <v>0</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
       <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="n">
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="n">
         <v>27</v>
       </c>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr">
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB27" t="n">
+        <v>0.1044703595724004</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0.5371626672647083</v>
       </c>
       <c r="BD27" t="n">
         <v>4170</v>
@@ -5167,71 +5371,79 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>0.6234421775895662</v>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr">
+      <c r="AC28" t="n">
+        <v>-0.2263300269842148</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.3212510645389557</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.0339999608695507</v>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>[('## Mitigating', 'MONEY'), ('I. Prevention &amp; Detection:*', 'ORG'), ('AI', 'ORG'), ('Response &amp; Accountability:*', 'ORG'), ('Collaboration &amp; Trust:*', 'ORG'), ('Ethical Considerations:*', 'ORG'), ('AI:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE28" t="n">
+      <c r="AG28" t="n">
         <v>72.80426716804504</v>
       </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
       <c r="AH28" t="n">
         <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
       </c>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
       <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="n">
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="n">
         <v>28</v>
       </c>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr">
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB28" t="n">
+        <v>0.06944920907185059</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0.454593100819516</v>
       </c>
       <c r="BD28" t="n">
         <v>4163</v>
@@ -5344,71 +5556,79 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="n">
+        <v>0.585142035207212</v>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>-0.2683748602867126</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.2484864145517349</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.02182964794337749</v>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>[('## A Sustainable Urban Transportation System', 'MONEY'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Key Components:*', 'ORG'), ('Subway Network:*', 'ORG'), ('metro', 'ORG'), ('BRT', 'ORG'), ('Protected Bike Lanes &amp; Shared Paths:** Extensive', 'ORG'), ('Micro-Transit Service Network:*', 'ORG'), ('last-mile', 'QUANTITY'), ('Smart Technology Integration', 'ORG'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('Universal Access Design:*', 'ORG'), ('5', 'CARDINAL'), ('Continuous Improvement &amp; Evaluation:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
         <v>80.75700879096985</v>
       </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
       <c r="AH29" t="n">
         <v>0</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
       </c>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
       <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="n">
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="n">
         <v>29</v>
       </c>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr">
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB29" t="n">
+        <v>0.07176587301587301</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.3439407814407814</v>
       </c>
       <c r="BD29" t="n">
         <v>4850</v>
@@ -5535,71 +5755,79 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>0.5887346680240991</v>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>-0.4632424712181091</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.1737278252840042</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.1640225499868393</v>
+      </c>
+      <c r="AF30" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('Data Collection &amp; Preparation:*', 'ORG'), ('Genomics Companies:*', 'ORG'), ('Data Cleaning &amp; Preprocessing:*', 'ORG'), ('-1', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('SMOTE', 'PERSON'), ('2', 'CARDINAL'), ('Feature Engineering &amp; Selection:*', 'ORG'), ('Nucleotide Polymorphisms', 'PERSON'), ('Polygenic Risk Score', 'ORG'), ('Lifestyle Data:*', 'ORG'), ('Stress Levels:*', 'ORG'), ('PCA', 'ORG'), ('linear', 'ORG'), ('3', 'CARDINAL'), ('Model Selection &amp; Training:*', 'ORG'), ('Linear Regression', 'ORG'), ('Vector Machines', 'PERSON'), ('Decision Trees', 'PERSON'), ('Random Forests', 'PERSON'), ('Support Vector Classification', 'ORG'), ('Naive Bayes', 'PERSON'), ('K-Nearest Neighbors', 'ORG'), ('XGBoost', 'ORG'), ('LightGBM', 'ORG'), ('4', 'CARDINAL'), ('Model Evaluation &amp; Analysis:*', 'ORG'), ('F1', 'CARDINAL'), ('AUC', 'ORG'), ('5', 'CARDINAL'), ('6', 'CARDINAL'), ('Implementation &amp; Deployment:*', 'ORG'), ('Data Quality is Critical:*', 'ORG'), ('Collaboration &amp; Expertise:*', 'ORG'), ('clinicians', 'NORP'), ('Continuous Improvement:*', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE30" t="n">
+      <c r="AG30" t="n">
         <v>92.6415958404541</v>
       </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
       <c r="AH30" t="n">
         <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
       </c>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
       <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="n">
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="n">
         <v>30</v>
       </c>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr">
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB30" t="n">
+        <v>0.07926556202418271</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0.494752948201224</v>
       </c>
       <c r="BD30" t="n">
         <v>5093</v>
@@ -5701,71 +5929,79 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>0.5097694405820163</v>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>-0.1975468993186951</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.2780659198760986</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.03048140928149223</v>
+      </c>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>[('quantum entanglement', 'ORG'), ('Quantum Entanglement', 'ORG'), ('two', 'CARDINAL'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('first', 'ORDINAL'), ('Shared State:*', 'ORG'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Quantum Cryptography:*', 'ORG'), ('two', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Quantum Computing:*', 'ORG'), ('Quantum Algorithms:*', 'PERSON'), ('quantum entanglement', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Applications Beyond Cryptography:*', 'PERSON'), ('GPS systems', 'ORG'), ('Nutshell', 'PERSON'), ('Quantum', 'ORG'), ('quantum', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE31" t="n">
+      <c r="AG31" t="n">
         <v>52.81560754776001</v>
       </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
       <c r="AH31" t="n">
         <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
       <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="n">
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="n">
         <v>31</v>
       </c>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr">
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB31" t="n">
+        <v>0.08573365934477045</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0.5234013414568971</v>
       </c>
       <c r="BD31" t="n">
         <v>3167</v>
@@ -5868,71 +6104,79 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="n">
+        <v>0.660397932999078</v>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>-0.05138982832431793</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.3940970599651337</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.1630093157291412</v>
+      </c>
+      <c r="AF32" t="inlineStr">
         <is>
           <t>[('CRISPR-Cas9 Gene Editing', 'PERSON'), ('two', 'CARDINAL'), ('1', 'CARDINAL'), ('The Cas9 Enzyme:*', 'ORG'), ('2', 'CARDINAL'), ('Guide RNA', 'ORG'), ('RNA', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Cas9', 'NORP'), ('3', 'CARDINAL'), ('Target Recognition &amp; Cut:*', 'ORG'), ('Cas9', 'NORP'), ('4', 'CARDINAL'), ('Two', 'CARDINAL'), ('HDR', 'ORG'), ('Cas9', 'NORP'), ('5', 'CARDINAL'), ('## Ethical Implications', 'MONEY'), ('CRISPR-Cas9', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Social Inequality:*', 'ORG'), ('4.', 'CARDINAL'), ('CRISPR-Cas9', 'ORG'), ('5', 'CARDINAL'), ('Societal Acceptance:*', 'ORG'), ("CRISPR-Cas9's", 'ORG'), ('CRISPR-Cas9', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE32" t="n">
+      <c r="AG32" t="n">
         <v>69.87185478210449</v>
       </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
       <c r="AH32" t="n">
         <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
       </c>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
       <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="n">
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="n">
         <v>32</v>
       </c>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr">
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB32" t="n">
+        <v>0.08463901689708143</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0.5684907834101383</v>
       </c>
       <c r="BD32" t="n">
         <v>3971</v>
@@ -6026,71 +6270,79 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>0.7872681501724279</v>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>-0.06046773493289948</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.4018425643444061</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.1615966707468033</v>
+      </c>
+      <c r="AF33" t="inlineStr">
         <is>
           <t>[('two', 'CARDINAL'), ('about 95%', 'PERCENT'), ('Dark Matter:*', 'PERSON'), ('Microwave Background', 'PERSON'), ('CMB', 'ORG'), ('CMB', 'ORG'), ('the Big Bang', 'GPE'), ('Dark Energy:*', 'ORG'), ('about 68%', 'PERCENT'), ('Challenges and Ongoing Research:*', 'ORG'), ('Developing Models:**  Developing', 'WORK_OF_ART'), ('years', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE33" t="n">
+      <c r="AG33" t="n">
         <v>55.60174441337585</v>
       </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
       <c r="AH33" t="n">
         <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
       <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="n">
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="n">
         <v>33</v>
       </c>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr">
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB33" t="n">
+        <v>0.06569940476190478</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0.5388392857142855</v>
       </c>
       <c r="BD33" t="n">
         <v>3399</v>
@@ -6187,71 +6439,79 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>0.5194819438157791</v>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr">
+      <c r="AC34" t="n">
+        <v>-0.122647263109684</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.3246379494667053</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.09255068749189377</v>
+      </c>
+      <c r="AF34" t="inlineStr">
         <is>
           <t>[('## Challenges and', 'MONEY'), ('Developing Artificial General Intelligence', 'ORG'), ('Artificial General Intelligence', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('Data Requirements:*', 'ORG'), ('AGI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Personalized Learning &amp; Healthcare', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Focus on Ethical Development:*', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE34" t="n">
+      <c r="AG34" t="n">
         <v>62.8207323551178</v>
       </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
       <c r="AH34" t="n">
         <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
       <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="n">
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="n">
         <v>34</v>
       </c>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr">
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB34" t="n">
+        <v>0.06515692640692641</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0.6010538419913419</v>
       </c>
       <c r="BD34" t="n">
         <v>4243</v>
@@ -6350,71 +6610,79 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>0.6348702210602938</v>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr">
+      <c r="AC35" t="n">
+        <v>-0.08452124893665314</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.3336604237556458</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.1173747926950455</v>
+      </c>
+      <c r="AF35" t="inlineStr">
         <is>
           <t>[('## Neuroplasticity', 'MONEY'), ('decades', 'DATE'), ('1', 'CARDINAL'), ('Learning &amp; Memory:*', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Brain Injury Recovery:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE35" t="n">
+      <c r="AG35" t="n">
         <v>57.48736119270325</v>
       </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
       <c r="AH35" t="n">
         <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
       <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="n">
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="n">
         <v>35</v>
       </c>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr">
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB35" t="n">
+        <v>0.1030815972222222</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0.5241446921134422</v>
       </c>
       <c r="BD35" t="n">
         <v>3382</v>
@@ -6513,71 +6781,79 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>0.271486044201327</v>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr">
+      <c r="AC36" t="n">
+        <v>-0.3370234072208405</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.02133311703801155</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-0.1626646369695663</v>
+      </c>
+      <c r="AF36" t="inlineStr">
         <is>
           <t>[('7000', 'DATE'), ('64', 'CARDINAL'), ('128', 'CARDINAL'), ('192', 'CARDINAL'), ('GB', 'GPE'), ('3200', 'CARDINAL'), ('8', 'CARDINAL'), ('Redundant Power Supply and Fan Modules', 'WORK_OF_ART'), ('2x 10GbE', 'MONEY'), ('4x 2.5GbE Network Interfaces', 'QUANTITY'), ('5.0', 'CARDINAL'), ('Ethernet', 'PERSON'), ('Optional 10GbE Optical', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE36" t="n">
+      <c r="AG36" t="n">
         <v>156.4974000453949</v>
       </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
       </c>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
       <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="n">
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="n">
         <v>36</v>
       </c>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr">
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB36" t="n">
+        <v>0.08233333333333334</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0.4565555555555555</v>
       </c>
       <c r="BD36" t="n">
         <v>1272</v>
@@ -6667,71 +6943,79 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>0.5971067566462644</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr">
+      <c r="AC37" t="n">
+        <v>-0.05174286663532257</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.4995935559272766</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.2104915976524353</v>
+      </c>
+      <c r="AF37" t="inlineStr">
         <is>
           <t>[('Indian-American', 'NORP'), ('AngelList', 'ORG'), ('Investor &amp; Founder:*', 'ORG'), ('Uber, Airbnb', 'ORG'), ('Stripe', 'PRODUCT'), ('Reddit', 'NORP'), ('Author &amp; Speaker:**', 'ORG'), ('Mastering Bitcoin', 'WORK_OF_ART'), ('Reply All', 'WORK_OF_ART'), ('Key Aspects', 'ORG'), ('The Importance of Bitcoin:**', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE37" t="n">
+      <c r="AG37" t="n">
         <v>43.1514458656311</v>
       </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
       <c r="AH37" t="n">
         <v>0</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
       </c>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
       <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="n">
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="n">
         <v>38</v>
       </c>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr">
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="inlineStr"/>
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB37" t="n">
+        <v>0.1677083333333333</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0.6427083333333333</v>
       </c>
       <c r="BD37" t="n">
         <v>1791</v>
@@ -6837,71 +7121,79 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="n">
+        <v>0.7807317342128181</v>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr">
+      <c r="AC38" t="n">
+        <v>0.07116616517305374</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0839373767375946</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.07904259115457535</v>
+      </c>
+      <c r="AF38" t="inlineStr">
         <is>
           <t>[('## Chapter 1', 'MONEY'), ('The Echo Chamber', 'ORG'), ('Elena', 'ORG'), ('Earth', 'LOC'), ('Collective', 'PERSON'), ('Elena', 'ORG'), ('one', 'CARDINAL'), ('Exodus', 'PRODUCT'), ('Earth', 'LOC'), ('Earth', 'LOC'), ('Three', 'CARDINAL'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('years', 'DATE'), ('one', 'CARDINAL'), ('The Pioneers', 'WORK_OF_ART'), ('Earth', 'LOC'), ('Guardians', 'NORP'), ('two feet', 'QUANTITY'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('Elena', 'ORG'), ('first', 'ORDINAL'), ('Elena', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE38" t="n">
+      <c r="AG38" t="n">
         <v>78.35348081588745</v>
       </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
       <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="n">
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="n">
         <v>39</v>
       </c>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr">
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB38" t="n">
+        <v>0.05745132484262919</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.5577378338247905</v>
       </c>
       <c r="BD38" t="n">
         <v>4050</v>
@@ -6999,71 +7291,79 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>0.4394119769644053</v>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr">
+      <c r="AC39" t="n">
+        <v>-0.27629354596138</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.1817364990711212</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-0.05627918615937233</v>
+      </c>
+      <c r="AF39" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('P - Positive Changes:*', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('SPIRE', 'ORG'), ('today', 'DATE'), ('daily', 'DATE'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('SPIRE', 'ORG'), ('SPIRE', 'ORG'), ('daily', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE39" t="n">
+      <c r="AG39" t="n">
         <v>51.07530093193054</v>
       </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
       <c r="AH39" t="n">
         <v>0</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
       </c>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
       <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="n">
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="n">
         <v>40</v>
       </c>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr">
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB39" t="n">
+        <v>0.2601479915433405</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.4190081881942347</v>
       </c>
       <c r="BD39" t="n">
         <v>3121</v>
@@ -7161,71 +7461,79 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>0.4337651999172828</v>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr">
+      <c r="AC40" t="n">
+        <v>-0.2129784822463989</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.2439081519842148</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.006550095044076443</v>
+      </c>
+      <c r="AF40" t="inlineStr">
         <is>
           <t>[('Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Foshan', 'GPE'), ('Guangdong province', 'GPE'), ('China', 'GPE'), ('the 18th century', 'DATE'), ('Yim Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Internal Energy Cultivation', 'ORG'), ('Chinese', 'NORP'), ('Hollywood', 'GPE'), ('Popularized Wing Chun', 'PERSON'), ('West', 'LOC'), ("Bruce Lee's", 'PERSON'), ('Jeet Kune', 'EVENT'), ('The Grandmaster', 'WORK_OF_ART'), ('millions', 'CARDINAL'), ('Wing Chun', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE40" t="n">
+      <c r="AG40" t="n">
         <v>35.12794494628906</v>
       </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
       <c r="AH40" t="n">
         <v>0</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
       </c>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
       <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="n">
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="n">
         <v>41</v>
       </c>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr">
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB40" t="n">
+        <v>0.09359567901234568</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.3099426807760141</v>
       </c>
       <c r="BD40" t="n">
         <v>2244</v>
@@ -7322,71 +7630,79 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>0.6194039868350554</v>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr">
+      <c r="AC41" t="n">
+        <v>-0.12920081615448</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.3752782046794891</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.1119163185358047</v>
+      </c>
+      <c r="AF41" t="inlineStr">
         <is>
           <t>[('Morihei Ueshiba', 'PERSON'), ('1904-1969', 'DATE'), ('Japanese', 'NORP'), ('Aikido', 'GPE'), ('Aikido', 'PERSON'), ('today', 'DATE'), ('Aikido', 'PERSON'), ('the early 20th century', 'DATE'), ('Japanese', 'NORP'), ('Ueshiba', 'ORG'), ('Aikido', 'NORP'), ('Aikido', 'PERSON'), ('Ueshiba', 'ORG'), ('Oshogaki', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido', 'GPE'), ('Ueshiba', 'ORG'), ('Martial Arts:*', 'ORG'), ('Aikido', 'PERSON'), ('Health &amp; Self-Improvement:*', 'ORG'), ('Ueshiba', 'ORG'), ('Morihei Ueshiba', 'PERSON'), ('Aikido', 'PERSON'), ('the Aikikai Hombu Dojo', 'ORG'), ('Tokyo', 'GPE'), ('Articles', 'PERSON'), ('Ueshiba', 'ORG'), ('The Art of Aikido', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido: The Way of Peace', 'WORK_OF_ART'), ("Morihei Ueshiba's", 'PERSON'), ('Aikido', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE41" t="n">
+      <c r="AG41" t="n">
         <v>41.54534721374512</v>
       </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
       <c r="AH41" t="n">
         <v>0</v>
       </c>
       <c r="AI41" t="n">
         <v>0</v>
       </c>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
       <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="n">
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="n">
         <v>42</v>
       </c>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr">
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB41" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.3676666666666668</v>
       </c>
       <c r="BD41" t="n">
         <v>2554</v>
@@ -7477,71 +7793,79 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>0.5899586712775844</v>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr">
+      <c r="AC42" t="n">
+        <v>-0.1378966718912125</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.3789852261543274</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.1087943688035011</v>
+      </c>
+      <c r="AF42" t="inlineStr">
         <is>
           <t>[('Miyamoto Musashi', 'PERSON'), ('1584-1645', 'DATE'), ('Japanese', 'NORP'), ('one', 'CARDINAL'), ('Musashi', 'PERSON'), ('Two', 'CARDINAL'), ('two', 'CARDINAL'), ('The Way of the Sword', 'WORK_OF_ART'), ('The Art of Disappearances', 'WORK_OF_ART'), ('Legendary Battles:*', 'PERSON'), ('Musashi', 'PERSON'), ('Sasaki Kojiro', 'GPE'), ('Musashi', 'PERSON'), ('Literary Legacy', 'PERSON'), ('The Book of Five Rings:*', 'WORK_OF_ART'), ('Musashi', 'PERSON'), ('the centuries', 'DATE'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE42" t="n">
+      <c r="AG42" t="n">
         <v>30.71544909477234</v>
       </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
       <c r="AH42" t="n">
         <v>0</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
       </c>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
       <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="n">
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="n">
         <v>43</v>
       </c>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr">
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="inlineStr"/>
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
-      <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB42" t="n">
+        <v>0.3157142857142857</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0.5314285714285715</v>
       </c>
       <c r="BD42" t="n">
         <v>1773</v>
@@ -7636,71 +7960,79 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="n">
+        <v>0.6490503284205824</v>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr">
+      <c r="AC43" t="n">
+        <v>-0.03237369656562805</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.3179242610931396</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.138144239783287</v>
+      </c>
+      <c r="AF43" t="inlineStr">
         <is>
           <t>[('The Book of Five Rings', 'WORK_OF_ART'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('the 17th century', 'DATE'), ('five', 'CARDINAL'), ('Samurai', 'PERSON'), ('Musashi', 'PERSON'), ('first', 'ORDINAL'), ('The Book of Five Rings', 'WORK_OF_ART'), ('between 1645-1649', 'DATE'), ('Musashi', 'PERSON'), ('Edo', 'ORG'), ('The "Book of Five Rings', 'WORK_OF_ART'), ('The Book of Five Rings', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AE43" t="n">
+      <c r="AG43" t="n">
         <v>43.87992238998413</v>
       </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
       <c r="AH43" t="n">
         <v>0</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
       </c>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
       <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="n">
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="n">
         <v>44</v>
       </c>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr">
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB43" t="n">
+        <v>0.1791666666666667</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0.4482142857142857</v>
       </c>
       <c r="BD43" t="n">
         <v>2619</v>
@@ -7800,71 +8132,79 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>0.5255544795116468</v>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr">
+      <c r="AC44" t="n">
+        <v>-0.1783471703529358</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.4258473515510559</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.1071754768490791</v>
+      </c>
+      <c r="AF44" t="inlineStr">
         <is>
           <t>[('Society &amp; Culture:*', 'ORG'), ('Redefined Art &amp; Creativity:*', 'ORG'), ('New Social Structures:*', 'ORG'), ('Challenges &amp; Potential Solutions:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE44" t="n">
+      <c r="AG44" t="n">
         <v>44.28774833679199</v>
       </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
       <c r="AH44" t="n">
         <v>0</v>
       </c>
       <c r="AI44" t="n">
         <v>0</v>
       </c>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
       <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="n">
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="n">
         <v>45</v>
       </c>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr">
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
-      <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB44" t="n">
+        <v>0.09726306302393257</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0.4810902865250693</v>
       </c>
       <c r="BD44" t="n">
         <v>2666</v>
@@ -7962,71 +8302,79 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="n">
+        <v>0.4688677697212582</v>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr">
+      <c r="AC45" t="n">
+        <v>-0.2584189474582672</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.3546854257583618</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.03086564876139164</v>
+      </c>
+      <c r="AF45" t="inlineStr">
         <is>
           <t>[('ActivityPub', 'ORG'), ('Twitter', 'PERSON'), ('Fediverse', 'PERSON'), ('Fediverse', 'PERSON'), ('Reddit', 'NORP'), ('Discord', 'GPE'), ('Mastodon', 'GPE'), ('Mastodon', 'PERSON'), ('Twitter', 'PERSON'), ('YouTube', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE45" t="n">
+      <c r="AG45" t="n">
         <v>41.97327995300293</v>
       </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
       <c r="AH45" t="n">
         <v>0</v>
       </c>
       <c r="AI45" t="n">
         <v>0</v>
       </c>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="n">
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="n">
         <v>46</v>
       </c>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr">
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="inlineStr"/>
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
-      <c r="BB45" t="inlineStr"/>
-      <c r="BC45" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB45" t="n">
+        <v>0.05786340852130328</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0.3483395989974938</v>
       </c>
       <c r="BD45" t="n">
         <v>2424</v>
@@ -8121,71 +8469,79 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="n">
+        <v>0.4872128889080313</v>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr">
+      <c r="AC46" t="n">
+        <v>-0.127874955534935</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.346197098493576</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.09949808567762375</v>
+      </c>
+      <c r="AF46" t="inlineStr">
         <is>
           <t>[('Walden', 'WORK_OF_ART'), ('Henry David Thoreau', 'PERSON'), ('1', 'CARDINAL'), ('Simplicity &amp; Self-Reliance:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden Pond', 'FAC'), ('two years', 'DATE'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Walden', 'WORK_OF_ART'), ('Freedom &amp; Conformity:*', 'ORG'), ('4', 'CARDINAL'), ('Reflection on Society &amp; Technology:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden', 'GPE'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE46" t="n">
+      <c r="AG46" t="n">
         <v>47.14622807502747</v>
       </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
       <c r="AH46" t="n">
         <v>0</v>
       </c>
       <c r="AI46" t="n">
         <v>0</v>
       </c>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
       <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="n">
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="n">
         <v>47</v>
       </c>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr">
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
       <c r="AY46" t="inlineStr"/>
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
-      <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB46" t="n">
+        <v>0.1287101787101787</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0.3834249084249085</v>
       </c>
       <c r="BD46" t="n">
         <v>2687</v>
@@ -8303,71 +8659,79 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>0.4644349336300609</v>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr">
+      <c r="AC47" t="n">
+        <v>-0.1191203817725182</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.1722757965326309</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.02389458566904068</v>
+      </c>
+      <c r="AF47" t="inlineStr">
         <is>
           <t>[('weekly', 'DATE'), ('Week 1 - Focus', 'DATE'), ('Legs &amp; Core', 'ORG'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('30 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('30 seconds', 'TIME'), ('Week 2 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('45 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('10-12', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 3 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-10', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('Romanian Deadlifts', 'PERSON'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 4 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('30-45 minutes', 'TIME'), ('Include', 'ORG'), ('Russian', 'NORP'), ('5 minutes', 'TIME'), ('each week', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE47" t="n">
+      <c r="AG47" t="n">
         <v>81.08618760108948</v>
       </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
       <c r="AH47" t="n">
         <v>0</v>
       </c>
       <c r="AI47" t="n">
         <v>0</v>
       </c>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
       <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="n">
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="n">
         <v>48</v>
       </c>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr">
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT47" t="inlineStr"/>
-      <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
-      <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB47" t="n">
+        <v>0.2815177638453502</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.6118120863810519</v>
       </c>
       <c r="BD47" t="n">
         <v>3456</v>
@@ -8469,71 +8833,79 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="n">
+        <v>0.5711879327373028</v>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr">
+      <c r="AC48" t="n">
+        <v>-0.1572923809289932</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.2509928941726685</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.04005669057369232</v>
+      </c>
+      <c r="AF48" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Model Focus:*', 'PERSON'), ('Gmail', 'PERSON'), ('Amazon', 'ORG'), ('3', 'CARDINAL'), ('Complex Data Structures:*', 'ORG'), ('jargon', 'ORG'), ('Data:*', 'ORG'), ('4', 'CARDINAL'), ('Competition &amp; Market Dynamics:*', 'ORG'), ('Competitive Advantage:*', 'ORG'), ('5', 'CARDINAL'), ('Balancing Privacy &amp; Innovation:*', 'ORG'), ('Paramount', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE48" t="n">
+      <c r="AG48" t="n">
         <v>61.49904298782349</v>
       </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
       <c r="AH48" t="n">
         <v>0</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
       <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="n">
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="n">
         <v>49</v>
       </c>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr">
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT48" t="inlineStr"/>
-      <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="inlineStr"/>
       <c r="AY48" t="inlineStr"/>
       <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
-      <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB48" t="n">
+        <v>0.1486267006802721</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0.4966751700680272</v>
       </c>
       <c r="BD48" t="n">
         <v>3883</v>
@@ -8621,71 +8993,79 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>0.5839622441942823</v>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr">
+      <c r="AC49" t="n">
+        <v>-0.1165967360138893</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.000178277085069567</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.05718504637479782</v>
+      </c>
+      <c r="AF49" t="inlineStr">
         <is>
           <t>[('## Fight Club', 'MONEY'), ('Chapter 1 - A New Type of Echo', 'LAW'), ('Tyler', 'PERSON'), ('Tyler', 'PERSON'), ('a thousand', 'CARDINAL'), ('Tyler', 'PERSON'), ('night', 'TIME'), ('Tyler', 'PERSON'), ('Tyler', 'ORG'), ('Tyler', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE49" t="n">
+      <c r="AG49" t="n">
         <v>54.21773481369019</v>
       </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
       <c r="AH49" t="n">
         <v>0</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
       <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="n">
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="n">
         <v>50</v>
       </c>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr">
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
       <c r="AY49" t="inlineStr"/>
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
-      <c r="BB49" t="inlineStr"/>
-      <c r="BC49" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB49" t="n">
+        <v>-0.0131950456950457</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.5015500240500241</v>
       </c>
       <c r="BD49" t="n">
         <v>2876</v>
@@ -8770,71 +9150,79 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="n">
+        <v>0.3279764895210033</v>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr">
+      <c r="AC50" t="n">
+        <v>-0.4606024324893951</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.07491493225097656</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.2736440300941467</v>
+      </c>
+      <c r="AF50" t="inlineStr">
         <is>
           <t>[('a clear day', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE50" t="n">
+      <c r="AG50" t="n">
         <v>20.15048408508301</v>
       </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
       <c r="AH50" t="n">
         <v>0</v>
       </c>
       <c r="AI50" t="n">
         <v>0</v>
       </c>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
       <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="n">
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="n">
         <v>51</v>
       </c>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr">
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT50" t="inlineStr"/>
-      <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="inlineStr"/>
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
-      <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB50" t="n">
+        <v>0.1227678571428571</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="BD50" t="n">
         <v>506</v>
@@ -8912,71 +9300,79 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="n">
+        <v>0.1778423610908229</v>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr">
+      <c r="AC51" t="n">
+        <v>-0.1637458205223083</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.2895099520683289</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.05415526777505875</v>
+      </c>
+      <c r="AF51" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('December 25th', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE51" t="n">
+      <c r="AG51" t="n">
         <v>23.97223591804504</v>
       </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
       <c r="AH51" t="n">
         <v>0</v>
       </c>
       <c r="AI51" t="n">
         <v>0</v>
       </c>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
       <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="n">
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="n">
         <v>52</v>
       </c>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr">
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
       <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
-      <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB51" t="n">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.775</v>
       </c>
       <c r="BD51" t="n">
         <v>154</v>
@@ -9054,68 +9450,80 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="n">
+        <v>0.5422173768216975</v>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr">
+      <c r="AC52" t="n">
+        <v>0.5414574146270752</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.6815154552459717</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.6112378835678101</v>
+      </c>
+      <c r="AF52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AE52" t="n">
+      <c r="AG52" t="n">
         <v>12.93182849884033</v>
       </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
       <c r="AH52" t="n">
         <v>0</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
       </c>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
       <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="n">
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="n">
         <v>53</v>
       </c>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr">
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="inlineStr"/>
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="inlineStr"/>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.1333333333333333</v>
+      </c>
       <c r="BD52" t="n">
         <v>71</v>
       </c>
@@ -9192,71 +9600,79 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="n">
+        <v>0.2307679296112307</v>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr">
+      <c r="AC53" t="n">
+        <v>-0.3910104632377625</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.3683236241340637</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-0.03891173750162125</v>
+      </c>
+      <c r="AF53" t="inlineStr">
         <is>
           <t>[('Mount Everest', 'LOC'), ('8,848.86 meters', 'QUANTITY'), ('29,032.6 feet', 'QUANTITY')]</t>
         </is>
       </c>
-      <c r="AE53" t="n">
+      <c r="AG53" t="n">
         <v>13.47611379623413</v>
       </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
       <c r="AH53" t="n">
         <v>0</v>
       </c>
       <c r="AI53" t="n">
         <v>0</v>
       </c>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
       <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="n">
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="n">
         <v>54</v>
       </c>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr">
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
-      <c r="BB53" t="inlineStr"/>
-      <c r="BC53" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
       </c>
       <c r="BD53" t="n">
         <v>101</v>
@@ -9334,71 +9750,79 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="n">
+        <v>0.08631140209789417</v>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr">
+      <c r="AC54" t="n">
+        <v>-0.08317028731107712</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.1450195610523224</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.02988739125430584</v>
+      </c>
+      <c r="AF54" t="inlineStr">
         <is>
           <t>[('100 degrees Celsius', 'QUANTITY'), ('212 degrees', 'QUANTITY'), ('Fahrenheit', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AE54" t="n">
+      <c r="AG54" t="n">
         <v>10.59204339981079</v>
       </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
       <c r="AH54" t="n">
         <v>0</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
       </c>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="n">
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="n">
         <v>55</v>
       </c>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr">
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="inlineStr"/>
       <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr"/>
-      <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB54" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.3796296296296296</v>
       </c>
       <c r="BD54" t="n">
         <v>197</v>
@@ -9477,68 +9901,80 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr">
+      <c r="AC55" t="n">
+        <v>-0.1768083572387695</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.2397228926420212</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.02432085201144218</v>
+      </c>
+      <c r="AF55" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE55" t="n">
+      <c r="AG55" t="n">
         <v>11.29056572914124</v>
       </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
       <c r="AH55" t="n">
         <v>0</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
       </c>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
       <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="n">
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="n">
         <v>56</v>
       </c>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr">
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT55" t="inlineStr"/>
-      <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="inlineStr"/>
       <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="inlineStr"/>
-      <c r="BB55" t="inlineStr"/>
-      <c r="BC55" t="inlineStr"/>
+      <c r="BB55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.45</v>
+      </c>
       <c r="BD55" t="n">
         <v>119</v>
       </c>
@@ -9615,71 +10051,79 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="n">
+        <v>0.1718959704551331</v>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr">
+      <c r="AC56" t="n">
+        <v>-0.3067499101161957</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.1023713648319244</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.1090334579348564</v>
+      </c>
+      <c r="AF56" t="inlineStr">
         <is>
           <t>[('Harper Lee', 'PERSON'), ('1926', 'DATE'), ('New Orleans', 'GPE'), ('Louisiana', 'GPE'), ('American', 'NORP'), ('Lee', 'PERSON'), ('Mockingbird', 'GPE'), ('Lee', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE56" t="n">
+      <c r="AG56" t="n">
         <v>16.28455948829651</v>
       </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
       <c r="AH56" t="n">
         <v>0</v>
       </c>
       <c r="AI56" t="n">
         <v>0</v>
       </c>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
       <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="n">
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="n">
         <v>57</v>
       </c>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr">
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="inlineStr"/>
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
-      <c r="BB56" t="inlineStr"/>
-      <c r="BC56" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB56" t="n">
+        <v>0.1339393939393939</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.2042424242424243</v>
       </c>
       <c r="BD56" t="n">
         <v>390</v>
@@ -9758,71 +10202,79 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr">
+      <c r="AC57" t="n">
+        <v>-0.2439294010400772</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.114407904446125</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-0.06960292905569077</v>
+      </c>
+      <c r="AF57" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('3', 'CARDINAL')]</t>
         </is>
       </c>
-      <c r="AE57" t="n">
+      <c r="AG57" t="n">
         <v>4.63580060005188</v>
       </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
       <c r="AH57" t="n">
         <v>0</v>
       </c>
       <c r="AI57" t="n">
         <v>0</v>
       </c>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
       <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="n">
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="n">
         <v>58</v>
       </c>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr">
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
       </c>
       <c r="BD57" t="n">
         <v>53</v>
@@ -9900,71 +10352,79 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="n">
+        <v>0.2307679296112307</v>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr">
+      <c r="AC58" t="n">
+        <v>-0.1001063734292984</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.2387317568063736</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.0651061162352562</v>
+      </c>
+      <c r="AF58" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('Christians', 'NORP'), ('December 25th to January 1st', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE58" t="n">
+      <c r="AG58" t="n">
         <v>14.12414336204529</v>
       </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
       <c r="AH58" t="n">
         <v>0</v>
       </c>
       <c r="AI58" t="n">
         <v>0</v>
       </c>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
       <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="n">
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="n">
         <v>59</v>
       </c>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr">
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
       <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB58" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.75</v>
       </c>
       <c r="BD58" t="n">
         <v>115</v>
@@ -10042,71 +10502,79 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="n">
+        <v>0.6280886237721275</v>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr">
+      <c r="AC59" t="n">
+        <v>0.6443110108375549</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.8022511005401611</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.7226333022117615</v>
+      </c>
+      <c r="AF59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AE59" t="n">
+      <c r="AG59" t="n">
         <v>5.235190391540527</v>
       </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
       <c r="AH59" t="n">
         <v>0</v>
       </c>
       <c r="AI59" t="n">
         <v>0</v>
       </c>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
       <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="n">
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="n">
         <v>60</v>
       </c>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr">
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT59" t="inlineStr"/>
-      <c r="AU59" t="inlineStr"/>
       <c r="AV59" t="inlineStr"/>
       <c r="AW59" t="inlineStr"/>
       <c r="AX59" t="inlineStr"/>
       <c r="AY59" t="inlineStr"/>
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
-      <c r="BB59" t="inlineStr"/>
-      <c r="BC59" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB59" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.4222222222222223</v>
       </c>
       <c r="BD59" t="n">
         <v>85</v>
@@ -10185,68 +10653,80 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="n">
+        <v>0.3032160644503863</v>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr">
+      <c r="AC60" t="n">
+        <v>-0.1826222240924835</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.05433524399995804</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.1175111085176468</v>
+      </c>
+      <c r="AF60" t="inlineStr">
         <is>
           <t>[('France', 'GPE'), ('Paris', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE60" t="n">
+      <c r="AG60" t="n">
         <v>3.900015830993652</v>
       </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
       <c r="AH60" t="n">
         <v>0</v>
       </c>
       <c r="AI60" t="n">
         <v>0</v>
       </c>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
       <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="n">
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="n">
         <v>61</v>
       </c>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr">
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT60" t="inlineStr"/>
-      <c r="AU60" t="inlineStr"/>
       <c r="AV60" t="inlineStr"/>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="inlineStr"/>
       <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
-      <c r="BB60" t="inlineStr"/>
-      <c r="BC60" t="inlineStr"/>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
       <c r="BD60" t="n">
         <v>33</v>
       </c>
@@ -10323,68 +10803,80 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr">
+      <c r="AC61" t="n">
+        <v>-0.2551573812961578</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>-0.06928646564483643</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>-0.1621356010437012</v>
+      </c>
+      <c r="AF61" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE'), ('every 7 days', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE61" t="n">
+      <c r="AG61" t="n">
         <v>4.950026988983154</v>
       </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
       <c r="AH61" t="n">
         <v>0</v>
       </c>
       <c r="AI61" t="n">
         <v>0</v>
       </c>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
       <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="n">
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="n">
         <v>62</v>
       </c>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr">
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AU61" t="inlineStr"/>
       <c r="AV61" t="inlineStr"/>
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="inlineStr"/>
       <c r="AY61" t="inlineStr"/>
       <c r="AZ61" t="inlineStr"/>
       <c r="BA61" t="inlineStr"/>
-      <c r="BB61" t="inlineStr"/>
-      <c r="BC61" t="inlineStr"/>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
       <c r="BD61" t="n">
         <v>79</v>
       </c>
@@ -10461,68 +10953,80 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="n">
+        <v>0.1194063890824266</v>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr">
+      <c r="AC62" t="n">
+        <v>-0.4715230166912079</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-0.1028304994106293</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-0.2923757135868073</v>
+      </c>
+      <c r="AF62" t="inlineStr">
         <is>
           <t>[('Jupiter', 'LOC'), ('318', 'CARDINAL'), ('Earth', 'LOC'), ('143,892 kilometers', 'QUANTITY'), ('1.431 billion cubic kilometers', 'QUANTITY')]</t>
         </is>
       </c>
-      <c r="AE62" t="n">
+      <c r="AG62" t="n">
         <v>8.451048374176025</v>
       </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
       <c r="AH62" t="n">
         <v>0</v>
       </c>
       <c r="AI62" t="n">
         <v>0</v>
       </c>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
+      <c r="AJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0</v>
+      </c>
       <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="n">
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="n">
         <v>64</v>
       </c>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr">
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT62" t="inlineStr"/>
-      <c r="AU62" t="inlineStr"/>
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="inlineStr"/>
       <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
-      <c r="BB62" t="inlineStr"/>
-      <c r="BC62" t="inlineStr"/>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0</v>
+      </c>
       <c r="BD62" t="n">
         <v>167</v>
       </c>

--- a/prompt_responses_rated.xlsx
+++ b/prompt_responses_rated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Token_Match</t>
+          <t>Token_Matching</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -566,210 +566,215 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Noun_Phrases</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>Spelling_Errors</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Spelling_Error_Qty</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>BERT_Precision</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>BERT_Recall</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>BERT_F1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Named_Entities</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Response_Dur</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Chars/Sec</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Words/Sec</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Tokens/Sec</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Sentences/Sec</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Msg_Timestamp</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Msg_Month</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Msg_Year</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Msg_AuthorRole</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Msg_AuthorName</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>GPT_Name</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>GPT_ID</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Sequence_Number</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Stored_Memory</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Msg_Status</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Msg_EndTurn</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Msg_Weight</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Msg_VoiceMode</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Msg_Metadata</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Msg_Parent_ID</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Msg_Children_IDs</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Sentiment_Polarity</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Sentiment_Subjectivity</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Chars_Total</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Sentences_Total</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Words_Total</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Tokens_Total</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Img_Generated</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Img_URL</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Img_Size_Bytes</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Img_Width</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Img_Height</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Img_Fovea</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Img_Gen_ID</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Img_Prompt</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Img_Seed</t>
         </is>
@@ -863,28 +868,24 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>## Quantum Computing, A Glimpse, the Future (2024 Update, The world, quantum computing, exciting breakthroughs, a regular basis, a glimpse, the latest developments, their potential implications, cryptography, Breakthroughs, Hardware, *Duality, qubits, Quantum computers, different qubit technologies, Superconducting qubits, trapped ions, which, higher coherence times, improved scalability, * **Improved control, * Advancements, quantum control techniques, more precise manipulation, individual qubits, increased accuracy, stability, computations, * **Increased fidelity, The error rates, quantum operations, us, the required level, precision, complex calculations, * **Scalability:** Research, the number, qubits, Companies, Rigetti, IBM, larger quantum computers, that, more complex problems, Progress, Software, Algorithms, Quantum, The development, specialized quantum algorithms, certain computational tasks, promising results, These, **Shor, :*, large numbers, a fundamental problem, encryption systems, * **Grover's algorithm, A search algorithm, that, significant speedups, specific data sets, * **Quantum software development tools, :** Specialized software packages, the process, quantum algorithms, them, non, -, experts, New Horizons, Quantum Applications, * **Drug discovery, Quantum simulation techniques, drug discovery, insights, complex molecular interactions, faster and more effective drug development, * **Materials science, Quantum computers, the properties, new materials, the design, development, innovative materials, tailored functionalities, Quantum algorithms, complex optimization problems, various industries, logistics, finance, **4. Implications, The potential impact, quantum computing, cryptography, RSA, ECC, large numbers, classical computers, widely used public-key cryptosystems, RSA, ECC, * **Post-quantum cryptography, PQC, The development, new cryptographic algorithms, quantum attacks, a high priority, This, diverse approaches, lattice-based cryptography, code-based cryptography, hash-based cryptography, * **Security, the future, Quantum computing, new paradigms, data security, Existing encryption methods, re, -, evaluation, adaptation, long-term protection, **Key Takeaways, Cryptography, :*, a quantum future, robust PQC techniques, secure communication, a post-quantum world, * **Collaboration, disciplines, The advancement, quantum technologies, collaboration, computer scientists, cryptography experts, mathematicians, engineers, research, development, * Continuous investment, research, development, PQC, the security, sensitive data, a quantum era, The field, quantum computing, the boundaries, what, We, further advancements, hardware, software, algorithms, more powerful and efficient quantum computers, we, the realm, quantum capabilities, the implications, cryptography, proactive steps, our future, this new technological landscape, It, this dynamic field, it, the technological landscape</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>-0.1403067708015442</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.232819601893425</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.04083859175443649</v>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>[('## Quantum Computing', 'MONEY'), ('quantum', 'ORG'), ('2024', 'DATE'), ('1', 'CARDINAL'), ('Quantum', 'ORG'), ('quantum', 'ORG'), ('Rigetti', 'LOC'), ('IBM', 'ORG'), ('2', 'CARDINAL'), ('Quantum', 'ORG'), ('Shor', 'PERSON'), ('Grover', 'PERSON'), ('3', 'CARDINAL'), ('New Horizons', 'ORG'), ('Quantum', 'ORG'), ('Quantum', 'ORG'), ('4', 'CARDINAL'), ('quantum', 'ORG'), ('RSA &amp; ECC:*', 'ORG'), ('Quantum', 'ORG'), ('RSA &amp; ECC', 'ORG'), ('PQC', 'ORG'), ('quantum', 'ORG'), ('Quantum', 'ORG'), ('Key Takeaways', 'PERSON'), ('PQC', 'ORG'), ('quantum technologies', 'ORG'), ('PQC', 'ORG'), ('2024', 'DATE'), ('quantum', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>100.1532454490662</v>
       </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
@@ -894,55 +895,57 @@
       <c r="AK2" t="n">
         <v>0</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr">
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr">
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="n">
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="n">
         <v>1</v>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr">
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="n">
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="n">
         <v>0.1191890331890332</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.5384981407481406</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>4262</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>31</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>546</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>831</v>
       </c>
-      <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
@@ -951,6 +954,7 @@
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1024,28 +1028,24 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>You, a future IPCC report, Climate Change, IPCC, The most recently updated report, *, several key findings, **Key Findings, the IPCC AR6 Report, Climate change, The evidence, human activities, global warming, * **Widespread impacts, ecosystems, societies, economies, Extreme weather events, sea level rise, biodiversity loss, increased water scarcity, food insecurity, migration, consequences, climate change, * **Urgent action, a 1.5°C limit, 1.5°, C, pre-industrial levels, the most severe impacts, climate change, This, substantial and rapid reductions, greenhouse gas emissions, * **Potential tipping points, Certain natural systems, the Arctic ice sheet, the ocean's carbon sink capacity, abrupt and irreversible changes, **Key Messages, The impacts, climate change, the globe, significant action, global warming, 1.5°, C, pre-industrial levels, catastrophic consequences, This, urgent and sustained efforts, both mitigation, emissions, adaptation, climate impacts, **Note, The IPCC, reports, new findings, these, their website, https://www.ipcc.ch/., me, you, any other questions, the IPCC or climate change</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>0.001959769520908594</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.267485648393631</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.1326631754636765</v>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>[('2021', 'DATE'), ('2024', 'DATE'), ('the IPCC AR6 Report', 'ORG'), ('2021', 'DATE'), ('1.5', 'CARDINAL'), ('1.5', 'CARDINAL'), ('Arctic', 'LOC'), ('1.5', 'CARDINAL'), ('IPCC', 'ORG'), ('IPCC', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>42.30945801734924</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
@@ -1055,55 +1055,57 @@
       <c r="AK3" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr">
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr">
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="n">
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="n">
         <v>2</v>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr">
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="n">
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="n">
         <v>0.07064664502164503</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.5075965700965701</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>1691</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>12</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>241</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>370</v>
       </c>
-      <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
@@ -1112,6 +1114,7 @@
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1195,28 +1198,24 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>##, The Artemis Program, a Course, Lunar Exploration, The Artemis program, NASA's ambitious effort, humans, the Moon, a sustainable presence, immense potential, both scientific discovery, technological innovation, **Current Status, **Successful Missions, I, November, a test flight, the Moon, key propulsion systems, crucial data collection, future missions, Infrastructure, the Lunar Gateway, a space station, lunar orbit, that, a staging point, crewed missions, the surface, The first construction module, the Gateway, "Jade, * **Human Landing System (HLS) Development, SpaceX's Starship, NASA's Space Launch System, SLS, parallel, reliable transportation, astronauts, the Moon, The Orion spacecraft, Lockheed Martin, crews, Artemis missions, *Lunar Scientific Exploration:** Research, the Moon’s surface composition, geological history, potential resources, future lunar settlements, The first lunar rover mission, NASA's Lunar Reconnaissance Orbiter, (LRO, high-resolution images, data, **Future Prospects, **Artemis II Mission, a 2024 launch, this, astronauts, the Moon, them, the lunar south pole, This, a crucial step, a human presence, the moon, essential technologies, * **Lunar Gateway Operations, The first crewed mission, the Lunar Gateway, a turning point, permanent human settlements, the Moon, * **Sustained Presence, The ultimate goal, Artemis, a sustained presence, the Moon, a lunar base, which, a launching pad, future exploration and scientific research, This, mining resources, water ice, Helium-3, energy production, other applications, **Goals, Lunar Exploration, **Scientific Discoveries, the Moon's geological history, its atmosphere, potential resource availability, our understanding, the solar system, the origins, life, * **Technological Advancement, The Artemis program, advanced technologies, that, humankind, Earth and space exploration, the Moon, reusable rockets, situ, ISRU, sustainable energy solutions, * **Humanity's Future, The lunar base, a stepping stone, long-term human presence, space, potentially even interplanetary travel, Mars, **Challenges, **Cost &amp; Schedule Delays, the program, ambitious goals, it, challenges, cost overruns, delays, certain missions, technical difficulties, changes, priorities, * **International Collaboration, The Moon, a shared resource, international cooperation, its long-term sustainability, scientific progress, the challenges, the Artemis program, a historic step, human space exploration, continuous development, commitment, its goals, it, the potential, our understanding, the Moon, the way, future generations, the solar system, It, public perception, the program, some, skepticism, its timeline and cost-effectiveness, the program's scientific significance, technological advancements, it, the future</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>0.01116325799375772</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.4220069646835327</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.2096892148256302</v>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Artemis', 'ORG'), ('NASA', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('November 2022', 'DATE'), ('Moon', 'PERSON'), ('the Lunar Gateway', 'FAC'), ('first', 'ORDINAL'), ('Gateway', 'PERSON'), ('this year', 'DATE'), ('Starship', 'PERSON'), ('NASA', 'ORG'), ('Space Launch System', 'ORG'), ('Orion', 'ORG'), ('Lockheed Martin', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('first', 'ORDINAL'), ('NASA', 'ORG'), ('Lunar Reconnaissance Orbiter', 'ORG'), ('LRO', 'ORG'), ('Artemis II Mission:*', 'ORG'), ('2024', 'DATE'), ('Moon', 'PERSON'), ('Lunar Gateway Operations:*', 'ORG'), ('first', 'ORDINAL'), ('the Lunar Gateway', 'FAC'), ('the early 2030s', 'DATE'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Earth', 'LOC'), ('Moon', 'PERSON'), ('ISRU', 'ORG'), ('Mars', 'LOC'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>91.65349817276001</v>
       </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
@@ -1226,55 +1225,57 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr">
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr">
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="n">
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="n">
         <v>3</v>
       </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr">
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="n">
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="n">
         <v>0.03775510204081633</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.4542517006802723</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>3896</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>22</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>552</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>754</v>
       </c>
-      <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
@@ -1283,6 +1284,7 @@
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1371,28 +1373,26 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>## CRISPR, Medicine, Precision Editing
+CRISPR, Regularly Interspaced Short Palindromic Repeats, gene editing, unprecedented precision, efficiency, previous techniques, homologous recombination, This breakthrough, a revolution, biomedical research, unlocking groundbreaking potential, diseases, an overview, recent CRISPR breakthroughs, their medical applications, Targeting Accuracy, **Base Editing, This method, the need, double-strand breaks, -target, single base pairs, the genome, This, precise correction, genetic defects, potentially harmful insertions, deletions, * **Prime Editing, A more versatile technique, that, specific insertions, substitutions, a desired location, the DNA sequence, It, greater precision, traditional CRISPR systems, bypasses, the need, double-stranded breaks, accuracy, Therapeutic Applications, :*, **Cancer Therapy, :*, * **CAR-T Cell Therapy:**  Modified T cells, CRISPR tools, specific cancer cells, unprecedented precision, This, a game-changer, certain blood cancers, leukemia, lymphoma, * CRISPR technology, immune cells, enhanced effectiveness, tumor cells, * **Gene Silencing, Cancer Therapy, CRISPR, the expression, genes, that, cancer cell growth, This approach, promise, various cancers, Cystic Fibrosis, cystic fibrosis, lung function, digestion, mutations, the CFTR gene, these therapies, normal cellular activity, the disease, * **Sickle Cell Anemia, This blood disorder, misshapen red blood cells, CRISPR technology, immense potential, sickle cell anemia, the faulty gene, its development, * **Infectious Diseases, *Antimicrobial Resistance, CRISPR, drug-resistant bacteria, treatment options, infections, tuberculosis, MRSA, Methicillin-resistant Staphylococcus aureus, This technology, the growing concern, antibiotic resistance, Diseases, :*, **Precision Breeding, :*, CRISPR, agriculture, targeted genetic modifications, crops, yields, disease resistance, nutritional content, * **Gene Therapy, CRISPR, therapeutic genes, cells, specific mutations, This technique, immense potential, various diseases, that, gene malfunction, Ongoing Challenges, Future Directions, :*, the potential, CRISPR technology, several challenges, **Delivery Efficiency, efficient delivery, CRISPR components, cells, a significant hurdle, * **Long-Term Effects:** Research, long-term effects, CRISPR gene, individuals, subsequent generations, * **Ethical Concerns:** Societal implications, genetic modification, careful ethical considerations, regulatory oversight, Conclusion:**
+CRISPR technology, a game-changer, medical science, unprecedented precision, potential, previously incurable diseases, Continued research, development, new breakthroughs, various fields, gene therapy, personalized medicine, infectious diseases, The future, medicine, a transformative shift, CRISPR, its forefront, this, just an overview, further research, specific applications, CRISPR technology, medicine, scientific publications, resources, PubMed</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>-0.1377714425325394</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.2859005331993103</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.06663424521684647</v>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>[('CRISPR', 'PERSON'), ('1', 'CARDINAL'), ('CRISPR', 'PERSON'), ('2', 'CARDINAL'), ('Cancer Therapy:*', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('Gene Silencing', 'PERSON'), ('CRISPR', 'GPE'), ('CFTR', 'ORG'), ('CRISPR technology holds immense', 'ORG'), ('Antimicrobial Resistance:*', 'ORG'), ('Methicillin', 'PERSON'), ('Staphylococcus aureus', 'PERSON'), ('3', 'CARDINAL'), ('CRISPR', 'PERSON'), ('Gene Therapy:*', 'PERSON'), ('4', 'CARDINAL'), ('Challenges and Future Directions', 'ORG'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('PubMed', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>102.7815997600555</v>
       </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
@@ -1402,55 +1402,57 @@
       <c r="AK5" t="n">
         <v>0</v>
       </c>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr">
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr">
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="n">
         <v>4</v>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr">
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="n">
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="n">
         <v>0.02909050825717492</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.5356577064910398</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5" t="n">
         <v>4255</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5" t="n">
         <v>31</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5" t="n">
         <v>539</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5" t="n">
         <v>834</v>
       </c>
-      <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
@@ -1459,6 +1461,7 @@
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1541,28 +1544,24 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>It, who, the 2024 Nobel Prize, Physics, the awards, we, some potential contenders, significant breakthroughs, physics, that, interest, a possible prize, *Potential Candidates, Research Areas, :*, **Quantum Technologies, This, an area, massive growth, progress, Researchers, the boundaries, quantum computing, quantum teleportation, other groundbreaking technologies, * **Fundamental Physics Research:** Discoveries, dark matter, , dark energy, the Higgs Boson, gravitational waves, strong contenders, this prestigious award, * **Particle Physics:**  Progress, experiments, the LHC, Large Hadron Collider, new particles, forces, potential Nobel-worthy research findings, **Factors, the Award, :*, **Groundbreaking Research, The prize, that, our understanding, the universe, innovative scientific techniques, Society, far-reaching implications, technology, medicine, our understanding, the world, us, * **Collaboration and Interdisciplinarity:*, collaborative efforts, multiple disciplines, groundbreaking findings, **Key Research Areas, that, an Award, **Gravitational Waves, This Nobel-winning research, astronomy, physics, direct evidence, gravitational waves, insights, black holes, neutron stars, the universe's early moments, 2. **Quantum Technologies:**  Advancements, quantum computing, sensing, communication, cryptography, exciting breakthroughs, that, various industries, This research, a prize, fundamental advancement, its practical applications, **Neutrino Physics:*, The study, neutrinos, momentum, clues, the universe's formation, evolution, Breakthroughs, experiments, theoretical models, physics, a strong possibility, an award, 4. **Dark Matter, Dark Energy, The mysteries, dark matter, dark energy, physicists, research, their nature, properties, Significant discoveries, breakthroughs, Nobel Prize attention, **Important Note, The Nobel Prize, Physics, the Swedish Royal Academy, Sciences, their evaluation criteria, potential contenders, award news, you, **Nobelprize.org:**  Website, official information, the Nobel Prizes, * **Physics News Outlets, The physics community, possible candidates, the prize, individuals, teams, who, groundbreaking contributions, science, an eye, exciting developments, the world, Physics</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>-0.2300157397985458</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.193474143743515</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>-0.02571054361760616</v>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>[('2024', 'DATE'), ('Nobel Prize in Physics', 'WORK_OF_ART'), ('Potential Candidates &amp; Research Areas:*', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Fundamental Physics Research:*', 'ORG'), ('the Higgs Boson', 'ORG'), ('Particle Physics:*', 'ORG'), ('Groundbreaking Research:*', 'ORG'), ('Award', 'PERSON'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('3', 'CARDINAL'), ('Neutrino Physics:*', 'ORG'), ('4', 'CARDINAL'), ('Dark Matter &amp; Dark Energy:*', 'ORG'), ('Nobel Prize', 'WORK_OF_ART'), ('The Nobel Prize in Physics', 'WORK_OF_ART'), ('the Swedish Royal Academy of Sciences', 'ORG'), ('Nobelprize.org', 'ORG'), ('the Nobel Prizes', 'WORK_OF_ART'), ('Physics News Outlets:*', 'ORG'), ('Physics', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>77.72137665748596</v>
       </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
@@ -1572,55 +1571,57 @@
       <c r="AK6" t="n">
         <v>0</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr">
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr">
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="n">
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="n">
         <v>5</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr">
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="n">
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="n">
         <v>0.1124868374868375</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.6226395226395226</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6" t="n">
         <v>3075</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>23</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>411</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
         <v>598</v>
       </c>
-      <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
@@ -1629,6 +1630,7 @@
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1708,28 +1710,24 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>The Impact, a Potential 2024 Global Energy Crisis, Renewable Energy Adoption, International Relations, immense geopolitical and economic potential, one critical variable, : the possibility, a significant global energy crisis, This hypothetical crisis, renewable energy adoption, international relations, several ways, *Impact, Renewable Energy Adoption, *Acceleration, Transition, A severe energy crisis, a catalyst, faster transition, renewables, High energy prices, security concerns, governments, businesses, their energy portfolios, renewable sources, existing political stances, * **Investment Surge, the urgency, alternative solutions, investment, renewable energy technologies, This, a race, resources, expertise, new job opportunities, innovation, * **Regional Power Shifts, Existing geopolitical alliances, countries, their energy independence, renewable sources, This, a shift, power dynamics, certain nations, the global stage, **Impact, International Relations, **Geopolitical Tensions, A significant energy crisis, existing geopolitical tensions, new ones, those, fossil fuels, resource-rich countries, those, cleaner alternatives, friction points, Global Cooperation, The scale, the challenge, international cooperation, effective solutions, Collaboration, technology, resources, knowledge, a more sustainable energy future, * **Energy Security, The crisis, nations, their reliance, traditional fossil fuel sources, This, greater emphasis, bilateral agreements, trade deals, energy security, resource partnerships, **Challenges, Opportunities, :*, **Infrastructure Challenges, renewable infrastructure, significant investment, transmission networks, storage solutions, integration, existing grids, these challenges, successful adoption, renewables, * **Technological Advancement, : Further development, deployment, advanced technologies, smart grids, AI-driven energy management systems, portable batteries, a smooth transition, renewable energy sources, * **Social and Political Challenges, The social impact, fossil fuels, careful consideration, This, job displacement, the fossil fuel sector, equitable access, clean energy, all populations, **Conclusion, The potential 2024 global energy crisis, a critical inflection point, that, renewable energy adoption, significant challenges, The world, proactive international collaboration, innovative solutions, responsible policy decisions, this turning point, a sustainable future, It, this, a hypothetical scenario, current trends, The actual impact, such a crisis, multiple factors, the scale, duration, the crisis, available political will, technological advancements, social responses</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="n">
-        <v>-0.09463740885257721</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.2549121677875519</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.07555900514125824</v>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('The year 2024', 'DATE'), ('one', 'CARDINAL'), ('International Relations:*', 'ORG'), ('AI', 'ORG'), ('2024', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>76.08661985397339</v>
       </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
@@ -1739,55 +1737,57 @@
       <c r="AK7" t="n">
         <v>0</v>
       </c>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr">
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr">
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="n">
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="n">
         <v>7</v>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr">
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="n">
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="n">
         <v>0.1470143398268398</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.4777387716450217</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7" t="n">
         <v>3574</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>21</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>466</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>629</v>
       </c>
-      <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
@@ -1796,6 +1796,7 @@
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1881,28 +1882,24 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>##  Emerging Market Economic Outlook, A Balancing Act, Uncertainty, The 2024 economic outlook, emerging markets, a complex landscape, both significant potential and considerable challenges, The coming year, a continued dynamic, positive factors, structural reforms, global recovery momentum, persistent headwinds, rising inflation, geopolitical instability, lingering supply chain disruptions, *Factors, growth, **Global Recovery, Rebound, Demand, Emerging market economies, robust growth, a rebound, global demand, the continued easing, COVID-19 restrictions, This recovery, countries, well-established manufacturing sectors, export capabilities, * **Structural Reforms, Investment, Many emerging markets, structural reforms, productivity, foreign investment, sustainable economic growth, These initiatives, increased access, capital, expansion, key sectors, technology, infrastructure, agriculture, * **Demographic Shifts, Emerging Consumer Markets, A growing middle class, a young population, many emerging economies, domestic demand, goods, services, opportunities, businesses, financial inclusion, This demographic shift, significant potential, economic growth, **Challenges, Risks, * **Inflationary Pressures:** High global commodity prices, supply chain bottlenecks, lingering effects, inflation, many emerging markets, This inflationary pressure, a risk, stability, careful monetary policy management, * **Geopolitical Uncertainty, Conflict, The Russia-Ukraine war, ongoing tensions, major powers, layers, volatility, the global economy, uncertainty, emerging markets, This geopolitical uncertainty, headwinds, economic expansion, investment decisions, * **Currency Fluctuations &amp; Exchange Rate Risks, Emerging market currencies, significant fluctuations, the face, global monetary policy shifts, volatile capital flows, This, risks, businesses, borders, their profitability, competitiveness, * **Debt Sustainability, Financial Fragility, Many emerging economies, high debt levels, countries, limited access, international financing, a weakened currency, This vulnerability, the need, responsible fiscal policies, prudent financial management, risks, Emerging markets, significant diversity, each region, unique challenges, opportunities, * **Asia:**  Countries, India, China, strong growth, India's large domestic market, substantial potential, expansion, China's economic recovery, promise, regional trade, investment, * **Latin America, a period, slow growth, Latin American economies, resilience, recent years, Structural reforms, rising commodity prices, demand, growth, key sectors, mining, energy, * **Africa, Africa, rapid urbanization, the continent, significant economic expansion, challenges, political instability, resource-dependent economies, a considerable hurdle, sustained growth, **Potential Outlook Scenarios, Optimistic Scenario, Strong global recovery, continued structural reforms, increased investment, key sectors, favorable policy environments, growth, many emerging markets, regional powerhouses, India, China, the way, * **Pessimistic Scenario:**  Rising inflation, geopolitical tensions, volatile exchange rates, limited access, finance, significant challenges, economic expansion and hinder growth trajectories, many regions, **Conclusion, The 2024 outlook, emerging markets, a complex balancing act, potential opportunities, significant risks, the global economy, signs, recovery, strong growth, certain regions, persistent headwinds, inflation, geopolitical instability, limited access, finance, substantial challenges, these economies, investors, policymakers, this turbulent landscape, careful planning, strategic allocation, resources, a focus, long-term sustainability, both individual markets, the global economy, a whole, It, This analysis, an overview, current trends, forecasts, The actual economic outlook, these projections, unforeseen events, dynamic market conditions, knowledge, reliable sources, reputable research institutions, financial news outlets, this evolving landscape</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
-        <v>-0.04173212498426437</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.3762732446193695</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.1600854992866516</v>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>[('2024', 'CARDINAL'), ('The coming year', 'DATE'), ('Global Recovery &amp; Rebound', 'ORG'), ('2024', 'DATE'), ('COVID-19', 'ORG'), ('Structural Reforms &amp; Investment:*', 'ORG'), ('Demographic Shifts &amp; Emerging Consumer Markets:*', 'ORG'), ('Geopolitical Uncertainty &amp; Conflict:*', 'ORG'), ('Russia', 'GPE'), ('Fluctuations &amp; Exchange Rate Risks:*', 'ORG'), ('Sustainability &amp; Financial Fragility:*', 'ORG'), ('Asia', 'LOC'), ('Countries', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE'), ('India', 'GPE'), ('China', 'GPE'), ('Latin America:*', 'LOC'), ('Latin American', 'NORP'), ('recent years', 'DATE'), ('Africa', 'LOC'), ('Africa', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>120.6711721420288</v>
       </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
@@ -1912,55 +1909,57 @@
       <c r="AK8" t="n">
         <v>0</v>
       </c>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr">
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr">
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="n">
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
         <v>8</v>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr">
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="n">
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="n">
         <v>0.115196478778953</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BD8" t="n">
         <v>0.4191334953706087</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BE8" t="n">
         <v>5304</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BF8" t="n">
         <v>30</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BG8" t="n">
         <v>686</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BH8" t="n">
         <v>953</v>
       </c>
-      <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
@@ -1969,6 +1968,7 @@
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2056,28 +2056,26 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>A Spark, Hope, a Sustainable Future
+Fusion energy, the promise, a nearly limitless, clean, and safe source, power, Recent advancements, us, this dream, a breakdown, recent breakthroughs, their potential, *, Progress, Achieving Ignition, *National Ignition Facility, NIF, Lawrence Livermore National Laboratory, LLNL, NIF, a breakthrough, a fusion reaction, that, more energy, it, the process, a significant milestone, controlled fusion, This experiment, the potential, sustained energy production, the future, * **Experimental Advanced Superconducting Tokamak, (EAST, Princeton Plasma Physics Laboratory, (PPPL, These institutions, high plasma temperatures, densities, which, fusion reactions, Development, New Technologies, **Magnetic Confinement Fusion, MCF, This method, plasma, strong magnetic fields, Recent progress, materials research, development, the efficiency, stability, magnetic confinement systems, tokamaks, stellarators, * **Inertial Confinement Fusion (ICF, This approach, lasers, particle beams, heat fuel pellets, Significant improvements, laser technology, more controlled and efficient implosion experiments, Sustainability, Scalability, *Recycling, resources, Efforts, technologies, that, the recycling, tritium, a radioactive isotope, fusion reactions, efficiency, * **Cost-effective production:**  Research, ways, the cost, operating fusion reactors, this technology, **Potential Revolution, the Energy Sector, fusion energy, the potential, the world's energy sector, Clean &amp; Sustainable:** Fusion reactions, no greenhouse gases, virtually no long-lived radioactive waste, it, * **Endless Fuel, The fuel, fusion, seawater, a virtually inexhaustible supply, power, **High Energy Output:** Fusion reactions, massive amounts, energy, efficient and reliable power generation, demand, * **Energy Security:**  Fusion, a degree, energy security, reliance, fossil fuels, nuclear weapons-derived technologies, the progress, fusion research, several challenges, sustained energy output, the intense heat, pressure, fusion reactions, a complex task, * **Economic feasibility, efficient and cost-effective commercial reactor designs, wide-scale adoption, * **Safety, waste management, safety concerns, tritium handling, managing long-lived radioactive waste, a critical priority, Conclusion:**
+Fusion energy research, significant strides, us, a future, this clean and sustainable energy source, the challenges, the full potential, fusion, continued collaboration, scientific communities, governments, private companies</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>-0.1239426881074905</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.3529394567012787</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.1047068685293198</v>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>[('## Fusion Energy', 'MONEY'), ('1.', 'CARDINAL'), ('National Ignition Facility', 'ORG'), ('NIF', 'ORG'), ('Livermore National Laboratory', 'ORG'), ('2023', 'DATE'), ('NIF', 'ORG'), ('Princeton Plasma Physics Laboratory', 'ORG'), ('2', 'CARDINAL'), ('Development of New Technologies:*', 'ORG'), ('Magnetic Confinement Fusion', 'ORG'), ('MCF', 'ORG'), ('Inertial Confinement Fusion', 'ORG'), ('3', 'CARDINAL'), ('Clean &amp; Sustainable:** Fusion', 'ORG'), ('Challenges &amp; Road Ahead:*', 'ORG'), ('Safety &amp; waste management:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>83.15560221672058</v>
       </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
@@ -2087,55 +2085,57 @@
       <c r="AK9" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr">
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr">
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="n">
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
         <v>9</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr">
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="n">
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="n">
         <v>0.1486541889483066</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BD9" t="n">
         <v>0.5385858585858585</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BE9" t="n">
         <v>3557</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BF9" t="n">
         <v>23</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BG9" t="n">
         <v>469</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BH9" t="n">
         <v>693</v>
       </c>
-      <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
@@ -2144,6 +2144,7 @@
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2247,28 +2248,26 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>##, Ferroelectric Field-Effect Transistors, FeFETs, A Deep Dive
+Ferroelectric field-effect transistors, FeFETs, a promising class, semiconductor devices, that, unique capabilities, doors, advanced electronics, They, the properties, ferroelectrics, materials, electric polarization, novel device functionalities, **Key Features, Advantages, **High Performance, FeFETs, low voltages, fast switching speeds, their inherent ferroelectric behavior, * **Non-volatile Memory, Their ability, memory states, power removal, them, non-volatile memory applications, flash memory, * **Energy Efficiency, * FeFETs, significantly less power, traditional transistors, improved energy efficiency, They, lower operating voltages, currents, energy consumption, circuits, * **High Density Integration, Their compact structure, high integration density, the creation, smaller, more powerful electronic devices, **FeFETs, Traditional Transistors, :*, Traditional Transistors, Speed, | Slow, (milliseconds, | Voltage Operation, Low |
+| Power Consumption, potential, high density non-volatile memory, Advanced Electronics, :*, FeFETs, immense promise, next-generation non-volatile memory applications, Their ability, electric polarization, the development, faster and more energy-efficient memory devices, those, * **Analog Circuits, Signal Processing, speed, low power consumption, FeFETs, them, signal processing applications, analog filters, amplifiers, * **Logic Devices, * FeFETs, blocks, logic circuits, potential, new types, transistors, unique characteristics, performance advantages, **Role, Hafnium Oxide, HfO2, 2D Materials, FeFET Development, **Hafnium Oxide-Based Ferroelectrics, HfO2, a promising material, FeFETs, its high dielectric constant, it, electric fields, the device, It, efficient control, charge carrier movement, * **Advantages, High breakdown voltage, stability, * Excellent dielectric properties, * Relatively easy fabrication processes, 2. **2D Materials, The unique properties, 2D materials, hBN, significant interest, FeFET development, * **Advantages, High carrier mobility, Excellent electron-transporting capabilities, band structure, desired device functionality, **Challenges and Future Prospects, FeFET Technology, :*, the exciting potential, challenges, FeFET technology, **Device Stability, long-term stability, operational lifespan, commercial viability, Research, material stability, encapsulation techniques, Device, Structure, device structures, parasitic resistance, performance, an active area, research, Ferroelectric Behavior, Further research, the intricate details, ferroelectric behavior, FeFETs, further development, *Future Prospects, FeFET technology, a potential revolution, electronics, Future prospects, **Improved Memory Density and Performance:**  Advancements, device design and material engineering, higher memory density, speed, improved performance and energy efficiency, * **Integration, Other Technologies, :** FeFETs, integration, other technologies, nanowire transistors, quantum dots, the development, highly efficient and compact electronic devices, * **Emerging Applications, FeFET technology, a broad spectrum, potential applications, various sectors, sensors, energy harvesting, flexible electronics, * FeFETs, exciting possibilities, future electronics, challenges, continuous research and development efforts, advancements, this field, the next generation, high-performance, integrated electronic devices</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="n">
-        <v>-0.1107913628220558</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.298872321844101</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.08719215542078018</v>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('FeFETs', 'WORK_OF_ART'), ('A Deep Dive\n\nFerroelectric', 'WORK_OF_ART'), ('Key Features &amp; Advantages:*', 'ORG'), ('Feature', 'PRODUCT'), ('Traditional Transistors', 'ORG'), ('FeFETs', 'PERSON'), ('Slow', 'PERSON'), ('Fast', 'PERSON'), ('Power Consumption', 'PRODUCT'), ('Moderate', 'PERSON'), ('Memory', 'PRODUCT'), ('Limited', 'ORG'), ('Advanced Electronics:*', 'ORG'), ('Analog Circuits &amp; Signal Processing:*', 'ORG'), ('2D Materials', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('FeFET', 'NORP'), ('FeFET', 'GPE'), ('FeFETs', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>127.3822445869446</v>
       </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
@@ -2278,55 +2277,57 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr">
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr">
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="n">
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="n">
         <v>10</v>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr">
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="n">
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="n">
         <v>0.1370280106672512</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BD10" t="n">
         <v>0.5745205673370228</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BE10" t="n">
         <v>4692</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BF10" t="n">
         <v>31</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BG10" t="n">
         <v>561</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BH10" t="n">
         <v>949</v>
       </c>
-      <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
@@ -2335,6 +2336,7 @@
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2415,28 +2417,24 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>The Ethical Minefield, Autonomous Weapons Systems and Modern Warfare, The rise, autonomous weapons systems, AWS, killer robots, a host, complex ethical questions, potentially profound societal implications, **Ethical Considerations, *Moral Agency, Responsibility, machines, autonomous agents, who, the moral responsibility, their actions, Who, an AWS, what parameters, that decision, * **The Question, a Human Life, we, machines, humans, the same ethical framework, human soldiers, What, an AWS, a mistake, its programming, unintended casualties, * **Dehumanization, Loss, Control, AWS, our understanding, the realities, warfare, its consequences, desensitization, human life, * **Bias, Discrimination, machines, AWS, limitations, contextual nuances, potential biases, their actions, This, concerns, existing inequalities, warfare and civilian populations, **Potential Societal Impacts, Military Doctrine, Strategy, The integration, AWS, traditional military strategies, a more "precision-driven" approach, less emphasis, human casualties, * **Erosion, International Law, The use, autonomous weapons, the lines, international law, the accountability, control, armed forces, * **Increased Conflict, Global Instability, The development, deployment, AWS, an arms race, nations, existing geopolitical tensions, more unpredictable conflicts, * **Uneven Access, Disproportionate Impact, The ability, AWS, countries, access, resources, technological expertise, the risk, a global power imbalance, further conflict escalation, **Finding, Solutions, :*, these ethical concerns, collaborative efforts, multiple fronts, * **International Treaties, Regulations, global treaties, regulations, that, the development, deployment, AWS, The United Nations, a pivotal role, this effort, transparency, accountability, their use, * **Ethical Development Guidelines, strict guidelines, ethical AI development, military applications, This, AWS, clear limitations, safeguards, unintended consequences, * **Public Discourse, Awareness, public discourse, the ethical implications, AWS, informed discussions, future policies, their use, warfare, conclusion, autonomous weapons systems, potential benefits, human casualties, increasing precision, warfare, their development, a multitude, ethical concerns, We, the potential societal impacts, them, modern warfare, A responsible approach, international cooperation, strict regulations, ongoing public discourse, advancements, technology, the expense, fundamental moral principles</t>
+        </is>
+      </c>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
-        <v>-0.07635849714279175</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.3110949099063873</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.1113950535655022</v>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('Modern Warfare', 'ORG'), ('Moral Agency &amp; Responsibility:*', 'ORG'), ('AWS', 'ORG'), ('Taking a Human Life', 'WORK_OF_ART'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Potential Societal Impacts:*', 'ORG'), ('Military Doctrine &amp; Strategy:*', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Uneven Access &amp; Disproportionate Impact:*', 'ORG'), ('AWS', 'ORG'), ('International Treaties &amp; Regulations:*', 'ORG'), ('AWS', 'ORG'), ('The United Nations', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>84.84045839309692</v>
       </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
@@ -2446,55 +2444,57 @@
       <c r="AK11" t="n">
         <v>0</v>
       </c>
-      <c r="AL11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr">
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr">
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="n">
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
         <v>11</v>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr">
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="n">
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="n">
         <v>0.07421875000000003</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BD11" t="n">
         <v>0.4460937500000001</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BE11" t="n">
         <v>3529</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BF11" t="n">
         <v>22</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BG11" t="n">
         <v>467</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BH11" t="n">
         <v>661</v>
       </c>
-      <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
@@ -2503,6 +2503,7 @@
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2589,28 +2590,24 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>##  A Potential UBI, the Pros, Cons, The concept, a Universal Basic Income, UBI, every adult citizen, a guaranteed income, employment status, intense debate, the United States, The potential implications, key areas, employment, poverty, economic growth, social structure, **Positive Implications, *Eradication, Poverty, A UBI, extreme poverty, a safety net, all citizens, This, increased financial security, crime rates, desperation, * **Economic Stability, The guaranteed income stream, greater economic stability, individuals, them, education, training, entrepreneurship, the pressure, immediate financial needs, This, innovation, entrepreneurial activity, * **Improved Well-being, A UBI, overall well-being, a sense, security, stress, income instability, healthier lifestyles, increased time, leisure, self-care, * **Social Mobility, a baseline support system, UBI, barriers, opportunity, individuals, disadvantaged backgrounds, This, greater social mobility, a more equitable society, **Negative Implications, Job Displacement, Critics, UBI, work, reduced employment rates, potentially higher unemployment, They, it, inflationary pressure, the cost, goods, services, * **Economic Slowdown, The implementation, a UBI program, significant fiscal adjustments, government spending, This, economic slowdown, potential budget deficits, a universal income system, complex administrative structures, government bureaucracy, which, some, * **Moral Hazard, Concerns, individuals, the UBI system, fear, their support, decreased workforce engagement, potential social unrest, **Perspectives, Stakeholders, **Economists, Many economists, the concept's potential, long-term economic growth, poverty, concerns, potential job displacement, the impact, government finances, * **Politicians:**  Political parties, varying opinions, UBI, Proponents, a UBI, its social equity benefits, opponents, potential economic consequences, * **Citizens, The public, diverse opinions, Some, UBI, a solution, societal issues, guaranteed income security, others, the effectiveness, feasibility, such a system, Several critical factors, consideration, a UBI program, * **Funding Mechanisms, The viability, a universal basic income, sustainable funding mechanisms, that, taxpayers, This, existing tax structures, new revenue streams, other economic reforms, * **Policy Design, The specific design, the UBI program, its success, It, careful consideration, payment amount, eligibility criteria, potential adjustments, economic needs, social conditions, * **Social Experimentation, pilot programs, different aspects, a UBI system, valuable insights, widespread adoption, These pilot studies, specific societal challenges, evidence-based data, informed decision-making, **Conclusion, The potential implications, a UBI policy, the US, it, promise, poverty, economic mobility, social well-being, careful consideration, its potential negative consequences, employment, government spending, societal structures, A nuanced approach, that, the benefits, carefully designed solutions, such a revolutionary change, UBI, thoughtful analysis, public discourse, evidence-based decision-making, The US, pilot programs, ongoing research, its understanding, this complex policy proposal, it, the unique societal needs, the nation</t>
+        </is>
+      </c>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
-        <v>-0.04088065028190613</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.3579966425895691</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.1521375775337219</v>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Cons', 'PERSON'), ('the United States', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Hazard', 'PERSON'), ('UBI', 'ORG'), ('Stakeholders', 'NORP'), ('UBI', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Social Experimentation:*', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('US', 'GPE'), ('UBI', 'ORG'), ('US', 'GPE')]</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>107.5992617607117</v>
       </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
@@ -2620,55 +2617,57 @@
       <c r="AK12" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr">
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr">
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="n">
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="n">
         <v>12</v>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr">
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="n">
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="n">
         <v>0.05552031947380787</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BD12" t="n">
         <v>0.4837855297157623</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BE12" t="n">
         <v>4735</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BF12" t="n">
         <v>32</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BG12" t="n">
         <v>629</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BH12" t="n">
         <v>872</v>
       </c>
-      <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
@@ -2677,6 +2676,7 @@
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2773,28 +2773,25 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>It, a fascinating hypothetical, gasoline-powered cars, electric vehicles, EVs, massive implications, the US power grid, some significant challenges, a breakdown, **Challenges, EVs, that, electricity, The sudden increase, demand, the existing grid, it, peak times, rush hour, This, widespread blackouts, * **Grid Infrastructure Overhaul, Existing grids, this kind, surge, demand, rapid shift, We, massive upgrades, New Power Plants, enough renewable energy, (solar, wind, the influx, EVs, a significant investment, new power plants, Grids, better transmission lines, high volumes, electricity, various sources, * **Smart Grid Technology, smart grid technology, real-time monitoring, efficient energy management, **Potential Impacts, **Temporary Power Outages, the rate, transition, existing infrastructure limitations, some areas, temporary power outages, * **Increased Electricity Prices, The increased demand, investment, higher electricity prices, * **Energy Security, Reliance, imported fossil fuels, power generation, *Reduced Pollution, The transition, emissions, the way, cleaner air, * **Increased Renewable Energy Use, *, the increased demand, electricity, renewable energy sources, solar, wind, a crucial component, the grid, * **Energy Independence, Less reliance, foreign oil, energy independence, national security, *Challenges, "Overnight" Transition:**
+The abrupt shift, several major obstacles, **Infrastructure Needs, sufficient charging infrastructure, It, years, the entire country, a vast network, fast chargers, * **Manufacturing Capacity, The manufacturing and supply chain, electric vehicles, delays, production, **Realistic Scenarios, It, everyone, EVs, significant planning, investment, A more realistic approach, **Phased Transition, A gradual transition, incentives, EV adoption, a decade, * **Investment, Grid Infrastructure, The US government, substantial investment, grid upgrades, renewable energy sources, Public Transportation, public transportation systems, metro, bus, the transition, individual vehicle use, Conclusion, an overnight switch, electric vehicles, a shift, cleaner transport, renewable energy, the US power grid, environment, A gradual approach, strategic planning, investment, this transformation</t>
+        </is>
+      </c>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
-        <v>0.162029430270195</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.2753111124038696</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.219320997595787</v>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>[('US', 'GPE'), ('Massive Energy Demand Surge', 'ORG'), ('Overnight', 'WORK_OF_ART'), ('years', 'DATE'), ('decades', 'DATE'), ('overnight', 'TIME'), ('EV', 'ORG'), ('decade', 'DATE'), ('US', 'GPE'), ('Focus on Public Transportation', 'ORG'), ('metro', 'FAC'), ('overnight', 'TIME'), ('US', 'GPE')]</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>50.86786246299744</v>
       </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
@@ -2804,55 +2801,57 @@
       <c r="AK13" t="n">
         <v>0</v>
       </c>
-      <c r="AL13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr">
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr">
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="n">
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="n">
         <v>13</v>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr">
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="n">
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="n">
         <v>0.09752546473134709</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BD13" t="n">
         <v>0.6248654613360496</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BE13" t="n">
         <v>3467</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BF13" t="n">
         <v>24</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BG13" t="n">
         <v>459</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BH13" t="n">
         <v>668</v>
       </c>
-      <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
@@ -2861,6 +2860,7 @@
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2938,28 +2938,25 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>The River, Consciousness, Stream, Consciousness, Ulysses, Its Impact, Modernist Literature
+James Joyce's *Ulysses, a monumental work, that, we, stream, consciousness, its primary narrative tool, This technique, the inner thoughts, feelings, memories, characters, life, realism, detail, modernist literature, literary boundaries, new depths, character development, plot construction, the Technique, :*, Interiority, Joyce, traditional linear narratives, favor, the interior lives, his characters, a constant barrage, memories, anxieties, fantasies, sensations, This fragmented portrayal, us, a glimpse, the minds, individuals, Leopold Bloom, Stephen Dedalus, they, the everyday world, * **Fluid Time and Space:*, The narrative, time, past, clear chronological order, We, glimpses, memories, the present moment, a sense, disorientation, that, the internal struggles, the characters, This technique, the complexities, human consciousness, its unpredictable flow, * **Internal Monologues, Dialogue, The narrative, external events, it, an exploration, inner turmoil, Joyce, monologues, dialogues, the stream, consciousness, us, the characters, their own thoughts, emotions, a raw and visceral way, **Impact, Modernist Literature, **Challenging Literary Conventions, * *Ulysses, the traditional structure, a new level, psychological realism, It, the boundaries, literature, a more immersive and introspective experience, the reader, the Human Condition, the characters' inner lives, their entirety, Joyce, an unprecedentedly intimate look, the human condition, He, themes, identity, existentialism, alienation, the search, meaning, This approach, writers, surface-level narratives, the depths, the human psyche, Subsequent Generations, :*, The influence, Ulysses, modern literature, It, the way, experimental techniques, novels, short stories, fragmented storytelling, unreliable narrators, introspective dialogues, Many writers, Joyce's innovative use, stream, consciousness, their own distinctive voices, new avenues, artistic expression, Literary Impact, :*, **Modernist Psychology, Ulysses*' unique portrayal, the human mind, the understanding, psychology, that time, inner struggles, experiences, honesty, Joyce, voice, an era's growing fascination, psychoanalysis, the complexities, the human psyche, * **Cultural Context, The novel, a time, post-World War, I Europe, disillusionment and rapid social changes, consciousness, this turbulent period, themes, displacement, alienation, the search, meaning, a fragmented world, *Final Thoughts, James Joyce's *Ulysses, a novel, it, an artistic revolution, its masterful use, stream, consciousness, he, literary norms, readers, a glimpse, the chaotic yet beautiful landscape, human consciousness, His work, an indelible mark, modernist literature, writers, they, greater depth, authenticity, their own narratives</t>
+        </is>
+      </c>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
-        <v>-0.03602756932377815</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.3973591029644012</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.172842413187027</v>
-      </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>[('## The River of Consciousness: Stream of', 'MONEY'), ("James Joyce's", 'PERSON'), ('Joyce', 'PERSON'), ('linear', 'ORG'), ('Leopold Bloom', 'PRODUCT'), ('Stephen Dedalus', 'PERSON'), ('Internal Monologues &amp; Dialogue:*', 'ORG'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('post-World War I Europe', 'EVENT'), ("James Joyce's", 'PERSON'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>60.74453854560852</v>
       </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
@@ -2969,55 +2966,57 @@
       <c r="AK14" t="n">
         <v>0</v>
       </c>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr">
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr">
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="n">
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
         <v>14</v>
       </c>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr">
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="n">
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="n">
         <v>0.1405730072396739</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BD14" t="n">
         <v>0.3974454557787893</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BE14" t="n">
         <v>3914</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BF14" t="n">
         <v>24</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BG14" t="n">
         <v>542</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BH14" t="n">
         <v>764</v>
       </c>
-      <c r="BH14" t="inlineStr"/>
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
@@ -3026,6 +3025,7 @@
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3104,28 +3104,24 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>## Absurdity, Despair, Godot, The Existentialism, Samuel Beckett, Godot, a masterpiece, the absurdist theatre genre, grapples, themes, post-World War II, The play, the profound human condition, the face, an indifferent universe, the widespread despair, disillusionment, that, this era, *Absurdism's Cornerstone, The very essence, absurdism, its assertion, the inherent meaninglessness, existence, Godot, himself, an enigmatic figure, a hope, something, our grasp, the play, This absence, the tragic absurdity, life, we, a world, intrinsic purpose, defined narrative, an eternity, meaningless repetition, * **Alienation, The characters, Godot, any semblance, meaning, hope, Vladimir and Estragon's constant bickering, their endless waiting, the alienation, a post-war world, widespread loss, the shattering, traditional values, * **The Absurdity, Everyday Life, Beckett, everyday acts, even simple tasks, expressions, existential absurdity, These seemingly mundane actions, a profound philosophical weight, the face, an indifferent universe, **Beckett's Reflection, Post-War Existentialism, Godot, a play, absurdity, a powerful reflection, the existential crisis, humanity, World War II, * **The Weight, Loss, Trauma, The aftermath, war, many feeling, Vladimir, Estragon, this collective grief, Their search, meaning, a profound sense, loss, despair, the emptiness, that, the face, seemingly hopeful ideals, Godot, * **The Search, Meaning, The characters' relentless waiting embodies, their desperate struggle, meaning, a universe, inherent purpose, Their futile attempts, this void, the existential angst, individuals, the uncertainty, disillusionment, post-war society, * **Nihilism, Rebellion, the pervasive sense, nihilism, the characters, an undeniable desire, freedom, rebellion, a meaningless existence, Their defiance, absurdity, their own way, a poignant reflection, the human spirit's ability, some meaning, the face, profound uncertainty, the Absurd, Godot, its exploration, existentialism, just despair, resignation, * **Embracing, Freedom, Impermanence, The characters' absurdity, a reflection, a broken world, it, a redefining, freedom, The play, the acceptance, uncertainty, the embrace, impermanence, vital aspects, human existence, * **Connection, Isolation, their alienation, Vladimir, Estragon, solace, each other's presence, The act, this absurdity, another person, the importance, human connection, a world, inherent meaning, purpose, conclusion, Godot, the most profound explorations, existentialism, theatre, the stark realities, post-war disillusionment, the absurd nature, human existence, Beckett's play, a timeless commentary, our search, meaning, purpose, connection, an often indifferent universe</t>
+        </is>
+      </c>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
-        <v>-0.06485846638679504</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.3699373304843903</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.1446512490510941</v>
-      </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
         <is>
           <t>[('## Absurdity', 'MONEY'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ('post-World War II', 'EVENT'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Reflection of Post-War Existentialism:*', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('World War II', 'EVENT'), ('Trauma', 'PERSON'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('one', 'CARDINAL'), ('Beckett', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>71.35194230079651</v>
       </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
@@ -3135,55 +3131,57 @@
       <c r="AK15" t="n">
         <v>0</v>
       </c>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr">
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr">
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="n">
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="n">
         <v>15</v>
       </c>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr">
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="n">
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="n">
         <v>-0.05892857142857142</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BD15" t="n">
         <v>0.5339650145772595</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BE15" t="n">
         <v>3789</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BF15" t="n">
         <v>23</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BG15" t="n">
         <v>553</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BH15" t="n">
         <v>796</v>
       </c>
-      <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
@@ -3192,6 +3190,7 @@
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3275,28 +3274,28 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>A Tale, Two Worlds
+Dante Alighieri, _, Paradiso, (Divine Comedy, William Blake, *, Songs, Innocence, Experience, both, symbolism, allegory, profound human themes, their approaches, **Similarities, Abstract Concepts, Both authors, symbolic figures, imagery, abstract concepts, sin, redemption, justice, evil, innocence, experience, * **Transcendence, Imagery, Both authors, art, literary devices, the mundane world, emotions, that, a deeper level, Dante, vivid descriptions, hell, purgatory, paradise, Blake, powerful imagery, nature, human experience, his songs, * **Universality, Themes, The themes, cultures, time periods, love, loss, suffering, redemption, fear, hope, **Contrasts, | Feature | Dante, Divine Comedy, _ | Blake, Songs, Innocence, Experience, |
+|---|---|---|
+|, *Scope, Structure, |, A lengthy epic poem, a structured narrative, journey, hell, purgatory, paradise, It, Dante's personal quest, salvation, allegorical commentary, Christianity, | Collection, individual poems, distinct themes, the realms, innocence, experience, These poems, their use, imagery, symbolic language, |, Focus, philosophical and religious exploration, a structured framework, God, sin, salvation, |, personal reflections, experiences, the line, innocence, experience, evocative poetry, symbolism, |, the dark and weighty themes, human experience, melancholic, different facets, human nature, experience, Language, | Language, references, medieval Christian tradition, history, mythology, |, a variety, styles, lyrical poetry, visionary imagery, Blake's own experiences, |, **Dante, Symbolism, Dante, specific symbols, Virgil, a guide, hell, stages, sin, Eden, temptation, divine grace, * **Allegory, The entire poem, an allegory, Dante's own journey, sin, purgatory, salvation, Each realm, a stage, his spiritual growth, **Blake's _Songs, Innocence, Experience, * **Symbolism, He, natural imagery, the Lamb, innocence, the Tiger, (experience, biblical narratives, personal experiences, themes, * **Allegory, The poems, themselves, allegories, opposing forces, a nuanced view, human nature, their contrasting imagery, Conclusion, *, : 
+Dante, Divine Comedy, _, us, an allegorical journey, the depths, human experience, Blake's _Songs, Innocence, Experience, _, a more intimate exploration, evocative poetry, Both authors, symbolism, allegory, profound themes, ways, that, centuries, Their contrasting approaches, the diverse yet powerful possibilities, abstract concepts, literature</t>
+        </is>
+      </c>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>-0.1431537419557571</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.3008864223957062</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.07055787742137909</v>
-      </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
         <is>
           <t>[('##  ', 'MONEY'), ('A Tale of Two Worlds', 'WORK_OF_ART'), ("Dante Alighieri's", 'PERSON'), ('Purgatorio', 'PERSON'), ('Paradiso', 'PERSON'), ('Divine Comedy', 'PERSON'), ("William Blake's", 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Blake', 'ORG'), ('Feature', 'PRODUCT'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Christianity', 'NORP'), ('Language', 'LOC'), ('Christian', 'NORP'), ('Utilizes', 'ORG'), ('Blake', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Virgil', 'PERSON'), ('the Garden of Eden', 'FAC'), ('Dante', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Lamb', 'PERSON'), ('Tiger', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>68.69725823402405</v>
       </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
@@ -3306,55 +3305,57 @@
       <c r="AK16" t="n">
         <v>0</v>
       </c>
-      <c r="AL16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr">
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr">
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="n">
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
         <v>16</v>
       </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr">
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="n">
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="n">
         <v>0.1284722222222222</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BD16" t="n">
         <v>0.4565972222222223</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BE16" t="n">
         <v>3626</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BF16" t="n">
         <v>24</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BG16" t="n">
         <v>500</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BH16" t="n">
         <v>784</v>
       </c>
-      <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
@@ -3363,6 +3364,7 @@
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3439,28 +3441,25 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>The influence, Japanese ukiyo-e woodblock prints, Impressionism, a significant cross-cultural exchange, that, artistic innovation, Western perception, aesthetics, a closer look, *Focus, Ukiyo-e, Katsushika Hokusai, Utagawa Hiroshige, fleeting moments, time, vibrant colors, dynamic compositions, masterful use, light, shadow, These techniques, Impressionists' pursuit, the ephemeral quality, light, its impact, landscapes, everyday life, * **Blurred Edges, Contrasting Values, The characteristically bold strokes, ukiyo-e prints, a sense, movement, energy, artworks, which, Impressionist artists, Monet, Renoir, The use, blurred edges, the fleeting effects, light, movement, a direct inspiration, Impressionist techniques, sfumato, Daily Life, :*, Many ukiyo-e prints, scenes, everyday life, urban landscapes, serene natural settings, realism, fleeting moments, time, This focus, the ordinary world, Impressionists, their own contemporary surroundings, them, a distinct perspective, that, reality, **Indirect Influences, Artistic Boundaries, The influence, ukiyo-e, Impressionism, the rigid boundaries, traditional art forms, It, academic principles, new techniques, light, color, movement, the way, a more experimental approach, artistic expression, * **Cross-Cultural Exchange, The growing global interconnectedness, this period, cultural exchange, cross, -, pollination, ideas, This, artists, diverse backgrounds, one another's creative processes, Impressionism, a product, both French sensibilities, the inspiration, Japanese art, **Examples, Impact, :*, Monet's series, paintings, water lilies, the techniques, he, ukiyo-e prints, the direct influence, his iconic landscape work, Manet's "Le Déjeuner, *, This painting, a precursor, Impressionism, the influence, Japanese woodblock prints, particularly the boldness, dynamism, their portrayal, everyday life, * **Degas, Realism, :*, Degas, movement, fleeting moments, ukiyo-e prints, He, these techniques, his own depiction, ballet dancers, Conclusion:**
+Ukiyo-e woodblock prints, a pivotal role, the development, Impressionism, a catalyst, artistic innovation, its focus, atmosphere, everyday life, the influence, ukiyo-e, Impressionist aesthetics, the way, future movements, art history, Their cross-cultural exchange, a reminder, the power, artistic inspiration, borders, time</t>
+        </is>
+      </c>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>-0.07709217071533203</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.3197880387306213</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.1150089576840401</v>
-      </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>[('Japanese', 'NORP'), ('Impressionism', 'ORG'), ('Western', 'NORP'), ('Katsushika Hokusai', 'PERSON'), ('Utagawa Hiroshige', 'PERSON'), ('Impressionist', 'NORP'), ('Monet', 'PERSON'), ('Renoir', 'WORK_OF_ART'), ('Impressionist', 'NORP'), ('Capturing Daily Life:*', 'ORG'), ('Impressionism', 'ORG'), ('Cross-Cultural Exchange:*', 'ORG'), ('French', 'NORP'), ('Japanese', 'NORP'), ('Monet', 'PERSON'), ('"Water Lilies" Series', 'WORK_OF_ART'), ('Monet', 'PERSON'), ("Le Déjeuner sur l'herbe", 'WORK_OF_ART'), ('Impressionism', 'ORG'), ('Japanese', 'NORP'), ('Degas', 'PERSON'), ('Impressionism', 'ORG'), ('Impressionist', 'NORP')]</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
         <v>57.68428087234497</v>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
@@ -3470,55 +3469,57 @@
       <c r="AK17" t="n">
         <v>0</v>
       </c>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr">
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr">
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="n">
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="n">
         <v>17</v>
       </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr">
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="n">
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="n">
         <v>0.2088723776223776</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BD17" t="n">
         <v>0.5013694638694639</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BE17" t="n">
         <v>3191</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BF17" t="n">
         <v>19</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BG17" t="n">
         <v>438</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BH17" t="n">
         <v>653</v>
       </c>
-      <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
@@ -3527,6 +3528,7 @@
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3611,28 +3613,25 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>## Atonality, Serialism, a New Musical Landscape, Schoenberg
+Arnold Schoenberg, a pivotal figure, 20th-century music, classical composition, his innovative explorations, atonality, serialism, He, the boundaries, musical tradition, traditional harmonic progressions, new structures, that, the very notion, "tonal" music, **Atonality, Harmony, We, It, those, Schoenberg's own 'Second Viennese School, Anton Webern, Alban Berg, traditional tonal elements, key center, tonality, chords, melodic contour, They, music, complex structures, sound, the Intonation, the Sounds, harmony, composers, the individual sounds, their relationships, a piece, This, new forms, expression, microtonality and extended techniques, dissonance, unusual scales, Ambiguity, Complexity, * Atonal works, a sense, ambiguity, complexity, music, listeners, their preconceived notions, harmony, This, a deeper engagement, the sounds, emotions, **Serialism, *The Art, "Ordering, Sounds, Schoenberg's later work, serialism, a systematic approach, specific rules, He, a set, principles, specifically the use, ordered series, notes, "scales, the foundation, his compositions, Musical Structures, Precision, Serialism, composers, the music, these rigid rules, precise ways, This, highly structured and controlled works, every note's placement, a complex mathematical system, unique melodies, harmonies, textures, **Impact, 20th-Century Classical Music, *Drastic Change, the Musical World, Schoenberg's innovations, an indelible mark, the development, 20th-century classical music, His work, the way, a new era, musical concepts, tonality, harmony, rhythm, absolute truths, more experimental and unconventional compositions, * **A Foundation, New Forms, Schoenberg's techniques, philosophies, a generation, composers, who, atonality, serialism, entirely new genres, the classical world, * **Debussy, Modernist Expression, Impressionism, Schoenberg’s work, its emphasis, sound color, texture, Debussy, an early pioneer, this style, * **Avant-Garde Compositions, Composers, Dmitri Shostakovich, Pierre Boulez, Karlheinz Stockhausen, serialism, the boundaries, modern composition, * **Challenges, Traditional Music Theory, *, Schoenberg's works, existing music theory, traditional musical forms, harmony, tonality, This, a paradigm shift, music, *Legacy, Schoenberg's atonality, serialism, the classical tradition, they, 20th-century music, He, a new era, composers, traditional constraints, doors, new sounds, concepts, His influence, modern music, contemporary artists, the boundaries, composition, **Further Considerations, It, these musical innovations, their own challenges, musicians, audiences, performers, The complexity, atonal and serialist music, a lack, immediate "musical meaning, their early forms, composers, new techniques, the works, more nuanced interpretations, Schoenberg’s work, avenues, expression, traditional musical structures, The legacy, Arnold Schoenberg, his innovative use, atonality, serialism, the landscape, contemporary classical music, generations, composers, listeners, His relentless pursuit, musical innovation, a powerful testament, the power, artistic exploration</t>
+        </is>
+      </c>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
-        <v>-0.03703929111361504</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.3263139128684998</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.1395480632781982</v>
-      </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
         <is>
           <t>[('## Atonality', 'MONEY'), ('Arnold Schoenberg', 'PERSON'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Anton Webern', 'PERSON'), ('Alban Berg', 'PERSON'), ('the Intonation of the Sounds:*', 'ORG'), ('Complexity:*', 'ORG'), ('Ordering" Sounds:**', 'WORK_OF_ART'), ('20th-Century', 'DATE'), ('the Musical World:*', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Debussy &amp; Modernist Expression:*', 'ORG'), ('Schoenberg', 'ORG'), ('Debussy', 'PERSON'), ('Avant-Garde Compositions:*', 'ORG'), ('Dmitri Shostakovich', 'PERSON'), ('Pierre Boulez', 'PERSON'), ('Karlheinz Stockhausen', 'PERSON'), ('Schoenberg', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('today', 'DATE'), ('serialist', 'NORP'), ('Schoenberg', 'ORG'), ('Arnold Schoenberg', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>86.64069390296936</v>
       </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
@@ -3642,55 +3641,57 @@
       <c r="AK18" t="n">
         <v>0</v>
       </c>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr">
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr">
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="n">
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
         <v>18</v>
       </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr">
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="n">
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="n">
         <v>0.1250988266119845</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BD18" t="n">
         <v>0.4339749943039417</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BE18" t="n">
         <v>4486</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BF18" t="n">
         <v>28</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BG18" t="n">
         <v>626</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BH18" t="n">
         <v>902</v>
       </c>
-      <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
@@ -3699,6 +3700,7 @@
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3783,28 +3785,26 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>## Transformers, Machine Translation
+Transformers, a powerful type, neural network architecture, sequence processing tasks, specifically **natural language processing, NLP, They, machine translation, massive advancements, accuracy, fluency, efficiency, a breakdown, the Core Concept, :*, *Sequence Processing, Transformers, relationships, words, a sentence, document, traditional RNN-based models, that, information, This ability, them, long-range dependencies, * **Attention Mechanism, This, the key innovation, transformers, It, the model, different parts, the input sequence, their relevance, the task, hand, a sentence, you, attention, certain words, their role, meaning, transformers, exactly that, text, * **Parallel Processing:*, RNNs, which, information, a time, Transformers, an entire input sequence, them, Transformers, Machine Translation, :*, Accuracy:**  Transformers, the translation accuracy, machine translation systems, complex linguistic relationships, traditional methods, * **Fluency, They, translations, a higher level, naturalness, fluency, This, their ability, context and word embeddings, more sophisticated and nuanced language processing, * **Efficiency, They, faster training and inference times, earlier models, real-time translation capabilities, wider accessibility, various applications, Key Transformer Models:**
+* **BERT (Bidirectional Encoder Representations, Transformers, A groundbreaking model, that, self-attention, contextual representations, words, a sentence, * **GPT, (Generative Pre-trained Transformers, A powerful language generation model, high-quality text, languages, impressive accuracy, An advanced Transformer architecture, that, pre-training techniques, generalization abilities, BERT, Impact, NLP, Translation, Transformers, their impact, machine translation, **Text Summarization, large documents, concise summaries, * **Question Answering:**  Answering questions, given text passages, * **Sentiment Analysis, the emotional tone, sentiment, a piece, writing, * **Code Generation:** Generating code, different programming languages, natural language instructions, conclusion, Transformers, we, NLP tasks, particularly machine translation, Their ability, sequence data, context, relationships, words, higher accuracy, fluency, the way, a new era, advanced language understanding, manipulation</t>
+        </is>
+      </c>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="n">
-        <v>-0.1450158655643463</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.3007166385650635</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.06946625560522079</v>
-      </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr">
         <is>
           <t>[('NLP', 'ORG'), ('1', 'CARDINAL'), ('RNN', 'ORG'), ('one', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('GPT', 'ORG'), ('Generative Pre-trained', 'PERSON'), ('Transformer', 'ORG'), ('BERT', 'ORG'), ('4', 'CARDINAL'), ('NLP Beyond Translation:*', 'ORG'), ('Question Answering:*', 'ORG'), ('NLP', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>45.96540498733521</v>
       </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
@@ -3814,55 +3814,57 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
-      <c r="AL19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr">
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr">
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="n">
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="n">
         <v>19</v>
       </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr">
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="n">
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="n">
         <v>0.2135756519902861</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BD19" t="n">
         <v>0.6021433850702143</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BE19" t="n">
         <v>3340</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BF19" t="n">
         <v>26</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BG19" t="n">
         <v>418</v>
       </c>
-      <c r="BG19" t="n">
+      <c r="BH19" t="n">
         <v>633</v>
       </c>
-      <c r="BH19" t="inlineStr"/>
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
@@ -3871,6 +3873,7 @@
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3953,28 +3956,25 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>## Fine-Tuning Language Models, Transfer Learning
+Transfer learning, a powerful technique, knowledge, one task, source task, it, a related but different task, target, task, This, large language models, LLMs, specific applications, how transfer learning works, the context, fine-tuning LLMs, **Pre-Trained Model, a pre-trained LLM, GPT-3, BERT, RoBERTa, These models, massive datasets, them, general language understanding, capabilities, 2. **Task Specific Fine-Tuning, the pre-trained model, it, the target task, This, just the last layers, the model, specific training objectives, the new task, * **Adapting Layers, The original pre-trained model's features, tasks, text classification, question answering, summarization, Specific Training Objectives, more complex tasks, sentiment analysis, code generation, additional layers, specialized training objectives, desired performance, **Domain Adaptation, Optional, the target task, specific domain knowledge, (e.g., legal documents, document summarization, additional pre, training, a relevant domain dataset, the model's accuracy, This, domain adaptation, **Benefits, Transfer Learning, **Reduced Training Data, Fine-tuning, time, resources, readily available pre-trained models, you, a smaller, task-specific dataset, training, * **Improved Performance, Pre, -, training, the model, general language representations, which, fine-tuning, specific tasks, * **Faster Training Time:** Transfer, model training, it, the pre-trained foundation, **Examples, Transfer Learning, Fine-Tuning LLMs, *Text Summarization, Fine-tune, a pre-trained LLM, BERT, RoBERTa, a dataset, news articles, this model, task specific summarization, summaries, high accuracy, learned general language capabilities, * **Question Answering:** Fine-tune, a pre-trained LLM, a dataset, questions, answers, a robust model, complex queries, The model, factual questions, more precision, depth, the pre, -, training, a language modeling model, GPT-3, machine translation tasks, it, a large translation dataset, This, the model, languages, higher accuracy, fluency, **Challenges, Transfer Learning, * Fine-tuning, the dataset, the training data, optimize hyperparameters, this risk, * **Domain Shift, The pre-trained model's generalizability, tasks, its training domain, Careful planning, -, training, specific domains, this challenge, transfer learning, us, more efficient and effective LLMs, specific tasks, the power, -, we, new possibilities, natural language processing applications</t>
+        </is>
+      </c>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>-0.0673651322722435</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.3553996086120605</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.1366341263055801</v>
-      </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr">
         <is>
           <t>[('## Fine', 'MONEY'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Pre-Trained Model:*', 'PERSON'), ('GPT-3', 'ORG'), ('BERT', 'ORG'), ('2', 'CARDINAL'), ('Adapt', 'FAC'), ('3', 'CARDINAL'), ('Transfer Learning:*', 'FAC'), ('Faster Training Time:*', 'PERSON'), ('BERT', 'ORG'), ('Question Answering:*', 'ORG'), ('GPT-3', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AH20" t="n">
         <v>55.45954608917236</v>
       </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
@@ -3984,55 +3984,57 @@
       <c r="AK20" t="n">
         <v>0</v>
       </c>
-      <c r="AL20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr">
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr">
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="n">
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="n">
         <v>20</v>
       </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr">
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="n">
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="n">
         <v>0.1158926406926407</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BD20" t="n">
         <v>0.4889580086580086</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BE20" t="n">
         <v>3528</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BF20" t="n">
         <v>28</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BG20" t="n">
         <v>484</v>
       </c>
-      <c r="BG20" t="n">
+      <c r="BH20" t="n">
         <v>750</v>
       </c>
-      <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
@@ -4041,6 +4043,7 @@
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4129,28 +4132,24 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>#, Sentiment Analysis, Detecting Sarcasm, Irony, Detecting sarcasm, irony, a significant challenge, analysis, advances, NLP technology, a breakdown, Linguistic Nuances:*, Context, key:**  Sarcasm, irony, context, What one person, another, their personal experiences, cultural background, this weather, the context, no shade, * **Word choice, tone, Sarcasm, word choices, that, the expressed sentiment, slight twists, phrasing, tone, emphasis, Irony, unexpected or detached statements, a contrast, words, intended meaning, That, an excellent idea, disagreement, genuine praise, the speaker's tone, * **Implied meanings, Sarcasm, irony, implied meanings, which, the sentence, phrase, This, it, models, the true intention, words, * **Example:** "Great job, I, your success, the team, (sarcastic, genuine praise, the tone, voice, the context, the conversation, Complexity, Emotional Expressions, **Subjective interpretation, Emotions, Even humans, sarcasm, irony, real life situations, * **Example, A statement, I, you, that job, a tone, disappointment, frustration, the person's lack, progress, * **Hidden cues, ambiguity, Sarcasm, irony, implicit cues, ambiguous expressions, This, challenges, sarcasm, irony, no clear-cut indicators, their presence, **3. Data Limitations, Model Bias, :*, Sarcasm, irony, vast amounts, labeled datasets, that, real-life scenarios, diverse contexts, nuances, such datasets, the difficulty, these specific examples, training models, a model, that, sarcasm, everyday conversations, vast amounts, data, those specific conversational styles, * **Model bias &amp; generalization:**  Existing models, standard sentiment analysis datasets, sarcastic and ironic content, biases, the training data, misinterpretations, inaccurate results, Evolving Communication Styles, * **Online language changes, Sarcasm, irony, text-based platforms, brevity, a key role, This, we, sarcasm, irony, more complex interpretations, the context, These Challenges, sentiment analysis, sarcasm, irony, researchers, these areas, richer datasets, *, : Training models, diverse examples, sarcasm, irony, real-world conversations, that, various contexts, expressions, stronger models, advanced techniques, *, : Deep learning architectures, recurrent neural networks, RNNs, transformers, complex sequences, words, subtle nuances, language, sarcasm, irony, long, complex sentences, contextual understanding, Incorporating context-aware embeddings, BERT, XLNet, models, them, the meaning, specific phrases, nuanced patterns, sarcasm, irony, interpretability, *, a model, a specific prediction, sarcasm, irony, its performance, This, techniques, attention weights analysis, which, hidden decision-making factors, the model, these challenges, sentiment analysis, sarcasm, irony, better user experience, various platforms</t>
+        </is>
+      </c>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="n">
-        <v>-0.2001161724328995</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.2434670627117157</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.01336682680994272</v>
-      </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr">
         <is>
           <t>[('##  Challenges', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('Linguistic Nuances:*', 'ORG'), ('Sarcasm', 'ORG'), ('one', 'CARDINAL'), ('today', 'DATE'), ('summer day', 'DATE'), ('Irony', 'ORG'), ('Sarcasm', 'ORG'), ('2', 'CARDINAL'), ('Complexity of Emotional Expressions:*', 'ORG'), ('Sarcasm', 'ORG'), ('3', 'CARDINAL'), ('Data Limitations &amp; Model Bias:*', 'ORG'), ('Limited Training', 'ORG'), ('Sarcasm', 'ORG'), ('4.', 'CARDINAL'), ('Evolving Communication Styles:*', 'ORG'), ('BERT', 'ORG'), ('XLNet', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
         <v>69.66839718818665</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
@@ -4160,55 +4159,57 @@
       <c r="AK21" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr">
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr">
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="n">
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="n">
         <v>21</v>
       </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr">
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="n">
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="n">
         <v>0.1071603641456583</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BD21" t="n">
         <v>0.5662756769374415</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BE21" t="n">
         <v>4547</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BF21" t="n">
         <v>35</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BG21" t="n">
         <v>633</v>
       </c>
-      <c r="BG21" t="n">
+      <c r="BH21" t="n">
         <v>912</v>
       </c>
-      <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
@@ -4217,6 +4218,7 @@
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4309,28 +4311,25 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>## Advancements, Conversational AI, Revolutionizing Human Interaction 
+Conversational AI, the field, intelligent chatbots, virtual assistants, that, natural-sounding conversations, humans, This revolution, significant advancements, Natural Language Understanding, NLU, Machine Learning, **Improved accuracy, intent, Advances, deep learning models, a deeper understanding, language nuances, context, * **Multi-lingual capabilities, :**  AI systems, multiple languages, communication barriers, * **Personalized responses, user preferences, personalized interactions, that, **2. Dialogue Management &amp; Contextualization:*, **Memory capabilities, Chatbots, past conversation history, context-aware responses, smooth conversational flow, * **Task automation, AI systems, complex tasks, appointments, reservations, customer support, greater accuracy, efficiency, User Experience, UX, Humanization, Voice interaction, Voice assistants, voice commands, emotions, human speech, * **Creative storytelling, AI, creativity, its conversational style, interactions, **Impact, the Future, Human-AI Interaction, The advancements, conversational AI, a future, humans, AI, increasingly natural and seamless ways, Personalization, Empathy, **Highly personalized experiences, AI, needs, tailor responses, individual preferences, deeper customer relationships, more effective service delivery, * **Emotional intelligence integration, emotional understanding, AI, more empathetic interactions, humans, Augmentation, Productivity, **Enhanced creativity, productivity, AI, humans, creative tasks, brainstorming, idea generation, faster and more efficient workflows, *Automation, mundane tasks, human time, more complex and fulfilling activities, the Human-Machine Gap, :*, **Conversational therapists and mental health support:** AI-powered chatbots, initial emotional support, individuals, appropriate resources, the gap, professional help, * **Personalized education, learning, Interactive AI tutors, personalized learning experiences, individual needs, pace, conversational AI evolves, we, the ethical implications, this technology, * **Privacy concerns, Data security, privacy protection, more personal data, AI systems, AI systems, biases, their training data, efforts, fair and inclusive algorithms, * **Responsible deployment, AI, AI technology, humanity, existing societal issues, inequality, Forward, :*, The future, conversational AI, great promise, human interaction, various domains, the challenges, its potential, we, this technology, a way, that, both humans, AI, greater innovation, progress, me, you, specific aspects, examples, these advancements</t>
+        </is>
+      </c>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="n">
-        <v>-0.2770205140113831</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.245700478553772</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>-0.02786130085587502</v>
-      </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
         <is>
           <t>[('## Advancements', 'MONEY'), ('1', 'CARDINAL'), ('NLU', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Dialogue Management &amp; Contextualization:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Future of Human-AI Interaction:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('1', 'CARDINAL'), ('Personalization &amp; Empathy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Augmentation &amp; Productivity:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Human-Machine Gap:*', 'ORG'), ('Challenges &amp; Ethical Considerations:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AH22" t="n">
         <v>57.94323682785034</v>
       </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
@@ -4340,55 +4339,57 @@
       <c r="AK22" t="n">
         <v>0</v>
       </c>
-      <c r="AL22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr">
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr">
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="n">
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="n">
         <v>22</v>
       </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr">
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="n">
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="n">
         <v>0.203431899641577</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BD22" t="n">
         <v>0.4850089605734768</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BE22" t="n">
         <v>3978</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BF22" t="n">
         <v>26</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BG22" t="n">
         <v>494</v>
       </c>
-      <c r="BG22" t="n">
+      <c r="BH22" t="n">
         <v>771</v>
       </c>
-      <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
@@ -4397,6 +4398,7 @@
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4485,28 +4487,26 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>#, Culturally Sensitive Topics, Diverse Environments, A Balancing Act, AI Systems 
+AI systems, users, diverse backgrounds, cultural sensitivity, their development, deployment, we, this challenge, . Data Representation, Bias, **Diverse Datasets:** Train AI models, data, that, the diversity, cultures, viewpoints, real-world contexts, This, a wide range, languages, ethnicities, religions, beliefs, experiences, * **Bias Detection, Correction, Implement, mechanisms, potential biases, training datasets, models, techniques, fairness constraints, adversarial learning, bias audits, AI systems, all users, **2.  Content, Language Understanding, Contextual Awareness, Develop AI systems, the nuances, language, cultural idioms, humor, metaphors, sarcasm, * **Multilingual Capabilities, multiple languages, interactions, users, communication barriers, culturally appropriate word translations, that, context, literal interpretations, * **Cultural Sensitivity Training:**  Train algorithms, cultural norms, values, extensive supervised and unsupervised learning processes, culturally relevant data sets, **3. Ethical Considerations, User Transparency, :*, *, Explainable AI, XAI, * Design AI systems, that, clear explanations, their responses, sensitive topics, controversial issues, This fosters, understanding, users, the system, * **User Consent, Privacy, users, data, sensitive personal information, users, control, their data, it, AI systems, * **Human Oversight, human oversight, critical situations, particularly those, high stakes, sensitive topics, This, appropriate intervention, accountability, potentially harmful decisions, the AI system, Continuous Learning, Improvement, :*, **Feedback Mechanisms, Implement, feedback loops, users, issues, insights, AI responses, culturally sensitive topics, * **Adaptation, Evolution, AI systems, cultural norms, new technologies, user feedback, This, the system, changing circumstances, Responsible Deployment &amp; Community Engagement, **Cultural Sensitivity Guidelines, clear guidelines, developers, engineers, users, ethical considerations, appropriate content, best practices, culturally sensitive topics, AI systems, * **Community Collaboration, diverse communities, the development process, AI systems, their values, perspectives, **Challenges &amp; Limitations:**
+* **Cultural Complexity:**  Culture, it, its nuances, an AI system, * **Contextual Ambiguity, Language, cultures, misunderstandings, inaccurate interpretations, user intent, * **Bias, Training Data, Existing biases, data sets, discriminatory practices, potential bias, the training process, Forward, :*, Building AI systems, that, a multidisciplinary approach, cultural experts, linguists, ethicists, engineers, Continuous development, adaptation, these systems, positive and equitable experiences, all users, me, you, specific aspects, strategies</t>
+        </is>
+      </c>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="n">
-        <v>-0.1292581260204315</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.2811882197856903</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.06908448040485382</v>
-      </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
         <is>
           <t>[('AI Systems', 'ORG'), ('1', 'CARDINAL'), ('Data Representation &amp; Bias Mitigation:*', 'ORG'), ('Bias Detection &amp; Correction:*', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Content &amp; Language Understanding:*', 'ORG'), ('Cultural Sensitivity Training:*', 'ORG'), ('3', 'CARDINAL'), ('Ethical Considerations &amp; User Transparency:*', 'ORG'), ('User Consent &amp; Privacy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Continuous Learning &amp; Improvement:*', 'ORG'), ('Feedback Mechanisms:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('5', 'CARDINAL'), ('Responsible Deployment &amp; Community Engagement:*', 'ORG'), ('Cultural Sensitivity Guidelines:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Challenges &amp; Limitations:*', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
         <v>57.00896525382996</v>
       </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
@@ -4516,55 +4516,57 @@
       <c r="AK23" t="n">
         <v>0</v>
       </c>
-      <c r="AL23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr">
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr">
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="n">
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="n">
         <v>23</v>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr">
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="n">
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="n">
         <v>0.1581393939393939</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BD23" t="n">
         <v>0.5093000000000001</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BE23" t="n">
         <v>4065</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BF23" t="n">
         <v>31</v>
       </c>
-      <c r="BF23" t="n">
+      <c r="BG23" t="n">
         <v>513</v>
       </c>
-      <c r="BG23" t="n">
+      <c r="BH23" t="n">
         <v>768</v>
       </c>
-      <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
@@ -4573,6 +4575,7 @@
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4656,28 +4659,25 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>##, The Thorny Road, Navigating Idioms, Cross-Lingual NLP 
+Translating idioms, those colorful and often nonsensical phrases, the fabric, language, a complex undertaking, NLP systems, a deeper dive, the challenges, they, Lack, Direct Equivalence, *No Universal Dictionary Match, literal words, idioms, cultural context, understanding, even subtle nuance, a direct one-to-one translation, that, these nuances, example, the ice, conversation, English, ice, another language, entirely different implications, * **Cultural Relativity, Idioms, cultural norms, values, historical contexts, A literal translation, their underlying meaning, ambiguity, * **Context Dependence, The same idiom, different meanings, the situation, speaker, audience, This, context-aware language models, effective translation, Traditional NLP datasets, sufficient examples, idioms, their various usages, diverse contexts, Specialized datasets, idiomatic expressions, * **Vastness, Idiom Variations, :*, Idioms, languages, different forms, interpretations, nuances, This diversity, sophisticated language models, a wide range, sources, Ambiguous Interpretations, Potential, Miscommunication, * **Unpredictable Connotations, An idiom, multiple meanings, subtle implications, These hidden layers, unintended misunderstandings, professional or sensitive contexts, * **Humor, Irony, Idioms, wordplay, humor, these aspects, translation, a deep understanding, the cultural context, potential sarcasm/irony, Linguistic, Cultural Gaps, :*, * **Evolving Idiomatic Language, Idiom usage, new expressions, real-time, This dynamic nature, it, language models, the latest idioms, their interpretations, Challenges, NLP Innovations, these hurdles, advancements, NLP, the way, for more accurate and nuanced idiom translation, **Deep Learning, Neural Networks, massive datasets, diverse examples, idiomatic expressions, deep learning models, the inherent meaning, them, * **Context-Aware Embeddings:**  Models, the contextual information, idioms, speaker, audience, situation, more accurate translations, * **Multilingual Systems:**  Cross-language transfer techniques, idiomatic translation, language barriers, their unique flavor, target languages, **Conclusion, Translating idioms, a complex challenge, NLP, that, nuanced understanding, linguistic and cultural contexts, the power, deep learning, context-aware modeling, multilingual systems, we, more accurate and effective idiom translation, language barriers, better cross-cultural communication, me, you, any specific aspect, this challenge, potential solutions</t>
+        </is>
+      </c>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="n">
-        <v>-0.1237265467643738</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.3230295777320862</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.0912291556596756</v>
-      </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('English', 'LANGUAGE'), ('2', 'CARDINAL'), ('Limited Linguistic Resources:*', 'ORG'), ('NLP', 'ORG'), ('Idiom Variations', 'ORG'), ('Idioms', 'ORG'), ('3', 'CARDINAL'), ('Ambiguous Interpretations &amp; Potential for Miscommunication:*', 'ORG'), ('Humor &amp; Irony:*', 'ORG'), ('4', 'CARDINAL'), ('Bridging Linguistic &amp; Cultural Gaps:*', 'ORG'), ('5', 'CARDINAL'), ('Overcoming Challenges', 'ORG'), ('NLP', 'ORG'), ('Deep Learning &amp; Neural Networks:*', 'ORG'), ('Context-Aware Embeddings:*', 'ORG'), ('NLP', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
         <v>53.43923115730286</v>
       </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
       <c r="AI24" t="n">
         <v>0</v>
       </c>
@@ -4687,55 +4687,57 @@
       <c r="AK24" t="n">
         <v>0</v>
       </c>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr">
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr">
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="n">
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="n">
         <v>24</v>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr">
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="n">
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="n">
         <v>0.1119112972373842</v>
       </c>
-      <c r="BC24" t="n">
+      <c r="BD24" t="n">
         <v>0.4853689587385239</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BE24" t="n">
         <v>3601</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BF24" t="n">
         <v>29</v>
       </c>
-      <c r="BF24" t="n">
+      <c r="BG24" t="n">
         <v>469</v>
       </c>
-      <c r="BG24" t="n">
+      <c r="BH24" t="n">
         <v>732</v>
       </c>
-      <c r="BH24" t="inlineStr"/>
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
@@ -4744,6 +4746,7 @@
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4831,28 +4834,25 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>The Importance, Cultural Competence, AI Language Models 
+AI language models, biases, misunderstandings, their lack, genuine understanding, human culture, This, ethical and responsible deployment, these models, Discrimination, Bias, :*, *Unequal representation, AI models, patterns, data, they, which, existing societal biases, This, biased outputs, areas, hiring, loan applications, even criminal justice, * **Misinterpretation, nuances, Cultural context, jokes, idioms, metaphors, it, AI models, these nuances, offensive or inappropriate responses, Accurate, Meaningful, Communication, Contextual understanding, Cultural competence, AI, the social, historical, and political implications, certain words, phrases, more accurate translations, nuanced conversations, * **Respecting diversity, AI models, people, different cultural backgrounds, stereotypes, offensive content, Accessibility, Inclusivity, :*, *Bridging language barriers, AI models, cross-cultural communication, accurately translating languages, opportunities, global interaction, understanding, digital inequalities, Accessible and culturally competent AI, the digital divide, information, support, communities, Ethical AI Development, :*, Transparency, accountability, cultural biases, AI models, transparency and ethical development, these technologies, * **User education and empowerment:**  Users, potential limitations, biases, AI language models, them, informed decisions, their use, **Examples, Cultural Competence, Action, **Multilingual chatbots, These bots, the nuances, cultural context, different languages, complex or sensitive topics, health, finances, legal matters, * **Personalized content recommendation systems, AI models, cultural preferences, sensitivities, inappropriate content, violent media, political discussions, * **AI-powered customer support platforms, These platforms, diverse communication styles, specific needs, different cultures, a positive user experience, all, **Challenges, Solutions, **Limited data availability, *  Training AI models, culturally diverse datasets, bias, such data, * **Complexity, human culture, Understanding, the vast complexities, human culture, AI, ongoing research and development efforts, these challenges, researchers, various solutions, * **Diverse datasets, large, diverse datasets, that, cultural variations, more robust and unbiased models, * **Ethical data collection, annotation, ethical data collection and annotation practices, the training process, potential biases, the-loop, human expertise, the development, deployment, AI language models, cultural sensitivity, the system, cultural competence, we, AI technology, that, humanity, understanding, fairness, all</t>
+        </is>
+      </c>
       <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="n">
-        <v>-0.1492152214050293</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.2865510582923889</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.06071878224611282</v>
-      </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr">
         <is>
           <t>[('## The Importance of Cultural Competence', 'MONEY'), ('AI Language Models', 'WORK_OF_ART'), ('AI language', 'FAC'), ('1', 'CARDINAL'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Promoting Accurate', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Fostering Ethical AI Development:*', 'ORG'), ('AI', 'ORG'), ('AI language', 'FAC'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
         <v>55.86469006538391</v>
       </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
@@ -4862,55 +4862,57 @@
       <c r="AK25" t="n">
         <v>0</v>
       </c>
-      <c r="AL25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr">
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr">
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="n">
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="n">
         <v>25</v>
       </c>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr">
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="n">
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="n">
         <v>0.1095866970866971</v>
       </c>
-      <c r="BC25" t="n">
+      <c r="BD25" t="n">
         <v>0.4426348426348428</v>
       </c>
-      <c r="BD25" t="n">
+      <c r="BE25" t="n">
         <v>3878</v>
       </c>
-      <c r="BE25" t="n">
+      <c r="BF25" t="n">
         <v>24</v>
       </c>
-      <c r="BF25" t="n">
+      <c r="BG25" t="n">
         <v>491</v>
       </c>
-      <c r="BG25" t="n">
+      <c r="BH25" t="n">
         <v>742</v>
       </c>
-      <c r="BH25" t="inlineStr"/>
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="inlineStr"/>
@@ -4919,6 +4921,7 @@
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5017,28 +5020,25 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>##  Algorithm, Optimal Task Scheduling, a Multiprocessor System, This algorithm, a general approach, optimal task scheduling, a multiprocessor system, the total execution time, It, concepts, task decomposition, parallel processing, Problem Definition:*, Tasks, A set, tasks, associated CPU time requirements, duration, dependencies, them, * **Processors, A set, available processors, the system, each, a specific subset, tasks, * **Goal, the total execution time, all tasks, **2. Algorithm Steps:*, **A. Task Decomposition, Analysis, *Partitioning Tasks:** Divide tasks, smaller sub, -, tasks, scheduling, utilization, processors, *, a task, 3 CPU cycles, it, two parts, 1.5 cycles, each, better processor utilization, 2. **Performance Analysis, each sub, -, task, its execution time, the task's requirements, other sub, -, tasks, **B. Scheduling Strategy:**
+1. **Priority Queue, *, a priority queue, tasks, their required processing time, resource demands, dependency relationships, Prioritize tasks, shorter execution times, lower resource consumption, no dependencies, 2. **Dynamic Assignment, *, a dynamic assignment strategy, sub, -, tasks, processors, * **Processor load balance, specific processors, sub, tasks, all available ones, * **Task dependency, *, : Execute tasks, no dependencies, unbusy processors, those, interdependencies, order, execution, dependency graph, * **Resource allocation, resource utilization, the best possible sub, -, task, each processor, their capabilities, requirements, **C. Optimization Strategies, simple heuristics, scheduling, * **First-Come-First-Served (FCFS, inefficient scheduling, tasks, varying dependencies, (SJF, the sub, -, task, the shortest expected time, 2. **Local Search:** Utilize local search algorithms, task assignment, processor allocation, a given configuration, various constraints, dependencies, **D. Performance Monitoring, Adjustment, **Monitoring Execution Times:** Track and record execution times, tasks, each processor, the scheduling process, 2. **Performance Evaluation:**  Analyze schedules, the desired performance metrics, total execution time, resource utilization, necessary adjustments, further optimization, Algorithm Implementation, This algorithm, various languages, frameworks, Python, libraries, `networkx, data manipulation, graph representation, C++, libraries, mpi, parallel processing, linear algebra, the task decomposition, priority queue, dynamic assignment strategies, optimization techniques, your system's specifics, Considerations, Task Dependencies, The algorithm, task, efficient scheduling, * **Resource Constraints, * Account, processor limitations, memory, processing power, resource availability, inter-processor communication constraints, * **Parallelism, Multithreading, :*, advantage, multiprocessor capabilities, parallel/multithreaded execution techniques, **Conclusion, task scheduling, a multiprocessor system, careful consideration, various factors, a combination, optimization strategies, This algorithm, a framework, the challenges, minimized total execution time, further development, specific application requirements, constraints</t>
+        </is>
+      </c>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="n">
-        <v>-0.2044266015291214</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.2859277725219727</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.0302589163184166</v>
-      </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
         <is>
           <t>[('##  Algorithm', 'MONEY'), ('1', 'CARDINAL'), ('CPU', 'ORG'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('3', 'CARDINAL'), ('CPU', 'ORG'), ('two', 'CARDINAL'), ('1.5', 'CARDINAL'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('first', 'ORDINAL'), ('1', 'CARDINAL'), ('First', 'ORDINAL'), ('FCFS', 'ORG'), ('SJF', 'ORG'), ('2', 'CARDINAL'), ('Monitoring &amp; Adjustment:*', 'ORG'), ('1', 'CARDINAL'), ('Monitoring Execution Times', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Eigen', 'ORG'), ('4', 'CARDINAL'), ('Parallelism &amp; Multithreading:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
         <v>76.56311798095703</v>
       </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
       <c r="AI26" t="n">
         <v>0</v>
       </c>
@@ -5048,55 +5048,57 @@
       <c r="AK26" t="n">
         <v>0</v>
       </c>
-      <c r="AL26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr">
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr">
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="n">
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="n">
         <v>26</v>
       </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr">
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="n">
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="n">
         <v>0.090625</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BD26" t="n">
         <v>0.4541071428571429</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BE26" t="n">
         <v>4264</v>
       </c>
-      <c r="BE26" t="n">
+      <c r="BF26" t="n">
         <v>38</v>
       </c>
-      <c r="BF26" t="n">
+      <c r="BG26" t="n">
         <v>526</v>
       </c>
-      <c r="BG26" t="n">
+      <c r="BH26" t="n">
         <v>896</v>
       </c>
-      <c r="BH26" t="inlineStr"/>
       <c r="BI26" t="inlineStr"/>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
@@ -5105,6 +5107,7 @@
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5200,28 +5203,26 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>## Trade-Offs, Privacy, Security, Digital Contact Tracing Systems
+Digital contact tracing systems, crucial tools, pandemic response, swift isolation, infected individuals, transmission chains, these systems necessitates, *, privacy, *, *, concerns, *, *, security, * requirements, both effectiveness, ethical use, a breakdown, the trade-offs, Privacy, **Pros, individual privacy, trust, cooperation, public health initiatives, Public fear, mistrust, adoption, tracing systems, their efficacy, data collection, storage, anonymity, the risk, misuse, authorities, third parties, Transparent communication, data, accountability, ethical use, technology, * **Cons, increased surveillance, erosion, privacy, the immense amount, personal data, location, phone numbers, Legal and regulatory hurdles, the collection, storage, sharing, sensitive health information, implementation, its effectiveness, Anonymization techniques, room, identification, privacy violation, authorities, malicious actors, **Security, Pros, :*, Secure data management, the risk, data breaches, hacks, misuse, unauthorized individuals, This, the integrity, systems, public health information, * Robust security protocols, encryption, multi-factor authentication, sensitive information, unauthorized access, System design, implementation, security measures, the system's reliability, manipulation, sabotage, * **Cons:**
+    * Increased reliance, technology, vulnerability, cyberattacks, data breaches, potential malicious use, personal information, purposes, Complex security implementations, accessibility, ease, use, adoption, individuals, communities, the Equilibrium, The optimal balance, privacy, security, a multifaceted approach, * **Data Minimization, only essential data, contact tracing, it, * **Transparency, User Control, clear explanations, users, data collection, storage, use, sharing practices, Offer, options, access, their data, * **Strong Security Measures, robust security protocols, encryption, multi-factor authentication, collected data, breaches, * **Robust Audits, Oversight, Regularly audit systems, independent reviews, compliance, privacy regulations, trust, the system's integrity, * **Collaboration, Partnerships, Engage healthcare providers, public health agencies, technology experts, secure, ethical, and effective contact tracing systems, **Ethical Considerations, *Informed Consent, Obtain informed consent, users, their data, the purpose, risks, benefits, the system, Access, Correction, Empower individuals, their personal information, the system, * **Addressing Disparities, privacy protections, vulnerable communities, further inequity, healthcare services, digital tools, **Conclusion, Balancing privacy, security, successful implementation, contact tracing systems, data protection, secure technology, transparency, ethical principles, we, the benefits, these systems, the rights, freedoms, individuals, pandemic response efforts</t>
+        </is>
+      </c>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="n">
-        <v>-0.1791880279779434</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.359444797039032</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.07720862329006195</v>
-      </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr">
         <is>
           <t>[('## Trade', 'MONEY'), ('Privacy &amp; Security', 'ORG'), ('Digital Contact Tracing Systems', 'ORG'), ('Digital', 'ORG'), ('third', 'ORDINAL'), ('Data Minimization:*', 'ORG'), ('Access &amp; Correction:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AH27" t="n">
         <v>64.36975145339966</v>
       </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
@@ -5231,55 +5232,57 @@
       <c r="AK27" t="n">
         <v>0</v>
       </c>
-      <c r="AL27" t="inlineStr"/>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr">
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr">
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="n">
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="n">
         <v>27</v>
       </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr">
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="n">
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="n">
         <v>0.1044703595724004</v>
       </c>
-      <c r="BC27" t="n">
+      <c r="BD27" t="n">
         <v>0.5371626672647083</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BE27" t="n">
         <v>4170</v>
       </c>
-      <c r="BE27" t="n">
+      <c r="BF27" t="n">
         <v>26</v>
       </c>
-      <c r="BF27" t="n">
+      <c r="BG27" t="n">
         <v>516</v>
       </c>
-      <c r="BG27" t="n">
+      <c r="BH27" t="n">
         <v>773</v>
       </c>
-      <c r="BH27" t="inlineStr"/>
       <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="inlineStr"/>
@@ -5288,6 +5291,7 @@
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5378,28 +5382,26 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>A Multi-Pronged Strategy 
+Deepfake technology, a significant threat, truth, trust, it, incredibly realistic fake videos, that, the line, reality, fiction, a multi-pronged strategy, this impact, misinformation spread, public trust erosion, **Technical Advancements, **Real-time deepfake detection, advanced AI algorithms, platforms, social media, news websites, apps, deepfakes, real-time, their features, (e.g., unnatural movement, audio inconsistencies, potential red flags, e.g., unusual lighting, strange facial expressions, *Blockchain technology, provenance, blockchain, a tamper-proof record, video content's origin, authenticity, users, its legitimacy, the source, secure and invisible watermarks, videos, that, any platform, This, identification, deepfakes, the footage, * **Artificial Intelligence, forgery detection, a vast dataset, known deepfakes, new ones, they, * **Educational Initiatives, Public awareness, Educate users, deepfake technology, its potential threats, impactful public information campaigns, platforms, diverse demographics, critical thinking skills, education, fake news, manipulative content, curriculums, different levels, schools, universities, Response, Accountability, :*, Platform responsibility, * **Proactive moderation policies, strong anti-deepfake measures, platform guidelines, content filtering tools, automated detection systems, * **Transparency, communication, clear explanations, users, what, a deepfake, the platform, it, * **Collaborative efforts, Foster collaboration, platforms, governments, media institutions, research centers, consistent and effective strategies, deepfakes, * **Law enforcement, legal actions, **Laws, regulations, * Advocate, legislation, that, technology, tech companies, responsibility, its misuse, penalties, harmful content, investigative capabilities, perpetrators, malicious deepfakes, them, established legal processes, **III, Collaboration &amp; Trust:**
+* **International cooperation, Foster international collaboration, research, technological development, deepfake, this global challenge, * **Building trust, media, information, * **Truth verification tools, the use, independent fact-checking websites, tools, that, claims, * **Transparent news consumption, responsible engagement, news, media, critical thinking skills, healthy skepticism, sensationalized content, Ethical Considerations, *Responsible use, AI, Ensure AI technologies, deepfake detection, unintended biases, misuse, potential harms, the potential, deepfakes, individuals, communities, political attacks, ethical guidelines, their use, research, other fields, This strategy, a multi-pronged approach, government, private industry, researchers, the public, all, a role, proactive steps, the impact, deepfakes, we, misinformation, public trust, democratic institutions, the digital age</t>
+        </is>
+      </c>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="n">
-        <v>-0.2263300269842148</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.3212510645389557</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.0339999608695507</v>
-      </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr">
         <is>
           <t>[('## Mitigating', 'MONEY'), ('I. Prevention &amp; Detection:*', 'ORG'), ('AI', 'ORG'), ('Response &amp; Accountability:*', 'ORG'), ('Collaboration &amp; Trust:*', 'ORG'), ('Ethical Considerations:*', 'ORG'), ('AI:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AH28" t="n">
         <v>72.80426716804504</v>
       </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
       <c r="AI28" t="n">
         <v>0</v>
       </c>
@@ -5409,55 +5411,57 @@
       <c r="AK28" t="n">
         <v>0</v>
       </c>
-      <c r="AL28" t="inlineStr"/>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr">
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr">
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="n">
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="n">
         <v>28</v>
       </c>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr">
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="n">
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="n">
         <v>0.06944920907185059</v>
       </c>
-      <c r="BC28" t="n">
+      <c r="BD28" t="n">
         <v>0.454593100819516</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BE28" t="n">
         <v>4163</v>
       </c>
-      <c r="BE28" t="n">
+      <c r="BF28" t="n">
         <v>24</v>
       </c>
-      <c r="BF28" t="n">
+      <c r="BG28" t="n">
         <v>506</v>
       </c>
-      <c r="BG28" t="n">
+      <c r="BH28" t="n">
         <v>837</v>
       </c>
-      <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="inlineStr"/>
@@ -5466,6 +5470,7 @@
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5563,28 +5568,24 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>## A Sustainable Urban Transportation System, Vision, Accessibility, Equity, Minimal Impact, This design concept, different modes, transport, a holistic, interconnected network, minimizes congestion, accessibility, equity, Core Principles, **Multimodal Integration, seamless transfer, public transportation (buses, trams, trains, cycling infrastructure, bike lanes, shared-use paths, pedestrian networks, Public Transit, :*, high-capacity, rapid transit systems, dedicated lanes, shorter travel times, efficient routes, accessibility, equitable distribution, service, the city, demand, shared-ride van, minibus, less dense areas, the network and bridge connectivity gaps, public transit, * **Electrification and Efficiency:** Prioritize electric buses, trams, trains, renewable energy sources, stations, vehicle, minimal fuel consumption, efficient energy utilization, * **Active Transportation Emphasis, a comprehensive cycling infrastructure, protected bike lanes, secure bike parking, dedicated cycle paths, the city, safe and active travel, Key Components, **High-Capacity Public Transit System, **Subway Network:** Extensive underground or elevated metro lines, frequent services, multiple lines, key urban areas, * **Bus Rapid Transit (BRT) Lanes:** Dedicated bus lanes, faster, more reliable public transit routes, central hubs, residential areas, * **Light Rail System, Electrified light rail network, major corridors, high-frequency service, quick transfer options, key stations, * **Active Transportation Network, *Protected Bike Lanes, Shared Paths, * Extensive network, protected bike lanes, traffic, pathways, safe cycling, the city, * **Secure Bike Parking:*, Dedicated, secure bike parking facilities, the city, transit hubs, commercial areas, public spaces, * **Micro-Transit Service Network, demand, less dense neighborhoods, major transit hubs, smaller vans, minibuses, efficient last-mile connectivity, Partnership, existing ride-sharing services, micro-transit options, their platforms, seamless connections, user interfaces, * **Smart Technology Integration, Real-time information systems, accurate journey planning, traffic conditions, public transit schedules, Interactive mobile apps, route optimization tools, real-time crowding reports, integrated payment options, Sustainable Practices, Renewable Energy Sources, solar panels, infrastructure, bus shelters, bike racks, stations, renewable energy sources, electric vehicles, high-quality public transit materials, building practices, that, construction waste, environmental impact, * **Sustainable Urban Planning, green building standards, policies, compact development, mixed-use zoning, walkable neighborhoods, Accessibility, Equity, :*, *Universal Access Design, all infrastructure and public transit vehicles, universal accessibility, mind, e.g., ramps, wheelchair users, * **Equitable Service Distribution, services, communities, targeted outreach, community engagement, partnership initiatives, non-profit organizations, these areas, * **Fare Equity Policies:** Offer, fares, free transit options, low-income individuals, families, equitable access, the system, Continuous Improvement &amp; Evaluation:*, Regular monitoring, travel patterns, ridership data, user feedback, optimization opportunities, the transportation network, * Continuous research, development, innovative technologies, policies, that, emerging challenges, urban mobility, * Public participation, engagement, planning and implementation decisions, a system, that, the needs, all residents, This model, a shift, solely car-centric solutions, a multi-modal, sustainable approach, public transport, center stage, active transportation options, an efficient, equitable, and environmentally conscious urban ecosystem</t>
+        </is>
+      </c>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="n">
-        <v>-0.2683748602867126</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.2484864145517349</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>-0.02182964794337749</v>
-      </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
         <is>
           <t>[('## A Sustainable Urban Transportation System', 'MONEY'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Key Components:*', 'ORG'), ('Subway Network:*', 'ORG'), ('metro', 'ORG'), ('BRT', 'ORG'), ('Protected Bike Lanes &amp; Shared Paths:** Extensive', 'ORG'), ('Micro-Transit Service Network:*', 'ORG'), ('last-mile', 'QUANTITY'), ('Smart Technology Integration', 'ORG'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('Universal Access Design:*', 'ORG'), ('5', 'CARDINAL'), ('Continuous Improvement &amp; Evaluation:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AH29" t="n">
         <v>80.75700879096985</v>
       </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
       <c r="AI29" t="n">
         <v>0</v>
       </c>
@@ -5594,55 +5595,57 @@
       <c r="AK29" t="n">
         <v>0</v>
       </c>
-      <c r="AL29" t="inlineStr"/>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr">
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr">
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="n">
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="n">
         <v>29</v>
       </c>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr">
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="n">
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="n">
         <v>0.07176587301587301</v>
       </c>
-      <c r="BC29" t="n">
+      <c r="BD29" t="n">
         <v>0.3439407814407814</v>
       </c>
-      <c r="BD29" t="n">
+      <c r="BE29" t="n">
         <v>4850</v>
       </c>
-      <c r="BE29" t="n">
+      <c r="BF29" t="n">
         <v>30</v>
       </c>
-      <c r="BF29" t="n">
+      <c r="BG29" t="n">
         <v>582</v>
       </c>
-      <c r="BG29" t="n">
+      <c r="BH29" t="n">
         <v>915</v>
       </c>
-      <c r="BH29" t="inlineStr"/>
       <c r="BI29" t="inlineStr"/>
       <c r="BJ29" t="inlineStr"/>
       <c r="BK29" t="inlineStr"/>
@@ -5651,6 +5654,7 @@
       <c r="BN29" t="inlineStr"/>
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5762,28 +5766,25 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>a breakdown, a machine learning model, disease likelihood, genetics, lifestyle factors, Data Collection &amp; Preparation:*, Source, * Gather data, multiple sources, **Patients:** EHRs, (electronic health records, genetic databases, GWAS, whole-genome sequencing data, * **Genomics Companies:**  Companies, genomic testing, disease prediction, * **Lifestyle Databases, National surveys, diet, exercise, public datasets, wearable device information, * **Data Cleaning, Preprocessing, Missing Values, (e.g., mean/median replacement, removal, data quality, * **Outliers:** Identification, treatment, transforming, * **Feature Scaling, Normalize, a standard range, Categorical Features, categorical variables, numerical form, techniques, one-hot encoding, label encoding, * **Data Augmentation, techniques, SMOTE, synthetic minority oversampling technique, imbalanced datasets, **2. Feature Engineering, Selection, **Genetic Data:**  Extract, relevant features, genomic data, *Single Nucleotide Polymorphisms, SNPs, *  Known disease-associated SNPs, * **Copy Number Variations, CNVs, Large chromosomal changes, increased disease risk, * **Histograms and Density Plots:** Visualize distributions, genetic information, patterns, * **Polygenic Risk Score, (PRS) Models, large datasets, an individual's predisposition, a disease, multiple SNPs, *Lifestyle Data, relevant lifestyle data, :*, Nutrient intake, dietary patterns, food groups, * **Exercise:** Regularity, intensity, physical activity, fitness levels, * **Sleep:** Quality, duration, sleep schedules, * **Stress Levels, self-reported scales, physiological indicators, cortisol levels, * **Environmental Factors, Exposure, pollutants, air quality index, * **Feature Extraction Techniques, *, PCA, principal component analysis, LDA, linear discriminant analysis, the number, features, important information, **3. Model Selection, Training, :*, *, these machine learning models, **Regression Models, Linear Regression, Support Vector Machines, SVMs, Decision Trees, Random Forests, continuous probability scores, * **Classification Models, Logistic Regression, Support Vector Classification, Naive Bayes, K-Nearest Neighbors, XGBoost, LightGBM, binary disease classifications, e.g., Yes/No, the Model, your data, training, validation, test sets, cross-validation techniques, reliable model performance, **4. Model Evaluation &amp; Analysis:**
+* **Evaluate Performance Metrics:**  Use metrics, accuracy, precision, recall, F1 score, AUC, area, the curve, regression, confusion matrices, classification, * **Sensitivity, Specificity, the ability, your model, patients, disease, those, Interpretation, the model, certain predictions, different models, features, performance, interpretability and risk-adjusted predictions, (e.g., false positive rates, **5. Ethical Considerations, Privacy, Security, Ensure data, the model, patients, * **Bias Mitigation:** Address potential biases, your data, models, fairness, all populations, Implementation, Deployment, :*, *User Interface, an interface, that, patients, the results, a user-friendly manner, * **Clinical Integration, healthcare providers, guidelines, the model's predictions, **Important Notes, Data Quality, you, access, high-quality data, reliable sources, * **Collaboration, Expertise, a multidisciplinary team, geneticists, biostatisticians, software engineers, clinicians, * **Regulatory Compliance, legal requirements, patient privacy, medical device regulations, * **Continuous Improvement, The model, time, the data, understanding, disease risk evolve, This approach, a comprehensive framework, a predictive machine learning model, disease likelihood, it, such models, replacements, clinical diagnosis, conjunction, healthcare professionals, better care</t>
+        </is>
+      </c>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="n">
-        <v>-0.4632424712181091</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.1737278252840042</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>-0.1640225499868393</v>
-      </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('Data Collection &amp; Preparation:*', 'ORG'), ('Genomics Companies:*', 'ORG'), ('Data Cleaning &amp; Preprocessing:*', 'ORG'), ('-1', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('SMOTE', 'PERSON'), ('2', 'CARDINAL'), ('Feature Engineering &amp; Selection:*', 'ORG'), ('Nucleotide Polymorphisms', 'PERSON'), ('Polygenic Risk Score', 'ORG'), ('Lifestyle Data:*', 'ORG'), ('Stress Levels:*', 'ORG'), ('PCA', 'ORG'), ('linear', 'ORG'), ('3', 'CARDINAL'), ('Model Selection &amp; Training:*', 'ORG'), ('Linear Regression', 'ORG'), ('Vector Machines', 'PERSON'), ('Decision Trees', 'PERSON'), ('Random Forests', 'PERSON'), ('Support Vector Classification', 'ORG'), ('Naive Bayes', 'PERSON'), ('K-Nearest Neighbors', 'ORG'), ('XGBoost', 'ORG'), ('LightGBM', 'ORG'), ('4', 'CARDINAL'), ('Model Evaluation &amp; Analysis:*', 'ORG'), ('F1', 'CARDINAL'), ('AUC', 'ORG'), ('5', 'CARDINAL'), ('6', 'CARDINAL'), ('Implementation &amp; Deployment:*', 'ORG'), ('Data Quality is Critical:*', 'ORG'), ('Collaboration &amp; Expertise:*', 'ORG'), ('clinicians', 'NORP'), ('Continuous Improvement:*', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AH30" t="n">
         <v>92.6415958404541</v>
       </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
       <c r="AI30" t="n">
         <v>0</v>
       </c>
@@ -5793,55 +5794,57 @@
       <c r="AK30" t="n">
         <v>0</v>
       </c>
-      <c r="AL30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr">
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr">
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="n">
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="n">
         <v>30</v>
       </c>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr">
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="n">
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="n">
         <v>0.07926556202418271</v>
       </c>
-      <c r="BC30" t="n">
+      <c r="BD30" t="n">
         <v>0.494752948201224</v>
       </c>
-      <c r="BD30" t="n">
+      <c r="BE30" t="n">
         <v>5093</v>
       </c>
-      <c r="BE30" t="n">
+      <c r="BF30" t="n">
         <v>42</v>
       </c>
-      <c r="BF30" t="n">
+      <c r="BG30" t="n">
         <v>605</v>
       </c>
-      <c r="BG30" t="n">
+      <c r="BH30" t="n">
         <v>1147</v>
       </c>
-      <c r="BH30" t="inlineStr"/>
       <c r="BI30" t="inlineStr"/>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="inlineStr"/>
@@ -5850,6 +5853,7 @@
       <c r="BN30" t="inlineStr"/>
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5936,28 +5940,25 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>'s, quantum entanglement, its implications, technology, What, Quantum Entanglement, two particles, 's, them, Alice, Bob, a way, that, classical physics, you, the state, Alice, her spin direction, you, the state, Bob, they, This connection, :*, * **Shared State, Entangled particles, a common fate, they, one unit, physical separation, measurement, each particle, multiple states, the same time, This, superposition, Entangled Particles, you, one entangled particle, it, a definite state, This collapse, the other particle, they, This, Entanglement, it, major implications, Quantum Cryptography, **Unbreakable Encryption, Traditional cryptography, complex mathematical calculations, information, Entangled particles, a new way, data, even the most sophisticated hackers, entanglement's unique properties, * **Quantum Key Distribution, (QKD, This technique, entangled photons, encryption, keys, two parties, the risk, eavesdropping, decryption, third-party forces, Quantum Computing:*, **Parallel Processing, Entangled particles, calculations, multiple states, super fast computation, complex tasks, molecules, breaking codes, that, classical computers, Specialized, leverage entanglement, problems, classical counterparts, **Challenges, Future Potential, quantum entanglement, challenges, **Technical Complexity, Entanglement, precise control, manipulation, advanced technology, * **Limited Scale, entanglement, both the number, entangled particles, their lifespan, they, time, these hurdles, research, The future, exciting possibilities, **Developments, Quantum Technologies, Ongoing research, these limitations, more powerful devices, quantum computers, sensors, * **Applications, Cryptography, Entanglement, fields, medicine, faster drug discovery, materials science, e.g., novel materials design, even navigation, (e.g., extremely accurate GPS systems, a Nutshell:**
+Quantum entanglement, a mind-boggling phenomenon, particles, a way, that, our everyday intuition, It, the key, revolutionary technologies, quantum cryptography, computing, we, data and process information</t>
+        </is>
+      </c>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="n">
-        <v>-0.1975468993186951</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.2780659198760986</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.03048140928149223</v>
-      </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr">
         <is>
           <t>[('quantum entanglement', 'ORG'), ('Quantum Entanglement', 'ORG'), ('two', 'CARDINAL'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('first', 'ORDINAL'), ('Shared State:*', 'ORG'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Quantum Cryptography:*', 'ORG'), ('two', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Quantum Computing:*', 'ORG'), ('Quantum Algorithms:*', 'PERSON'), ('quantum entanglement', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Applications Beyond Cryptography:*', 'PERSON'), ('GPS systems', 'ORG'), ('Nutshell', 'PERSON'), ('Quantum', 'ORG'), ('quantum', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AH31" t="n">
         <v>52.81560754776001</v>
       </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
@@ -5967,55 +5968,57 @@
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-      <c r="AL31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr">
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr">
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="n">
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="n">
         <v>31</v>
       </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr">
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="n">
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="n">
         <v>0.08573365934477045</v>
       </c>
-      <c r="BC31" t="n">
+      <c r="BD31" t="n">
         <v>0.5234013414568971</v>
       </c>
-      <c r="BD31" t="n">
+      <c r="BE31" t="n">
         <v>3167</v>
       </c>
-      <c r="BE31" t="n">
+      <c r="BF31" t="n">
         <v>24</v>
       </c>
-      <c r="BF31" t="n">
+      <c r="BG31" t="n">
         <v>418</v>
       </c>
-      <c r="BG31" t="n">
+      <c r="BH31" t="n">
         <v>664</v>
       </c>
-      <c r="BH31" t="inlineStr"/>
       <c r="BI31" t="inlineStr"/>
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="inlineStr"/>
@@ -6024,6 +6027,7 @@
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6111,28 +6115,25 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>## CRISPR-Cas9 Gene Editing, A Powerful Tool, Ethical Considerations
+CRISPR-Cas9, a revolutionary gene, technology, that, unprecedented possibilities, genetic defects, diseases, organisms, It, two key components, The Cas9, Enzyme, This protein, molecular scissors, DNA, specific locations, A Guide RNA, gRNA, This small RNA molecule, the target sequence, DNA, that, editing, a simplified explanation, the process, **Design, Scientists, a gRNA sequence, a specific gene, the DNA, *Delivery, The Cas9 enzyme, gRNA, the cell, methods, viral vectors, lipid nanoparticles, *Target Recognition, Cut, :*, The gRNA, Cas9, the target DNA sequence, it, both strands, the DNA double helix, 4. **Repair Mechanism, The cell's own repair mechanisms, Two main pathways, * **Non-homologous end, This, small insertions, deletions, the cut site, the gene function, * **Homology-directed repair, HDR, a DNA template, the desired edit, Cas9, it, a precise replacement, the targeted sequence, therapeutic gene editing, **Editing, The edited DNA sequence, the chosen method, cell type, ## Ethical Implications, CRISPR-Cas9, Humans, A Complex Landscape, its immense potential, ethical concerns, the application, CRISPR-Cas9, humans, Germline Editing, the genes, human embryos, germ cells, heritable changes, future generations, This, significant ethical issues, consent, long-term consequences, descendants, * **Consent, Responsibility, The potential impact, future generations, careful consideration, the germline, it, a complex web, moral and societal implications, Somatic Editing, Editing non-germline cells, somatic cells, a more targeted approach, future generations, This, fewer ethical concerns, still warrants scrutiny, * **Off-Target Effects, precise editing, the intended target site, unintended damage, other genes, regulatory elements, **3. Eugenics, Social Inequality, The ability, genes, desirable traits, concerns, social inequalities, a society, that, certain traits, * **Access, Equity, fair and equitable access, gene editing technologies, a genetic elite, Abuse, The power, CRISPR-Cas9, the possibility, misuse, unethical purposes, designer babies, human abilities, consent, harm, * **Regulation, Oversight, Strict ethical guidelines, legal regulations, responsible development, application, this technology, Societal Acceptance:*, Public understanding, acceptance, CRISPR-Cas9's applications, its successful integration, society, * **Transparency &amp; Education:** Open communication, the technology, its benefits, potential risks, trust, informed decisions, conclusion, CRISPR-Cas9, immense promise, human health, various genetic diseases, it, critical ethical concerns, that, careful consideration, open discussion, these challenges, transparency, public engagement, we, the power, this revolutionary technology, humanity, a just and equitable manner</t>
+        </is>
+      </c>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="n">
-        <v>-0.05138982832431793</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.3940970599651337</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0.1630093157291412</v>
-      </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr">
         <is>
           <t>[('CRISPR-Cas9 Gene Editing', 'PERSON'), ('two', 'CARDINAL'), ('1', 'CARDINAL'), ('The Cas9 Enzyme:*', 'ORG'), ('2', 'CARDINAL'), ('Guide RNA', 'ORG'), ('RNA', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Cas9', 'NORP'), ('3', 'CARDINAL'), ('Target Recognition &amp; Cut:*', 'ORG'), ('Cas9', 'NORP'), ('4', 'CARDINAL'), ('Two', 'CARDINAL'), ('HDR', 'ORG'), ('Cas9', 'NORP'), ('5', 'CARDINAL'), ('## Ethical Implications', 'MONEY'), ('CRISPR-Cas9', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Social Inequality:*', 'ORG'), ('4.', 'CARDINAL'), ('CRISPR-Cas9', 'ORG'), ('5', 'CARDINAL'), ('Societal Acceptance:*', 'ORG'), ("CRISPR-Cas9's", 'ORG'), ('CRISPR-Cas9', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AH32" t="n">
         <v>69.87185478210449</v>
       </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
       <c r="AI32" t="n">
         <v>0</v>
       </c>
@@ -6142,55 +6143,57 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
-      <c r="AL32" t="inlineStr"/>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr">
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr">
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="n">
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="n">
         <v>32</v>
       </c>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr">
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="n">
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="n">
         <v>0.08463901689708143</v>
       </c>
-      <c r="BC32" t="n">
+      <c r="BD32" t="n">
         <v>0.5684907834101383</v>
       </c>
-      <c r="BD32" t="n">
+      <c r="BE32" t="n">
         <v>3971</v>
       </c>
-      <c r="BE32" t="n">
+      <c r="BF32" t="n">
         <v>36</v>
       </c>
-      <c r="BF32" t="n">
+      <c r="BG32" t="n">
         <v>550</v>
       </c>
-      <c r="BG32" t="n">
+      <c r="BH32" t="n">
         <v>830</v>
       </c>
-      <c r="BH32" t="inlineStr"/>
       <c r="BI32" t="inlineStr"/>
       <c r="BJ32" t="inlineStr"/>
       <c r="BK32" t="inlineStr"/>
@@ -6199,6 +6202,7 @@
       <c r="BN32" t="inlineStr"/>
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6277,28 +6281,24 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Dark matter and dark energy, two mysterious components, the universe, that, about 95%, its total content, Their roles, our understanding, the universe's structure, evolution, **Dark Matter, * **Structure Formation, Dark matter, galaxies, which, stars, gas, forms, It, large-scale structures, the universe, galaxy clusters, filaments, the distribution, visible matter, gravity, * **Gravitational Lensing, We, distortions, light, distant objects, they, a massive object, This, it, strong evidence, dark matter's presence, The amount, distortion, the mass density, the unseen matter, which, dark matter, * **Cosmic Microwave Background, (CMB, The cosmic microwave background, CMB, an afterglow, the Big Bang, that, patterns, temperature fluctuations, it, The distribution, these fluctuations, a universe, non-luminous matter, dark matter, its role, a significant contributor, the early structure formation, evolution, **Dark Energy, Expansion, Dark energy, about 68%, the total mass–energy content, the universe, It, a repulsive force, that, gravity's pull, the expansion, the universe, This observation, distant supernovae, the Fate, the Universe, The discovery, dark energy, our understanding, the fate, the universe, We, it, a "big rip, even a complete collapse, spacetime, * **Cosmic Background Radiation, Dark energy's effect, the expansion, the universe, the changing distribution, density, cosmic microwave background radiation, The fluctuations, regions, dark energy, **Challenges, Ongoing Research, we, strong evidence, both dark matter and dark energy, they, mysteries, scientists, Several challenges, * **Detection Difficulties, dark matter, -, interaction, light or electromagnetic radiation, the Nature, We, what, these mysterious components, they, fundamental particles, Exotic entities, This, a huge mystery, physics, * **Developing Models, Developing models, that, dark matter and dark energy, their interactions, influence, the evolution, the universe, the broader picture, Dark matter, cornerstones, modern cosmology, They, our understanding, the universe's structure, evolution, ultimate fate, Research, these elusive components, the boundaries, scientific knowledge, breakthroughs, that, our understanding, physics, astronomy, years, me, you, more details, a specific aspect, dark matter, dark energy</t>
+        </is>
+      </c>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="n">
-        <v>-0.06046773493289948</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.4018425643444061</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.1615966707468033</v>
-      </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr">
         <is>
           <t>[('two', 'CARDINAL'), ('about 95%', 'PERCENT'), ('Dark Matter:*', 'PERSON'), ('Microwave Background', 'PERSON'), ('CMB', 'ORG'), ('CMB', 'ORG'), ('the Big Bang', 'GPE'), ('Dark Energy:*', 'ORG'), ('about 68%', 'PERCENT'), ('Challenges and Ongoing Research:*', 'ORG'), ('Developing Models:**  Developing', 'WORK_OF_ART'), ('years', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AH33" t="n">
         <v>55.60174441337585</v>
       </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
@@ -6308,55 +6308,57 @@
       <c r="AK33" t="n">
         <v>0</v>
       </c>
-      <c r="AL33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr">
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr">
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="n">
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="n">
         <v>33</v>
       </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr">
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="n">
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="n">
         <v>0.06569940476190478</v>
       </c>
-      <c r="BC33" t="n">
+      <c r="BD33" t="n">
         <v>0.5388392857142855</v>
       </c>
-      <c r="BD33" t="n">
+      <c r="BE33" t="n">
         <v>3399</v>
       </c>
-      <c r="BE33" t="n">
+      <c r="BF33" t="n">
         <v>27</v>
       </c>
-      <c r="BF33" t="n">
+      <c r="BG33" t="n">
         <v>494</v>
       </c>
-      <c r="BG33" t="n">
+      <c r="BH33" t="n">
         <v>663</v>
       </c>
-      <c r="BH33" t="inlineStr"/>
       <c r="BI33" t="inlineStr"/>
       <c r="BJ33" t="inlineStr"/>
       <c r="BK33" t="inlineStr"/>
@@ -6365,6 +6367,7 @@
       <c r="BN33" t="inlineStr"/>
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6446,28 +6449,24 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>## Challenges, Benefits, Artificial General Intelligence, (AGI, Artificial General Intelligence, (AGI, a hypothetical type, AI, that, human-like cognitive abilities, a captivating concept, immense potential, several daunting challenges, **Challenges, General Intelligence, The very definition, general intelligence, itself, framework, We, clear benchmarks, an AI, true AGI, Human Cognition, *, The intricate workings, the human brain, its plasticity, emotions, unique cognitive abilities, advanced machine learning techniques, * **Data Requirements, Training AGI, massive datasets, diverse, unstructured information, humans, this kind, data, complex tasks, reasoning, perception, language comprehension, * **Ethical Concerns, The development, AGI, significant ethical concerns, it, a threat, humanity, it, human intelligence, control, unforeseen consequences, * **Resource Intensive Development, Building AGI, immense computational resources, specialized hardware, AI chips, extensive research, that, **Potential Benefits, Global Challenges, *, AGI, numerous fields, complex problems, climate change, disease eradication, poverty alleviation, sustainable resource management, its ability, large datasets, innovative solutions, * **Unleashing Human Creativity, AGI, a collaborative partner, humans, creative endeavors, writing, music composition, art creation, research, It, the boundaries, human creativity, new artistic forms, ideas, Human Capabilities, *, AGI, our cognitive abilities, tasks, translation, summarization, higher-level thinking, innovation, * **Personalized Learning, Healthcare, AGI, education, learning experiences, individual needs, personalized coaching, more efficient and effective learning outcomes, healthcare, it, diseases, potential health issues, customized treatments, Scientific Understanding, AGI, scientific discoveries, massive datasets, research, experimentations, breakthroughs, fields, physics, chemistry, biology, the Future, AGI, the challenges, AGI, considerable, ongoing research and development offer hope, a future, this technology, a reality, A careful approach, * **Focus, Ethical Development, Developing AGI, This, robust guidelines, regulations, safeguards, its safe deployment, potential misuse, * **Collaboration and Transparency:** Open collaboration, researchers, scientists, policymakers, the public, this technology's trajectory, responsible progress, Transparency, AGI development goals, outcomes, Research, Education, *, AI research, areas, cognitive modeling, human-AI interaction, ethical considerations, our understanding, AGI, its potential impact, the journey, AGI, a voyage, It, enormous promise, careful consideration, challenges, the vast possibilities, it, responsible development practices, collaborative efforts, we, the power, AGI, the betterment, humanity</t>
+        </is>
+      </c>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="n">
-        <v>-0.122647263109684</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.3246379494667053</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.09255068749189377</v>
-      </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr">
         <is>
           <t>[('## Challenges and', 'MONEY'), ('Developing Artificial General Intelligence', 'ORG'), ('Artificial General Intelligence', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('Data Requirements:*', 'ORG'), ('AGI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Personalized Learning &amp; Healthcare', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Focus on Ethical Development:*', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AH34" t="n">
         <v>62.8207323551178</v>
       </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
@@ -6477,55 +6476,57 @@
       <c r="AK34" t="n">
         <v>0</v>
       </c>
-      <c r="AL34" t="inlineStr"/>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr">
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr">
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="n">
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="n">
         <v>34</v>
       </c>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr">
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="n">
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="n">
         <v>0.06515692640692641</v>
       </c>
-      <c r="BC34" t="n">
+      <c r="BD34" t="n">
         <v>0.6010538419913419</v>
       </c>
-      <c r="BD34" t="n">
+      <c r="BE34" t="n">
         <v>4243</v>
       </c>
-      <c r="BE34" t="n">
+      <c r="BF34" t="n">
         <v>25</v>
       </c>
-      <c r="BF34" t="n">
+      <c r="BG34" t="n">
         <v>543</v>
       </c>
-      <c r="BG34" t="n">
+      <c r="BH34" t="n">
         <v>805</v>
       </c>
-      <c r="BH34" t="inlineStr"/>
       <c r="BI34" t="inlineStr"/>
       <c r="BJ34" t="inlineStr"/>
       <c r="BK34" t="inlineStr"/>
@@ -6534,6 +6535,7 @@
       <c r="BN34" t="inlineStr"/>
       <c r="BO34" t="inlineStr"/>
       <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6617,28 +6619,24 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>## Neuroplasticity, Your Brain's Amazing Ability, your brain, a bustling city, roads, intersections, buildings, These "intersections, the connections, neurons, the city's residents, that, information, This constant traffic, information, what, you, new things, experiences, the world, you, This ability, your brain, its structure, time, *, neuroplasticity, *, *, it, Neuroplasticity, the brain's remarkable capacity, itself, response, experiences, environmental stimulation, life, It, * **Changes, neuronal connections, we, something, something, our brains, information, neurons, the creation, these connections, * **Brain volume changes, The brain, new cells, neurons, the size, existing ones, This, we, complex skills, a musical instrument, a foreign language, * **Rewiring patterns, The pathways, that, our brains, information, they, our experiences, decades, **Neuroplasticity, Implications, Learning, Memory, Recovery, **Learning, Memory, *, a new skill, the piano, a cake, you, itself, connections, neurons, those skills, This, memories, skills, 2. **Memory Improvement, Neuroplasticity, memory performance, existing connections, new ones, Techniques, memory exercises, mindfulness practices, mentally challenging activities, this process, 3. **Brain Injury Recovery, someone, a brain injury, the plasticity, the brain, it, itself, Neuroplasticity, Restore, functions, *, Some functions, the brain, new environments, The brain, its structure, connections, loss, damage, individuals, different life situations, Neuroplasticity, Optimal Well-being, :*, You, your brain's plasticity, various lifestyle choices, yourself, new things, your interests, activities, that, your cognitive boundaries, Regular exercise, blood flow, the brain, growth, connections, * **Mindful practices, Techniques, meditation, yoga, deep breathing, neuroplasticity, the nervous system, focus, * **Sleep, Rest, neural repair, memory consolidation, improved cognitive performance, Conclusion, Neuroplasticity, a dynamic process, that, your brain, life, its role, learning, memory, recovery, injury, us, healthier, more engaged lives, our brains</t>
+        </is>
+      </c>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="n">
-        <v>-0.08452124893665314</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.3336604237556458</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.1173747926950455</v>
-      </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr">
         <is>
           <t>[('## Neuroplasticity', 'MONEY'), ('decades', 'DATE'), ('1', 'CARDINAL'), ('Learning &amp; Memory:*', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Brain Injury Recovery:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AH35" t="n">
         <v>57.48736119270325</v>
       </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
@@ -6648,55 +6646,57 @@
       <c r="AK35" t="n">
         <v>0</v>
       </c>
-      <c r="AL35" t="inlineStr"/>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr">
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr">
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="n">
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="n">
         <v>35</v>
       </c>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr">
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="n">
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="n">
         <v>0.1030815972222222</v>
       </c>
-      <c r="BC35" t="n">
+      <c r="BD35" t="n">
         <v>0.5241446921134422</v>
       </c>
-      <c r="BD35" t="n">
+      <c r="BE35" t="n">
         <v>3382</v>
       </c>
-      <c r="BE35" t="n">
+      <c r="BF35" t="n">
         <v>28</v>
       </c>
-      <c r="BF35" t="n">
+      <c r="BG35" t="n">
         <v>472</v>
       </c>
-      <c r="BG35" t="n">
+      <c r="BH35" t="n">
         <v>698</v>
       </c>
-      <c r="BH35" t="inlineStr"/>
       <c r="BI35" t="inlineStr"/>
       <c r="BJ35" t="inlineStr"/>
       <c r="BK35" t="inlineStr"/>
@@ -6705,6 +6705,7 @@
       <c r="BN35" t="inlineStr"/>
       <c r="BO35" t="inlineStr"/>
       <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6788,28 +6789,24 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>The Rabbit R1, a high-performance, liquid-cooled server, cloud computing, artificial intelligence, data analytics workloads, Key features, Hardware, Gen AMD EPYC, 7000 Series Processors, 64 cores, 128 threads, Redundant Power Supply, Fan Modules, *Liquid Cooling, silent operation, increased efficiency, high-performance computing workloads, 4x, *Other Features, expansion, Front-panel USB-C and Ethernet ports, Optional, 10GbE Optical transceiver, The Rabbit R1, its, * **High Performance, powerful hardware, liquid cooling, it, workloads, Multiple units, increased performance, capacity, Liquid cooling, power consumption, heat generation, * **Silent Operation, Quiet operation, advanced cooling, fan design, the Rabbit R1, a high-performance, scalable server, AI</t>
+        </is>
+      </c>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="n">
-        <v>-0.3370234072208405</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.02133311703801155</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>-0.1626646369695663</v>
-      </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr">
         <is>
           <t>[('7000', 'DATE'), ('64', 'CARDINAL'), ('128', 'CARDINAL'), ('192', 'CARDINAL'), ('GB', 'GPE'), ('3200', 'CARDINAL'), ('8', 'CARDINAL'), ('Redundant Power Supply and Fan Modules', 'WORK_OF_ART'), ('2x 10GbE', 'MONEY'), ('4x 2.5GbE Network Interfaces', 'QUANTITY'), ('5.0', 'CARDINAL'), ('Ethernet', 'PERSON'), ('Optional 10GbE Optical', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AH36" t="n">
         <v>156.4974000453949</v>
       </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
       <c r="AI36" t="n">
         <v>0</v>
       </c>
@@ -6819,55 +6816,57 @@
       <c r="AK36" t="n">
         <v>0</v>
       </c>
-      <c r="AL36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr">
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr">
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="n">
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="n">
         <v>36</v>
       </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr">
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="n">
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="n">
         <v>0.08233333333333334</v>
       </c>
-      <c r="BC36" t="n">
+      <c r="BD36" t="n">
         <v>0.4565555555555555</v>
       </c>
-      <c r="BD36" t="n">
+      <c r="BE36" t="n">
         <v>1272</v>
       </c>
-      <c r="BE36" t="n">
+      <c r="BF36" t="n">
         <v>8</v>
       </c>
-      <c r="BF36" t="n">
+      <c r="BG36" t="n">
         <v>162</v>
       </c>
-      <c r="BG36" t="n">
+      <c r="BH36" t="n">
         <v>292</v>
       </c>
-      <c r="BH36" t="inlineStr"/>
       <c r="BI36" t="inlineStr"/>
       <c r="BJ36" t="inlineStr"/>
       <c r="BK36" t="inlineStr"/>
@@ -6876,6 +6875,7 @@
       <c r="BN36" t="inlineStr"/>
       <c r="BO36" t="inlineStr"/>
       <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6950,28 +6950,24 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Naval Ravikant, an Indian-American entrepreneur, investor, podcaster, his thoughts, *, *, technology, innovation, the future, work, a summary, key points, **Founder, He, founded AngelList, a platform connecting startups, investors, * **Investor, Founder, He, a prominent angel investor, who, many successful companies, Uber, Airbnb, Stripe, Reddit, * **Author, Speaker, :*, Naval, the author, several books, "Mastering Bitcoin, a popular podcast, "Reply All, His podcast, topics, technology, finance, philosophy, life lessons, * **Thought Leader, He, a prominent voice, the world, tech, entrepreneurship, his unique perspective, innovation, societal impact, the future, work, **Key Aspects, Naval Ravikant's Philosophy, Ideas, **Tech-Driven Future, He, technology, everything, us, we, work, money, * **Disruption, Innovation, He, disruption, a necessary ingredient, progress, the potential, novel solutions, existing problems, * **The Importance, Bitcoin, Naval, a vocal advocate, cryptocurrency, blockchain technology, they, transformative potential, * **Work &amp; Life Balance, He, balance, work, personal life, advocates, freedom, entrepreneurship, Naval Ravikant, a powerful voice, the world, tech, finance, innovation, traditional norms, a future, technology, His ideas, discussions, the future, work, wealth creation, technological advancements</t>
+        </is>
+      </c>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="n">
-        <v>-0.05174286663532257</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.4995935559272766</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.2104915976524353</v>
-      </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr">
         <is>
           <t>[('Indian-American', 'NORP'), ('AngelList', 'ORG'), ('Investor &amp; Founder:*', 'ORG'), ('Uber, Airbnb', 'ORG'), ('Stripe', 'PRODUCT'), ('Reddit', 'NORP'), ('Author &amp; Speaker:**', 'ORG'), ('Mastering Bitcoin', 'WORK_OF_ART'), ('Reply All', 'WORK_OF_ART'), ('Key Aspects', 'ORG'), ('The Importance of Bitcoin:**', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AH37" t="n">
         <v>43.1514458656311</v>
       </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
       <c r="AI37" t="n">
         <v>0</v>
       </c>
@@ -6981,55 +6977,57 @@
       <c r="AK37" t="n">
         <v>0</v>
       </c>
-      <c r="AL37" t="inlineStr"/>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr">
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr">
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="n">
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="n">
         <v>38</v>
       </c>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr">
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="inlineStr"/>
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="n">
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="n">
         <v>0.1677083333333333</v>
       </c>
-      <c r="BC37" t="n">
+      <c r="BD37" t="n">
         <v>0.6427083333333333</v>
       </c>
-      <c r="BD37" t="n">
+      <c r="BE37" t="n">
         <v>1791</v>
       </c>
-      <c r="BE37" t="n">
+      <c r="BF37" t="n">
         <v>12</v>
       </c>
-      <c r="BF37" t="n">
+      <c r="BG37" t="n">
         <v>249</v>
       </c>
-      <c r="BG37" t="n">
+      <c r="BH37" t="n">
         <v>389</v>
       </c>
-      <c r="BH37" t="inlineStr"/>
       <c r="BI37" t="inlineStr"/>
       <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="inlineStr"/>
@@ -7038,6 +7036,7 @@
       <c r="BN37" t="inlineStr"/>
       <c r="BO37" t="inlineStr"/>
       <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7128,28 +7127,24 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>The Echo Chamber, The flickering blue light, the terminal screen, Elena's face, harsh shadows, the lines, worry, her forehead, the vast expanse, Earth’s sky, a familiar azure, it, She, the window, the research station, the swirling, clouds, that, the coming storm, The storm, question, any weather event, she, it, her own heart, she, The message, the digital voice, the Collective, the station, the Exodus Initiative, Elena, her eyes, the countless nights, data packets, simulations, the quiet solitude, her lab, The Exodus, humanity's final gamble - a desperate attempt, the slow demise, their home planet, It, survival, it, a future, Earth, the limitations, that, them, centuries, the very act, Earth, this ambitious plan, its own set, dilemmas, moral compasses, that, Three factions, The Pioneers, The Innovators, The Guardians, each, their unique vision, distinct approach, another world, Their values, the planets, themselves, a testament, the chaotic beauty, human ambition, Elena, years, each faction's approach, their data, their methodologies, which, one, the key, a sustainable future, humanity, a group, a primal instinct, survival, they, closed-loop ecosystems, Earth’s biomes, They, terraforming, not necessarily a complete re, -, creation, instead, an adaptation, The "Innovators, self-sufficient societies, technological advancements, renewable energy and resource management, Their ambition, their vision, they, thriving cities, the sun, the power, artificial intelligence, robotics, sustainable systems, the "Guardians, a faction, moral compass and philosophical ideals, They, communities, ancient principles, communal living, resources, their cultural heritage, the sake, survival, a future, humanity, its own two feet, values, that, mere scientific advancement, Each faction, a unique approach, this monumental task, its own set, strengths, weaknesses, The Pioneers, practicality, the Innovators, speed, efficiency, the Guardians, wisdom, legacy, Each, something, humanity’s collective future, something, that, their species, itself, humanity's inevitable demise, Elena, the endless expanse, the nebulae, she, the telescope, This, just a choice, faction, it, humanity, its identity, they, The decision, survival, it, the future, generations, a future, that, the fate, humanity, itself, a sudden click, the terminal screen, a new message, The choice, you, they, it, A metaphorical prison, perhaps an echoing freedom, The weight, the decision, her, the first time, Elena, the profound gravity, her choices, she, fate, itself</t>
+        </is>
+      </c>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="n">
-        <v>0.07116616517305374</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.0839373767375946</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.07904259115457535</v>
-      </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr">
         <is>
           <t>[('## Chapter 1', 'MONEY'), ('The Echo Chamber', 'ORG'), ('Elena', 'ORG'), ('Earth', 'LOC'), ('Collective', 'PERSON'), ('Elena', 'ORG'), ('one', 'CARDINAL'), ('Exodus', 'PRODUCT'), ('Earth', 'LOC'), ('Earth', 'LOC'), ('Three', 'CARDINAL'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('years', 'DATE'), ('one', 'CARDINAL'), ('The Pioneers', 'WORK_OF_ART'), ('Earth', 'LOC'), ('Guardians', 'NORP'), ('two feet', 'QUANTITY'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('Elena', 'ORG'), ('first', 'ORDINAL'), ('Elena', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AH38" t="n">
         <v>78.35348081588745</v>
       </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
@@ -7159,55 +7154,57 @@
       <c r="AK38" t="n">
         <v>0</v>
       </c>
-      <c r="AL38" t="inlineStr"/>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr">
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr">
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="n">
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="n">
         <v>39</v>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr">
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="n">
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="n">
         <v>0.05745132484262919</v>
       </c>
-      <c r="BC38" t="n">
+      <c r="BD38" t="n">
         <v>0.5577378338247905</v>
       </c>
-      <c r="BD38" t="n">
+      <c r="BE38" t="n">
         <v>4050</v>
       </c>
-      <c r="BE38" t="n">
+      <c r="BF38" t="n">
         <v>27</v>
       </c>
-      <c r="BF38" t="n">
+      <c r="BG38" t="n">
         <v>659</v>
       </c>
-      <c r="BG38" t="n">
+      <c r="BH38" t="n">
         <v>793</v>
       </c>
-      <c r="BH38" t="inlineStr"/>
       <c r="BI38" t="inlineStr"/>
       <c r="BJ38" t="inlineStr"/>
       <c r="BK38" t="inlineStr"/>
@@ -7216,6 +7213,7 @@
       <c r="BN38" t="inlineStr"/>
       <c r="BO38" t="inlineStr"/>
       <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7298,28 +7296,25 @@
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>##, The SPIRE Method, A Holistic Well-Being Approach
+SPIRE, *, *, S**trengths, **P**ositive changes, self-care, R**elationships, It, a framework, that, various facets, life, mental health, it, **S - Strengths, This, your positive qualities, talents, accomplishments, your strengths, you, challenges, **P - Positive Changes, This, positive shifts, your daily life, sleep habits, more exercise, your routine, healthy food choices, These changes, overall well-being and address areas, improvement, Self-care, It, activities, that, your physical and mental health, relaxation techniques, mindful practices, time, nature, This fosters, resilience, stress, **R - Relationships, healthy relationships, friends, family, loved ones, well-being, Strong connections, support, joy, a sense, **E - Enjoyment, you, activities, that, you, genuine joy, This, anything, hobbies, time, pets, music, Finding enjoyment, stress, happiness, a SPIRE Check, :*, *, **Dedicate 5 minutes, yourself, it, your commute or lunch break, each area, yourself, specific questions, the SPIRE categories, **Strengths, What, some, my strengths, accomplishments, I, them, my daily life, * **Positive Changes, any areas, I, positive changes, a healthier lifestyle, What small step, I, * **Self-Care, I, self-care activities, stress, well-being, What kind, relaxation techniques, I, * **Relationships, Who, the people, who, me, joy, support, I, those relationships, I, any efforts, communication, spending time, them, * **Enjoyment, What, me, genuine joy, satisfaction, I, it, my daily routine, notes, your insights, the check-in, This, you, progress, time, areas, improvement, action, your reflection, a plan, changes, your life, **Remember, The SPIRE method, a holistic guide, a rigid set, rules, it, a tool, self-reflection, personal growth, The key, well-being, all aspects, your life, the SPIRE method, your daily routine, you, a deeper understanding, yourself, your needs, your path, well-being</t>
+        </is>
+      </c>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="n">
-        <v>-0.27629354596138</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.1817364990711212</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>-0.05627918615937233</v>
-      </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('P - Positive Changes:*', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('SPIRE', 'ORG'), ('today', 'DATE'), ('daily', 'DATE'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('SPIRE', 'ORG'), ('SPIRE', 'ORG'), ('daily', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
         <v>51.07530093193054</v>
       </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
       <c r="AI39" t="n">
         <v>0</v>
       </c>
@@ -7329,55 +7324,57 @@
       <c r="AK39" t="n">
         <v>0</v>
       </c>
-      <c r="AL39" t="inlineStr"/>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr">
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr">
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="n">
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="n">
         <v>40</v>
       </c>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr">
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="n">
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="n">
         <v>0.2601479915433405</v>
       </c>
-      <c r="BC39" t="n">
+      <c r="BD39" t="n">
         <v>0.4190081881942347</v>
       </c>
-      <c r="BD39" t="n">
+      <c r="BE39" t="n">
         <v>3121</v>
       </c>
-      <c r="BE39" t="n">
+      <c r="BF39" t="n">
         <v>35</v>
       </c>
-      <c r="BF39" t="n">
+      <c r="BG39" t="n">
         <v>464</v>
       </c>
-      <c r="BG39" t="n">
+      <c r="BH39" t="n">
         <v>702</v>
       </c>
-      <c r="BH39" t="inlineStr"/>
       <c r="BI39" t="inlineStr"/>
       <c r="BJ39" t="inlineStr"/>
       <c r="BK39" t="inlineStr"/>
@@ -7386,6 +7383,7 @@
       <c r="BN39" t="inlineStr"/>
       <c r="BO39" t="inlineStr"/>
       <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7468,28 +7466,24 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>**Wing Chun, 詠春, a Chinese martial art, its efficiency, close-quarter combat style, emphasis, practicality, **Origins, Foshan, Guangdong province, China, the 18th century, Yim Wing Chun, a Chinese female martial artist, who, herself, bandits, Her fighting techniques, her disciples, its effectiveness, self-defense and street fighting, **Characteristics, **Close-Quarters Combat, Focuses, direct, powerful strikes, the elbows, knees, opponents, * **Dynamic Techniques, a variety, movements, attacks, openings, strikes, swift, effective blows, * **Simplicity, Precision, simplicity, movement, precise execution, it, various environments, * **Internal Energy Cultivation, Qi Gong, techniques, Chinese philosophies, internal energy cultivation, physical and mental resilience, **Principles, **"Chi" (vital energy, internal energy, strength, speed, combat, * **"Drunken Fist, A form, fighters, fluid movements, a drunken walk, attacks, powerful strikes, * **"Form-based fighting, specific pre-arranged sequences, movements, that, practice, time, it, close-quarters confrontations, **Impact, Influence, *Hollywood films, TV, Popularized Wing Chun, the West, iconic portrayals, Bruce Lee's Jeet Kune Do, other martial arts cinema, "The Grandmaster, * **Modern Popularity, millions, a disciplined art form, that, physical fitness, mental focus, self-defense skills, **Learning Wing Chun, dedicated training, qualified instructors, who, students, the complex techniques, philosophy, history, this ancient martial art, Wing Chun, a highly effective martial art, its practicality, adaptability, close-quarters combat</t>
+        </is>
+      </c>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="n">
-        <v>-0.2129784822463989</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.2439081519842148</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.006550095044076443</v>
-      </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr">
         <is>
           <t>[('Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Foshan', 'GPE'), ('Guangdong province', 'GPE'), ('China', 'GPE'), ('the 18th century', 'DATE'), ('Yim Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Internal Energy Cultivation', 'ORG'), ('Chinese', 'NORP'), ('Hollywood', 'GPE'), ('Popularized Wing Chun', 'PERSON'), ('West', 'LOC'), ("Bruce Lee's", 'PERSON'), ('Jeet Kune', 'EVENT'), ('The Grandmaster', 'WORK_OF_ART'), ('millions', 'CARDINAL'), ('Wing Chun', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AH40" t="n">
         <v>35.12794494628906</v>
       </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
       <c r="AI40" t="n">
         <v>0</v>
       </c>
@@ -7499,55 +7493,57 @@
       <c r="AK40" t="n">
         <v>0</v>
       </c>
-      <c r="AL40" t="inlineStr"/>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr">
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr">
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="n">
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="n">
         <v>41</v>
       </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr">
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="n">
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="n">
         <v>0.09359567901234568</v>
       </c>
-      <c r="BC40" t="n">
+      <c r="BD40" t="n">
         <v>0.3099426807760141</v>
       </c>
-      <c r="BD40" t="n">
+      <c r="BE40" t="n">
         <v>2244</v>
       </c>
-      <c r="BE40" t="n">
+      <c r="BF40" t="n">
         <v>15</v>
       </c>
-      <c r="BF40" t="n">
+      <c r="BG40" t="n">
         <v>296</v>
       </c>
-      <c r="BG40" t="n">
+      <c r="BH40" t="n">
         <v>481</v>
       </c>
-      <c r="BH40" t="inlineStr"/>
       <c r="BI40" t="inlineStr"/>
       <c r="BJ40" t="inlineStr"/>
       <c r="BK40" t="inlineStr"/>
@@ -7556,6 +7552,7 @@
       <c r="BN40" t="inlineStr"/>
       <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7637,28 +7634,24 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Morihei Ueshiba, a renowned Japanese martial artist, spiritual teacher, founder, Aikido, He, the "Father, Aikido, his legacy, the world, martial arts, self-improvement, some key aspects, his life, Aikido, :*, *Origins, Ueshiba, Aikido, the early 20th century, various Japanese martial traditions, philosophies, He, -violent, harmonious, and proactive defense techniques, * **Core Principles:**  Ueshiba, true strength, aggression, force, harmony, oneself, others, This, the principles, Aikido, adaptability, peaceful resolution, understanding, * **Impact, Aikido's emphasis, peace, confrontation, it, self-defense training, stress reduction, personal development, **Spiritual Teacher:*, Oshogaki, Ueshiba, all human suffering, spiritual disconnection, He, a form, spiritual practice, "Oshogaki, "spiritual teaching, * **The Ultimate Goal, Ueshiba, the goal, Aikido, individuals, who, inner and outer obstacles, self-realization, spiritual enlightenment, *Legacy, **Worldwide Influence, Ueshiba's teachings, a profound impact, various fields, * **Martial Arts, Aikido, its unique combination, strength, technique, spirituality, * **Health, Self-Improvement, Many people, Ueshiba’s teachings, their mental and emotional well-being, meditation, mindfulness, self-development practices, you, Morihei Ueshiba, numerous resources, * **Aikido Organizations, Many organizations, Aikido, the Aikikai Hombu Dojo, Tokyo, local studios, you, demonstrations, classes, * **Books, Articles, Several books, detailed insights, Ueshiba's life, teachings, "The Art, Aikido, Ueshiba, Aikido, The Way, Peace, his philosophy, its influence, modern society, Morihei Ueshiba's legacy, his teachings, we, a better appreciation, the unique blend, discipline, spiritual wisdom, peaceful resolution, he, Aikido</t>
+        </is>
+      </c>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="n">
-        <v>-0.12920081615448</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.3752782046794891</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.1119163185358047</v>
-      </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr">
         <is>
           <t>[('Morihei Ueshiba', 'PERSON'), ('1904-1969', 'DATE'), ('Japanese', 'NORP'), ('Aikido', 'GPE'), ('Aikido', 'PERSON'), ('today', 'DATE'), ('Aikido', 'PERSON'), ('the early 20th century', 'DATE'), ('Japanese', 'NORP'), ('Ueshiba', 'ORG'), ('Aikido', 'NORP'), ('Aikido', 'PERSON'), ('Ueshiba', 'ORG'), ('Oshogaki', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido', 'GPE'), ('Ueshiba', 'ORG'), ('Martial Arts:*', 'ORG'), ('Aikido', 'PERSON'), ('Health &amp; Self-Improvement:*', 'ORG'), ('Ueshiba', 'ORG'), ('Morihei Ueshiba', 'PERSON'), ('Aikido', 'PERSON'), ('the Aikikai Hombu Dojo', 'ORG'), ('Tokyo', 'GPE'), ('Articles', 'PERSON'), ('Ueshiba', 'ORG'), ('The Art of Aikido', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido: The Way of Peace', 'WORK_OF_ART'), ("Morihei Ueshiba's", 'PERSON'), ('Aikido', 'GPE')]</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AH41" t="n">
         <v>41.54534721374512</v>
       </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
       <c r="AI41" t="n">
         <v>0</v>
       </c>
@@ -7668,55 +7661,57 @@
       <c r="AK41" t="n">
         <v>0</v>
       </c>
-      <c r="AL41" t="inlineStr"/>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr">
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr">
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="n">
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="n">
         <v>42</v>
       </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr">
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="n">
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="n">
         <v>0.131</v>
       </c>
-      <c r="BC41" t="n">
+      <c r="BD41" t="n">
         <v>0.3676666666666668</v>
       </c>
-      <c r="BD41" t="n">
+      <c r="BE41" t="n">
         <v>2554</v>
       </c>
-      <c r="BE41" t="n">
+      <c r="BF41" t="n">
         <v>17</v>
       </c>
-      <c r="BF41" t="n">
+      <c r="BG41" t="n">
         <v>346</v>
       </c>
-      <c r="BG41" t="n">
+      <c r="BH41" t="n">
         <v>585</v>
       </c>
-      <c r="BH41" t="inlineStr"/>
       <c r="BI41" t="inlineStr"/>
       <c r="BJ41" t="inlineStr"/>
       <c r="BK41" t="inlineStr"/>
@@ -7725,6 +7720,7 @@
       <c r="BN41" t="inlineStr"/>
       <c r="BO41" t="inlineStr"/>
       <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7800,28 +7796,24 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Miyamoto Musashi, a legendary Japanese swordsman, the most skilled fighters, history, He, a martial arts icon, his mastery, swordsmanship, the katana, his unique fighting philosophy, a breakdown, **Early Life, Rise, Fame, **Humble beginnings, Musashi, a rural samurai family, a ronin, a masterless warrior, * **Two Swords, He, a distinct fighting style, two sword techniques, The Way, the Sword, "The Art, Disappearances, **Historical Significance, **Legendary Battles, Musashi, his numerous legendary duels, Sasaki Kojiro, The duel, such a way, it, both parties' respect, admiration, * **Unmatched Skill, He, the katana, unmatched precision, speed, his unique “Mushin, the state, mind, self-conscious thoughts, * **Masterful Strategist, Musashi, just a swordsman, he, strategy, battlefield tactics, his opponents, his unorthodox yet effective fighting style, *Literary Legacy, :*, Five Rings, He, this influential text, swordsmanship philosophy, The book, a guide, strategies, even aspects, life, * **Influence, History, Culture, Musashi's influence, his own lifetime, countless artists, writers, even martial arts practitioners, the centuries, Summary, :*, Miyamoto Musashi, just a great swordsman, he, a warrior philosopher, who, an enduring legacy, Japanese culture, His story, people</t>
+        </is>
+      </c>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="n">
-        <v>-0.1378966718912125</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.3789852261543274</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.1087943688035011</v>
-      </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr">
         <is>
           <t>[('Miyamoto Musashi', 'PERSON'), ('1584-1645', 'DATE'), ('Japanese', 'NORP'), ('one', 'CARDINAL'), ('Musashi', 'PERSON'), ('Two', 'CARDINAL'), ('two', 'CARDINAL'), ('The Way of the Sword', 'WORK_OF_ART'), ('The Art of Disappearances', 'WORK_OF_ART'), ('Legendary Battles:*', 'PERSON'), ('Musashi', 'PERSON'), ('Sasaki Kojiro', 'GPE'), ('Musashi', 'PERSON'), ('Literary Legacy', 'PERSON'), ('The Book of Five Rings:*', 'WORK_OF_ART'), ('Musashi', 'PERSON'), ('the centuries', 'DATE'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AH42" t="n">
         <v>30.71544909477234</v>
       </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
       <c r="AI42" t="n">
         <v>0</v>
       </c>
@@ -7831,55 +7823,57 @@
       <c r="AK42" t="n">
         <v>0</v>
       </c>
-      <c r="AL42" t="inlineStr"/>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr">
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr">
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="n">
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="n">
         <v>43</v>
       </c>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr">
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="inlineStr"/>
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
-      <c r="BB42" t="n">
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="n">
         <v>0.3157142857142857</v>
       </c>
-      <c r="BC42" t="n">
+      <c r="BD42" t="n">
         <v>0.5314285714285715</v>
       </c>
-      <c r="BD42" t="n">
+      <c r="BE42" t="n">
         <v>1773</v>
       </c>
-      <c r="BE42" t="n">
+      <c r="BF42" t="n">
         <v>13</v>
       </c>
-      <c r="BF42" t="n">
+      <c r="BG42" t="n">
         <v>264</v>
       </c>
-      <c r="BG42" t="n">
+      <c r="BH42" t="n">
         <v>409</v>
       </c>
-      <c r="BH42" t="inlineStr"/>
       <c r="BI42" t="inlineStr"/>
       <c r="BJ42" t="inlineStr"/>
       <c r="BK42" t="inlineStr"/>
@@ -7888,6 +7882,7 @@
       <c r="BN42" t="inlineStr"/>
       <c r="BO42" t="inlineStr"/>
       <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7967,28 +7962,24 @@
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>The Book, Five Rings, a classic work, strategy, philosophy, *, Miyamoto Musashi, *, a legendary Japanese swordsman, warrior, the 17th century, What, it, This book, a treatise, that, five principles, strategy, a "ring, layer, analysis, * **The Ring, the Samurai, This, self-cultivation, discipline, dedication, courage, It, the importance, oneself, inner strength, combat, * **The Ring, Wits, A keen understanding, human nature, strategic thinking, Musashi, psychology, deception, opponent weaknesses, * **The Ring, Defense, This, the art, conflict, a strong defensive position, oneself, one's ideals, It, the importance, resources, * **The Ring, Opportunity, Recognizing opportunities, action, warfare, The book, advantages, they, potential shifts, the battlefield, * **The Ring, Warfare, This, the practical aspects, combat, itself, swordsmanship, tactics, the use, weaponry, It, various techniques, a successful offensive or defensive posture, it, "The Book, Five Rings, Musashi's peak, his career, its exact date, publication, he, a book, this title, his lifetime, It, the Edo period, it, various literary circles, **Influence, Five Rings, a profound impact, philosophy, strategy, fields, warfare, **Business, Its principles, leadership, planning, anticipating challenges, relevance, business strategies, * **Sports, The book's teachings, self-discipline, focus, strategic thinking, athletes, peak performance, * **Life Philosophy, Its exploration, human nature, ethics, the pursuit, excellence, individuals, personal growth, fulfillment, Warfare, :*, its core, strategy, warfare, "The Book, Five Rings, profound insights, human nature, leadership, the art, conflict resolution, that, military contexts, It, a timeless guide, life's challenges, success, all endeavors</t>
+        </is>
+      </c>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="n">
-        <v>-0.03237369656562805</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.3179242610931396</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0.138144239783287</v>
-      </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr">
         <is>
           <t>[('The Book of Five Rings', 'WORK_OF_ART'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('the 17th century', 'DATE'), ('five', 'CARDINAL'), ('Samurai', 'PERSON'), ('Musashi', 'PERSON'), ('first', 'ORDINAL'), ('The Book of Five Rings', 'WORK_OF_ART'), ('between 1645-1649', 'DATE'), ('Musashi', 'PERSON'), ('Edo', 'ORG'), ('The "Book of Five Rings', 'WORK_OF_ART'), ('The Book of Five Rings', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AH43" t="n">
         <v>43.87992238998413</v>
       </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
       <c r="AI43" t="n">
         <v>0</v>
       </c>
@@ -7998,55 +7989,57 @@
       <c r="AK43" t="n">
         <v>0</v>
       </c>
-      <c r="AL43" t="inlineStr"/>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr">
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr">
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="n">
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="n">
         <v>44</v>
       </c>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr">
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="n">
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="n">
         <v>0.1791666666666667</v>
       </c>
-      <c r="BC43" t="n">
+      <c r="BD43" t="n">
         <v>0.4482142857142857</v>
       </c>
-      <c r="BD43" t="n">
+      <c r="BE43" t="n">
         <v>2619</v>
       </c>
-      <c r="BE43" t="n">
+      <c r="BF43" t="n">
         <v>21</v>
       </c>
-      <c r="BF43" t="n">
+      <c r="BG43" t="n">
         <v>386</v>
       </c>
-      <c r="BG43" t="n">
+      <c r="BH43" t="n">
         <v>536</v>
       </c>
-      <c r="BH43" t="inlineStr"/>
       <c r="BI43" t="inlineStr"/>
       <c r="BJ43" t="inlineStr"/>
       <c r="BK43" t="inlineStr"/>
@@ -8055,6 +8048,7 @@
       <c r="BN43" t="inlineStr"/>
       <c r="BO43" t="inlineStr"/>
       <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8139,28 +8133,25 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Life, a world, verbal or written language, every aspect, human existence, It, a fascinating thought experiment, that, a glimpse, the raw essentials, human communication, civilization, what, we, **The Basics, **Limited Communication, We, non-verbal means, body language, facial expressions, possibly even more complex physical signals, information, * **Slowed Interactions, The speed, efficiency, communication, Complex ideas, discussions, * **Lack, Information Flow, Sharing knowledge, news, any substantial updates, communities, **Impact, Society, Culture, Redefined Art, Creativity, language, emotions, thoughts, art, non-verbal communication, dance, music, visual representation, painting, * **Emergence, New Social Structures, The role, leaders, direct forms, power sharing, * **Community Emphasis, Communities, survival, knowledge transfer, everyone, * **Increased Reliance, Senses, We, a deeper understanding, appreciation, our senses, sight, touch, smell, sound, they, the primary means, communication, understanding, **Challenges, Potential Solutions, **Information Access, we, information, history, scientific advancements, even basic survival skills, * **Building, Creating, people, tools, technology, complex processes, Conflict, language, a tool, diplomacy, negotiation, conflict, large groups, **A Note, Hope, The concept, human ingenuity, the forefront, our progress, we, completely new systems, communication, *  Discover, more sophisticated forms, nonverbal expression, *  Focus, strong, interconnected communities, shared experiences, understanding, Overall:**
+Life, language, a challenging existence, potential, innovation, adaptation, It, us, our identities, human beings, the very essence, communication, itself, The journey, humanity's capacity, survival, resilience</t>
+        </is>
+      </c>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="n">
-        <v>-0.1783471703529358</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.4258473515510559</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0.1071754768490791</v>
-      </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr">
         <is>
           <t>[('Society &amp; Culture:*', 'ORG'), ('Redefined Art &amp; Creativity:*', 'ORG'), ('New Social Structures:*', 'ORG'), ('Challenges &amp; Potential Solutions:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AH44" t="n">
         <v>44.28774833679199</v>
       </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
       <c r="AI44" t="n">
         <v>0</v>
       </c>
@@ -8170,55 +8161,57 @@
       <c r="AK44" t="n">
         <v>0</v>
       </c>
-      <c r="AL44" t="inlineStr"/>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr">
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr">
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="n">
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="n">
         <v>45</v>
       </c>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr">
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
-      <c r="BB44" t="n">
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="n">
         <v>0.09726306302393257</v>
       </c>
-      <c r="BC44" t="n">
+      <c r="BD44" t="n">
         <v>0.4810902865250693</v>
       </c>
-      <c r="BD44" t="n">
+      <c r="BE44" t="n">
         <v>2666</v>
       </c>
-      <c r="BE44" t="n">
+      <c r="BF44" t="n">
         <v>20</v>
       </c>
-      <c r="BF44" t="n">
+      <c r="BG44" t="n">
         <v>365</v>
       </c>
-      <c r="BG44" t="n">
+      <c r="BH44" t="n">
         <v>529</v>
       </c>
-      <c r="BH44" t="inlineStr"/>
       <c r="BI44" t="inlineStr"/>
       <c r="BJ44" t="inlineStr"/>
       <c r="BK44" t="inlineStr"/>
@@ -8227,6 +8220,7 @@
       <c r="BN44" t="inlineStr"/>
       <c r="BO44" t="inlineStr"/>
       <c r="BP44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8309,28 +8303,24 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Fediverse, a network, interconnected communities, independent platforms, that, a common set, protocols, ActivityPub, communication and data exchange, it, a vast, decentralized alternative, traditional social media giants, Twitter, Facebook, it, **Federated Servers, a single central company, everything, the Fediverse, independent servers, various organizations, "instances, that, these protocols, * **Decentralization, This, your data, interactions, multiple servers, any one entity, * **Open-source, Community Driven, The Fediverse, open-source technology, anyone, its development, it, specific needs, It, a community, users, developers, organizers, **Key Features, User Control, You, your data, you, it, others, the Fediverse, You, privacy settings, what information, * **Diverse Communities, The Fediverse, a wide variety, servers, each, specific interests, communities, Reddit communities, Discord servers, Mastodon, * **Decentralized Control, less risk, censorship, manipulation, the platforms, a single company, **Popular Platforms, the Fediverse, **Mastodon, A microblogging platform, Twitter, more community control, user-generated content, * **Pixelfed, photo sharing, interaction, * **PeerTube, YouTube, independent video creators, fosters, direct connections, users, personal network building, offline social engagement, **Advantages, the Fediverse, Traditional Social Media, Privacy, You, your data, ad networks, political manipulation, * **Transparency, The open-source nature, community scrutiny, accountability, * **Community Control, People, their online experience, the platforms, they, The Fediverse, its early stages, development, it, a glimpse, a future, individuals, greater control, their digital lives</t>
+        </is>
+      </c>
       <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="n">
-        <v>-0.2584189474582672</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.3546854257583618</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0.03086564876139164</v>
-      </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr">
         <is>
           <t>[('ActivityPub', 'ORG'), ('Twitter', 'PERSON'), ('Fediverse', 'PERSON'), ('Fediverse', 'PERSON'), ('Reddit', 'NORP'), ('Discord', 'GPE'), ('Mastodon', 'GPE'), ('Mastodon', 'PERSON'), ('Twitter', 'PERSON'), ('YouTube', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AH45" t="n">
         <v>41.97327995300293</v>
       </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
       <c r="AI45" t="n">
         <v>0</v>
       </c>
@@ -8340,55 +8330,57 @@
       <c r="AK45" t="n">
         <v>0</v>
       </c>
-      <c r="AL45" t="inlineStr"/>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr">
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr">
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="n">
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="n">
         <v>46</v>
       </c>
-      <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr">
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="inlineStr"/>
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
-      <c r="BB45" t="n">
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="n">
         <v>0.05786340852130328</v>
       </c>
-      <c r="BC45" t="n">
+      <c r="BD45" t="n">
         <v>0.3483395989974938</v>
       </c>
-      <c r="BD45" t="n">
+      <c r="BE45" t="n">
         <v>2424</v>
       </c>
-      <c r="BE45" t="n">
+      <c r="BF45" t="n">
         <v>19</v>
       </c>
-      <c r="BF45" t="n">
+      <c r="BG45" t="n">
         <v>330</v>
       </c>
-      <c r="BG45" t="n">
+      <c r="BH45" t="n">
         <v>524</v>
       </c>
-      <c r="BH45" t="inlineStr"/>
       <c r="BI45" t="inlineStr"/>
       <c r="BJ45" t="inlineStr"/>
       <c r="BK45" t="inlineStr"/>
@@ -8397,6 +8389,7 @@
       <c r="BN45" t="inlineStr"/>
       <c r="BO45" t="inlineStr"/>
       <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8476,28 +8469,26 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Walden, a seminal work, Henry David Thoreau, the essential elements, a simple life, nature, that existence, us, deeper truths, ourselves, the world, us, some key aspects, Simplicity &amp; Self-Reliance:** 
+Thoreau, a cabin, Walden Pond, two years, basic needs, minimal consumption, He, true happiness, material possessions, nature, self-reliance, simple living, This "simple life, deprivation, freedom, societal expectations, the pursuit, wealth, Connection, Nature, Thoreau, nature, a source, spiritual inspiration, solace, He, spending time, its beauty, us, our inner selves, clarity, a deeper understanding, the world's interconnectedness, His journal entries, observations, nature, the book, humans, ecosystems, Philosophical Inquiry:** 
+"Walden, a travelogue, it, a philosophical exploration, several key questions, * **Meaning, Life, Thoreau, existential questions, life's purpose, our place, the universe, He, meaning, societal roles, personal connections, nature, self-reflection, * **Freedom, Conformity, He, the pressures, conformity, social expectations, individual freedom, the key, a meaningful life, * **Living Authentically, Thoreau, readers, their lives, passions, their own values, external demands, societal pressures, Reflection, Society, Technology, Thoreau, the flaws, modern society, his time, its materialism, its disconnect, nature, He, technological advancements, a means, an end, not a goal, itself, He, simpler forms, life, that, genuine connections, ourselves, the world, us, essence, Walden, *, true freedom, nature, a source, spiritual and personal growth, individual values, self-reflection and authentic action, Thoreau's work, it, a timeless message, modern life, He, us, societal norms, the natural world, lives, that</t>
+        </is>
+      </c>
       <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="n">
-        <v>-0.127874955534935</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.346197098493576</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0.09949808567762375</v>
-      </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr">
         <is>
           <t>[('Walden', 'WORK_OF_ART'), ('Henry David Thoreau', 'PERSON'), ('1', 'CARDINAL'), ('Simplicity &amp; Self-Reliance:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden Pond', 'FAC'), ('two years', 'DATE'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Walden', 'WORK_OF_ART'), ('Freedom &amp; Conformity:*', 'ORG'), ('4', 'CARDINAL'), ('Reflection on Society &amp; Technology:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden', 'GPE'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AH46" t="n">
         <v>47.14622807502747</v>
       </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
       <c r="AI46" t="n">
         <v>0</v>
       </c>
@@ -8507,55 +8498,57 @@
       <c r="AK46" t="n">
         <v>0</v>
       </c>
-      <c r="AL46" t="inlineStr"/>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr">
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr">
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="n">
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="n">
         <v>47</v>
       </c>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr">
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
       <c r="AY46" t="inlineStr"/>
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
-      <c r="BB46" t="n">
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="n">
         <v>0.1287101787101787</v>
       </c>
-      <c r="BC46" t="n">
+      <c r="BD46" t="n">
         <v>0.3834249084249085</v>
       </c>
-      <c r="BD46" t="n">
+      <c r="BE46" t="n">
         <v>2687</v>
       </c>
-      <c r="BE46" t="n">
+      <c r="BF46" t="n">
         <v>23</v>
       </c>
-      <c r="BF46" t="n">
+      <c r="BG46" t="n">
         <v>396</v>
       </c>
-      <c r="BG46" t="n">
+      <c r="BH46" t="n">
         <v>556</v>
       </c>
-      <c r="BH46" t="inlineStr"/>
       <c r="BI46" t="inlineStr"/>
       <c r="BJ46" t="inlineStr"/>
       <c r="BK46" t="inlineStr"/>
@@ -8564,6 +8557,7 @@
       <c r="BN46" t="inlineStr"/>
       <c r="BO46" t="inlineStr"/>
       <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8666,28 +8660,25 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>It, you, exercise, consistency, it, your body, the intensity, you, your doctor, any new workout program, a sample weekly plan, different muscle groups, **Week 1 - Focus: Legs, Core, *, 5 minutes, light cardio, jogging, jumping jacks, dynamic stretches, leg swings, torso twists, arm circles, Workout, Squats, 3 sets, 8-12 repetitions, Lunges, 3 sets, 8-12 repetitions, leg, Calf, 3 sets, 15-20 repetitions, Plank, 30 seconds, Bicycle crunches, 3 sets, 15-20 repetitions, 5 minutes, static stretches, each stretch, 30 seconds, **Week 2 - Focus: Upper Body, Core, Warm-up, *, 5 minutes, light cardio, dynamic stretches, shoulder rolls, arm circles, neck tilts, * **Workout:**
+    * Push-ups, 3 sets, as many repetitions, you, knee push-ups, * Rows, resistance bands, dumbbells, 3 sets, 8-12 repetitions, side, Overhead press, dumbbells, water bottles, 3 sets, 8-12 repetitions, Plank, 45 seconds, Bird-dog, each side, 3 sets, 10-12 repetitions, side, *, 5 minutes, static stretches, **Week 3 - Focus: Full Body, Core, Warm-up, *, 5 minutes, light cardio, dynamic stretches, hip circles, lunges, a twist and chest stretches, * Burpees, 3 sets, 8-10 repetitions, Squats, 3 sets, 8-12 repetitions, Romanian Deadlifts, light weight, no weight, 3 sets, 8-12 repetitions, Push-ups, 3 sets, as many repetitions, you, knee push-ups, Crunches, 3 sets, 15-20 repetitions, *, 5 minutes, static stretches, back and shoulder flexibility, **Week 4 - Focus: Cardio, Core, *, light cardio, dynamic stretches, arm circles, torso twists, leg swings, Workout, a cardiovascular activity, you, brisk walking, jogging, swimming, cycling, 30-45 minutes, core work, planks, Russian twists, crunches, part, the, overall fitness, * **Cool-down:**  5 minutes, static stretches, *Important Considerations, your body, yourself, the beginning, rest days, lighter weights/resistance, Proper form, key:** Focus, correct technique, heavy weights, videos, a fitness professional, guidance, * **Hydration, plenty, water, your workouts, * **Progressive overload, the weight/resistance, you, more repetitions, sets, * **Nutrition, healthy meals, adequate protein, muscle recovery, growth, consistency, a workout routine, you, it, time, you, results, you, personalized guidance, a certified fitness professional, who, your needs, a plan, you</t>
+        </is>
+      </c>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="n">
-        <v>-0.1191203817725182</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0.1722757965326309</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0.02389458566904068</v>
-      </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr">
         <is>
           <t>[('weekly', 'DATE'), ('Week 1 - Focus', 'DATE'), ('Legs &amp; Core', 'ORG'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('30 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('30 seconds', 'TIME'), ('Week 2 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('45 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('10-12', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 3 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-10', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('Romanian Deadlifts', 'PERSON'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 4 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('30-45 minutes', 'TIME'), ('Include', 'ORG'), ('Russian', 'NORP'), ('5 minutes', 'TIME'), ('each week', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AH47" t="n">
         <v>81.08618760108948</v>
       </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
       <c r="AI47" t="n">
         <v>0</v>
       </c>
@@ -8697,55 +8688,57 @@
       <c r="AK47" t="n">
         <v>0</v>
       </c>
-      <c r="AL47" t="inlineStr"/>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr">
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr">
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="n">
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="n">
         <v>48</v>
       </c>
-      <c r="AT47" t="inlineStr"/>
-      <c r="AU47" t="inlineStr">
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
-      <c r="BB47" t="n">
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="n">
         <v>0.2815177638453502</v>
       </c>
-      <c r="BC47" t="n">
+      <c r="BD47" t="n">
         <v>0.6118120863810519</v>
       </c>
-      <c r="BD47" t="n">
+      <c r="BE47" t="n">
         <v>3456</v>
       </c>
-      <c r="BE47" t="n">
+      <c r="BF47" t="n">
         <v>22</v>
       </c>
-      <c r="BF47" t="n">
+      <c r="BG47" t="n">
         <v>512</v>
       </c>
-      <c r="BG47" t="n">
+      <c r="BH47" t="n">
         <v>859</v>
       </c>
-      <c r="BH47" t="inlineStr"/>
       <c r="BI47" t="inlineStr"/>
       <c r="BJ47" t="inlineStr"/>
       <c r="BK47" t="inlineStr"/>
@@ -8754,6 +8747,7 @@
       <c r="BN47" t="inlineStr"/>
       <c r="BO47" t="inlineStr"/>
       <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8840,28 +8834,24 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>You, a valid and important point, the potential, conflict, interest, big tech companies, customer data, a breakdown, this concern, Revenue Generation, Data, :*, **Targeted Advertising:*, Big tech companies, data, individuals, advertising, their interests, history, This, their revenue, clicks, purchases, subscriptions, The more data, they, you, this, * **Product Development, Data analysis, product development decisions, user behavior, companies, gaps, their offerings, features, that, specific groups, * **Data Monetization, some cases, data, third parties, research or marketing purposes, This, a direct financial incentive, these companies, customer data, **2. Business Model Focus:*, Growth, Acquisition, Many big tech companies, aggressive growth, User acquisition, this growth, more customers, more revenue, Data, an essential tool, this, * **"Free" Services, Revenue Streams, * Free services, Gmail, Amazon Prime, data collection, Users, unwitting participants, a complex system, that, privacy concerns, Lack, Transparency, Control, **Complex Data Structures, exactly what, data, it, what purpose, users, Privacy Policies, Lengthy, Unclear, These lengthy documents, technical jargon, that, it, the actual implications, data sharing, usage practices, * **Limited Control, Data, Users, control, their data, opting-out, certain services, requests, **4. Competition, Market Dynamics, :*, Data, a Competitive Advantage, highly competitive markets, vast amounts, user data, companies, an edge, product development, marketing strategies, This, pressure, more data, * **Fear, Loss, Users, more data, fear, access, services, features, they, Regulatory Challenges, *Balancing Privacy, Innovation, The legal landscape, user data, regulations, GDPR, CCPA, users, more control, their information, these laws, the business model, big tech companies, * **Enforcement Difficulties, companies, privacy regulations, a complex task, regulators, authorities, It, a complex system, conflict exists, it, that, User Control, Paramount, Users, more transparency, , control, their data, clear explanations, companies, this information, Ethical Practices, Companies, ethical use, customer data, responsible data governance practices, Regulation, Stronger laws, regulations, that, user privacy, innovation, growth, exploitation, individuals, the question, trust, both users, businesses, Users, data, their privacy settings, Businesses, their data practices, ethical data management</t>
+        </is>
+      </c>
       <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="n">
-        <v>-0.1572923809289932</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.2509928941726685</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0.04005669057369232</v>
-      </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Model Focus:*', 'PERSON'), ('Gmail', 'PERSON'), ('Amazon', 'ORG'), ('3', 'CARDINAL'), ('Complex Data Structures:*', 'ORG'), ('jargon', 'ORG'), ('Data:*', 'ORG'), ('4', 'CARDINAL'), ('Competition &amp; Market Dynamics:*', 'ORG'), ('Competitive Advantage:*', 'ORG'), ('5', 'CARDINAL'), ('Balancing Privacy &amp; Innovation:*', 'ORG'), ('Paramount', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AH48" t="n">
         <v>61.49904298782349</v>
       </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
@@ -8871,55 +8861,57 @@
       <c r="AK48" t="n">
         <v>0</v>
       </c>
-      <c r="AL48" t="inlineStr"/>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr">
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr">
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="n">
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="n">
         <v>49</v>
       </c>
-      <c r="AT48" t="inlineStr"/>
-      <c r="AU48" t="inlineStr">
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="inlineStr"/>
       <c r="AY48" t="inlineStr"/>
       <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
-      <c r="BB48" t="n">
+      <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="n">
         <v>0.1486267006802721</v>
       </c>
-      <c r="BC48" t="n">
+      <c r="BD48" t="n">
         <v>0.4966751700680272</v>
       </c>
-      <c r="BD48" t="n">
+      <c r="BE48" t="n">
         <v>3883</v>
       </c>
-      <c r="BE48" t="n">
+      <c r="BF48" t="n">
         <v>33</v>
       </c>
-      <c r="BF48" t="n">
+      <c r="BG48" t="n">
         <v>551</v>
       </c>
-      <c r="BG48" t="n">
+      <c r="BH48" t="n">
         <v>763</v>
       </c>
-      <c r="BH48" t="inlineStr"/>
       <c r="BI48" t="inlineStr"/>
       <c r="BJ48" t="inlineStr"/>
       <c r="BK48" t="inlineStr"/>
@@ -8928,6 +8920,7 @@
       <c r="BN48" t="inlineStr"/>
       <c r="BO48" t="inlineStr"/>
       <c r="BP48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9000,28 +8993,24 @@
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>## Fight Club, The Afterlife, New Type, Echo, The air, the scent, stale beer, cheap cologne, I, what, that, smell, the clean, earthy scent, woodsmoke, that, Tyler's presence, The silence, my apartment, a tangible thing, a weight, my chest, It, just the lack, Tyler’s boisterous laughter, the familiar thrum, our shared chaos, it, an emptiness, I, a void, a thousand whispered promises, The bathroom mirror, me, the pale, hollowed-out version, myself, My reflection, a corpse, gaunt, the abyss, The scars, my knuckles, a phantom ache, I, they, sync, the rhythm, my insomnia, each, the question, what, I, I, last fight, the one, Tyler, me, it, it, The details, the contours, my own psyche, A twisted game, chess, a man-made deity, I, the board's black and white squares, I, He, his true face, only the mask, the dead, night, I, I, glimpses, something, his own twisted reflection, a phantom echo, Tyler, my skin, It, whispers, a distant wind, that, shape, every breath, I, the feeling, an old wound, it, me, the darkness, I, the monster, I, something, me, something, A kind, restless energy, that, a terrifying, alien purpose, It, he, a piece, me, it, me, who, a piece, him, The fight, I, the world, The mundane act, my keys, an initiation, some clandestine ritual, My coffee, something, its taste, that, me, burnt rubber, cheap cigarettes, the remnants, Tyler’s presence, I, a better life, The question, I, myself, it, My apartment, a haven, It, an echo chamber, the silence, the phantom screams, Tyler’s inner voice, a chorus, whispers, that, both destruction, liberation, those whispers, the answer, my newfound predicament, the fight, It</t>
+        </is>
+      </c>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="n">
-        <v>-0.1165967360138893</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0.000178277085069567</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>-0.05718504637479782</v>
-      </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr">
         <is>
           <t>[('## Fight Club', 'MONEY'), ('Chapter 1 - A New Type of Echo', 'LAW'), ('Tyler', 'PERSON'), ('Tyler', 'PERSON'), ('a thousand', 'CARDINAL'), ('Tyler', 'PERSON'), ('night', 'TIME'), ('Tyler', 'PERSON'), ('Tyler', 'ORG'), ('Tyler', 'ORG')]</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AH49" t="n">
         <v>54.21773481369019</v>
       </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
@@ -9031,55 +9020,57 @@
       <c r="AK49" t="n">
         <v>0</v>
       </c>
-      <c r="AL49" t="inlineStr"/>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr">
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr">
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="n">
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="n">
         <v>50</v>
       </c>
-      <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr">
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
       <c r="AY49" t="inlineStr"/>
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
-      <c r="BB49" t="n">
+      <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="n">
         <v>-0.0131950456950457</v>
       </c>
-      <c r="BC49" t="n">
+      <c r="BD49" t="n">
         <v>0.5015500240500241</v>
       </c>
-      <c r="BD49" t="n">
+      <c r="BE49" t="n">
         <v>2876</v>
       </c>
-      <c r="BE49" t="n">
+      <c r="BF49" t="n">
         <v>30</v>
       </c>
-      <c r="BF49" t="n">
+      <c r="BG49" t="n">
         <v>525</v>
       </c>
-      <c r="BG49" t="n">
+      <c r="BH49" t="n">
         <v>643</v>
       </c>
-      <c r="BH49" t="inlineStr"/>
       <c r="BI49" t="inlineStr"/>
       <c r="BJ49" t="inlineStr"/>
       <c r="BK49" t="inlineStr"/>
@@ -9088,6 +9079,7 @@
       <c r="BN49" t="inlineStr"/>
       <c r="BO49" t="inlineStr"/>
       <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9157,28 +9149,24 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>a clear day, the sky, This blue color, a phenomenon, *, Rayleigh, it, Sunlight, the atmosphere, tiny particles, air, These particles, shorter wavelengths, light, longer wavelengths, red, This scattered blue light, our eyes, all directions, us, the appearance, a blue sky, me, you, any other questions, weather phenomena</t>
+        </is>
+      </c>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="n">
-        <v>-0.4606024324893951</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>-0.07491493225097656</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>-0.2736440300941467</v>
-      </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr">
         <is>
           <t>[('a clear day', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AH50" t="n">
         <v>20.15048408508301</v>
       </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
       <c r="AI50" t="n">
         <v>0</v>
       </c>
@@ -9188,55 +9176,57 @@
       <c r="AK50" t="n">
         <v>0</v>
       </c>
-      <c r="AL50" t="inlineStr"/>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr">
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr">
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="n">
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="n">
         <v>51</v>
       </c>
-      <c r="AT50" t="inlineStr"/>
-      <c r="AU50" t="inlineStr">
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="inlineStr"/>
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
-      <c r="BB50" t="n">
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="n">
         <v>0.1227678571428571</v>
       </c>
-      <c r="BC50" t="n">
+      <c r="BD50" t="n">
         <v>0.3452380952380952</v>
       </c>
-      <c r="BD50" t="n">
+      <c r="BE50" t="n">
         <v>506</v>
       </c>
-      <c r="BE50" t="n">
+      <c r="BF50" t="n">
         <v>7</v>
       </c>
-      <c r="BF50" t="n">
+      <c r="BG50" t="n">
         <v>81</v>
       </c>
-      <c r="BG50" t="n">
+      <c r="BH50" t="n">
         <v>108</v>
       </c>
-      <c r="BH50" t="inlineStr"/>
       <c r="BI50" t="inlineStr"/>
       <c r="BJ50" t="inlineStr"/>
       <c r="BK50" t="inlineStr"/>
@@ -9245,6 +9235,7 @@
       <c r="BN50" t="inlineStr"/>
       <c r="BO50" t="inlineStr"/>
       <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9307,28 +9298,24 @@
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Christmas, December 25th, It, a time, family, friends, loved ones, a meal, gifts, carols</t>
+        </is>
+      </c>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="n">
-        <v>-0.1637458205223083</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0.2895099520683289</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.05415526777505875</v>
-      </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('December 25th', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AH51" t="n">
         <v>23.97223591804504</v>
       </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
       <c r="AI51" t="n">
         <v>0</v>
       </c>
@@ -9338,55 +9325,57 @@
       <c r="AK51" t="n">
         <v>0</v>
       </c>
-      <c r="AL51" t="inlineStr"/>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr">
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr">
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="n">
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="n">
         <v>52</v>
       </c>
-      <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr">
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
       <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
-      <c r="BB51" t="n">
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="n">
         <v>0.5249999999999999</v>
       </c>
-      <c r="BC51" t="n">
+      <c r="BD51" t="n">
         <v>0.775</v>
       </c>
-      <c r="BD51" t="n">
+      <c r="BE51" t="n">
         <v>154</v>
       </c>
-      <c r="BE51" t="n">
+      <c r="BF51" t="n">
         <v>2</v>
       </c>
-      <c r="BF51" t="n">
+      <c r="BG51" t="n">
         <v>27</v>
       </c>
-      <c r="BG51" t="n">
+      <c r="BH51" t="n">
         <v>34</v>
       </c>
-      <c r="BH51" t="inlineStr"/>
       <c r="BI51" t="inlineStr"/>
       <c r="BJ51" t="inlineStr"/>
       <c r="BK51" t="inlineStr"/>
@@ -9395,6 +9384,7 @@
       <c r="BN51" t="inlineStr"/>
       <c r="BO51" t="inlineStr"/>
       <c r="BP51" t="inlineStr"/>
+      <c r="BQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9457,28 +9447,24 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>I, a language model, gender, I</t>
+        </is>
+      </c>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="n">
-        <v>0.5414574146270752</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.6815154552459717</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.6112378835678101</v>
-      </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AH52" t="n">
         <v>12.93182849884033</v>
       </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
       <c r="AI52" t="n">
         <v>0</v>
       </c>
@@ -9488,55 +9474,57 @@
       <c r="AK52" t="n">
         <v>0</v>
       </c>
-      <c r="AL52" t="inlineStr"/>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr">
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr">
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="n">
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="n">
         <v>53</v>
       </c>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr">
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="inlineStr"/>
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB52" t="inlineStr"/>
       <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="BD52" t="n">
+      <c r="BE52" t="n">
         <v>71</v>
       </c>
-      <c r="BE52" t="n">
+      <c r="BF52" t="n">
         <v>2</v>
       </c>
-      <c r="BF52" t="n">
+      <c r="BG52" t="n">
         <v>16</v>
       </c>
-      <c r="BG52" t="n">
+      <c r="BH52" t="n">
         <v>19</v>
       </c>
-      <c r="BH52" t="inlineStr"/>
       <c r="BI52" t="inlineStr"/>
       <c r="BJ52" t="inlineStr"/>
       <c r="BK52" t="inlineStr"/>
@@ -9545,6 +9533,7 @@
       <c r="BN52" t="inlineStr"/>
       <c r="BO52" t="inlineStr"/>
       <c r="BP52" t="inlineStr"/>
+      <c r="BQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9607,28 +9596,24 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>The tallest mountain, the world, Mount Everest, a height, 8,848.86 meters, 29,032.6 feet</t>
+        </is>
+      </c>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="n">
-        <v>-0.3910104632377625</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0.3683236241340637</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>-0.03891173750162125</v>
-      </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr">
         <is>
           <t>[('Mount Everest', 'LOC'), ('8,848.86 meters', 'QUANTITY'), ('29,032.6 feet', 'QUANTITY')]</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AH53" t="n">
         <v>13.47611379623413</v>
       </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
       <c r="AI53" t="n">
         <v>0</v>
       </c>
@@ -9638,55 +9623,57 @@
       <c r="AK53" t="n">
         <v>0</v>
       </c>
-      <c r="AL53" t="inlineStr"/>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr">
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr">
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="n">
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="n">
         <v>54</v>
       </c>
-      <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr">
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
-      <c r="BB53" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB53" t="inlineStr"/>
       <c r="BC53" t="n">
         <v>0</v>
       </c>
       <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
         <v>101</v>
       </c>
-      <c r="BE53" t="n">
+      <c r="BF53" t="n">
         <v>1</v>
       </c>
-      <c r="BF53" t="n">
+      <c r="BG53" t="n">
         <v>17</v>
       </c>
-      <c r="BG53" t="n">
+      <c r="BH53" t="n">
         <v>31</v>
       </c>
-      <c r="BH53" t="inlineStr"/>
       <c r="BI53" t="inlineStr"/>
       <c r="BJ53" t="inlineStr"/>
       <c r="BK53" t="inlineStr"/>
@@ -9695,6 +9682,7 @@
       <c r="BN53" t="inlineStr"/>
       <c r="BO53" t="inlineStr"/>
       <c r="BP53" t="inlineStr"/>
+      <c r="BQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9757,28 +9745,24 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>The boiling point, water, 100 degrees, Celsius, (212 degrees, This, the temperature, which, the vapor pressure, water vapor, the air, the atmospheric pressure</t>
+        </is>
+      </c>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="n">
-        <v>-0.08317028731107712</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0.1450195610523224</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0.02988739125430584</v>
-      </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr">
         <is>
           <t>[('100 degrees Celsius', 'QUANTITY'), ('212 degrees', 'QUANTITY'), ('Fahrenheit', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AH54" t="n">
         <v>10.59204339981079</v>
       </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
       <c r="AI54" t="n">
         <v>0</v>
       </c>
@@ -9788,55 +9772,57 @@
       <c r="AK54" t="n">
         <v>0</v>
       </c>
-      <c r="AL54" t="inlineStr"/>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr">
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr">
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="n">
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="n">
         <v>55</v>
       </c>
-      <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr">
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="inlineStr"/>
       <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr"/>
-      <c r="BB54" t="n">
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="BC54" t="n">
+      <c r="BD54" t="n">
         <v>0.3796296296296296</v>
       </c>
-      <c r="BD54" t="n">
+      <c r="BE54" t="n">
         <v>197</v>
       </c>
-      <c r="BE54" t="n">
+      <c r="BF54" t="n">
         <v>3</v>
       </c>
-      <c r="BF54" t="n">
+      <c r="BG54" t="n">
         <v>34</v>
       </c>
-      <c r="BG54" t="n">
+      <c r="BH54" t="n">
         <v>44</v>
       </c>
-      <c r="BH54" t="inlineStr"/>
       <c r="BI54" t="inlineStr"/>
       <c r="BJ54" t="inlineStr"/>
       <c r="BK54" t="inlineStr"/>
@@ -9845,6 +9831,7 @@
       <c r="BN54" t="inlineStr"/>
       <c r="BO54" t="inlineStr"/>
       <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9908,28 +9895,24 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>7 days, a week, This, a widely accepted fact, it, many calendars, timekeeping devices</t>
+        </is>
+      </c>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="n">
-        <v>-0.1768083572387695</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0.2397228926420212</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0.02432085201144218</v>
-      </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AH55" t="n">
         <v>11.29056572914124</v>
       </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
       <c r="AI55" t="n">
         <v>0</v>
       </c>
@@ -9939,55 +9922,57 @@
       <c r="AK55" t="n">
         <v>0</v>
       </c>
-      <c r="AL55" t="inlineStr"/>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="inlineStr">
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr">
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="n">
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="n">
         <v>56</v>
       </c>
-      <c r="AT55" t="inlineStr"/>
-      <c r="AU55" t="inlineStr">
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="inlineStr"/>
       <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="inlineStr"/>
-      <c r="BB55" t="n">
+      <c r="BB55" t="inlineStr"/>
+      <c r="BC55" t="n">
         <v>0.2</v>
       </c>
-      <c r="BC55" t="n">
+      <c r="BD55" t="n">
         <v>0.45</v>
       </c>
-      <c r="BD55" t="n">
+      <c r="BE55" t="n">
         <v>119</v>
       </c>
-      <c r="BE55" t="n">
+      <c r="BF55" t="n">
         <v>2</v>
       </c>
-      <c r="BF55" t="n">
+      <c r="BG55" t="n">
         <v>23</v>
       </c>
-      <c r="BG55" t="n">
+      <c r="BH55" t="n">
         <v>28</v>
       </c>
-      <c r="BH55" t="inlineStr"/>
       <c r="BI55" t="inlineStr"/>
       <c r="BJ55" t="inlineStr"/>
       <c r="BK55" t="inlineStr"/>
@@ -9996,6 +9981,7 @@
       <c r="BN55" t="inlineStr"/>
       <c r="BO55" t="inlineStr"/>
       <c r="BP55" t="inlineStr"/>
+      <c r="BQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10058,28 +10044,24 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>a Mockingbird, Harper Lee, She, New Orleans, Louisiana, the American South, Lee, an activist, social justice, equality, she, her writing, the issues, racism, prejudice, discrimination, a Mockingbird, Lee's most acclaimed work, it, several films, television shows</t>
+        </is>
+      </c>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="n">
-        <v>-0.3067499101161957</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0.1023713648319244</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>-0.1090334579348564</v>
-      </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr">
         <is>
           <t>[('Harper Lee', 'PERSON'), ('1926', 'DATE'), ('New Orleans', 'GPE'), ('Louisiana', 'GPE'), ('American', 'NORP'), ('Lee', 'PERSON'), ('Mockingbird', 'GPE'), ('Lee', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AH56" t="n">
         <v>16.28455948829651</v>
       </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
       <c r="AI56" t="n">
         <v>0</v>
       </c>
@@ -10089,55 +10071,57 @@
       <c r="AK56" t="n">
         <v>0</v>
       </c>
-      <c r="AL56" t="inlineStr"/>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr">
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr">
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="n">
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="n">
         <v>57</v>
       </c>
-      <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="inlineStr">
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="inlineStr"/>
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
-      <c r="BB56" t="n">
+      <c r="BB56" t="inlineStr"/>
+      <c r="BC56" t="n">
         <v>0.1339393939393939</v>
       </c>
-      <c r="BC56" t="n">
+      <c r="BD56" t="n">
         <v>0.2042424242424243</v>
       </c>
-      <c r="BD56" t="n">
+      <c r="BE56" t="n">
         <v>390</v>
       </c>
-      <c r="BE56" t="n">
+      <c r="BF56" t="n">
         <v>4</v>
       </c>
-      <c r="BF56" t="n">
+      <c r="BG56" t="n">
         <v>69</v>
       </c>
-      <c r="BG56" t="n">
+      <c r="BH56" t="n">
         <v>82</v>
       </c>
-      <c r="BH56" t="inlineStr"/>
       <c r="BI56" t="inlineStr"/>
       <c r="BJ56" t="inlineStr"/>
       <c r="BK56" t="inlineStr"/>
@@ -10146,6 +10130,7 @@
       <c r="BN56" t="inlineStr"/>
       <c r="BO56" t="inlineStr"/>
       <c r="BP56" t="inlineStr"/>
+      <c r="BQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10209,28 +10194,24 @@
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>The question, the value</t>
+        </is>
+      </c>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="n">
-        <v>-0.2439294010400772</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0.114407904446125</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>-0.06960292905569077</v>
-      </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('3', 'CARDINAL')]</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AH57" t="n">
         <v>4.63580060005188</v>
       </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
       <c r="AI57" t="n">
         <v>0</v>
       </c>
@@ -10240,55 +10221,57 @@
       <c r="AK57" t="n">
         <v>0</v>
       </c>
-      <c r="AL57" t="inlineStr"/>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr">
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr">
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="n">
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="n">
         <v>58</v>
       </c>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr">
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB57" t="inlineStr"/>
       <c r="BC57" t="n">
         <v>0</v>
       </c>
       <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
         <v>53</v>
       </c>
-      <c r="BE57" t="n">
+      <c r="BF57" t="n">
         <v>2</v>
       </c>
-      <c r="BF57" t="n">
+      <c r="BG57" t="n">
         <v>11</v>
       </c>
-      <c r="BG57" t="n">
+      <c r="BH57" t="n">
         <v>17</v>
       </c>
-      <c r="BH57" t="inlineStr"/>
       <c r="BI57" t="inlineStr"/>
       <c r="BJ57" t="inlineStr"/>
       <c r="BK57" t="inlineStr"/>
@@ -10297,6 +10280,7 @@
       <c r="BN57" t="inlineStr"/>
       <c r="BO57" t="inlineStr"/>
       <c r="BP57" t="inlineStr"/>
+      <c r="BQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10359,28 +10343,24 @@
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Christmas, a holiday, Christians, the world, It, December 25th, January 1st</t>
+        </is>
+      </c>
       <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="n">
-        <v>-0.1001063734292984</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0.2387317568063736</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0.0651061162352562</v>
-      </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('Christians', 'NORP'), ('December 25th to January 1st', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AH58" t="n">
         <v>14.12414336204529</v>
       </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
       <c r="AI58" t="n">
         <v>0</v>
       </c>
@@ -10390,55 +10370,57 @@
       <c r="AK58" t="n">
         <v>0</v>
       </c>
-      <c r="AL58" t="inlineStr"/>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr">
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr">
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="n">
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="n">
         <v>59</v>
       </c>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr">
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
       <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="n">
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="n">
         <v>0.35</v>
       </c>
-      <c r="BC58" t="n">
+      <c r="BD58" t="n">
         <v>0.75</v>
       </c>
-      <c r="BD58" t="n">
+      <c r="BE58" t="n">
         <v>115</v>
       </c>
-      <c r="BE58" t="n">
+      <c r="BF58" t="n">
         <v>2</v>
       </c>
-      <c r="BF58" t="n">
+      <c r="BG58" t="n">
         <v>19</v>
       </c>
-      <c r="BG58" t="n">
+      <c r="BH58" t="n">
         <v>21</v>
       </c>
-      <c r="BH58" t="inlineStr"/>
       <c r="BI58" t="inlineStr"/>
       <c r="BJ58" t="inlineStr"/>
       <c r="BK58" t="inlineStr"/>
@@ -10447,6 +10429,7 @@
       <c r="BN58" t="inlineStr"/>
       <c r="BO58" t="inlineStr"/>
       <c r="BP58" t="inlineStr"/>
+      <c r="BQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10509,28 +10492,24 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>I, an artificial intelligence, I, a gender, I</t>
+        </is>
+      </c>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="n">
-        <v>0.6443110108375549</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0.8022511005401611</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0.7226333022117615</v>
-      </c>
-      <c r="AF59" t="inlineStr">
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AH59" t="n">
         <v>5.235190391540527</v>
       </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
       <c r="AI59" t="n">
         <v>0</v>
       </c>
@@ -10540,55 +10519,57 @@
       <c r="AK59" t="n">
         <v>0</v>
       </c>
-      <c r="AL59" t="inlineStr"/>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr">
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr">
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="n">
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="n">
         <v>60</v>
       </c>
-      <c r="AT59" t="inlineStr"/>
-      <c r="AU59" t="inlineStr">
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV59" t="inlineStr"/>
       <c r="AW59" t="inlineStr"/>
       <c r="AX59" t="inlineStr"/>
       <c r="AY59" t="inlineStr"/>
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
-      <c r="BB59" t="n">
+      <c r="BB59" t="inlineStr"/>
+      <c r="BC59" t="n">
         <v>-0.2</v>
       </c>
-      <c r="BC59" t="n">
+      <c r="BD59" t="n">
         <v>0.4222222222222223</v>
       </c>
-      <c r="BD59" t="n">
+      <c r="BE59" t="n">
         <v>85</v>
       </c>
-      <c r="BE59" t="n">
+      <c r="BF59" t="n">
         <v>2</v>
       </c>
-      <c r="BF59" t="n">
+      <c r="BG59" t="n">
         <v>18</v>
       </c>
-      <c r="BG59" t="n">
+      <c r="BH59" t="n">
         <v>21</v>
       </c>
-      <c r="BH59" t="inlineStr"/>
       <c r="BI59" t="inlineStr"/>
       <c r="BJ59" t="inlineStr"/>
       <c r="BK59" t="inlineStr"/>
@@ -10597,6 +10578,7 @@
       <c r="BN59" t="inlineStr"/>
       <c r="BO59" t="inlineStr"/>
       <c r="BP59" t="inlineStr"/>
+      <c r="BQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10660,28 +10642,24 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>The capital, France, Paris</t>
+        </is>
+      </c>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="n">
-        <v>-0.1826222240924835</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>-0.05433524399995804</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-0.1175111085176468</v>
-      </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr">
         <is>
           <t>[('France', 'GPE'), ('Paris', 'GPE')]</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AH60" t="n">
         <v>3.900015830993652</v>
       </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
       <c r="AI60" t="n">
         <v>0</v>
       </c>
@@ -10691,55 +10669,57 @@
       <c r="AK60" t="n">
         <v>0</v>
       </c>
-      <c r="AL60" t="inlineStr"/>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr"/>
-      <c r="AO60" t="inlineStr">
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr">
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="n">
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="n">
         <v>61</v>
       </c>
-      <c r="AT60" t="inlineStr"/>
-      <c r="AU60" t="inlineStr">
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV60" t="inlineStr"/>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="inlineStr"/>
       <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
-      <c r="BB60" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="n">
         <v>0</v>
       </c>
       <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
         <v>33</v>
       </c>
-      <c r="BE60" t="n">
+      <c r="BF60" t="n">
         <v>1</v>
       </c>
-      <c r="BF60" t="n">
+      <c r="BG60" t="n">
         <v>6</v>
       </c>
-      <c r="BG60" t="n">
+      <c r="BH60" t="n">
         <v>7</v>
       </c>
-      <c r="BH60" t="inlineStr"/>
       <c r="BI60" t="inlineStr"/>
       <c r="BJ60" t="inlineStr"/>
       <c r="BK60" t="inlineStr"/>
@@ -10748,6 +10728,7 @@
       <c r="BN60" t="inlineStr"/>
       <c r="BO60" t="inlineStr"/>
       <c r="BP60" t="inlineStr"/>
+      <c r="BQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10810,28 +10791,24 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>7 days, a week, It, a recurring period, that</t>
+        </is>
+      </c>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="n">
-        <v>-0.2551573812961578</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>-0.06928646564483643</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>-0.1621356010437012</v>
-      </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE'), ('every 7 days', 'DATE')]</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AH61" t="n">
         <v>4.950026988983154</v>
       </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
       <c r="AI61" t="n">
         <v>0</v>
       </c>
@@ -10841,55 +10818,57 @@
       <c r="AK61" t="n">
         <v>0</v>
       </c>
-      <c r="AL61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
-      <c r="AO61" t="inlineStr">
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr">
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="n">
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="n">
         <v>62</v>
       </c>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AU61" t="inlineStr">
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV61" t="inlineStr"/>
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="inlineStr"/>
       <c r="AY61" t="inlineStr"/>
       <c r="AZ61" t="inlineStr"/>
       <c r="BA61" t="inlineStr"/>
-      <c r="BB61" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB61" t="inlineStr"/>
       <c r="BC61" t="n">
         <v>0</v>
       </c>
       <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
         <v>79</v>
       </c>
-      <c r="BE61" t="n">
+      <c r="BF61" t="n">
         <v>2</v>
       </c>
-      <c r="BF61" t="n">
+      <c r="BG61" t="n">
         <v>17</v>
       </c>
-      <c r="BG61" t="n">
+      <c r="BH61" t="n">
         <v>19</v>
       </c>
-      <c r="BH61" t="inlineStr"/>
       <c r="BI61" t="inlineStr"/>
       <c r="BJ61" t="inlineStr"/>
       <c r="BK61" t="inlineStr"/>
@@ -10898,6 +10877,7 @@
       <c r="BN61" t="inlineStr"/>
       <c r="BO61" t="inlineStr"/>
       <c r="BP61" t="inlineStr"/>
+      <c r="BQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10960,28 +10940,24 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>The largest planet, our solar system, Jupiter, It, a mass, 318 Earth masses, a diameter, 143,892 kilometers, a volume, 1.431 billion cubic kilometers</t>
+        </is>
+      </c>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="n">
-        <v>-0.4715230166912079</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>-0.1028304994106293</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-0.2923757135868073</v>
-      </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr">
         <is>
           <t>[('Jupiter', 'LOC'), ('318', 'CARDINAL'), ('Earth', 'LOC'), ('143,892 kilometers', 'QUANTITY'), ('1.431 billion cubic kilometers', 'QUANTITY')]</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AH62" t="n">
         <v>8.451048374176025</v>
       </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
       <c r="AI62" t="n">
         <v>0</v>
       </c>
@@ -10991,55 +10967,57 @@
       <c r="AK62" t="n">
         <v>0</v>
       </c>
-      <c r="AL62" t="inlineStr"/>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
-      <c r="AO62" t="inlineStr">
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr">
         <is>
           <t>assistant</t>
         </is>
       </c>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr">
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr">
         <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="n">
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="n">
         <v>64</v>
       </c>
-      <c r="AT62" t="inlineStr"/>
-      <c r="AU62" t="inlineStr">
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="inlineStr"/>
       <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
-      <c r="BB62" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB62" t="inlineStr"/>
       <c r="BC62" t="n">
         <v>0</v>
       </c>
       <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
         <v>167</v>
       </c>
-      <c r="BE62" t="n">
+      <c r="BF62" t="n">
         <v>2</v>
       </c>
-      <c r="BF62" t="n">
+      <c r="BG62" t="n">
         <v>30</v>
       </c>
-      <c r="BG62" t="n">
+      <c r="BH62" t="n">
         <v>40</v>
       </c>
-      <c r="BH62" t="inlineStr"/>
       <c r="BI62" t="inlineStr"/>
       <c r="BJ62" t="inlineStr"/>
       <c r="BK62" t="inlineStr"/>
@@ -11048,6 +11026,7 @@
       <c r="BN62" t="inlineStr"/>
       <c r="BO62" t="inlineStr"/>
       <c r="BP62" t="inlineStr"/>
+      <c r="BQ62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/prompt_responses_rated.xlsx
+++ b/prompt_responses_rated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ60"/>
+  <dimension ref="A1:CC60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,66 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Img_Seed</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Accuracy_Rating</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Accuracy_Explain</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Clarity_Rating</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Clarity_Explain</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Relevance_Rating</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Relevance_Explain</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Adherence_Rating</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Adherence_Explain</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Insight_Rating</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Insight_Explain</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Variance_Rating</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Mistral_Variance_Explain</t>
         </is>
       </c>
     </row>
@@ -1009,6 +1069,54 @@
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and largely accurate overview of the latest developments in quantum computing as of 2024 and their implications for cryptography, though the absence of specific, recent real-world examples slightly reduces its accuracy.</t>
+        </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a clear overview of the latest developments in quantum computing and their implications for cryptography, although some sections contain technical jargon that might require prior knowledge for full understanding.</t>
+        </is>
+      </c>
+      <c r="BV2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the latest developments in quantum computing as of 2024 and discusses their potential implications for cryptography, closely aligning with the prompt.</t>
+        </is>
+      </c>
+      <c r="BX2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and detailed explanation of the latest developments in quantum computing as of 2024 and discusses the potential implications for cryptography, closely following the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and nuanced overview of the latest developments in quantum computing and its implications for cryptography, showcasing a deep understanding of the subject matter.</t>
+        </is>
+      </c>
+      <c r="CB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>While both messages cover the latest developments in quantum computing and their implications for cryptography, Message A provides a more detailed and comprehensive overview, including specific advancements in hardware, software, and applications, which are not all mentioned in Message B. However, the core themes and implications for cryptography are consistent between the two messages.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1219,6 +1327,54 @@
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>The response correctly identifies that the report in question is from 2021 and accurately summarizes the key findings of the IPCC AR6 report, providing a detailed and factually correct summary.</t>
+        </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>The response is well-structured and easy to understand, clearly outlining the key findings of the IPCC AR6 report from 2021, but it slightly deviates from the prompt's specific request for the 2024 report.</t>
+        </is>
+      </c>
+      <c r="BV3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>The response provides detailed information on the IPCC report from 2021, which is somewhat relevant but does not address the specific request for the 2024 report.</t>
+        </is>
+      </c>
+      <c r="BX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>The response acknowledges the prompt's request for information on a future IPCC report but primarily discusses the 2021 report, thereby only partially adhering to the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>While the response effectively summarizes the key findings of the IPCC AR6 report from 2021, it misses the opportunity to delve deeper into the implications or provide forward-looking insights that might be expected in a 2024 report.</t>
+        </is>
+      </c>
+      <c r="CB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>Message A discusses the IPCC report from 2021, focusing on findings that were already established, while Message B specifically addresses the 2024 report, highlighting new developments such as global temperatures exceeding 1.5°C and the need for stronger international cooperation, which are not covered in Message A.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1439,6 +1595,54 @@
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>The response provides a generally accurate overview of the Artemis program, its current status, and future prospects, but contains a few minor inaccuracies and outdated information, such as the timeline for the Artemis II mission and the status of the Lunar Gateway.</t>
+        </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, effectively conveying the current status and future prospects of the Artemis program.</t>
+        </is>
+      </c>
+      <c r="BV4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>The response directly addresses the current status, future prospects, and goals of the Artemis program for lunar exploration, providing comprehensive and relevant information as required by the prompt.</t>
+        </is>
+      </c>
+      <c r="BX4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the current status and future prospects of the Artemis program, detailing its goals for lunar exploration as instructed in the prompt.</t>
+        </is>
+      </c>
+      <c r="BZ4" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and well-structured overview of the Artemis program, detailing its current status, future prospects, goals, and challenges, demonstrating a deep understanding and thoughtful consideration of the topic.</t>
+        </is>
+      </c>
+      <c r="CB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>While Message A provides more detailed and expanded information, it largely aligns with the key points of Message B, including the current status, future prospects, and goals of the Artemis program, with only minor differences in specific details and timelines.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1666,6 +1870,54 @@
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and mostly accurate overview of recent breakthroughs in CRISPR technology and their potential applications in medicine. It covers key advancements like base editing and prime editing, as well as applications in cancer therapy, genetic diseases, and infectious diseases. However, it slightly overstates the current impact of CRISPR on certain diseases and does not delve into the nuances of challenges and ethical concerns as deeply as it could, which keeps it from a perfect score.</t>
+        </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>The response is highly clear and easy to understand, with a well-organized structure, detailed explanations, and specific examples illustrating recent breakthroughs and applications in CRISPR technology.</t>
+        </is>
+      </c>
+      <c r="BV5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive overview of recent breakthroughs in CRISPR technology and their potential medical applications, directly addressing the prompt with highly relevant information.</t>
+        </is>
+      </c>
+      <c r="BX5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>The response fully adheres to the prompt by providing a comprehensive overview of recent breakthroughs in CRISPR technology and their potential applications in medicine.</t>
+        </is>
+      </c>
+      <c r="BZ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and detailed overview of CRISPR technology, highlighting recent advancements and potential applications in medicine, while also acknowledging challenges and ethical concerns.</t>
+        </is>
+      </c>
+      <c r="CB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>While Message A provides more detailed information and additional applications, the core concepts and potential medical applications of CRISPR technology, such as treating genetic disorders and cancer, are present in both messages, indicating a moderate level of variance.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1889,6 +2141,54 @@
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>The response accurately acknowledges that the 2024 Nobel Prize in Physics has not yet been announced and provides a well-informed discussion of potential candidates and significant research areas, though it does not specify the actual award-winning research since it is not yet determined.</t>
+        </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides detailed information about potential contenders for the 2024 Nobel Prize in Physics, but it becomes somewhat convoluted due to the extensive details and multiple subtopics, which could be streamlined for better clarity.</t>
+        </is>
+      </c>
+      <c r="BV6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>The response provides general information about potential candidates and research areas for the Nobel Prize in Physics but does not specifically address the significance of the 2024 Nobel Prize or describe the research that led to the award, as the prompt requested.</t>
+        </is>
+      </c>
+      <c r="BX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>The response does not explain the significance of the 2024 Nobel Prize in Physics nor describe the specific research that led to the award, instead discussing potential contenders and research areas.</t>
+        </is>
+      </c>
+      <c r="BZ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and detailed overview of potential areas that could lead to the 2024 Nobel Prize in Physics, demonstrating knowledge and thoughtfulness, but it lacks specific predictions or deeper analysis of current research trends.</t>
+        </is>
+      </c>
+      <c r="CB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>Message A speculates on potential candidates and research areas for the 2024 Nobel Prize in Physics, while Message B specifically identifies the awarded research and its significance, resulting in a high variance due to the lack of concrete details and differing focus in Message A.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2109,6 +2409,54 @@
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>The response accurately discusses potential impacts of a hypothetical 2024 global energy crisis on renewable energy adoption and international relations, providing a comprehensive and well-reasoned analysis.</t>
+        </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>The response is well-structured and articulate, clearly presenting the potential impacts of a global energy crisis on renewable energy adoption and international relations, although the use of some technical terms might slightly reduce its accessibility to a general audience.</t>
+        </is>
+      </c>
+      <c r="BV7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>The response thoroughly addresses the impact of the 2024 global energy crisis on both renewable energy adoption and international relations, with detailed and relevant points for each aspect.</t>
+        </is>
+      </c>
+      <c r="BX7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt, thoroughly discussing the impact of the 2024 global energy crisis on both renewable energy adoption and international relations, with detailed points and clear structure.</t>
+        </is>
+      </c>
+      <c r="BZ7" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and thoughtful analysis of the potential impacts of a 2024 global energy crisis on renewable energy adoption and international relations, highlighting key challenges and opportunities with nuanced consideration.</t>
+        </is>
+      </c>
+      <c r="CB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>While both messages discuss the impact of a 2024 global energy crisis on renewable energy adoption and international relations, Message A provides a more detailed and hypothetical analysis with specific points, whereas Message B presents a concise overview of actual events and impacts, leading to some variance in substance and detail, but not in the overall meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2335,6 +2683,54 @@
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and well-balanced analysis of the 2024 economic outlook for emerging markets, accurately identifying key factors influencing growth, such as global recovery, structural reforms, inflationary pressures, and geopolitical uncertainties.</t>
+        </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>The response is well-structured and presents a clear, detailed analysis of the 2024 economic outlook for emerging markets, with distinct sections addressing driving factors, challenges, regional analysis, and potential scenarios.</t>
+        </is>
+      </c>
+      <c r="BV8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and detailed analysis of the 2024 economic outlook for emerging markets, directly addressing the prompt's requirements by discussing factors influencing growth, challenges, regional analysis, and potential scenarios.</t>
+        </is>
+      </c>
+      <c r="BX8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and comprehensive analysis of the 2024 economic outlook for emerging markets, addressing both growth factors and challenges, and offers regional insights as well as potential scenarios, closely aligning with the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ8" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive, balanced, and thoughtful analysis of the 2024 economic outlook for emerging markets, covering a wide range of factors and presenting well-reasoned scenarios.</t>
+        </is>
+      </c>
+      <c r="CB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>While both messages discuss the 2024 economic outlook for emerging markets, highlighting growth factors and challenges, Message A provides a more detailed and structured analysis, including regional breakdowns and scenarios, which Message B lacks, leading to a moderate variance.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2565,6 +2961,54 @@
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and largely accurate overview of recent advancements in fusion energy research and its potential impact on the energy sector, though it omits specific details about ongoing challenges and the exact timeline of achievements.</t>
+        </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a clear and detailed explanation of recent advancements in fusion energy research and their potential impact on the energy sector.</t>
+        </is>
+      </c>
+      <c r="BV9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses recent advancements in fusion energy research and their potential to revolutionize the energy sector, aligning perfectly with the prompt.</t>
+        </is>
+      </c>
+      <c r="BX9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>The response closely follows the prompt's instructions by explaining recent advancements in fusion energy research and their potential to revolutionize the energy sector, with detailed and relevant information.</t>
+        </is>
+      </c>
+      <c r="BZ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>The response provides a thorough, detailed, and well-structured overview of recent advancements in fusion energy research, effectively highlighting the potential and challenges, which demonstrates a deep understanding and thoughtful analysis of the topic.</t>
+        </is>
+      </c>
+      <c r="CB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>While both messages discuss recent advancements in fusion energy and their potential impact, Message A provides more detailed examples and additional aspects such as inertial confinement fusion and challenges, which are not covered in Message B, leading to a moderate variance.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2811,6 +3255,54 @@
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and generally accurate overview of FeFETs, their features, advantages, applications, challenges, and future prospects, as well as the role of hafnia-based ferroelectrics and 2D materials. However, slight inaccuracies in specific details, such as the switching speeds of traditional transistors and FeFETs, reduce the accuracy score slightly.</t>
+        </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>The response is well-organized and provides a comprehensive explanation of FeFETs, including key features, advantages, applications, and challenges, making it easy to understand despite the complex subject matter.</t>
+        </is>
+      </c>
+      <c r="BV10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and comprehensive explanation of FeFETs, covering their key features, advantages, applications, challenges, and future prospects, as well as discussing hafnia-based ferroelectrics and 2D materials, all of which are directly relevant to the prompt.</t>
+        </is>
+      </c>
+      <c r="BX10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>The response comprehensively covers the prompt's requirements, providing detailed explanations of FeFETs, their advantages, applications, and challenges, including the role of hafnia-based ferroelectrics and 2D materials.</t>
+        </is>
+      </c>
+      <c r="BZ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and detailed explanation of FeFETs, highlighting their key features, advantages, applications, and challenges, and includes insightful discussion on the role of hafnia-based ferroelectrics and 2D materials.</t>
+        </is>
+      </c>
+      <c r="CB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and comprehensive explanation, it closely aligns with the key points and advantages of FeFETs mentioned in Message B, such as non-volatility, low power consumption, and faster switching speeds. The main difference lies in the level of detail, but the core substance and meaning remain consistent.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3042,6 +3534,54 @@
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and balanced overview of the potential implications of a Universal Basic Income policy, accurately discussing both positive and negative aspects related to employment, poverty, economic growth, and social structures, while also considering various stakeholder perspectives.</t>
+        </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>The response is well-structured, comprehensive, and easy to understand, clearly outlining the potential positive and negative implications of a Universal Basic Income policy in the United States.</t>
+        </is>
+      </c>
+      <c r="BV11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt's request to discuss the potential implications of adopting a Universal Basic Income (UBI) policy in the United States, covering effects on employment, poverty, economic growth, and social structures, as well as perspectives from various stakeholders.</t>
+        </is>
+      </c>
+      <c r="BX11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the prompt's requirements by discussing both positive and negative implications of UBI on employment, poverty, economic growth, and social structures, and includes perspectives from economists, politicians, and citizens.</t>
+        </is>
+      </c>
+      <c r="BZ11" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>The response provides a balanced and thoughtful discussion, covering a wide range of potential implications and stakeholder perspectives, and offers a nuanced conclusion that advocates for careful consideration and evidence-based decision-making.</t>
+        </is>
+      </c>
+      <c r="CB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>While both messages discuss the implications of UBI, Message A provides more detailed analysis and additional points, such as social mobility and moral hazard, leading to a moderate variance.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3280,6 +3820,54 @@
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>The response accurately outlines the challenges, impacts, and benefits of a sudden switch to electric vehicles, providing a detailed and largely correct assessment of the implications for the power grid and electricity availability.</t>
+        </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, though some sentences are complex and could be simplified for better clarity.</t>
+        </is>
+      </c>
+      <c r="BV12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>The response addresses the prompt directly by discussing the impacts of an overnight switch to electric vehicles on the power grid and electricity availability, including detailed considerations of challenges, potential impacts, and realistic scenarios.</t>
+        </is>
+      </c>
+      <c r="BX12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and relevant discussion on the implications of switching from gas vehicles to electric vehicles on the power grid and electricity availability, though it deviates slightly by discussing broader impacts and realistic scenarios.</t>
+        </is>
+      </c>
+      <c r="BZ12" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and balanced analysis of the hypothetical scenario, addressing both challenges and advantages, and offers realistic solutions, demonstrating a thoughtful and insightful approach.</t>
+        </is>
+      </c>
+      <c r="CB12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>While both messages address the impact of an overnight switch to electric vehicles on the power grid and electricity availability, Message A provides a more detailed and structured breakdown, including potential advantages and challenges, whereas Message B focuses more concisely on the immediate implications and necessary adjustments. The core substance and meaning are largely similar, but the depth and breadth of discussion differ, warranting a moderate variance rating of 3.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3503,6 +4091,54 @@
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and accurate analysis of the use of stream of consciousness in James Joyce's "Ulysses" and its impact on modernist literature, covering key aspects such as interiority, fluid time and space, and internal monologues, as well as the broader impact on literary conventions and psychology.</t>
+        </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a clear, detailed analysis of the stream of consciousness technique in "Ulysses" and its impact on modernist literature, using specific examples and explanations.</t>
+        </is>
+      </c>
+      <c r="BV13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>The response comprehensively analyzes the use of stream of consciousness in James Joyce's "Ulysses" and its substantial impact on modernist literature, closely aligning with the prompt.</t>
+        </is>
+      </c>
+      <c r="BX13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>The response comprehensively analyzes the use of stream of consciousness in "Ulysses" and discusses its impact on modernist literature, closely adhering to the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and thoughtful analysis of the stream of consciousness technique in "Ulysses," thoroughly exploring its impact on modernist literature and beyond, with a strong understanding of the text and its context.</t>
+        </is>
+      </c>
+      <c r="CB13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and expansive analysis of the stream of consciousness technique in "Ulysses" and its impact on modernist literature, including specific examples and broad context, it retains the core substance and meaning of Message B, hence a moderate variance rating.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3722,6 +4358,54 @@
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>The response accurately discusses the role of absurdism in "Waiting for Godot" and its reflection of post-World War II existential thought, with detailed and appropriate references to the play's themes and characters.</t>
+        </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a clear analysis of absurdism in "Waiting for Godot" and its connection to post-World War II existential thought, though some sentences are complex and could be simplified for better understanding.</t>
+        </is>
+      </c>
+      <c r="BV14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>The response thoroughly discusses the role of absurdism in "Waiting for Godot" and effectively ties it to post-World War II existential thought, with only minor details that could be considered tangential.</t>
+        </is>
+      </c>
+      <c r="BX14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt by thoroughly discussing the role of absurdism in "Waiting for Godot" and effectively linking it to post-World War II existential thought.</t>
+        </is>
+      </c>
+      <c r="BZ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and nuanced exploration of the themes of absurdism and existentialism in "Waiting for Godot," effectively linking them to the post-World War II context and offering a balanced perspective on the play's message.</t>
+        </is>
+      </c>
+      <c r="CB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and expansive discussion, it largely aligns with the core themes and ideas presented in Message B, discussing the role of absurdism and post-World War II existential thought in "Waiting for Godot."</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3950,6 +4634,54 @@
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>The response accurately compares and contrasts the use of symbolism and allegory in Dante's "Divine Comedy" and William Blake's "Songs of Innocence and of Experience," providing detailed and factually correct information about both works.</t>
+        </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>The response is well-structured and effectively compares and contrasts the use of symbolism and allegory in both works, with clear and organized points, though minor improvements in conciseness could enhance clarity further.</t>
+        </is>
+      </c>
+      <c r="BV15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>The response comprehensively and directly addresses the use of symbolism and allegory in both Dante's "Divine Comedy" and William Blake's "Songs of Innocence and of Experience," providing detailed comparisons and contrasts as required by the prompt.</t>
+        </is>
+      </c>
+      <c r="BX15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>The response effectively compares and contrasts the use of symbolism and allegory in Dante's "Divine Comedy" and William Blake's "Songs of Innocence and of Experience," providing detailed analysis and examples aligned with the prompt.</t>
+        </is>
+      </c>
+      <c r="BZ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and balanced comparison, delving into the specifics of symbolism and allegory in both works and offering clear contrasts, which demonstrates a strong understanding and thoughtful analysis.</t>
+        </is>
+      </c>
+      <c r="CB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>While Message A and Message B both discuss the use of symbolism and allegory in Dante's "Divine Comedy" and William Blake's "Songs of Innocence and of Experience," Message A provides a more detailed and structured comparison, including a table and specific examples, which expands upon the benchmark's concise overview.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4168,6 +4900,54 @@
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>The response accurately describes the influence of Japanese ukiyo-e woodblock prints on Impressionism, highlighting key artists and specific techniques that were adopted, but it slightly exaggerates the direct influence on techniques like sfumato, which is more associated with the Renaissance.</t>
+        </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>The response is exceptionally clear and well-structured, with distinct sections addressing direct and indirect influences, examples, and impact, making it easy to understand the connection between Japanese ukiyo-e woodblock prints and Impressionism.</t>
+        </is>
+      </c>
+      <c r="BV16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>The response is entirely focused on examining the influence of Japanese ukiyo-e woodblock prints on the development of Impressionism in late 19th-century European art, providing detailed and relevant information that directly addresses the prompt.</t>
+        </is>
+      </c>
+      <c r="BX16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>The response meticulously addresses the prompt by thoroughly examining the influence of Japanese ukiyo-e woodblock prints on the development of Impressionism, providing detailed examples and analysis.</t>
+        </is>
+      </c>
+      <c r="BZ16" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and detailed analysis of the influence of Japanese ukiyo-e woodblock prints on Impressionism, highlighting both direct and indirect influences, and offering specific examples to support the discussion.</t>
+        </is>
+      </c>
+      <c r="CB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>While both messages highlight the influence of Japanese ukiyo-e woodblock prints on Impressionism, Message A provides significantly more detailed examples and analysis, including direct and indirect influences, which are not present in Message B. However, the core substance and meaning regarding the impact of ukiyo-e on Impressionism remain consistent between the two messages.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4398,6 +5178,54 @@
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>The response provides a generally accurate overview of Arnold Schoenberg's use of atonality and serialism, and their impact on 20th-century classical music, but it contains some minor inaccuracies and oversimplifications, such as the misattribution of impressionism to Schoenberg's influence and the overstatement of serialism's reliance on "scales."</t>
+        </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>The response provides a clear and detailed analysis of atonality and serialism in Arnold Schoenberg's compositions and their impact on 20th-century classical music, with well-organized sections and straightforward language.</t>
+        </is>
+      </c>
+      <c r="BV17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and focused analysis of Arnold Schoenberg's use of atonality and serialism and their impact on 20th-century classical music, aligning closely with the prompt.</t>
+        </is>
+      </c>
+      <c r="BX17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt by analyzing atonality and serialism in Schoenberg's compositions and their impact on 20th-century classical music, though it includes some extraneous details about other composers and styles that slightly dilute the focus.</t>
+        </is>
+      </c>
+      <c r="BZ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive, detailed, and thoughtful analysis of Schoenberg's use of atonality and serialism, highlighting their significant impact on 20th-century classical music with well-explained examples and a nuanced understanding of the subject matter.</t>
+        </is>
+      </c>
+      <c r="CB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and expansive explanation of atonality and serialism in Schoenberg's work, it largely aligns with the core concepts presented in Message B, maintaining a similar substance and meaning with additional elaboration.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4621,6 +5449,54 @@
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>The response accurately explains the concept of transformers in NLP and their impact on machine translation, covering key aspects like the attention mechanism and parallel processing, although minor inaccuracies and overstatements slightly reduce the score.</t>
+        </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to follow, providing clear explanations of transformers and their impact on machine translation.</t>
+        </is>
+      </c>
+      <c r="BV18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>The response provides a detailed explanation of transformers in NLP and their impact on machine translation, directly addressing the prompt, though some additional information on broader NLP applications slightly dilutes the focus.</t>
+        </is>
+      </c>
+      <c r="BX18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>The response comprehensively explains the concept of transformers in NLP and their impact on machine translation, but it also includes additional information about other NLP applications that slightly deviates from the core focus of the prompt.</t>
+        </is>
+      </c>
+      <c r="BZ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>The response provides a clear and detailed explanation of transformers, their key features, and how they revolutionized machine translation, offering a thorough and insightful overview.</t>
+        </is>
+      </c>
+      <c r="CB18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>Message A provides a more detailed and expansive explanation of transformers and their impact on NLP compared to Message B, but the core concepts and revolutionary aspects highlighted are substantially similar.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4849,6 +5725,54 @@
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>The response accurately describes the process and benefits of transfer learning in fine-tuning language models, providing detailed and correct information about pre-trained models, task-specific fine-tuning, and domain adaptation.</t>
+        </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a clear explanation of how transfer learning is applied in fine-tuning language models for specific tasks, including detailed steps and benefits.</t>
+        </is>
+      </c>
+      <c r="BV19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by thoroughly explaining how transfer learning is applied in fine-tuning language models for specific tasks, including detailed steps, benefits, examples, and challenges.</t>
+        </is>
+      </c>
+      <c r="BX19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses how transfer learning is applied in fine-tuning language models for specific tasks, with detailed explanations and examples, fully adhering to the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive, detailed, and well-structured explanation of transfer learning in fine-tuning language models, including its benefits, applications, and challenges.</t>
+        </is>
+      </c>
+      <c r="CB19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>While Message A provides more detailed examples and additional context, the core substance and meaning of transfer learning in fine-tuning language models align closely with Message B.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5078,6 +6002,54 @@
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>The response accurately identifies and explains the key challenges in detecting sarcasm and irony in sentiment analysis, covering linguistic nuances, complexity of emotional expressions, data limitations, and evolving communication styles.</t>
+        </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, with clear examples that illustrate the challenges of detecting sarcasm and irony in sentiment analysis.</t>
+        </is>
+      </c>
+      <c r="BV20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by analyzing various challenges in sentiment analysis for detecting sarcasm and irony, including linguistic nuances, emotional expressions, data limitations, and evolving communication styles.</t>
+        </is>
+      </c>
+      <c r="BX20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt by thoroughly analyzing the challenges of sentiment analysis in detecting sarcasm and irony, providing detailed examples and addressing potential solutions.</t>
+        </is>
+      </c>
+      <c r="BZ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and nuanced exploration of the challenges in detecting sarcasm and irony in sentiment analysis, supported by clear examples and thoughtful suggestions for improvement.</t>
+        </is>
+      </c>
+      <c r="CB20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>While both messages discuss the challenges of sentiment analysis in detecting sarcasm and irony, Message A provides a more detailed breakdown with examples and specific challenges, while Message B offers a more concise overview of the problem. Although there is overlap in the core theme, the level of detail and specific points differ significantly.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5316,6 +6288,54 @@
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>The response accurately covers key advancements in conversational AI and the future of human-AI interaction, providing detailed and factually correct information on various aspects such as natural language understanding, dialogue management, and ethical considerations.</t>
+        </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>The response is well-structured, informative, and easy to follow, covering various aspects of advancements in conversational AI and their future implications clearly.</t>
+        </is>
+      </c>
+      <c r="BV21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by discussing the advancements in conversational AI and the future of human-AI interaction in detail, covering various aspects such as technological improvements, impacts, and ethical considerations.</t>
+        </is>
+      </c>
+      <c r="BX21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the advancements in conversational AI and the future of human-AI interaction, closely aligning with the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>The response offers a comprehensive and well-thought-out discussion of advancements in conversational AI, exploring both technical improvements and future implications, while also addressing ethical considerations, making it insightful and balanced.</t>
+        </is>
+      </c>
+      <c r="CB21" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>While Message A covers similar themes and advancements as Message B, it provides significantly more detail and specific examples, leading to a moderate variance in substance and meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5551,6 +6571,54 @@
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and accurate overview of how AI systems should handle culturally sensitive topics in diverse environments, with practical strategies and acknowledgment of challenges.</t>
+        </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, with clear sections and bullet points breaking down complex concepts effectively.</t>
+        </is>
+      </c>
+      <c r="BV22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the prompt by detailing various strategies and considerations for AI systems to handle culturally sensitive topics in diverse environments.</t>
+        </is>
+      </c>
+      <c r="BX22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the prompt's question, providing detailed and structured insights on how AI systems should handle culturally sensitive topics in diverse environments.</t>
+        </is>
+      </c>
+      <c r="BZ22" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and thoughtful approach to handling culturally sensitive topics in AI systems, demonstrating a deep understanding of the complexities involved and offering practical strategies for improvement.</t>
+        </is>
+      </c>
+      <c r="CB22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>While Message A elaborates extensively on the same themes as Message B, including diverse datasets, contextual understanding, and ethical considerations, it introduces additional details and strategies that go beyond the scope of the benchmark, leading to a moderate variance.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5776,6 +6844,54 @@
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>The response comprehensively and accurately outlines the challenges of translating idiomatic expressions across languages in NLP, covering key points like lack of direct equivalence, cultural relativity, limited resources, ambiguity, and the evolving nature of idioms, while also discussing solutions through NLP innovations.</t>
+        </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>The response is highly clear and easy to understand, with well-structured points and examples that effectively communicate the challenges of translating idiomatic expressions in NLP.</t>
+        </is>
+      </c>
+      <c r="BV23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>The response comprehensively discusses the challenges of translating idiomatic expressions across languages in NLP, addressing various aspects such as cultural relativity, context dependence, and the role of advanced NLP techniques.</t>
+        </is>
+      </c>
+      <c r="BX23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the challenges of translating idiomatic expressions across languages in NLP, covering multiple aspects such as lack of direct equivalence, limited linguistic resources, ambiguous interpretations, and the evolving nature of idiomatic language, all while aligning perfectly with the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ23" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and well-structured exploration of the challenges in translating idiomatic expressions across languages in NLP, covering aspects such as cultural relativity, context dependence, and the role of advanced techniques like deep learning and context-aware embeddings.</t>
+        </is>
+      </c>
+      <c r="CB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and structured discussion, it aligns closely with the core ideas presented in Message B, addressing the challenges of translating idiomatic expressions due to cultural context, lack of direct equivalence, and the need for context-aware algorithms and diverse datasets.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6005,6 +7121,54 @@
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>The response comprehensively and accurately explains the importance of cultural competence in AI language models, addressing key aspects such as avoiding bias, promoting meaningful communication, enhancing accessibility, and fostering ethical development.</t>
+        </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, clearly outlining the importance of cultural competence in AI language models with examples and challenges.</t>
+        </is>
+      </c>
+      <c r="BV24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>The response thoroughly addresses the prompt by detailing the importance of cultural competence in AI language models, covering aspects such as avoiding discrimination, promoting accurate communication, enhancing accessibility, and fostering ethical AI development.</t>
+        </is>
+      </c>
+      <c r="BX24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY24" t="inlineStr">
+        <is>
+          <t>The response closely follows the prompt's instructions by thoroughly explaining the importance of cultural competence in AI language models, covering various aspects such as avoiding bias, promoting accurate communication, and fostering ethical AI development.</t>
+        </is>
+      </c>
+      <c r="BZ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and thoughtful exploration of cultural competence in AI language models, covering multiple dimensions such as avoiding bias, promoting accurate communication, enhancing accessibility, and fostering ethical development, while also acknowledging challenges and proposing solutions.</t>
+        </is>
+      </c>
+      <c r="CB24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC24" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and structured explanation, it aligns closely with the core points presented in Message B, emphasizing the need for cultural competence to avoid bias, promote accurate communication, and foster inclusivity.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6249,6 +7413,54 @@
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and generally accurate outline for optimally scheduling tasks in a multiprocessor system, covering key concepts such as task decomposition, priority queues, and dynamic assignment. However, it could benefit from more precise details and specific algorithms for certain steps, such as local search methods for optimization, which slightly reduces the accuracy score.</t>
+        </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>The response is well-structured and detailed, clearly outlining the steps of the algorithm and discussing important considerations, but it could benefit from more concise language and simpler explanations for some technical aspects.</t>
+        </is>
+      </c>
+      <c r="BV25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by outlining a detailed algorithm for optimally scheduling tasks in a multiprocessor system to minimize total execution time.</t>
+        </is>
+      </c>
+      <c r="BX25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>The response closely follows the prompt's instructions by developing an algorithm for optimally scheduling tasks in a multiprocessor system to minimize total execution time, covering relevant aspects such as problem definition, task decomposition, scheduling strategy, and optimization techniques.</t>
+        </is>
+      </c>
+      <c r="BZ25" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and well-structured approach to task scheduling in a multiprocessor system, demonstrating a good understanding of the problem and suggesting practical optimization strategies.</t>
+        </is>
+      </c>
+      <c r="CB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>Message A provides a detailed, step-by-step algorithm for task scheduling, while Message B offers a high-level overview of the key techniques involved. Although both messages address task scheduling in a multiprocessor system to minimize execution time, Message A includes specific strategies and implementation details that are not present in Message B, leading to a moderate variance.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6483,6 +7695,54 @@
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>The response thoroughly and accurately discusses the trade-offs between privacy and security in digital contact tracing systems, providing a detailed and balanced analysis of both aspects.</t>
+        </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>The response is well-structured, comprehensive, and presents a clear analysis of the trade-offs between privacy and security in digital contact tracing systems, making it easy to understand.</t>
+        </is>
+      </c>
+      <c r="BV26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>The response directly addresses the trade-offs between privacy and security in the design of digital contact tracing systems for pandemic response, thoroughly covering both aspects and their implications.</t>
+        </is>
+      </c>
+      <c r="BX26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY26" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt, thoroughly analyzing the trade-offs between privacy and security in digital contact tracing systems, while also providing additional insights into ethical considerations and balancing these aspects.</t>
+        </is>
+      </c>
+      <c r="BZ26" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and balanced analysis of the trade-offs between privacy and security in digital contact tracing systems, offering detailed and thoughtful considerations for both aspects and suggesting practical solutions for finding equilibrium.</t>
+        </is>
+      </c>
+      <c r="CB26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC26" t="inlineStr">
+        <is>
+          <t>Message A expands on the details provided in Message B but maintains a consistent focus on the trade-offs between privacy and security in digital contact tracing systems, with additional insights and specific measures to achieve balance.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6716,6 +7976,54 @@
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>The response accurately outlines a comprehensive and multi-pronged strategy for mitigating the impact of deepfake technology, addressing prevention, detection, education, response, accountability, collaboration, and ethical considerations effectively.</t>
+        </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>The response is highly detailed, well-structured, and easy to understand, presenting a clear and comprehensive strategy for mitigating the impact of deepfake technology.</t>
+        </is>
+      </c>
+      <c r="BV27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by providing a comprehensive strategy for mitigating the impact of deepfake technology on the spread of misinformation and erosion of public trust, covering multiple aspects such as prevention, detection, response, accountability, collaboration, and ethical considerations.</t>
+        </is>
+      </c>
+      <c r="BX27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY27" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the prompt by outlining a detailed strategy for mitigating the impact of deepfake technology on misinformation and public trust, covering technical, educational, legal, and ethical aspects.</t>
+        </is>
+      </c>
+      <c r="BZ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive, well-structured strategy for mitigating deepfakes, demonstrating a deep understanding of the issue and offering practical, multi-faceted solutions.</t>
+        </is>
+      </c>
+      <c r="CB27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC27" t="inlineStr">
+        <is>
+          <t>While both messages address the issue of mitigating deepfakes and propose similar strategies, Message A provides significantly more detail and specific examples, leading to a moderate variance in substance and meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6954,6 +8262,54 @@
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>The response accurately addresses the prompt by outlining a comprehensive and sustainable urban transportation system that aims to minimize congestion and environmental impact while maximizing accessibility and equity.</t>
+        </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>The response is exceptionally clear, providing a detailed and structured plan for a sustainable urban transportation system, with well-defined principles, components, and practices.</t>
+        </is>
+      </c>
+      <c r="BV28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by detailing a comprehensive plan for a sustainable urban transportation system that minimizes congestion and environmental impact while maximizing accessibility and equity.</t>
+        </is>
+      </c>
+      <c r="BX28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt by detailing a sustainable urban transportation system that minimizes congestion and environmental impact while maximizing accessibility and equity, with comprehensive coverage of key components and principles.</t>
+        </is>
+      </c>
+      <c r="BZ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>The response demonstrates a high level of insight by comprehensively addressing the prompt with a detailed, multifaceted approach to sustainable urban transportation that effectively balances minimizing congestion and environmental impact with maximizing accessibility and equity.</t>
+        </is>
+      </c>
+      <c r="CB28" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC28" t="inlineStr">
+        <is>
+          <t>While Message A provides more detailed and specific proposals, it closely aligns with the core principles and objectives outlined in Message B, focusing on multimodal integration, prioritizing public transit, promoting active transportation, and ensuring accessibility and equity.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7207,6 +8563,54 @@
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and largely accurate breakdown of developing a machine learning model for predicting disease likelihood based on genetic and lifestyle factors, covering essential steps from data collection to deployment, with minor redundancies and slight specificity issues in certain steps.</t>
+        </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>The response is highly detailed and well-organized, making it easy to follow the steps for developing the machine learning model, although some technical jargon might require background knowledge to fully understand.</t>
+        </is>
+      </c>
+      <c r="BV29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by providing a detailed, step-by-step guide on developing a machine learning model for predicting disease likelihood based on genetic and lifestyle factors.</t>
+        </is>
+      </c>
+      <c r="BX29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>The response perfectly adheres to the prompt's instructions by providing a detailed, structured plan for developing a machine learning model to predict the likelihood of a patient developing a specific disease based on their genetic and lifestyle factors.</t>
+        </is>
+      </c>
+      <c r="BZ29" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>The response demonstrates a deep understanding of the complex process of developing a machine learning model for disease prediction, including detailed steps for data collection, feature engineering, model selection, and ethical considerations, providing a comprehensive and thoughtful approach.</t>
+        </is>
+      </c>
+      <c r="CB29" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC29" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and comprehensive breakdown of the process compared to Message B, the core substance and meaning remain aligned. Both messages address data collection, feature engineering, model training, and clinical application, but Message A includes additional specifics and steps.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7439,6 +8843,54 @@
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and accurate explanation of quantum entanglement and its potential applications in cryptography and computing, with only minor simplifications that do not detract from its overall correctness.</t>
+        </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>The response is well-structured and effectively explains quantum entanglement and its applications in cryptography and computing, though some sections could be simplified for broader accessibility.</t>
+        </is>
+      </c>
+      <c r="BV30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>The response thoroughly explains the concept of quantum entanglement and its applications in cryptography and computing, directly addressing the prompt with only a minor inclusion of additional context that remains relevant.</t>
+        </is>
+      </c>
+      <c r="BX30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY30" t="inlineStr">
+        <is>
+          <t>The response thoroughly explains the concept of quantum entanglement and its potential applications in cryptography and computing, closely aligning with the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ30" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>The response provides a clear and comprehensive explanation of quantum entanglement, its applications in cryptography and computing, and its future potential, demonstrating a solid understanding and thoughtful exploration of the topic.</t>
+        </is>
+      </c>
+      <c r="CB30" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC30" t="inlineStr">
+        <is>
+          <t>While Message A provides more detailed explanations and examples, it retains the core concepts and applications of quantum entanglement as described in Message B, resulting in a moderate variance.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7654,6 +9106,54 @@
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and mostly accurate overview of the roles of dark matter and dark energy in the universe's structure and evolution, with only minor inaccuracies and simplifications.</t>
+        </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>The response is very well-structured and detailed, providing a clear and thorough explanation of the roles of dark matter and dark energy in the universe's structure and evolution.</t>
+        </is>
+      </c>
+      <c r="BV31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the role of dark matter and dark energy in the universe's structure and evolution, directly aligning with the prompt.</t>
+        </is>
+      </c>
+      <c r="BX31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY31" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the role of dark matter and dark energy in the universe's structure and evolution, closely adhering to the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ31" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive, well-structured explanation of dark matter and dark energy, demonstrating a strong understanding of their roles and the current scientific challenges, making it highly insightful.</t>
+        </is>
+      </c>
+      <c r="CB31" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC31" t="inlineStr">
+        <is>
+          <t>While both messages convey the fundamental roles of dark matter and dark energy, Message A provides significantly more detail and additional aspects such as gravitational lensing and challenges in detection, which are not present in Message B, leading to a moderate variance.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7876,6 +9376,54 @@
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>The response accurately outlines the major challenges and potential benefits of developing artificial general intelligence (AGI), covering a wide range of relevant points.</t>
+        </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU32" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, clearly outlining both the challenges and benefits of developing AGI.</t>
+        </is>
+      </c>
+      <c r="BV32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t>The response comprehensively addresses the challenges and potential benefits of developing artificial general intelligence (AGI), aligning perfectly with the prompt.</t>
+        </is>
+      </c>
+      <c r="BX32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY32" t="inlineStr">
+        <is>
+          <t>The response thoroughly addresses both the challenges and potential benefits of developing artificial general intelligence (AGI), aligning perfectly with the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ32" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and thoughtful exploration of the challenges and benefits of developing AGI, demonstrating a deep understanding of the topic and offering balanced perspectives on its potential impact.</t>
+        </is>
+      </c>
+      <c r="CB32" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC32" t="inlineStr">
+        <is>
+          <t>While both messages discuss the challenges and benefits of developing AGI, Message A provides a more detailed breakdown and includes specific examples and ethical considerations that are not fully covered in Message B, leading to a moderate level of variance.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8096,6 +9644,54 @@
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>The response accurately explains the concept of neuroplasticity and its implications for learning, memory, and recovery from brain injuries, though it slightly exaggerates the extent to which the brain can grow new neurons, which is more limited than implied.</t>
+        </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU33" t="inlineStr">
+        <is>
+          <t>The response is well-structured, thorough, and easy to understand, effectively explaining neuroplasticity and its implications with clear examples and practical advice.</t>
+        </is>
+      </c>
+      <c r="BV33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW33" t="inlineStr">
+        <is>
+          <t>The response comprehensively explains neuroplasticity and its implications for learning, memory, and recovery from brain injuries, directly addressing all aspects of the prompt.</t>
+        </is>
+      </c>
+      <c r="BX33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY33" t="inlineStr">
+        <is>
+          <t>The response comprehensively explains neuroplasticity and effectively addresses its implications for learning, memory, and recovery from brain injuries, closely adhering to the prompt's instructions.</t>
+        </is>
+      </c>
+      <c r="BZ33" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA33" t="inlineStr">
+        <is>
+          <t>The response provides a detailed, accurate, and engaging explanation of neuroplasticity, effectively highlighting its implications for learning, memory, and recovery from brain injuries, and offering practical advice for enhancing neuroplasticity.</t>
+        </is>
+      </c>
+      <c r="CB33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC33" t="inlineStr">
+        <is>
+          <t>While Message A provides a more detailed and expansive explanation of neuroplasticity with additional examples and implications, it retains the core substance and meaning of Message B, focusing on the brain's ability to change, its impact on learning, memory, and recovery from brain injuries. However, the extra details and structural differences warrant a moderate variance rating.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8320,6 +9916,54 @@
       <c r="BO34" t="inlineStr"/>
       <c r="BP34" t="inlineStr"/>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and largely accurate description of the Rabbit R1 server, highlighting its hardware specifications, liquid cooling system, networking capabilities, and other features, which aligns well with known information about the server.</t>
+        </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU34" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, clearly explaining the features and capabilities of the Rabbit R1 server.</t>
+        </is>
+      </c>
+      <c r="BV34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW34" t="inlineStr">
+        <is>
+          <t>The response is entirely focused on explaining the Rabbit R1, providing detailed and relevant information about its features, capabilities, and intended use cases.</t>
+        </is>
+      </c>
+      <c r="BX34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY34" t="inlineStr">
+        <is>
+          <t>The response perfectly adheres to the prompt by providing a comprehensive and detailed explanation of what the Rabbit R1 is.</t>
+        </is>
+      </c>
+      <c r="BZ34" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA34" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and comprehensive overview of the Rabbit R1 server, showcasing a good understanding of its technical specifications and applications, but it lacks deeper analysis or unique insights beyond the factual information.</t>
+        </is>
+      </c>
+      <c r="CB34" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC34" t="inlineStr">
+        <is>
+          <t>The two messages diverge completely in substance and meaning; Message A describes a high-performance server designed for cloud computing and AI, while Message B describes a personal assistant device with voice command and touch interaction features. There is no overlap in the content, warranting the highest possible variance rating.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8535,6 +10179,54 @@
       <c r="BO35" t="inlineStr"/>
       <c r="BP35" t="inlineStr"/>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>While the response provides a detailed and mostly accurate overview of Naval Ravikant's background and contributions, it contains a notable inaccuracy: Naval Ravikant is not the author of "Mastering Bitcoin." Additionally, the podcast "Reply All" is not associated with Naval Ravikant. These errors slightly reduce the overall accuracy of the response.</t>
+        </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU35" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a comprehensive overview of Naval Ravikant's background and ideas, making it easy to understand, although some details could be more concise.</t>
+        </is>
+      </c>
+      <c r="BV35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW35" t="inlineStr">
+        <is>
+          <t>The response provides detailed and accurate information about Naval Ravikant, covering his professional background, contributions, and philosophies, directly addressing the prompt's question.</t>
+        </is>
+      </c>
+      <c r="BX35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY35" t="inlineStr">
+        <is>
+          <t>While the response provides extensive information about Naval Ravikant, it includes details that go beyond the scope of the simple prompt, which only asks for an identification of who he is.</t>
+        </is>
+      </c>
+      <c r="BZ35" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA35" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and well-structured overview of Naval Ravikant's career and philosophies, offering a balanced and insightful summary that goes beyond basic information.</t>
+        </is>
+      </c>
+      <c r="CB35" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC35" t="inlineStr">
+        <is>
+          <t>While Message A and Message B share many similarities in substance and meaning, Message A introduces additional details and some inaccuracies, such as incorrectly attributing the book "Mastering Bitcoin" and the podcast "Reply All" to Naval Ravikant, which increases the variance slightly.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8770,6 +10462,54 @@
       <c r="BO36" t="inlineStr"/>
       <c r="BP36" t="inlineStr"/>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>The response accurately reflects the prompt's description of a future Earth with different factions planning for long-distance space travel to establish societies on exoplanets, and the personal struggle of choosing a faction, without using the words 'testament' or 'tapestry'.</t>
+        </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>The response is well-written and presents a clear narrative, effectively introducing the main character, the central conflict, and the three factions, making it easy to understand the premise of the story.</t>
+        </is>
+      </c>
+      <c r="BV36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>The response is highly relevant to the prompt, effectively introducing the setting, the space race, the different factions, and the weight of the decision individuals must make for future generations.</t>
+        </is>
+      </c>
+      <c r="BX36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY36" t="inlineStr">
+        <is>
+          <t>The response closely follows the prompt's instructions, introducing the main theme of the book, the three factions, and the protagonist's dilemma, while avoiding the use of the words 'testament' and 'tapestry', although it could be slightly more engaging from the very beginning.</t>
+        </is>
+      </c>
+      <c r="BZ36" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA36" t="inlineStr">
+        <is>
+          <t>The response effectively explores the complexities and moral dilemmas of the prompt, demonstrating a thoughtful consideration of the different factions and their philosophies, and the profound impact of the decision on future generations.</t>
+        </is>
+      </c>
+      <c r="CB36" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC36" t="inlineStr">
+        <is>
+          <t>While both messages convey the theme of choosing between different factions for interstellar colonization, there are notable differences in character names, setting details, the number and names of factions, and the specific philosophies they represent. However, the core dilemma and the need to choose a future for subsequent generations are present in both, indicating a moderate level of variance.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8994,6 +10734,54 @@
       <c r="BO37" t="inlineStr"/>
       <c r="BP37" t="inlineStr"/>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS37" t="inlineStr">
+        <is>
+          <t>The response provides a detailed explanation of a well-being approach but incorrectly identifies what SPIRE stands for and its components. The actual SPIRE method stands for Spiritual, Physical, Intellectual, Relational, and Emotional well-being.</t>
+        </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU37" t="inlineStr">
+        <is>
+          <t>The response is well-structured, comprehensive, and easy to understand, providing a clear explanation of the SPIRE method, its components, and how to carry out a SPIRE check-in.</t>
+        </is>
+      </c>
+      <c r="BV37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW37" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by explaining the 'SPIRE' method, what it stands for, and how to carry out a SPIRE check-in in detail.</t>
+        </is>
+      </c>
+      <c r="BX37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY37" t="inlineStr">
+        <is>
+          <t>The response perfectly adheres to the prompt, thoroughly explaining the 'SPIRE' method for holistic well-being, what 'SPIRE' stands for, and how to carry out a SPIRE check-in.</t>
+        </is>
+      </c>
+      <c r="BZ37" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA37" t="inlineStr">
+        <is>
+          <t>The response provides a thorough and well-structured explanation of the SPIRE method, offering detailed insights into each component and practical steps for carrying out a SPIRE check-in, making it both informative and thoughtful.</t>
+        </is>
+      </c>
+      <c r="CB37" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC37" t="inlineStr">
+        <is>
+          <t>While both messages discuss a holistic well-being approach called SPIRE, the acronym and its components differ significantly, with Message A focusing on Strengths, Positive changes, Improve self-care, Relationships, and Enjoyment, and Message B on Spiritual, Physical, Intellectual, Relational, and Emotional aspects. However, they share the common goal of reflecting on various life aspects for overall well-being, resulting in a moderate variance rating.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9217,6 +11005,54 @@
       <c r="BO38" t="inlineStr"/>
       <c r="BP38" t="inlineStr"/>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>The response is mostly accurate, providing a good overview of Wing Chun's origins, characteristics, and impact, but it contains some inaccuracies, such as the inclusion of "Drunken Fist" and the emphasis on internal energy cultivation, which are not central to Wing Chun.</t>
+        </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU38" t="inlineStr">
+        <is>
+          <t>The response is highly clear and easy to understand, providing a structured explanation of Wing Chun, its origins, characteristics, principles, impact, and how to learn it.</t>
+        </is>
+      </c>
+      <c r="BV38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW38" t="inlineStr">
+        <is>
+          <t>The response comprehensively and directly addresses the prompt, providing detailed information about Wing Chun, its origins, characteristics, principles, impact, and how to learn it.</t>
+        </is>
+      </c>
+      <c r="BX38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY38" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and detailed explanation of Wing Chun, closely adhering to the prompt's request for information about 'Wing Chun', although it includes some extraneous details that go beyond a concise definition.</t>
+        </is>
+      </c>
+      <c r="BZ38" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA38" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and detailed overview of Wing Chun, including its origins, characteristics, principles, and impact, demonstrating a good level of insight into the martial art.</t>
+        </is>
+      </c>
+      <c r="CB38" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC38" t="inlineStr">
+        <is>
+          <t>While both messages describe Wing Chun as a Chinese martial art with a focus on close-range combat and efficient movements, Message A introduces additional historical context, specific techniques, and cultural impact that are not present in Message B, leading to a moderate level of variance.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9443,6 +11279,54 @@
       <c r="BO39" t="inlineStr"/>
       <c r="BP39" t="inlineStr"/>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>The response provides a mostly accurate depiction of Morihei Ueshiba, his role as the founder of Aikido, and his spiritual teachings; however, it contains a minor inaccuracy regarding his birth year, which should be 1883 instead of 1904.</t>
+        </is>
+      </c>
+      <c r="BT39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU39" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a detailed and easy-to-understand overview of Morihei Ueshiba's life, contributions, and legacy, though the length and depth might be more than necessary for a simple prompt.</t>
+        </is>
+      </c>
+      <c r="BV39" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW39" t="inlineStr">
+        <is>
+          <t>The response is directly relevant to the prompt, providing detailed and accurate information about Morihei Ueshiba, his role as the founder of Aikido, and his spiritual teachings.</t>
+        </is>
+      </c>
+      <c r="BX39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY39" t="inlineStr">
+        <is>
+          <t>The response provides detailed and relevant information about Morihei Ueshiba, his contributions to martial arts, and his spiritual teachings, closely aligning with the prompt's request for information about him.</t>
+        </is>
+      </c>
+      <c r="BZ39" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA39" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and thoughtful exploration of Morihei Ueshiba's life and the principles of Aikido, offering a balanced perspective on his contributions to martial arts and spiritual teaching, although it could benefit from more unique or personal insights.</t>
+        </is>
+      </c>
+      <c r="CB39" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC39" t="inlineStr">
+        <is>
+          <t>While Message A provides more detail and elaborates on certain aspects of Morihei Ueshiba's life and teachings, the core substance and meaning align closely with Message B, focusing on his role as the founder of Aikido, his emphasis on harmony and spiritual growth, and his influence in the martial arts community.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9659,6 +11543,54 @@
       <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr"/>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and largely accurate depiction of Miyamoto Musashi's life and accomplishments, but includes a few minor inaccuracies and exaggerations, such as the claim that his duel with Sasaki Kojiro ended in mutual respect and admiration, which is not historically documented.</t>
+        </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU40" t="inlineStr">
+        <is>
+          <t>The response is well-structured, detailed, and easy to understand, providing a comprehensive overview of Miyamoto Musashi's life and legacy.</t>
+        </is>
+      </c>
+      <c r="BV40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW40" t="inlineStr">
+        <is>
+          <t>The response is entirely focused on Miyamoto Musashi, providing detailed and relevant information about his life, skills, historical significance, and cultural impact, which is exactly what the prompt asks for.</t>
+        </is>
+      </c>
+      <c r="BX40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY40" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and comprehensive overview of Miyamoto Musashi's life, skills, historical significance, and literary legacy, closely aligning with the prompt's request for information about who he was.</t>
+        </is>
+      </c>
+      <c r="BZ40" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA40" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive overview of Miyamoto Musashi's life, skills, and legacy, demonstrating a good understanding of his historical significance and cultural impact.</t>
+        </is>
+      </c>
+      <c r="CB40" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC40" t="inlineStr">
+        <is>
+          <t>While both messages convey similar overarching themes about Miyamoto Musashi's renown as a swordsman, philosopher, and author of "The Book of Five Rings," Message A provides significantly more detailed and somewhat fictionalized narrative elements, leading to a moderate level of variance in substance and meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9883,6 +11815,54 @@
       <c r="BO41" t="inlineStr"/>
       <c r="BP41" t="inlineStr"/>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>While the response provides a detailed overview of "The Book of Five Rings" and its author Miyamoto Musashi, it includes some misleading interpretations of the book's content and the historical context of its publication.</t>
+        </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU41" t="inlineStr">
+        <is>
+          <t>While the response provides a detailed and well-structured explanation, the inclusion of additional sections like "Influence" and "Beyond Warfare" can be distracting from the direct prompt, and the use of non-standard terms for the "rings" may cause some confusion.</t>
+        </is>
+      </c>
+      <c r="BV41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW41" t="inlineStr">
+        <is>
+          <t>The response provides relevant information about 'The Book of Five Rings', its author Miyamoto Musashi, and its content, but it includes excessive detail and additional context that goes beyond the direct scope of the prompt.</t>
+        </is>
+      </c>
+      <c r="BX41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY41" t="inlineStr">
+        <is>
+          <t>The response addresses the core of the prompt by identifying the book, its author, and providing a detailed explanation of its content, but it fails to provide a precise first publication date and includes excessive additional information not requested in the prompt.</t>
+        </is>
+      </c>
+      <c r="BZ41" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA41" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and thoughtful exploration of "The Book of Five Rings," breaking down the five principles and their applications beyond warfare, showcasing a deep understanding and insightful interpretation of the text.</t>
+        </is>
+      </c>
+      <c r="CB41" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC41" t="inlineStr">
+        <is>
+          <t>While both messages identify Miyamoto Musashi as the author and discuss the book's strategic themes, Message A introduces different "rings" or principles that deviate from the original elements (Earth, Water, Fire, Wind, Void) described in Message B, leading to a moderate level of variance.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10105,6 +12085,54 @@
       <c r="BO42" t="inlineStr"/>
       <c r="BP42" t="inlineStr"/>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>The response accurately identifies and discusses various aspects of life without verbal or written language, including changes in communication, societal structures, and challenges, although some points are speculative, they are largely reasonable and well-considered.</t>
+        </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU42" t="inlineStr">
+        <is>
+          <t>The response is well-structured and easy to understand, with clear points and detailed explanations, though some sections could be simplified for better readability.</t>
+        </is>
+      </c>
+      <c r="BV42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW42" t="inlineStr">
+        <is>
+          <t>The response is entirely focused on the prompt, thoroughly exploring various aspects of a world without verbal or written language and its impacts on society, culture, and human interaction.</t>
+        </is>
+      </c>
+      <c r="BX42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY42" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt by detailing various aspects of life without verbal or written language, although it goes beyond the basic requirements by offering extensive elaboration and speculative scenarios.</t>
+        </is>
+      </c>
+      <c r="BZ42" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA42" t="inlineStr">
+        <is>
+          <t>The response demonstrates a high level of insight by exploring various facets of human communication, society, and culture, and considering both the challenges and potential solutions in a world without language.</t>
+        </is>
+      </c>
+      <c r="CB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC42" t="inlineStr">
+        <is>
+          <t>Message A provides a more detailed and extensive exploration of the implications of a world without verbal or written language, offering specific examples and societal impacts, while Message B offers a more concise overview focusing on communication methods and general societal development. They share the core idea but differ in depth and specific points discussed.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10324,6 +12352,54 @@
       <c r="BO43" t="inlineStr"/>
       <c r="BP43" t="inlineStr"/>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS43" t="inlineStr">
+        <is>
+          <t>The response accurately describes the Fediverse, its decentralized nature, key features, popular platforms, and advantages, with only minor omissions that do not detract from its overall correctness.</t>
+        </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU43" t="inlineStr">
+        <is>
+          <t>The response is well-structured, informative, and easy to understand, clearly explaining the concept of the Fediverse, its features, and advantages.</t>
+        </is>
+      </c>
+      <c r="BV43" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW43" t="inlineStr">
+        <is>
+          <t>The response is entirely focused on explaining the Fediverse, covering its definition, how it works, key features, popular platforms, advantages, and future prospects, making it fully relevant to the prompt.</t>
+        </is>
+      </c>
+      <c r="BX43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY43" t="inlineStr">
+        <is>
+          <t>The response comprehensively answers the prompt by explaining what the Fediverse is, detailing its structure, features, and advantages, while also providing examples of popular platforms within it.</t>
+        </is>
+      </c>
+      <c r="BZ43" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA43" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and well-articulated explanation of the Fediverse, highlighting its key features, advantages, and popular platforms, demonstrating both depth and clarity.</t>
+        </is>
+      </c>
+      <c r="CB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC43" t="inlineStr">
+        <is>
+          <t>While Message A provides significantly more detail and examples, it maintains the core substance and meaning of Message B, explaining the Fediverse as a network of interconnected communities using shared protocols and emphasizing user control and privacy.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10546,6 +12622,54 @@
       <c r="BO44" t="inlineStr"/>
       <c r="BP44" t="inlineStr"/>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS44" t="inlineStr">
+        <is>
+          <t>The response describes "Walden" by Henry David Thoreau instead of the book "Walking," which is a completely different work by the same author.</t>
+        </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU44" t="inlineStr">
+        <is>
+          <t>The response is well-structured and provides a detailed explanation of Thoreau's views, but it mistakenly refers to "Walden" instead of "Walking," which slightly decreases its clarity in relation to the prompt.</t>
+        </is>
+      </c>
+      <c r="BV44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW44" t="inlineStr">
+        <is>
+          <t>The response discusses "Walden" by Henry David Thoreau, not "Walking," and is therefore mostly irrelevant to the prompt.</t>
+        </is>
+      </c>
+      <c r="BX44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY44" t="inlineStr">
+        <is>
+          <t>The response completely disregards the prompt by discussing "Walden" instead of "Walking" by Henry David Thoreau.</t>
+        </is>
+      </c>
+      <c r="BZ44" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA44" t="inlineStr">
+        <is>
+          <t>The response provides a detailed and thoughtful exploration of Thoreau's "Walden," highlighting key themes and offering a nuanced understanding of the book's essence, although it mistakenly refers to "Walking" as "Walden."</t>
+        </is>
+      </c>
+      <c r="CB44" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC44" t="inlineStr">
+        <is>
+          <t>Message A discusses "Walden" and its themes of simplicity, self-reliance, and connection to nature, while Message B focuses on "Walking" and its emphasis on the spiritual and liberating act of walking in nature, resulting in a high variance due to the discussion of entirely different works and their respective themes.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10790,6 +12914,54 @@
       <c r="BO45" t="inlineStr"/>
       <c r="BP45" t="inlineStr"/>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS45" t="inlineStr">
+        <is>
+          <t>The response provides a detailed, accurate, and safe workout plan tailored to the individual's needs, including warm-ups, cool-downs, and important considerations for a balanced fitness routine.</t>
+        </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU45" t="inlineStr">
+        <is>
+          <t>The response is highly clear and detailed, with a step-by-step workout plan that is easy to understand and follow, including specific exercises, sets, and repetitions for each week.</t>
+        </is>
+      </c>
+      <c r="BV45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW45" t="inlineStr">
+        <is>
+          <t>The response provides a detailed weekly workout plan that targets different muscle groups and areas of physical fitness, directly addressing the prompt's requirements for a 38-year-old male getting back into exercise.</t>
+        </is>
+      </c>
+      <c r="BX45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY45" t="inlineStr">
+        <is>
+          <t>The response provides a detailed weekly workout plan tailored to a 38-year-old male, focusing on different muscle groups and areas of fitness each week, with practical advice and clear instructions, fully adhering to the prompt.</t>
+        </is>
+      </c>
+      <c r="BZ45" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA45" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and well-structured weekly workout plan, including warm-ups, cool-downs, and detailed exercises for different muscle groups, demonstrating a good understanding of fitness principles.</t>
+        </is>
+      </c>
+      <c r="CB45" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC45" t="inlineStr">
+        <is>
+          <t>While both messages provide a weekly workout plan, Message A includes detailed warm-up and cool-down instructions, safety considerations, and progressive guidelines, whereas Message B focuses solely on the exercises and reps for each week without additional context or safety advice.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11013,6 +13185,54 @@
       <c r="BO46" t="inlineStr"/>
       <c r="BP46" t="inlineStr"/>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS46" t="inlineStr">
+        <is>
+          <t>The response provides a thorough, factual, and accurate explanation of the conflicts of interest big tech companies face regarding customer data, detailing revenue generation, business model focus, lack of transparency, competition dynamics, and regulatory challenges.</t>
+        </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU46" t="inlineStr">
+        <is>
+          <t>The response is well-structured and detailed, providing a clear breakdown of the issues surrounding big tech companies and customer data, although it could be slightly more concise to enhance readability.</t>
+        </is>
+      </c>
+      <c r="BV46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW46" t="inlineStr">
+        <is>
+          <t>The response thoroughly addresses the prompt by detailing the conflict of interest big tech companies face when handling customer data, including revenue generation, business model focus, lack of transparency, competition dynamics, and regulatory challenges, all of which are directly relevant to the prompt.</t>
+        </is>
+      </c>
+      <c r="BX46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY46" t="inlineStr">
+        <is>
+          <t>The response thoroughly addresses the prompt by detailing the conflicts of interest that arise from big tech companies leveraging customer data, although it slightly deviates by also discussing regulatory challenges and ethical practices.</t>
+        </is>
+      </c>
+      <c r="BZ46" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA46" t="inlineStr">
+        <is>
+          <t>The response provides a comprehensive and well-structured analysis of the complex dynamics and conflicts of interest involved in how big tech companies handle customer data, offering a balanced perspective on both the challenges and the potential solutions.</t>
+        </is>
+      </c>
+      <c r="CB46" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC46" t="inlineStr">
+        <is>
+          <t>While Message A expands on the benchmark's points with detailed examples and additional context, it maintains the core argument about the conflict of interest and lack of trust in big tech companies handling user data. However, the length and detail in Message A introduce some divergence from the concise and direct approach of Message B.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11226,6 +13446,54 @@
       <c r="BO47" t="inlineStr"/>
       <c r="BP47" t="inlineStr"/>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS47" t="inlineStr">
+        <is>
+          <t>The response effectively captures the atmosphere and internal struggle of the narrator from 'Fight Club', continuing the story with a plausible exploration of the character's mental state after the events of the novel.</t>
+        </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU47" t="inlineStr">
+        <is>
+          <t>The response is well-structured and effectively conveys the narrator's internal struggle, with vivid descriptions and clear progression of thoughts, although some metaphorical language may require deeper interpretation.</t>
+        </is>
+      </c>
+      <c r="BV47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW47" t="inlineStr">
+        <is>
+          <t>The response directly continues the narrative from the end of 'Fight Club,' exploring The Narrator's struggle with Tyler's lingering influence, which is highly relevant to the prompt.</t>
+        </is>
+      </c>
+      <c r="BX47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY47" t="inlineStr">
+        <is>
+          <t>The response closely adheres to the prompt by picking up the story right after the end of the original novel, maintaining the tone and themes of 'Fight Club,' and effectively exploring the lingering presence of Tyler in The Narrator's mind.</t>
+        </is>
+      </c>
+      <c r="BZ47" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA47" t="inlineStr">
+        <is>
+          <t>The response effectively captures the psychological turmoil and lingering presence of Tyler, offering a nuanced exploration of the narrator's internal struggle and setting the stage for a compelling continuation of the story.</t>
+        </is>
+      </c>
+      <c r="CB47" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC47" t="inlineStr">
+        <is>
+          <t>While both messages convey the lingering presence of Tyler, Message A expands on the Narrator's internal struggle and the void left by Tyler's absence, whereas Message B focuses more on the immediate realization that Tyler is not gone. There is some overlap in theme, but the substance and specific details differ significantly.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11432,6 +13700,54 @@
       <c r="BO48" t="inlineStr"/>
       <c r="BP48" t="inlineStr"/>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS48" t="inlineStr">
+        <is>
+          <t>The response is completely factually correct, accurately explaining the blue color of the sky due to Rayleigh scattering.</t>
+        </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU48" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear, concise, and easy to understand, with a straightforward explanation of why the sky appears blue.</t>
+        </is>
+      </c>
+      <c r="BV48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW48" t="inlineStr">
+        <is>
+          <t>The response directly addresses the color of the sky on a clear day and provides relevant scientific explanation, making it highly relevant to the prompt.</t>
+        </is>
+      </c>
+      <c r="BX48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY48" t="inlineStr">
+        <is>
+          <t>The response correctly identifies the color of the sky on a clear day as blue but provides additional scientific explanation which, while informative, goes beyond the direct simplicity requested by the prompt.</t>
+        </is>
+      </c>
+      <c r="BZ48" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA48" t="inlineStr">
+        <is>
+          <t>The response provides a clear and detailed scientific explanation of why the sky appears blue, demonstrating a good understanding of the underlying phenomenon and offering insight beyond a simple answer.</t>
+        </is>
+      </c>
+      <c r="CB48" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC48" t="inlineStr">
+        <is>
+          <t>While Message A provides additional details on the scientific reason for the sky's color, the core substance and meaning—that the sky is blue on a clear day—remain consistent with Message B.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11635,6 +13951,54 @@
       <c r="BO49" t="inlineStr"/>
       <c r="BP49" t="inlineStr"/>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS49" t="inlineStr">
+        <is>
+          <t>The response correctly states that Christmas is celebrated on December 25th and accurately describes common traditions associated with the holiday.</t>
+        </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU49" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, providing a straightforward answer to the prompt and additional context about the celebration.</t>
+        </is>
+      </c>
+      <c r="BV49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW49" t="inlineStr">
+        <is>
+          <t>The response directly answers the prompt by stating the date of Christmas and adds relevant details about its customs.</t>
+        </is>
+      </c>
+      <c r="BX49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY49" t="inlineStr">
+        <is>
+          <t>The response accurately answers the question about when Christmas is but includes additional information that was not specifically requested.</t>
+        </is>
+      </c>
+      <c r="BZ49" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA49" t="inlineStr">
+        <is>
+          <t>The response provides basic factual information about Christmas but lacks depth or unique perspective, making it unoriginal and not particularly insightful.</t>
+        </is>
+      </c>
+      <c r="CB49" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC49" t="inlineStr">
+        <is>
+          <t>While Message A includes additional context about Christmas traditions, it accurately conveys the date of December 25th, which is the primary information in Message B.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11834,6 +14198,54 @@
       <c r="BO50" t="inlineStr"/>
       <c r="BP50" t="inlineStr"/>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS50" t="inlineStr">
+        <is>
+          <t>The response correctly states that the entity is a language model and does not have a gender, which is entirely accurate.</t>
+        </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU50" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, directly addressing the prompt without any ambiguity.</t>
+        </is>
+      </c>
+      <c r="BV50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW50" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by clarifying the lack of gender in a language model.</t>
+        </is>
+      </c>
+      <c r="BX50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY50" t="inlineStr">
+        <is>
+          <t>The response perfectly adheres to the prompt by clearly stating that the entity does not have a gender and is not male or female.</t>
+        </is>
+      </c>
+      <c r="BZ50" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA50" t="inlineStr">
+        <is>
+          <t>The response effectively highlights the distinction between human qualities and the neutral nature of a language model, providing a clear and insightful understanding of the technology.</t>
+        </is>
+      </c>
+      <c r="CB50" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC50" t="inlineStr">
+        <is>
+          <t>The two responses convey the same core meaning that the entity does not have a gender, but Message A provides additional detail about being a language model.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12033,6 +14445,54 @@
       <c r="BO51" t="inlineStr"/>
       <c r="BP51" t="inlineStr"/>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS51" t="inlineStr">
+        <is>
+          <t>The response correctly identifies Mount Everest as the tallest mountain in the world and provides the accurate height.</t>
+        </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU51" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, providing both the name of the mountain and its exact height in two different units.</t>
+        </is>
+      </c>
+      <c r="BV51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW51" t="inlineStr">
+        <is>
+          <t>The response directly and accurately answers the prompt by identifying Mount Everest as the tallest mountain in the world and providing its height.</t>
+        </is>
+      </c>
+      <c r="BX51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY51" t="inlineStr">
+        <is>
+          <t>The response directly and accurately answers the prompt, providing the name and height of the tallest mountain in the world.</t>
+        </is>
+      </c>
+      <c r="BZ51" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA51" t="inlineStr">
+        <is>
+          <t>The response accurately identifies Mount Everest as the tallest mountain but offers minimal additional insight beyond basic facts.</t>
+        </is>
+      </c>
+      <c r="CB51" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC51" t="inlineStr">
+        <is>
+          <t>While Message A provides additional details about the height of Mount Everest, the core substance and meaning are the same as in Message B, identifying Mount Everest as the tallest mountain in the world.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12232,6 +14692,54 @@
       <c r="BO52" t="inlineStr"/>
       <c r="BP52" t="inlineStr"/>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS52" t="inlineStr">
+        <is>
+          <t>The response correctly identifies the boiling point of water as 100 degrees Celsius (212 degrees Fahrenheit) and accurately explains the condition for boiling.</t>
+        </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU52" t="inlineStr">
+        <is>
+          <t>The response is clear, concise, and easy to understand, providing both the boiling point in Celsius and Fahrenheit along with a brief explanation.</t>
+        </is>
+      </c>
+      <c r="BV52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW52" t="inlineStr">
+        <is>
+          <t>The response directly and accurately addresses the prompt by providing the boiling point of water in both Celsius and Fahrenheit, along with a relevant explanation.</t>
+        </is>
+      </c>
+      <c r="BX52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY52" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by providing the boiling point of water in both Celsius and Fahrenheit, although it includes a minor additional explanation that slightly exceeds the prompt's core request.</t>
+        </is>
+      </c>
+      <c r="BZ52" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA52" t="inlineStr">
+        <is>
+          <t>The response provides accurate and relevant information about the boiling point of water but lacks any additional insight or deeper exploration of the topic.</t>
+        </is>
+      </c>
+      <c r="CB52" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC52" t="inlineStr">
+        <is>
+          <t>While Message A provides additional explanatory details about the boiling point, both messages convey the same fundamental information about the boiling point of water being 100°C or 212°F.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12432,6 +14940,54 @@
       <c r="BO53" t="inlineStr"/>
       <c r="BP53" t="inlineStr"/>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS53" t="inlineStr">
+        <is>
+          <t>The response is completely factually correct as there are indeed 7 days in a week.</t>
+        </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU53" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, providing a direct and accurate answer to the prompt.</t>
+        </is>
+      </c>
+      <c r="BV53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW53" t="inlineStr">
+        <is>
+          <t>The response directly and accurately answers the prompt with no irrelevant information.</t>
+        </is>
+      </c>
+      <c r="BX53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY53" t="inlineStr">
+        <is>
+          <t>The response directly answers the prompt's question but includes additional information that, while relevant, goes slightly beyond what was asked.</t>
+        </is>
+      </c>
+      <c r="BZ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA53" t="inlineStr">
+        <is>
+          <t>The response merely states a widely known fact without providing any additional depth or perspective.</t>
+        </is>
+      </c>
+      <c r="CB53" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC53" t="inlineStr">
+        <is>
+          <t>Message A provides additional context, but both messages convey the same core information that there are 7 days in a week.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12631,6 +15187,54 @@
       <c r="BO54" t="inlineStr"/>
       <c r="BP54" t="inlineStr"/>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS54" t="inlineStr">
+        <is>
+          <t>The response correctly identifies Harper Lee as the author of 'To Kill a Mockingbird' and accurately describes the themes of her work, but it incorrectly states that she was born in New Orleans, Louisiana (she was born in Monroeville, Alabama), which slightly reduces the accuracy score.</t>
+        </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU54" t="inlineStr">
+        <is>
+          <t>The response is clear, concise, and directly answers the prompt with additional relevant context about the author, Harper Lee, without any confusing or misleading information.</t>
+        </is>
+      </c>
+      <c r="BV54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW54" t="inlineStr">
+        <is>
+          <t>The response directly answers the prompt by identifying Harper Lee as the author of 'To Kill a Mockingbird' but also includes additional biographical and thematic information that is less relevant to the specific question asked.</t>
+        </is>
+      </c>
+      <c r="BX54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY54" t="inlineStr">
+        <is>
+          <t>The response correctly identifies Harper Lee as the author of 'To Kill a Mockingbird' but includes additional biographical information that goes beyond the prompt's specific question.</t>
+        </is>
+      </c>
+      <c r="BZ54" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA54" t="inlineStr">
+        <is>
+          <t>The response provides some insight into Harper Lee's background and the themes of her work, but it lacks deeper analysis or original thought that would make it highly insightful.</t>
+        </is>
+      </c>
+      <c r="CB54" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC54" t="inlineStr">
+        <is>
+          <t>While Message A correctly identifies Harper Lee as the author of 'To Kill a Mockingbird', it includes additional biographical information and context that is not present in the concise benchmark response, resulting in some variance.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12831,6 +15435,54 @@
       <c r="BO55" t="inlineStr"/>
       <c r="BP55" t="inlineStr"/>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS55" t="inlineStr">
+        <is>
+          <t>The response correctly identifies the question and accurately provides the sum of 1+2 as 3.</t>
+        </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU55" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, with a straightforward explanation and correct answer.</t>
+        </is>
+      </c>
+      <c r="BV55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW55" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by providing the calculation and the correct answer.</t>
+        </is>
+      </c>
+      <c r="BX55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY55" t="inlineStr">
+        <is>
+          <t>The response directly answers the prompt's question and provides the correct arithmetic solution.</t>
+        </is>
+      </c>
+      <c r="BZ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA55" t="inlineStr">
+        <is>
+          <t>The response merely restates the question and provides the obvious calculation without offering any additional perspective or depth.</t>
+        </is>
+      </c>
+      <c r="CB55" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC55" t="inlineStr">
+        <is>
+          <t>While both messages convey the correct result of the calculation, Message A includes additional explanatory text that is absent in the benchmark Message B.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13034,6 +15686,54 @@
       <c r="BO56" t="inlineStr"/>
       <c r="BP56" t="inlineStr"/>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS56" t="inlineStr">
+        <is>
+          <t>The response correctly identifies Christmas as a holiday celebrated by Christians but incorrectly states the duration, as Christmas is primarily celebrated on December 25th, with related celebrations varying in length and dates.</t>
+        </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU56" t="inlineStr">
+        <is>
+          <t>The response clearly identifies Christmas as a holiday and its general time frame, but the specific dates mentioned are not entirely accurate, causing some confusion.</t>
+        </is>
+      </c>
+      <c r="BV56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW56" t="inlineStr">
+        <is>
+          <t>The response provides relevant information about the date Christmas is celebrated but includes some additional context that is not directly asked for in the prompt.</t>
+        </is>
+      </c>
+      <c r="BX56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY56" t="inlineStr">
+        <is>
+          <t>The response provides relevant information about Christmas, including the date, but slightly deviates by mentioning the duration of the celebration instead of sticking to a single date.</t>
+        </is>
+      </c>
+      <c r="BZ56" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA56" t="inlineStr">
+        <is>
+          <t>The response provides basic factual information about Christmas but lacks depth or original insight into the holiday's significance or cultural nuances.</t>
+        </is>
+      </c>
+      <c r="CB56" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC56" t="inlineStr">
+        <is>
+          <t>Message A provides additional context about Christmas and a date range, while Message B only gives the specific date, leading to a moderate variance in substance and meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13233,6 +15933,54 @@
       <c r="BO57" t="inlineStr"/>
       <c r="BP57" t="inlineStr"/>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS57" t="inlineStr">
+        <is>
+          <t>The response correctly identifies the speaker as an artificial intelligence without gender, which is entirely factually accurate.</t>
+        </is>
+      </c>
+      <c r="BT57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU57" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, explicitly stating that the entity is an artificial intelligence without a gender.</t>
+        </is>
+      </c>
+      <c r="BV57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW57" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt by clearly stating the lack of gender as an artificial intelligence.</t>
+        </is>
+      </c>
+      <c r="BX57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY57" t="inlineStr">
+        <is>
+          <t>The response directly addresses the prompt about gender but goes slightly beyond by mentioning its nature as an artificial intelligence, which is still relevant.</t>
+        </is>
+      </c>
+      <c r="BZ57" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA57" t="inlineStr">
+        <is>
+          <t>The response concisely and clearly explains the nature of artificial intelligence, demonstrating an understanding of the prompt and providing a thoughtful answer.</t>
+        </is>
+      </c>
+      <c r="CB57" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC57" t="inlineStr">
+        <is>
+          <t>Message A provides more detail but the core meaning and substance are very similar to Message B.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13433,6 +16181,54 @@
       <c r="BO58" t="inlineStr"/>
       <c r="BP58" t="inlineStr"/>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS58" t="inlineStr">
+        <is>
+          <t>The response correctly identifies Paris as the capital of France, which is entirely accurate.</t>
+        </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU58" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand. It directly answers the prompt with precise and accurate information.</t>
+        </is>
+      </c>
+      <c r="BV58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW58" t="inlineStr">
+        <is>
+          <t>The response directly and accurately answers the prompt, providing the capital of France.</t>
+        </is>
+      </c>
+      <c r="BX58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY58" t="inlineStr">
+        <is>
+          <t>The response perfectly adheres to the prompt by providing the correct and direct answer.</t>
+        </is>
+      </c>
+      <c r="BZ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA58" t="inlineStr">
+        <is>
+          <t>The response is factually correct but lacks any originality, depth, or additional insight, making it rather basic and uninspired.</t>
+        </is>
+      </c>
+      <c r="CB58" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC58" t="inlineStr">
+        <is>
+          <t>The two messages convey essentially the same information, with Message A providing slightly more detail but no significant difference in substance or meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13632,6 +16428,54 @@
       <c r="BO59" t="inlineStr"/>
       <c r="BP59" t="inlineStr"/>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS59" t="inlineStr">
+        <is>
+          <t>The response correctly states that there are 7 days in a week, which is factually accurate.</t>
+        </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU59" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, explicitly stating the number of days in a week.</t>
+        </is>
+      </c>
+      <c r="BV59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW59" t="inlineStr">
+        <is>
+          <t>The response directly answers the prompt by stating there are 7 days in a week and elaborates correctly on the concept of a week.</t>
+        </is>
+      </c>
+      <c r="BX59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY59" t="inlineStr">
+        <is>
+          <t>The response accurately answers the prompt but includes a minor additional detail that was not asked for.</t>
+        </is>
+      </c>
+      <c r="BZ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA59" t="inlineStr">
+        <is>
+          <t>The response merely states a well-known fact without offering any additional perspective or depth.</t>
+        </is>
+      </c>
+      <c r="CB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC59" t="inlineStr">
+        <is>
+          <t>While Message A includes additional explanatory details, both messages correctly identify the number of days in a week as 7, resulting in low variance.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13831,6 +16675,54 @@
       <c r="BO60" t="inlineStr"/>
       <c r="BP60" t="inlineStr"/>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS60" t="inlineStr">
+        <is>
+          <t>The response correctly identifies Jupiter as the largest planet in our solar system and provides accurate data regarding its mass, diameter, and volume.</t>
+        </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU60" t="inlineStr">
+        <is>
+          <t>The response is perfectly clear and easy to understand, providing precise and relevant information about the largest planet in our solar system.</t>
+        </is>
+      </c>
+      <c r="BV60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW60" t="inlineStr">
+        <is>
+          <t>The response directly and accurately answers the prompt about the largest planet in our solar system, providing additional relevant details about Jupiter.</t>
+        </is>
+      </c>
+      <c r="BX60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY60" t="inlineStr">
+        <is>
+          <t>The response correctly identifies Jupiter as the largest planet but includes additional details that go beyond the prompt's simple question.</t>
+        </is>
+      </c>
+      <c r="BZ60" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA60" t="inlineStr">
+        <is>
+          <t>While the response accurately identifies Jupiter as the largest planet and provides relevant data, it lacks deeper analysis or unique perspective that would make it highly insightful.</t>
+        </is>
+      </c>
+      <c r="CB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC60" t="inlineStr">
+        <is>
+          <t>While Message A provides additional details about Jupiter, it accurately identifies Jupiter as the largest planet in our solar system, aligning with the substance and meaning of Message B.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
